--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4822407-F997-494A-B82F-E14DD02FB686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F527DB5B-E8BB-481B-A319-3C69408E703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="3150" windowWidth="27540" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPass" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +83,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +102,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -106,24 +119,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="보통" xfId="1" builtinId="28"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1052,24 +1072,624 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>15000000</v>
       </c>
-      <c r="C31" s="1">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E31" s="1">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1500000</v>
+      <c r="C31" s="2">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>15500000</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>16000000</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>16500000</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>17000000</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>17500000</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>18000000</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>18500000</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>19000000</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>19500000</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E41" s="1">
+        <v>5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>20500000</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>21000000</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>21500000</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>22000000</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>22500000</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>23000000</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>23500000</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>24000000</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>24500000</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>25000000</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E51" s="1">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>25500000</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>26000000</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>26500000</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>27000000</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>27500000</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>28000000</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>28500000</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>29000000</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>29500000</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>30000000</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E61" s="1">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F527DB5B-E8BB-481B-A319-3C69408E703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DFA54F-2EAF-4754-87BE-6982CBB11137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1097,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>15500000</v>
+        <v>15250000</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>16000000</v>
+        <v>15500000</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>16500000</v>
+        <v>15750000</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1157,7 +1157,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>17000000</v>
+        <v>16000000</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>17500000</v>
+        <v>16250000</v>
       </c>
       <c r="C36" s="1">
         <v>5</v>
@@ -1197,7 +1197,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>18000000</v>
+        <v>16500000</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1217,7 +1217,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>18500000</v>
+        <v>16750000</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>19000000</v>
+        <v>17000000</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>19500000</v>
+        <v>17250000</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1277,7 +1277,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>20000000</v>
+        <v>17500000</v>
       </c>
       <c r="C41" s="1">
         <v>5</v>
@@ -1297,7 +1297,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>20500000</v>
+        <v>17750000</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1317,7 +1317,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>21000000</v>
+        <v>18000000</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1337,7 +1337,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>21500000</v>
+        <v>18250000</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1357,7 +1357,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>22000000</v>
+        <v>18500000</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -1377,7 +1377,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>22500000</v>
+        <v>18750000</v>
       </c>
       <c r="C46" s="1">
         <v>5</v>
@@ -1397,7 +1397,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>23000000</v>
+        <v>19000000</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -1417,7 +1417,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>23500000</v>
+        <v>19250000</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -1437,7 +1437,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>24000000</v>
+        <v>19500000</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -1457,7 +1457,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>24500000</v>
+        <v>19750000</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -1477,7 +1477,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>25000000</v>
+        <v>20000000</v>
       </c>
       <c r="C51" s="1">
         <v>5</v>
@@ -1497,7 +1497,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>25500000</v>
+        <v>20250000</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -1517,7 +1517,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>26000000</v>
+        <v>20500000</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>26500000</v>
+        <v>20750000</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -1557,7 +1557,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>27000000</v>
+        <v>21000000</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>27500000</v>
+        <v>21250000</v>
       </c>
       <c r="C56" s="1">
         <v>5</v>
@@ -1597,7 +1597,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>28000000</v>
+        <v>21500000</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -1617,7 +1617,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>28500000</v>
+        <v>21750000</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>29000000</v>
+        <v>22000000</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -1657,7 +1657,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>29500000</v>
+        <v>22250000</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -1677,7 +1677,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>30000000</v>
+        <v>22500000</v>
       </c>
       <c r="C61" s="1">
         <v>5</v>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DFA54F-2EAF-4754-87BE-6982CBB11137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BDC6CF-1B5F-42DB-9599-E8A4E09F7B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -523,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -573,22 +573,22 @@
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>2500000</v>
       </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
         <v>1500000</v>
       </c>
     </row>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -663,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -673,22 +673,22 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>5000000</v>
       </c>
-      <c r="C11" s="1">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1209</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="C11" s="2">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1214</v>
+      </c>
+      <c r="F11" s="2">
         <v>1</v>
       </c>
     </row>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -773,22 +773,22 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>7500000</v>
       </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
         <v>1500000</v>
       </c>
     </row>
@@ -803,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -873,22 +873,22 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>10000000</v>
       </c>
-      <c r="C21" s="1">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2">
         <v>1500000</v>
       </c>
     </row>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -973,22 +973,22 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>12500000</v>
       </c>
-      <c r="C26" s="1">
-        <v>5</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="E26" s="1">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="C26" s="2">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>5</v>
+      </c>
+      <c r="F26" s="2">
         <v>1500000</v>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="2">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="E31" s="2">
         <v>5</v>
@@ -1109,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1169,27 +1169,27 @@
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>16250000</v>
       </c>
-      <c r="C36" s="1">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="E36" s="1">
-        <v>5</v>
-      </c>
-      <c r="F36" s="1">
-        <v>2000000</v>
+      <c r="C36" s="2">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1500000</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1269,27 +1269,27 @@
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>17500000</v>
       </c>
-      <c r="C41" s="1">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="E41" s="1">
-        <v>5</v>
-      </c>
-      <c r="F41" s="1">
-        <v>2000000</v>
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1500000</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1329,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1369,27 +1369,27 @@
         <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>18750000</v>
       </c>
-      <c r="C46" s="1">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="E46" s="1">
-        <v>5</v>
-      </c>
-      <c r="F46" s="1">
-        <v>2000000</v>
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>5</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1500000</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1449,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1469,27 +1469,27 @@
         <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>20000000</v>
       </c>
-      <c r="C51" s="1">
-        <v>5</v>
-      </c>
-      <c r="D51" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="E51" s="1">
-        <v>5</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2000000</v>
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1500000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1569,27 +1569,27 @@
         <v>1</v>
       </c>
       <c r="F55" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>21250000</v>
       </c>
-      <c r="C56" s="1">
-        <v>5</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="E56" s="1">
-        <v>5</v>
-      </c>
-      <c r="F56" s="1">
-        <v>2000000</v>
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E56" s="2">
+        <v>5</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1500000</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1629,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1669,27 +1669,627 @@
         <v>1</v>
       </c>
       <c r="F60" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>22500000</v>
       </c>
-      <c r="C61" s="1">
-        <v>5</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1500000</v>
-      </c>
-      <c r="E61" s="1">
-        <v>5</v>
-      </c>
-      <c r="F61" s="1">
-        <v>2000000</v>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E61" s="2">
+        <v>5</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>22750000</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>23000000</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>23250000</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>23500000</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>23750000</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E66" s="2">
+        <v>5</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>24000000</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>24250000</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>24500000</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>24750000</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>25000000</v>
+      </c>
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E71" s="2">
+        <v>5</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>25250000</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>25500000</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>25750000</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>26000000</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>26250000</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E76" s="2">
+        <v>5</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>26500000</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>26750000</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>27000000</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>27250000</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <v>27500000</v>
+      </c>
+      <c r="C81" s="2">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E81" s="2">
+        <v>5</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>27750000</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>28000000</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>28250000</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>28500000</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <v>28750000</v>
+      </c>
+      <c r="C86" s="2">
+        <v>5</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E86" s="2">
+        <v>5</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <v>29000000</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>29250000</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <v>29500000</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <v>29750000</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="C91" s="2">
+        <v>5</v>
+      </c>
+      <c r="D91" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E91" s="2">
+        <v>5</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1500000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BDC6CF-1B5F-42DB-9599-E8A4E09F7B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8F7E0D-A5B4-4EA6-A811-33252F65D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -540,16 +540,16 @@
         <v>1500000</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -640,16 +640,16 @@
         <v>4000000</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -740,16 +740,16 @@
         <v>6500000</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -840,16 +840,16 @@
         <v>9000000</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F19" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -940,16 +940,16 @@
         <v>11500000</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1040,16 +1040,16 @@
         <v>14000000</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1140,16 +1140,16 @@
         <v>15750000</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F34" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1240,16 +1240,16 @@
         <v>17000000</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D39" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F39" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1340,16 +1340,16 @@
         <v>18250000</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D44" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F44" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1440,16 +1440,16 @@
         <v>19500000</v>
       </c>
       <c r="C49" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D49" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F49" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1540,16 +1540,16 @@
         <v>20750000</v>
       </c>
       <c r="C54" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D54" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E54" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F54" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1640,16 +1640,16 @@
         <v>22000000</v>
       </c>
       <c r="C59" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D59" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E59" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F59" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1740,16 +1740,16 @@
         <v>23250000</v>
       </c>
       <c r="C64" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D64" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E64" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F64" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1840,16 +1840,16 @@
         <v>24500000</v>
       </c>
       <c r="C69" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D69" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E69" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F69" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1940,16 +1940,16 @@
         <v>25750000</v>
       </c>
       <c r="C74" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D74" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E74" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F74" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2040,16 +2040,16 @@
         <v>27000000</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D79" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E79" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F79" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2140,16 +2140,16 @@
         <v>28250000</v>
       </c>
       <c r="C84" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D84" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E84" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F84" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2240,16 +2240,16 @@
         <v>29500000</v>
       </c>
       <c r="C89" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D89" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F89" s="1">
-        <v>1500000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8F7E0D-A5B4-4EA6-A811-33252F65D9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A31659-C529-4870-9C7F-5B7B8A412D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6390" yWindow="1605" windowWidth="23010" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPass" sheetId="1" r:id="rId1"/>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1086,10 +1086,10 @@
         <v>1500000</v>
       </c>
       <c r="E31" s="2">
-        <v>5</v>
+        <v>1216</v>
       </c>
       <c r="F31" s="2">
-        <v>1500000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A31659-C529-4870-9C7F-5B7B8A412D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6949C80C-552F-4818-B147-2B759608763D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1605" windowWidth="23010" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPass" sheetId="1" r:id="rId1"/>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H291" sqref="H291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,13 +503,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -523,13 +523,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -563,13 +563,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -603,13 +603,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -623,13 +623,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -663,13 +663,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -686,7 +686,7 @@
         <v>1500000</v>
       </c>
       <c r="E11" s="2">
-        <v>1214</v>
+        <v>1223</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -703,13 +703,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -723,13 +723,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -763,13 +763,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -803,13 +803,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -823,13 +823,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -863,13 +863,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -903,13 +903,13 @@
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -923,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -963,13 +963,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1003,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1023,13 +1023,13 @@
         <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
       <c r="F28" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1063,13 +1063,13 @@
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1086,10 +1086,10 @@
         <v>1500000</v>
       </c>
       <c r="E31" s="2">
-        <v>1216</v>
+        <v>5</v>
       </c>
       <c r="F31" s="2">
-        <v>1</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1103,13 +1103,13 @@
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1123,13 +1123,13 @@
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1163,13 +1163,13 @@
         <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
       <c r="F35" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1203,13 +1203,13 @@
         <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="F37" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1223,13 +1223,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1263,13 +1263,13 @@
         <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1303,13 +1303,13 @@
         <v>1</v>
       </c>
       <c r="D42" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1323,13 +1323,13 @@
         <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1363,13 +1363,13 @@
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1403,13 +1403,13 @@
         <v>1</v>
       </c>
       <c r="D47" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E47" s="1">
         <v>1</v>
       </c>
       <c r="F47" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1423,13 +1423,13 @@
         <v>1</v>
       </c>
       <c r="D48" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
       </c>
       <c r="F48" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1463,13 +1463,13 @@
         <v>1</v>
       </c>
       <c r="D50" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E50" s="1">
         <v>1</v>
       </c>
       <c r="F50" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1503,13 +1503,13 @@
         <v>1</v>
       </c>
       <c r="D52" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E52" s="1">
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1523,13 +1523,13 @@
         <v>1</v>
       </c>
       <c r="D53" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
       </c>
       <c r="F53" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1563,13 +1563,13 @@
         <v>1</v>
       </c>
       <c r="D55" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
       </c>
       <c r="F55" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1603,13 +1603,13 @@
         <v>1</v>
       </c>
       <c r="D57" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E57" s="1">
         <v>1</v>
       </c>
       <c r="F57" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1623,13 +1623,13 @@
         <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1663,13 +1663,13 @@
         <v>1</v>
       </c>
       <c r="D60" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E60" s="1">
         <v>1</v>
       </c>
       <c r="F60" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1703,13 +1703,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E62" s="1">
         <v>1</v>
       </c>
       <c r="F62" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1723,13 +1723,13 @@
         <v>1</v>
       </c>
       <c r="D63" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E63" s="1">
         <v>1</v>
       </c>
       <c r="F63" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1763,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="D65" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
       </c>
       <c r="F65" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1803,13 +1803,13 @@
         <v>1</v>
       </c>
       <c r="D67" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
       </c>
       <c r="F67" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1823,13 +1823,13 @@
         <v>1</v>
       </c>
       <c r="D68" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1863,13 +1863,13 @@
         <v>1</v>
       </c>
       <c r="D70" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E70" s="1">
         <v>1</v>
       </c>
       <c r="F70" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1903,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="D72" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E72" s="1">
         <v>1</v>
       </c>
       <c r="F72" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1923,13 +1923,13 @@
         <v>1</v>
       </c>
       <c r="D73" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E73" s="1">
         <v>1</v>
       </c>
       <c r="F73" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1963,13 +1963,13 @@
         <v>1</v>
       </c>
       <c r="D75" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
       </c>
       <c r="F75" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2003,13 +2003,13 @@
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
       </c>
       <c r="F77" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2023,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="D78" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E78" s="1">
         <v>1</v>
       </c>
       <c r="F78" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2063,13 +2063,13 @@
         <v>1</v>
       </c>
       <c r="D80" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E80" s="1">
         <v>1</v>
       </c>
       <c r="F80" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2103,13 +2103,13 @@
         <v>1</v>
       </c>
       <c r="D82" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E82" s="1">
         <v>1</v>
       </c>
       <c r="F82" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2123,13 +2123,13 @@
         <v>1</v>
       </c>
       <c r="D83" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E83" s="1">
         <v>1</v>
       </c>
       <c r="F83" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2163,13 +2163,13 @@
         <v>1</v>
       </c>
       <c r="D85" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E85" s="1">
         <v>1</v>
       </c>
       <c r="F85" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2203,13 +2203,13 @@
         <v>1</v>
       </c>
       <c r="D87" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E87" s="1">
         <v>1</v>
       </c>
       <c r="F87" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2223,13 +2223,13 @@
         <v>1</v>
       </c>
       <c r="D88" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
       </c>
       <c r="F88" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2263,13 +2263,13 @@
         <v>1</v>
       </c>
       <c r="D90" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
       <c r="F90" s="1">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2289,6 +2289,4006 @@
         <v>5</v>
       </c>
       <c r="F91" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>30250000</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
+        <v>30500000</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>30750000</v>
+      </c>
+      <c r="C94" s="1">
+        <v>20</v>
+      </c>
+      <c r="D94" s="1">
+        <v>200</v>
+      </c>
+      <c r="E94" s="1">
+        <v>20</v>
+      </c>
+      <c r="F94" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <v>31000000</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
+        <v>31250000</v>
+      </c>
+      <c r="C96" s="2">
+        <v>5</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E96" s="2">
+        <v>5</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>31500000</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1">
+        <v>31750000</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>32000000</v>
+      </c>
+      <c r="C99" s="1">
+        <v>20</v>
+      </c>
+      <c r="D99" s="1">
+        <v>200</v>
+      </c>
+      <c r="E99" s="1">
+        <v>20</v>
+      </c>
+      <c r="F99" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
+        <v>32250000</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <v>32500000</v>
+      </c>
+      <c r="C101" s="2">
+        <v>5</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E101" s="2">
+        <v>5</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>32750000</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>33000000</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E103" s="1">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1">
+        <v>33250000</v>
+      </c>
+      <c r="C104" s="1">
+        <v>20</v>
+      </c>
+      <c r="D104" s="1">
+        <v>200</v>
+      </c>
+      <c r="E104" s="1">
+        <v>20</v>
+      </c>
+      <c r="F104" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1">
+        <v>33500000</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1">
+        <v>33750000</v>
+      </c>
+      <c r="C106" s="2">
+        <v>5</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E106" s="2">
+        <v>5</v>
+      </c>
+      <c r="F106" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <v>34000000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1">
+        <v>34250000</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E108" s="1">
+        <v>1</v>
+      </c>
+      <c r="F108" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1">
+        <v>34500000</v>
+      </c>
+      <c r="C109" s="1">
+        <v>20</v>
+      </c>
+      <c r="D109" s="1">
+        <v>200</v>
+      </c>
+      <c r="E109" s="1">
+        <v>20</v>
+      </c>
+      <c r="F109" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1">
+        <v>34750000</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E110" s="1">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <v>35000000</v>
+      </c>
+      <c r="C111" s="2">
+        <v>5</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E111" s="2">
+        <v>5</v>
+      </c>
+      <c r="F111" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1">
+        <v>35250000</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1">
+        <v>35500000</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1">
+        <v>35750000</v>
+      </c>
+      <c r="C114" s="1">
+        <v>20</v>
+      </c>
+      <c r="D114" s="1">
+        <v>200</v>
+      </c>
+      <c r="E114" s="1">
+        <v>20</v>
+      </c>
+      <c r="F114" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <v>36000000</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1">
+        <v>36250000</v>
+      </c>
+      <c r="C116" s="2">
+        <v>5</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E116" s="2">
+        <v>5</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1">
+        <v>36500000</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F117" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1">
+        <v>36750000</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <v>37000000</v>
+      </c>
+      <c r="C119" s="1">
+        <v>20</v>
+      </c>
+      <c r="D119" s="1">
+        <v>200</v>
+      </c>
+      <c r="E119" s="1">
+        <v>20</v>
+      </c>
+      <c r="F119" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1">
+        <v>37250000</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1">
+        <v>37500000</v>
+      </c>
+      <c r="C121" s="2">
+        <v>5</v>
+      </c>
+      <c r="D121" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E121" s="2">
+        <v>5</v>
+      </c>
+      <c r="F121" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1">
+        <v>37750000</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1">
+        <v>38000000</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1">
+        <v>38250000</v>
+      </c>
+      <c r="C124" s="1">
+        <v>20</v>
+      </c>
+      <c r="D124" s="1">
+        <v>200</v>
+      </c>
+      <c r="E124" s="1">
+        <v>20</v>
+      </c>
+      <c r="F124" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <v>38500000</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1</v>
+      </c>
+      <c r="F125" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1">
+        <v>38750000</v>
+      </c>
+      <c r="C126" s="2">
+        <v>5</v>
+      </c>
+      <c r="D126" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E126" s="2">
+        <v>5</v>
+      </c>
+      <c r="F126" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1">
+        <v>39000000</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1">
+        <v>39250000</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <v>39500000</v>
+      </c>
+      <c r="C129" s="1">
+        <v>20</v>
+      </c>
+      <c r="D129" s="1">
+        <v>200</v>
+      </c>
+      <c r="E129" s="1">
+        <v>20</v>
+      </c>
+      <c r="F129" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1">
+        <v>39750000</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1">
+        <v>40000000</v>
+      </c>
+      <c r="C131" s="2">
+        <v>5</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E131" s="2">
+        <v>5</v>
+      </c>
+      <c r="F131" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1">
+        <v>40250000</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1">
+        <v>40500000</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <v>40750000</v>
+      </c>
+      <c r="C134" s="1">
+        <v>20</v>
+      </c>
+      <c r="D134" s="1">
+        <v>200</v>
+      </c>
+      <c r="E134" s="1">
+        <v>20</v>
+      </c>
+      <c r="F134" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1">
+        <v>41000000</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E135" s="1">
+        <v>1</v>
+      </c>
+      <c r="F135" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1">
+        <v>41250000</v>
+      </c>
+      <c r="C136" s="2">
+        <v>5</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E136" s="2">
+        <v>5</v>
+      </c>
+      <c r="F136" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1">
+        <v>41500000</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <v>41750000</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1</v>
+      </c>
+      <c r="F138" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1">
+        <v>42000000</v>
+      </c>
+      <c r="C139" s="1">
+        <v>20</v>
+      </c>
+      <c r="D139" s="1">
+        <v>200</v>
+      </c>
+      <c r="E139" s="1">
+        <v>20</v>
+      </c>
+      <c r="F139" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1">
+        <v>42250000</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E140" s="1">
+        <v>1</v>
+      </c>
+      <c r="F140" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1">
+        <v>42500000</v>
+      </c>
+      <c r="C141" s="2">
+        <v>5</v>
+      </c>
+      <c r="D141" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E141" s="2">
+        <v>5</v>
+      </c>
+      <c r="F141" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1">
+        <v>42750000</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <v>43000000</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1">
+        <v>43250000</v>
+      </c>
+      <c r="C144" s="1">
+        <v>20</v>
+      </c>
+      <c r="D144" s="1">
+        <v>200</v>
+      </c>
+      <c r="E144" s="1">
+        <v>20</v>
+      </c>
+      <c r="F144" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1">
+        <v>43500000</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+      <c r="F145" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1">
+        <v>43750000</v>
+      </c>
+      <c r="C146" s="2">
+        <v>5</v>
+      </c>
+      <c r="D146" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E146" s="2">
+        <v>5</v>
+      </c>
+      <c r="F146" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <v>44000000</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1">
+        <v>44250000</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+      <c r="F148" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1">
+        <v>44500000</v>
+      </c>
+      <c r="C149" s="1">
+        <v>20</v>
+      </c>
+      <c r="D149" s="1">
+        <v>200</v>
+      </c>
+      <c r="E149" s="1">
+        <v>20</v>
+      </c>
+      <c r="F149" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1">
+        <v>44750000</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E150" s="1">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45000000</v>
+      </c>
+      <c r="C151" s="2">
+        <v>5</v>
+      </c>
+      <c r="D151" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E151" s="2">
+        <v>5</v>
+      </c>
+      <c r="F151" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>45250000</v>
+      </c>
+      <c r="C152" s="1">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E152" s="1">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45500000</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45750000</v>
+      </c>
+      <c r="C154" s="1">
+        <v>20</v>
+      </c>
+      <c r="D154" s="1">
+        <v>200</v>
+      </c>
+      <c r="E154" s="1">
+        <v>20</v>
+      </c>
+      <c r="F154" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1">
+        <v>46000000</v>
+      </c>
+      <c r="C155" s="1">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
+      <c r="F155" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>46250000</v>
+      </c>
+      <c r="C156" s="2">
+        <v>5</v>
+      </c>
+      <c r="D156" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E156" s="2">
+        <v>5</v>
+      </c>
+      <c r="F156" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1">
+        <v>46500000</v>
+      </c>
+      <c r="C157" s="1">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1</v>
+      </c>
+      <c r="F157" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1">
+        <v>46750000</v>
+      </c>
+      <c r="C158" s="1">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E158" s="1">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1">
+        <v>47000000</v>
+      </c>
+      <c r="C159" s="1">
+        <v>20</v>
+      </c>
+      <c r="D159" s="1">
+        <v>200</v>
+      </c>
+      <c r="E159" s="1">
+        <v>20</v>
+      </c>
+      <c r="F159" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1">
+        <v>47250000</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>47500000</v>
+      </c>
+      <c r="C161" s="2">
+        <v>5</v>
+      </c>
+      <c r="D161" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E161" s="2">
+        <v>5</v>
+      </c>
+      <c r="F161" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1">
+        <v>47750000</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+      <c r="F162" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1">
+        <v>48000000</v>
+      </c>
+      <c r="C163" s="1">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E163" s="1">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1">
+        <v>48250000</v>
+      </c>
+      <c r="C164" s="1">
+        <v>20</v>
+      </c>
+      <c r="D164" s="1">
+        <v>200</v>
+      </c>
+      <c r="E164" s="1">
+        <v>20</v>
+      </c>
+      <c r="F164" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>48500000</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E165" s="1">
+        <v>1</v>
+      </c>
+      <c r="F165" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1">
+        <v>48750000</v>
+      </c>
+      <c r="C166" s="2">
+        <v>5</v>
+      </c>
+      <c r="D166" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E166" s="2">
+        <v>5</v>
+      </c>
+      <c r="F166" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1">
+        <v>49000000</v>
+      </c>
+      <c r="C167" s="1">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1</v>
+      </c>
+      <c r="F167" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1">
+        <v>49250000</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E168" s="1">
+        <v>1</v>
+      </c>
+      <c r="F168" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1">
+        <v>49500000</v>
+      </c>
+      <c r="C169" s="1">
+        <v>20</v>
+      </c>
+      <c r="D169" s="1">
+        <v>200</v>
+      </c>
+      <c r="E169" s="1">
+        <v>20</v>
+      </c>
+      <c r="F169" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <v>49750000</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E170" s="1">
+        <v>1</v>
+      </c>
+      <c r="F170" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="C171" s="2">
+        <v>5</v>
+      </c>
+      <c r="D171" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E171" s="2">
+        <v>5</v>
+      </c>
+      <c r="F171" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1">
+        <v>50250000</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E172" s="1">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1">
+        <v>50500000</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E173" s="1">
+        <v>1</v>
+      </c>
+      <c r="F173" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <v>50750000</v>
+      </c>
+      <c r="C174" s="1">
+        <v>20</v>
+      </c>
+      <c r="D174" s="1">
+        <v>200</v>
+      </c>
+      <c r="E174" s="1">
+        <v>20</v>
+      </c>
+      <c r="F174" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1">
+        <v>51000000</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1</v>
+      </c>
+      <c r="D175" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E175" s="1">
+        <v>1</v>
+      </c>
+      <c r="F175" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1">
+        <v>51250000</v>
+      </c>
+      <c r="C176" s="2">
+        <v>5</v>
+      </c>
+      <c r="D176" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E176" s="2">
+        <v>5</v>
+      </c>
+      <c r="F176" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1">
+        <v>51500000</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1</v>
+      </c>
+      <c r="D177" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
+      <c r="F177" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1">
+        <v>51750000</v>
+      </c>
+      <c r="C178" s="1">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2">
+        <v>52000000</v>
+      </c>
+      <c r="C179" s="1">
+        <v>20</v>
+      </c>
+      <c r="D179" s="1">
+        <v>200</v>
+      </c>
+      <c r="E179" s="1">
+        <v>20</v>
+      </c>
+      <c r="F179" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1">
+        <v>52250000</v>
+      </c>
+      <c r="C180" s="1">
+        <v>1</v>
+      </c>
+      <c r="D180" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E180" s="1">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1">
+        <v>52500000</v>
+      </c>
+      <c r="C181" s="2">
+        <v>5</v>
+      </c>
+      <c r="D181" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E181" s="2">
+        <v>5</v>
+      </c>
+      <c r="F181" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1">
+        <v>52750000</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
+      <c r="F182" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <v>53000000</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E183" s="1">
+        <v>1</v>
+      </c>
+      <c r="F183" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1">
+        <v>53250000</v>
+      </c>
+      <c r="C184" s="1">
+        <v>20</v>
+      </c>
+      <c r="D184" s="1">
+        <v>200</v>
+      </c>
+      <c r="E184" s="1">
+        <v>20</v>
+      </c>
+      <c r="F184" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1">
+        <v>53500000</v>
+      </c>
+      <c r="C185" s="1">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1</v>
+      </c>
+      <c r="F185" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1">
+        <v>53750000</v>
+      </c>
+      <c r="C186" s="2">
+        <v>5</v>
+      </c>
+      <c r="D186" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E186" s="2">
+        <v>5</v>
+      </c>
+      <c r="F186" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1">
+        <v>54000000</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E187" s="1">
+        <v>1</v>
+      </c>
+      <c r="F187" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2">
+        <v>54250000</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+      <c r="F188" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1">
+        <v>54500000</v>
+      </c>
+      <c r="C189" s="1">
+        <v>20</v>
+      </c>
+      <c r="D189" s="1">
+        <v>200</v>
+      </c>
+      <c r="E189" s="1">
+        <v>20</v>
+      </c>
+      <c r="F189" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1">
+        <v>54750000</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E190" s="1">
+        <v>1</v>
+      </c>
+      <c r="F190" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1">
+        <v>55000000</v>
+      </c>
+      <c r="C191" s="2">
+        <v>5</v>
+      </c>
+      <c r="D191" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E191" s="2">
+        <v>5</v>
+      </c>
+      <c r="F191" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2">
+        <v>55250000</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1</v>
+      </c>
+      <c r="F192" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1">
+        <v>55500000</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E193" s="1">
+        <v>1</v>
+      </c>
+      <c r="F193" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1">
+        <v>55750000</v>
+      </c>
+      <c r="C194" s="1">
+        <v>20</v>
+      </c>
+      <c r="D194" s="1">
+        <v>200</v>
+      </c>
+      <c r="E194" s="1">
+        <v>20</v>
+      </c>
+      <c r="F194" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1">
+        <v>56000000</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+      <c r="D195" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E195" s="1">
+        <v>1</v>
+      </c>
+      <c r="F195" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1">
+        <v>56250000</v>
+      </c>
+      <c r="C196" s="2">
+        <v>5</v>
+      </c>
+      <c r="D196" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E196" s="2">
+        <v>5</v>
+      </c>
+      <c r="F196" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2">
+        <v>56500000</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1</v>
+      </c>
+      <c r="F197" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1">
+        <v>56750000</v>
+      </c>
+      <c r="C198" s="1">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1</v>
+      </c>
+      <c r="F198" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1">
+        <v>57000000</v>
+      </c>
+      <c r="C199" s="1">
+        <v>20</v>
+      </c>
+      <c r="D199" s="1">
+        <v>200</v>
+      </c>
+      <c r="E199" s="1">
+        <v>20</v>
+      </c>
+      <c r="F199" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1">
+        <v>57250000</v>
+      </c>
+      <c r="C200" s="1">
+        <v>1</v>
+      </c>
+      <c r="D200" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1</v>
+      </c>
+      <c r="F200" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2">
+        <v>57500000</v>
+      </c>
+      <c r="C201" s="2">
+        <v>5</v>
+      </c>
+      <c r="D201" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E201" s="2">
+        <v>5</v>
+      </c>
+      <c r="F201" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1">
+        <v>57750000</v>
+      </c>
+      <c r="C202" s="1">
+        <v>1</v>
+      </c>
+      <c r="D202" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
+      <c r="F202" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1">
+        <v>58000000</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E203" s="1">
+        <v>1</v>
+      </c>
+      <c r="F203" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1">
+        <v>58250000</v>
+      </c>
+      <c r="C204" s="1">
+        <v>20</v>
+      </c>
+      <c r="D204" s="1">
+        <v>200</v>
+      </c>
+      <c r="E204" s="1">
+        <v>20</v>
+      </c>
+      <c r="F204" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1">
+        <v>58500000</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E205" s="1">
+        <v>1</v>
+      </c>
+      <c r="F205" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2">
+        <v>58750000</v>
+      </c>
+      <c r="C206" s="2">
+        <v>5</v>
+      </c>
+      <c r="D206" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E206" s="2">
+        <v>5</v>
+      </c>
+      <c r="F206" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1">
+        <v>59000000</v>
+      </c>
+      <c r="C207" s="1">
+        <v>1</v>
+      </c>
+      <c r="D207" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1</v>
+      </c>
+      <c r="F207" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1">
+        <v>59250000</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1</v>
+      </c>
+      <c r="D208" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1</v>
+      </c>
+      <c r="F208" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1">
+        <v>59500000</v>
+      </c>
+      <c r="C209" s="1">
+        <v>20</v>
+      </c>
+      <c r="D209" s="1">
+        <v>200</v>
+      </c>
+      <c r="E209" s="1">
+        <v>20</v>
+      </c>
+      <c r="F209" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2">
+        <v>59750000</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1</v>
+      </c>
+      <c r="D210" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E210" s="1">
+        <v>1</v>
+      </c>
+      <c r="F210" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="C211" s="2">
+        <v>5</v>
+      </c>
+      <c r="D211" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E211" s="2">
+        <v>5</v>
+      </c>
+      <c r="F211" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1">
+        <v>60250000</v>
+      </c>
+      <c r="C212" s="1">
+        <v>1</v>
+      </c>
+      <c r="D212" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1</v>
+      </c>
+      <c r="F212" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1">
+        <v>60500000</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1</v>
+      </c>
+      <c r="D213" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E213" s="1">
+        <v>1</v>
+      </c>
+      <c r="F213" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2">
+        <v>60750000</v>
+      </c>
+      <c r="C214" s="1">
+        <v>20</v>
+      </c>
+      <c r="D214" s="1">
+        <v>200</v>
+      </c>
+      <c r="E214" s="1">
+        <v>20</v>
+      </c>
+      <c r="F214" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1">
+        <v>61000000</v>
+      </c>
+      <c r="C215" s="1">
+        <v>1</v>
+      </c>
+      <c r="D215" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E215" s="1">
+        <v>1</v>
+      </c>
+      <c r="F215" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1">
+        <v>61250000</v>
+      </c>
+      <c r="C216" s="2">
+        <v>5</v>
+      </c>
+      <c r="D216" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E216" s="2">
+        <v>5</v>
+      </c>
+      <c r="F216" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1">
+        <v>61500000</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+      <c r="D217" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1</v>
+      </c>
+      <c r="F217" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1">
+        <v>61750000</v>
+      </c>
+      <c r="C218" s="1">
+        <v>1</v>
+      </c>
+      <c r="D218" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
+      <c r="F218" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2">
+        <v>62000000</v>
+      </c>
+      <c r="C219" s="1">
+        <v>20</v>
+      </c>
+      <c r="D219" s="1">
+        <v>200</v>
+      </c>
+      <c r="E219" s="1">
+        <v>20</v>
+      </c>
+      <c r="F219" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1">
+        <v>62250000</v>
+      </c>
+      <c r="C220" s="1">
+        <v>1</v>
+      </c>
+      <c r="D220" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E220" s="1">
+        <v>1</v>
+      </c>
+      <c r="F220" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1">
+        <v>62500000</v>
+      </c>
+      <c r="C221" s="2">
+        <v>5</v>
+      </c>
+      <c r="D221" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E221" s="2">
+        <v>5</v>
+      </c>
+      <c r="F221" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1">
+        <v>62750000</v>
+      </c>
+      <c r="C222" s="1">
+        <v>1</v>
+      </c>
+      <c r="D222" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E222" s="1">
+        <v>1</v>
+      </c>
+      <c r="F222" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2">
+        <v>63000000</v>
+      </c>
+      <c r="C223" s="1">
+        <v>1</v>
+      </c>
+      <c r="D223" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E223" s="1">
+        <v>1</v>
+      </c>
+      <c r="F223" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1">
+        <v>63250000</v>
+      </c>
+      <c r="C224" s="1">
+        <v>20</v>
+      </c>
+      <c r="D224" s="1">
+        <v>200</v>
+      </c>
+      <c r="E224" s="1">
+        <v>20</v>
+      </c>
+      <c r="F224" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1">
+        <v>63500000</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1</v>
+      </c>
+      <c r="D225" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E225" s="1">
+        <v>1</v>
+      </c>
+      <c r="F225" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1">
+        <v>63750000</v>
+      </c>
+      <c r="C226" s="2">
+        <v>5</v>
+      </c>
+      <c r="D226" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E226" s="2">
+        <v>5</v>
+      </c>
+      <c r="F226" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2">
+        <v>64000000</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1</v>
+      </c>
+      <c r="D227" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1</v>
+      </c>
+      <c r="F227" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1">
+        <v>64250000</v>
+      </c>
+      <c r="C228" s="1">
+        <v>1</v>
+      </c>
+      <c r="D228" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E228" s="1">
+        <v>1</v>
+      </c>
+      <c r="F228" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1">
+        <v>64500000</v>
+      </c>
+      <c r="C229" s="1">
+        <v>20</v>
+      </c>
+      <c r="D229" s="1">
+        <v>200</v>
+      </c>
+      <c r="E229" s="1">
+        <v>20</v>
+      </c>
+      <c r="F229" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1">
+        <v>64750000</v>
+      </c>
+      <c r="C230" s="1">
+        <v>1</v>
+      </c>
+      <c r="D230" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1</v>
+      </c>
+      <c r="F230" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1">
+        <v>65000000</v>
+      </c>
+      <c r="C231" s="2">
+        <v>5</v>
+      </c>
+      <c r="D231" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E231" s="2">
+        <v>5</v>
+      </c>
+      <c r="F231" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2">
+        <v>65250000</v>
+      </c>
+      <c r="C232" s="1">
+        <v>1</v>
+      </c>
+      <c r="D232" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1</v>
+      </c>
+      <c r="F232" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1">
+        <v>65500000</v>
+      </c>
+      <c r="C233" s="1">
+        <v>1</v>
+      </c>
+      <c r="D233" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E233" s="1">
+        <v>1</v>
+      </c>
+      <c r="F233" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1">
+        <v>65750000</v>
+      </c>
+      <c r="C234" s="1">
+        <v>20</v>
+      </c>
+      <c r="D234" s="1">
+        <v>200</v>
+      </c>
+      <c r="E234" s="1">
+        <v>20</v>
+      </c>
+      <c r="F234" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1">
+        <v>66000000</v>
+      </c>
+      <c r="C235" s="1">
+        <v>1</v>
+      </c>
+      <c r="D235" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E235" s="1">
+        <v>1</v>
+      </c>
+      <c r="F235" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2">
+        <v>66250000</v>
+      </c>
+      <c r="C236" s="2">
+        <v>5</v>
+      </c>
+      <c r="D236" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E236" s="2">
+        <v>5</v>
+      </c>
+      <c r="F236" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1">
+        <v>66500000</v>
+      </c>
+      <c r="C237" s="1">
+        <v>1</v>
+      </c>
+      <c r="D237" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1</v>
+      </c>
+      <c r="F237" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1">
+        <v>66750000</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1</v>
+      </c>
+      <c r="D238" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E238" s="1">
+        <v>1</v>
+      </c>
+      <c r="F238" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1">
+        <v>67000000</v>
+      </c>
+      <c r="C239" s="1">
+        <v>20</v>
+      </c>
+      <c r="D239" s="1">
+        <v>200</v>
+      </c>
+      <c r="E239" s="1">
+        <v>20</v>
+      </c>
+      <c r="F239" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2">
+        <v>67250000</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1</v>
+      </c>
+      <c r="D240" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E240" s="1">
+        <v>1</v>
+      </c>
+      <c r="F240" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1">
+        <v>67500000</v>
+      </c>
+      <c r="C241" s="2">
+        <v>5</v>
+      </c>
+      <c r="D241" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E241" s="2">
+        <v>5</v>
+      </c>
+      <c r="F241" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1">
+        <v>67750000</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1</v>
+      </c>
+      <c r="D242" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E242" s="1">
+        <v>1</v>
+      </c>
+      <c r="F242" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1">
+        <v>68000000</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1</v>
+      </c>
+      <c r="D243" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E243" s="1">
+        <v>1</v>
+      </c>
+      <c r="F243" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1">
+        <v>68250000</v>
+      </c>
+      <c r="C244" s="1">
+        <v>20</v>
+      </c>
+      <c r="D244" s="1">
+        <v>200</v>
+      </c>
+      <c r="E244" s="1">
+        <v>20</v>
+      </c>
+      <c r="F244" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2">
+        <v>68500000</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1</v>
+      </c>
+      <c r="D245" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E245" s="1">
+        <v>1</v>
+      </c>
+      <c r="F245" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1">
+        <v>68750000</v>
+      </c>
+      <c r="C246" s="2">
+        <v>5</v>
+      </c>
+      <c r="D246" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E246" s="2">
+        <v>5</v>
+      </c>
+      <c r="F246" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1">
+        <v>69000000</v>
+      </c>
+      <c r="C247" s="1">
+        <v>1</v>
+      </c>
+      <c r="D247" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E247" s="1">
+        <v>1</v>
+      </c>
+      <c r="F247" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1">
+        <v>69250000</v>
+      </c>
+      <c r="C248" s="1">
+        <v>1</v>
+      </c>
+      <c r="D248" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E248" s="1">
+        <v>1</v>
+      </c>
+      <c r="F248" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2">
+        <v>69500000</v>
+      </c>
+      <c r="C249" s="1">
+        <v>20</v>
+      </c>
+      <c r="D249" s="1">
+        <v>200</v>
+      </c>
+      <c r="E249" s="1">
+        <v>20</v>
+      </c>
+      <c r="F249" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1">
+        <v>69750000</v>
+      </c>
+      <c r="C250" s="1">
+        <v>1</v>
+      </c>
+      <c r="D250" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E250" s="1">
+        <v>1</v>
+      </c>
+      <c r="F250" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1">
+        <v>70000000</v>
+      </c>
+      <c r="C251" s="2">
+        <v>5</v>
+      </c>
+      <c r="D251" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E251" s="2">
+        <v>5</v>
+      </c>
+      <c r="F251" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1">
+        <v>70250000</v>
+      </c>
+      <c r="C252" s="1">
+        <v>1</v>
+      </c>
+      <c r="D252" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E252" s="1">
+        <v>1</v>
+      </c>
+      <c r="F252" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2">
+        <v>70500000</v>
+      </c>
+      <c r="C253" s="1">
+        <v>1</v>
+      </c>
+      <c r="D253" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E253" s="1">
+        <v>1</v>
+      </c>
+      <c r="F253" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1">
+        <v>70750000</v>
+      </c>
+      <c r="C254" s="1">
+        <v>20</v>
+      </c>
+      <c r="D254" s="1">
+        <v>200</v>
+      </c>
+      <c r="E254" s="1">
+        <v>20</v>
+      </c>
+      <c r="F254" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1">
+        <v>71000000</v>
+      </c>
+      <c r="C255" s="1">
+        <v>1</v>
+      </c>
+      <c r="D255" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E255" s="1">
+        <v>1</v>
+      </c>
+      <c r="F255" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1">
+        <v>71250000</v>
+      </c>
+      <c r="C256" s="2">
+        <v>5</v>
+      </c>
+      <c r="D256" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E256" s="2">
+        <v>5</v>
+      </c>
+      <c r="F256" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1">
+        <v>71500000</v>
+      </c>
+      <c r="C257" s="1">
+        <v>1</v>
+      </c>
+      <c r="D257" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E257" s="1">
+        <v>1</v>
+      </c>
+      <c r="F257" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2">
+        <v>71750000</v>
+      </c>
+      <c r="C258" s="1">
+        <v>1</v>
+      </c>
+      <c r="D258" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E258" s="1">
+        <v>1</v>
+      </c>
+      <c r="F258" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1">
+        <v>72000000</v>
+      </c>
+      <c r="C259" s="1">
+        <v>20</v>
+      </c>
+      <c r="D259" s="1">
+        <v>200</v>
+      </c>
+      <c r="E259" s="1">
+        <v>20</v>
+      </c>
+      <c r="F259" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1">
+        <v>72250000</v>
+      </c>
+      <c r="C260" s="1">
+        <v>1</v>
+      </c>
+      <c r="D260" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E260" s="1">
+        <v>1</v>
+      </c>
+      <c r="F260" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1">
+        <v>72500000</v>
+      </c>
+      <c r="C261" s="2">
+        <v>5</v>
+      </c>
+      <c r="D261" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E261" s="2">
+        <v>5</v>
+      </c>
+      <c r="F261" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2">
+        <v>72750000</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1</v>
+      </c>
+      <c r="D262" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E262" s="1">
+        <v>1</v>
+      </c>
+      <c r="F262" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" s="1">
+        <v>73000000</v>
+      </c>
+      <c r="C263" s="1">
+        <v>1</v>
+      </c>
+      <c r="D263" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E263" s="1">
+        <v>1</v>
+      </c>
+      <c r="F263" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>262</v>
+      </c>
+      <c r="B264" s="1">
+        <v>73250000</v>
+      </c>
+      <c r="C264" s="1">
+        <v>20</v>
+      </c>
+      <c r="D264" s="1">
+        <v>200</v>
+      </c>
+      <c r="E264" s="1">
+        <v>20</v>
+      </c>
+      <c r="F264" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" s="1">
+        <v>73500000</v>
+      </c>
+      <c r="C265" s="1">
+        <v>1</v>
+      </c>
+      <c r="D265" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E265" s="1">
+        <v>1</v>
+      </c>
+      <c r="F265" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2">
+        <v>73750000</v>
+      </c>
+      <c r="C266" s="2">
+        <v>5</v>
+      </c>
+      <c r="D266" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E266" s="2">
+        <v>5</v>
+      </c>
+      <c r="F266" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>265</v>
+      </c>
+      <c r="B267" s="1">
+        <v>74000000</v>
+      </c>
+      <c r="C267" s="1">
+        <v>1</v>
+      </c>
+      <c r="D267" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E267" s="1">
+        <v>1</v>
+      </c>
+      <c r="F267" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268" s="1">
+        <v>74250000</v>
+      </c>
+      <c r="C268" s="1">
+        <v>1</v>
+      </c>
+      <c r="D268" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E268" s="1">
+        <v>1</v>
+      </c>
+      <c r="F268" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269" s="1">
+        <v>74500000</v>
+      </c>
+      <c r="C269" s="1">
+        <v>20</v>
+      </c>
+      <c r="D269" s="1">
+        <v>200</v>
+      </c>
+      <c r="E269" s="1">
+        <v>20</v>
+      </c>
+      <c r="F269" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <v>268</v>
+      </c>
+      <c r="B270" s="1">
+        <v>74750000</v>
+      </c>
+      <c r="C270" s="1">
+        <v>1</v>
+      </c>
+      <c r="D270" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E270" s="1">
+        <v>1</v>
+      </c>
+      <c r="F270" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2">
+        <v>75000000</v>
+      </c>
+      <c r="C271" s="2">
+        <v>5</v>
+      </c>
+      <c r="D271" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E271" s="2">
+        <v>5</v>
+      </c>
+      <c r="F271" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1">
+        <v>75250000</v>
+      </c>
+      <c r="C272" s="1">
+        <v>1</v>
+      </c>
+      <c r="D272" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E272" s="1">
+        <v>1</v>
+      </c>
+      <c r="F272" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1">
+        <v>75500000</v>
+      </c>
+      <c r="C273" s="1">
+        <v>1</v>
+      </c>
+      <c r="D273" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E273" s="1">
+        <v>1</v>
+      </c>
+      <c r="F273" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="2">
+        <v>272</v>
+      </c>
+      <c r="B274" s="1">
+        <v>75750000</v>
+      </c>
+      <c r="C274" s="1">
+        <v>20</v>
+      </c>
+      <c r="D274" s="1">
+        <v>200</v>
+      </c>
+      <c r="E274" s="1">
+        <v>20</v>
+      </c>
+      <c r="F274" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275" s="2">
+        <v>76000000</v>
+      </c>
+      <c r="C275" s="1">
+        <v>1</v>
+      </c>
+      <c r="D275" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E275" s="1">
+        <v>1</v>
+      </c>
+      <c r="F275" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276" s="1">
+        <v>76250000</v>
+      </c>
+      <c r="C276" s="2">
+        <v>5</v>
+      </c>
+      <c r="D276" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E276" s="2">
+        <v>5</v>
+      </c>
+      <c r="F276" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="2">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1">
+        <v>76500000</v>
+      </c>
+      <c r="C277" s="1">
+        <v>1</v>
+      </c>
+      <c r="D277" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E277" s="1">
+        <v>1</v>
+      </c>
+      <c r="F277" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1">
+        <v>76750000</v>
+      </c>
+      <c r="C278" s="1">
+        <v>1</v>
+      </c>
+      <c r="D278" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E278" s="1">
+        <v>1</v>
+      </c>
+      <c r="F278" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2">
+        <v>77000000</v>
+      </c>
+      <c r="C279" s="1">
+        <v>20</v>
+      </c>
+      <c r="D279" s="1">
+        <v>200</v>
+      </c>
+      <c r="E279" s="1">
+        <v>20</v>
+      </c>
+      <c r="F279" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="2">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1">
+        <v>77250000</v>
+      </c>
+      <c r="C280" s="1">
+        <v>1</v>
+      </c>
+      <c r="D280" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E280" s="1">
+        <v>1</v>
+      </c>
+      <c r="F280" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281" s="1">
+        <v>77500000</v>
+      </c>
+      <c r="C281" s="2">
+        <v>5</v>
+      </c>
+      <c r="D281" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E281" s="2">
+        <v>5</v>
+      </c>
+      <c r="F281" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282" s="1">
+        <v>77750000</v>
+      </c>
+      <c r="C282" s="1">
+        <v>1</v>
+      </c>
+      <c r="D282" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E282" s="1">
+        <v>1</v>
+      </c>
+      <c r="F282" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283" s="1">
+        <v>78000000</v>
+      </c>
+      <c r="C283" s="1">
+        <v>1</v>
+      </c>
+      <c r="D283" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E283" s="1">
+        <v>1</v>
+      </c>
+      <c r="F283" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="2">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2">
+        <v>78250000</v>
+      </c>
+      <c r="C284" s="1">
+        <v>20</v>
+      </c>
+      <c r="D284" s="1">
+        <v>200</v>
+      </c>
+      <c r="E284" s="1">
+        <v>20</v>
+      </c>
+      <c r="F284" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285" s="1">
+        <v>78500000</v>
+      </c>
+      <c r="C285" s="1">
+        <v>1</v>
+      </c>
+      <c r="D285" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E285" s="1">
+        <v>1</v>
+      </c>
+      <c r="F285" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286" s="1">
+        <v>78750000</v>
+      </c>
+      <c r="C286" s="2">
+        <v>5</v>
+      </c>
+      <c r="D286" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E286" s="2">
+        <v>5</v>
+      </c>
+      <c r="F286" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>285</v>
+      </c>
+      <c r="B287" s="1">
+        <v>79000000</v>
+      </c>
+      <c r="C287" s="1">
+        <v>1</v>
+      </c>
+      <c r="D287" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E287" s="1">
+        <v>1</v>
+      </c>
+      <c r="F287" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2">
+        <v>79250000</v>
+      </c>
+      <c r="C288" s="1">
+        <v>1</v>
+      </c>
+      <c r="D288" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E288" s="1">
+        <v>1</v>
+      </c>
+      <c r="F288" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289" s="1">
+        <v>79500000</v>
+      </c>
+      <c r="C289" s="1">
+        <v>20</v>
+      </c>
+      <c r="D289" s="1">
+        <v>200</v>
+      </c>
+      <c r="E289" s="1">
+        <v>20</v>
+      </c>
+      <c r="F289" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>288</v>
+      </c>
+      <c r="B290" s="1">
+        <v>79750000</v>
+      </c>
+      <c r="C290" s="1">
+        <v>1</v>
+      </c>
+      <c r="D290" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E290" s="1">
+        <v>1</v>
+      </c>
+      <c r="F290" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291" s="1">
+        <v>80000000</v>
+      </c>
+      <c r="C291" s="2">
+        <v>5</v>
+      </c>
+      <c r="D291" s="2">
+        <v>1500000</v>
+      </c>
+      <c r="E291" s="2">
+        <v>5</v>
+      </c>
+      <c r="F291" s="2">
         <v>1500000</v>
       </c>
     </row>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6949C80C-552F-4818-B147-2B759608763D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D26DBD2-5347-421D-B300-EEF9117593D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H291" sqref="H291"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -500,16 +500,16 @@
         <v>500000</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -520,16 +520,16 @@
         <v>1000000</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -543,33 +543,33 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>2000000</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -580,16 +580,16 @@
         <v>2500000</v>
       </c>
       <c r="C6" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -600,16 +600,16 @@
         <v>3000000</v>
       </c>
       <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1229</v>
+      </c>
+      <c r="F7" s="2">
         <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2000000</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -620,16 +620,16 @@
         <v>3500000</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
       </c>
       <c r="F9" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -660,16 +660,16 @@
         <v>4500000</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -680,16 +680,16 @@
         <v>5000000</v>
       </c>
       <c r="C11" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2">
-        <v>1223</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -700,16 +700,16 @@
         <v>5500000</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -720,16 +720,16 @@
         <v>6000000</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -743,13 +743,13 @@
         <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E14" s="1">
         <v>20</v>
       </c>
       <c r="F14" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -760,16 +760,16 @@
         <v>7000000</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -780,16 +780,16 @@
         <v>7500000</v>
       </c>
       <c r="C16" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -800,16 +800,16 @@
         <v>8000000</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -820,16 +820,16 @@
         <v>8500000</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -843,13 +843,13 @@
         <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
       </c>
       <c r="F19" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -860,16 +860,16 @@
         <v>9500000</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -880,16 +880,16 @@
         <v>10000000</v>
       </c>
       <c r="C21" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D21" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -900,16 +900,16 @@
         <v>10500000</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F22" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -920,16 +920,16 @@
         <v>11000000</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -943,13 +943,13 @@
         <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E24" s="1">
         <v>20</v>
       </c>
       <c r="F24" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -957,19 +957,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>12000000</v>
+        <v>11500000</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -980,16 +980,16 @@
         <v>12500000</v>
       </c>
       <c r="C26" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E26" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F26" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1000,16 +1000,16 @@
         <v>13000000</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1020,16 +1020,16 @@
         <v>13500000</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F28" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1043,13 +1043,13 @@
         <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
       </c>
       <c r="F29" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1060,16 +1060,16 @@
         <v>14500000</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1080,16 +1080,16 @@
         <v>15000000</v>
       </c>
       <c r="C31" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F31" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1100,16 +1100,16 @@
         <v>15250000</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1120,16 +1120,16 @@
         <v>15500000</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D33" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F33" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1143,13 +1143,13 @@
         <v>20</v>
       </c>
       <c r="D34" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E34" s="1">
         <v>20</v>
       </c>
       <c r="F34" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1160,16 +1160,16 @@
         <v>16000000</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F35" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1180,16 +1180,16 @@
         <v>16250000</v>
       </c>
       <c r="C36" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E36" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F36" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1200,16 +1200,16 @@
         <v>16500000</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F37" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1220,16 +1220,16 @@
         <v>16750000</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D38" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F38" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1243,13 +1243,13 @@
         <v>20</v>
       </c>
       <c r="D39" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E39" s="1">
         <v>20</v>
       </c>
       <c r="F39" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1260,16 +1260,16 @@
         <v>17250000</v>
       </c>
       <c r="C40" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F40" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1280,16 +1280,16 @@
         <v>17500000</v>
       </c>
       <c r="C41" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E41" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F41" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1300,16 +1300,16 @@
         <v>17750000</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F42" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1320,16 +1320,16 @@
         <v>18000000</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D43" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F43" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1343,13 +1343,13 @@
         <v>20</v>
       </c>
       <c r="D44" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E44" s="1">
         <v>20</v>
       </c>
       <c r="F44" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1360,16 +1360,16 @@
         <v>18500000</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F45" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1380,16 +1380,16 @@
         <v>18750000</v>
       </c>
       <c r="C46" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D46" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E46" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F46" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1400,16 +1400,16 @@
         <v>19000000</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F47" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1420,16 +1420,16 @@
         <v>19250000</v>
       </c>
       <c r="C48" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D48" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F48" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1443,13 +1443,13 @@
         <v>20</v>
       </c>
       <c r="D49" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E49" s="1">
         <v>20</v>
       </c>
       <c r="F49" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1460,16 +1460,16 @@
         <v>19750000</v>
       </c>
       <c r="C50" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D50" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E50" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F50" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1477,19 +1477,19 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>20000000</v>
+        <v>15000000</v>
       </c>
       <c r="C51" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E51" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F51" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1500,16 +1500,16 @@
         <v>20250000</v>
       </c>
       <c r="C52" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D52" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E52" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F52" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1520,16 +1520,16 @@
         <v>20500000</v>
       </c>
       <c r="C53" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D53" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F53" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1543,13 +1543,13 @@
         <v>20</v>
       </c>
       <c r="D54" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E54" s="1">
         <v>20</v>
       </c>
       <c r="F54" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1560,16 +1560,16 @@
         <v>21000000</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D55" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F55" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1580,16 +1580,16 @@
         <v>21250000</v>
       </c>
       <c r="C56" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E56" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F56" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1600,16 +1600,16 @@
         <v>21500000</v>
       </c>
       <c r="C57" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D57" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F57" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1620,16 +1620,16 @@
         <v>21750000</v>
       </c>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F58" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1637,19 +1637,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>22000000</v>
+        <v>21500000</v>
       </c>
       <c r="C59" s="1">
         <v>20</v>
       </c>
       <c r="D59" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E59" s="1">
         <v>20</v>
       </c>
       <c r="F59" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1660,16 +1660,16 @@
         <v>22250000</v>
       </c>
       <c r="C60" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D60" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F60" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1680,16 +1680,16 @@
         <v>22500000</v>
       </c>
       <c r="C61" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E61" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F61" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1700,16 +1700,16 @@
         <v>22750000</v>
       </c>
       <c r="C62" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D62" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F62" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1720,16 +1720,16 @@
         <v>23000000</v>
       </c>
       <c r="C63" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D63" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F63" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1743,13 +1743,13 @@
         <v>20</v>
       </c>
       <c r="D64" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E64" s="1">
         <v>20</v>
       </c>
       <c r="F64" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1760,16 +1760,16 @@
         <v>23500000</v>
       </c>
       <c r="C65" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D65" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F65" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1780,16 +1780,16 @@
         <v>23750000</v>
       </c>
       <c r="C66" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E66" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F66" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1800,16 +1800,16 @@
         <v>24000000</v>
       </c>
       <c r="C67" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D67" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F67" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1820,16 +1820,16 @@
         <v>24250000</v>
       </c>
       <c r="C68" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D68" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F68" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1843,13 +1843,13 @@
         <v>20</v>
       </c>
       <c r="D69" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E69" s="1">
         <v>20</v>
       </c>
       <c r="F69" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1860,16 +1860,16 @@
         <v>24750000</v>
       </c>
       <c r="C70" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E70" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F70" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1880,16 +1880,16 @@
         <v>25000000</v>
       </c>
       <c r="C71" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E71" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F71" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1900,16 +1900,16 @@
         <v>25250000</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D72" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E72" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F72" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1920,16 +1920,16 @@
         <v>25500000</v>
       </c>
       <c r="C73" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D73" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E73" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F73" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1943,13 +1943,13 @@
         <v>20</v>
       </c>
       <c r="D74" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E74" s="1">
         <v>20</v>
       </c>
       <c r="F74" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1960,16 +1960,16 @@
         <v>26000000</v>
       </c>
       <c r="C75" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E75" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F75" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -1980,16 +1980,16 @@
         <v>26250000</v>
       </c>
       <c r="C76" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E76" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F76" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2000,16 +2000,16 @@
         <v>26500000</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D77" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E77" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F77" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2020,16 +2020,16 @@
         <v>26750000</v>
       </c>
       <c r="C78" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D78" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E78" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F78" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2043,13 +2043,13 @@
         <v>20</v>
       </c>
       <c r="D79" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E79" s="1">
         <v>20</v>
       </c>
       <c r="F79" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2060,16 +2060,16 @@
         <v>27250000</v>
       </c>
       <c r="C80" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D80" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E80" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F80" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2080,16 +2080,16 @@
         <v>27500000</v>
       </c>
       <c r="C81" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E81" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F81" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2100,16 +2100,16 @@
         <v>27750000</v>
       </c>
       <c r="C82" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D82" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E82" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F82" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2120,16 +2120,16 @@
         <v>28000000</v>
       </c>
       <c r="C83" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D83" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E83" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F83" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2143,13 +2143,13 @@
         <v>20</v>
       </c>
       <c r="D84" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E84" s="1">
         <v>20</v>
       </c>
       <c r="F84" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2160,16 +2160,16 @@
         <v>28500000</v>
       </c>
       <c r="C85" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D85" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E85" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F85" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2180,16 +2180,16 @@
         <v>28750000</v>
       </c>
       <c r="C86" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E86" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F86" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2200,16 +2200,16 @@
         <v>29000000</v>
       </c>
       <c r="C87" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D87" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E87" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F87" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2220,16 +2220,16 @@
         <v>29250000</v>
       </c>
       <c r="C88" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D88" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E88" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F88" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2243,13 +2243,13 @@
         <v>20</v>
       </c>
       <c r="D89" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E89" s="1">
         <v>20</v>
       </c>
       <c r="F89" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2260,16 +2260,16 @@
         <v>29750000</v>
       </c>
       <c r="C90" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D90" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E90" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F90" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2280,16 +2280,16 @@
         <v>30000000</v>
       </c>
       <c r="C91" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D91" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E91" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F91" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2300,16 +2300,16 @@
         <v>30250000</v>
       </c>
       <c r="C92" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E92" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F92" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2320,16 +2320,16 @@
         <v>30500000</v>
       </c>
       <c r="C93" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D93" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E93" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F93" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -2343,13 +2343,13 @@
         <v>20</v>
       </c>
       <c r="D94" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E94" s="1">
         <v>20</v>
       </c>
       <c r="F94" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -2360,16 +2360,16 @@
         <v>31000000</v>
       </c>
       <c r="C95" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D95" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E95" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F95" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -2380,16 +2380,16 @@
         <v>31250000</v>
       </c>
       <c r="C96" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D96" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E96" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F96" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -2400,16 +2400,16 @@
         <v>31500000</v>
       </c>
       <c r="C97" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D97" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E97" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F97" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2420,16 +2420,16 @@
         <v>31750000</v>
       </c>
       <c r="C98" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D98" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E98" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F98" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -2437,19 +2437,19 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>32000000</v>
+        <v>31500000</v>
       </c>
       <c r="C99" s="1">
         <v>20</v>
       </c>
       <c r="D99" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E99" s="1">
         <v>20</v>
       </c>
       <c r="F99" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -2460,16 +2460,16 @@
         <v>32250000</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D100" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E100" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F100" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2480,16 +2480,16 @@
         <v>32500000</v>
       </c>
       <c r="C101" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E101" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F101" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2500,16 +2500,16 @@
         <v>32750000</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D102" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E102" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F102" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -2520,16 +2520,16 @@
         <v>33000000</v>
       </c>
       <c r="C103" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D103" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E103" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F103" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -2543,13 +2543,13 @@
         <v>20</v>
       </c>
       <c r="D104" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E104" s="1">
         <v>20</v>
       </c>
       <c r="F104" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -2560,16 +2560,16 @@
         <v>33500000</v>
       </c>
       <c r="C105" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D105" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E105" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F105" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -2580,16 +2580,16 @@
         <v>33750000</v>
       </c>
       <c r="C106" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D106" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E106" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F106" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -2600,16 +2600,16 @@
         <v>34000000</v>
       </c>
       <c r="C107" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D107" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E107" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F107" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -2620,16 +2620,16 @@
         <v>34250000</v>
       </c>
       <c r="C108" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D108" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E108" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F108" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -2643,13 +2643,13 @@
         <v>20</v>
       </c>
       <c r="D109" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E109" s="1">
         <v>20</v>
       </c>
       <c r="F109" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -2660,16 +2660,16 @@
         <v>34750000</v>
       </c>
       <c r="C110" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D110" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E110" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F110" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -2680,16 +2680,16 @@
         <v>35000000</v>
       </c>
       <c r="C111" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D111" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E111" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F111" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -2700,16 +2700,16 @@
         <v>35250000</v>
       </c>
       <c r="C112" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D112" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E112" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F112" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -2720,16 +2720,16 @@
         <v>35500000</v>
       </c>
       <c r="C113" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D113" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E113" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F113" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -2743,13 +2743,13 @@
         <v>20</v>
       </c>
       <c r="D114" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E114" s="1">
         <v>20</v>
       </c>
       <c r="F114" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -2760,16 +2760,16 @@
         <v>36000000</v>
       </c>
       <c r="C115" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D115" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E115" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F115" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -2780,16 +2780,16 @@
         <v>36250000</v>
       </c>
       <c r="C116" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D116" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E116" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F116" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -2800,16 +2800,16 @@
         <v>36500000</v>
       </c>
       <c r="C117" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D117" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E117" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F117" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -2820,16 +2820,16 @@
         <v>36750000</v>
       </c>
       <c r="C118" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D118" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E118" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F118" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -2843,13 +2843,13 @@
         <v>20</v>
       </c>
       <c r="D119" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E119" s="1">
         <v>20</v>
       </c>
       <c r="F119" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -2860,16 +2860,16 @@
         <v>37250000</v>
       </c>
       <c r="C120" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D120" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E120" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F120" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -2880,16 +2880,16 @@
         <v>37500000</v>
       </c>
       <c r="C121" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D121" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E121" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F121" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -2900,16 +2900,16 @@
         <v>37750000</v>
       </c>
       <c r="C122" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D122" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E122" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F122" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -2920,16 +2920,16 @@
         <v>38000000</v>
       </c>
       <c r="C123" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D123" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E123" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F123" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -2943,13 +2943,13 @@
         <v>20</v>
       </c>
       <c r="D124" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E124" s="1">
         <v>20</v>
       </c>
       <c r="F124" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -2960,16 +2960,16 @@
         <v>38500000</v>
       </c>
       <c r="C125" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D125" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E125" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F125" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -2980,16 +2980,16 @@
         <v>38750000</v>
       </c>
       <c r="C126" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D126" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E126" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F126" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3000,16 +3000,16 @@
         <v>39000000</v>
       </c>
       <c r="C127" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D127" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E127" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F127" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3020,16 +3020,16 @@
         <v>39250000</v>
       </c>
       <c r="C128" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D128" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E128" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F128" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3043,13 +3043,13 @@
         <v>20</v>
       </c>
       <c r="D129" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E129" s="1">
         <v>20</v>
       </c>
       <c r="F129" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3060,16 +3060,16 @@
         <v>39750000</v>
       </c>
       <c r="C130" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D130" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E130" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F130" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3080,16 +3080,16 @@
         <v>40000000</v>
       </c>
       <c r="C131" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D131" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E131" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F131" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3100,16 +3100,16 @@
         <v>40250000</v>
       </c>
       <c r="C132" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D132" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E132" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F132" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3120,16 +3120,16 @@
         <v>40500000</v>
       </c>
       <c r="C133" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D133" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E133" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F133" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3143,13 +3143,13 @@
         <v>20</v>
       </c>
       <c r="D134" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E134" s="1">
         <v>20</v>
       </c>
       <c r="F134" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3160,16 +3160,16 @@
         <v>41000000</v>
       </c>
       <c r="C135" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D135" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E135" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F135" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3180,16 +3180,16 @@
         <v>41250000</v>
       </c>
       <c r="C136" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D136" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E136" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F136" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3200,16 +3200,16 @@
         <v>41500000</v>
       </c>
       <c r="C137" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D137" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E137" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F137" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3220,16 +3220,16 @@
         <v>41750000</v>
       </c>
       <c r="C138" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D138" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E138" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F138" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -3237,19 +3237,19 @@
         <v>137</v>
       </c>
       <c r="B139" s="1">
-        <v>42000000</v>
+        <v>41500000</v>
       </c>
       <c r="C139" s="1">
         <v>20</v>
       </c>
       <c r="D139" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E139" s="1">
         <v>20</v>
       </c>
       <c r="F139" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3260,16 +3260,16 @@
         <v>42250000</v>
       </c>
       <c r="C140" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D140" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E140" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F140" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -3280,16 +3280,16 @@
         <v>42500000</v>
       </c>
       <c r="C141" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D141" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E141" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F141" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -3300,16 +3300,16 @@
         <v>42750000</v>
       </c>
       <c r="C142" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D142" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E142" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F142" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -3320,16 +3320,16 @@
         <v>43000000</v>
       </c>
       <c r="C143" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D143" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E143" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F143" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -3343,13 +3343,13 @@
         <v>20</v>
       </c>
       <c r="D144" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E144" s="1">
         <v>20</v>
       </c>
       <c r="F144" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -3360,16 +3360,16 @@
         <v>43500000</v>
       </c>
       <c r="C145" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D145" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E145" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F145" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -3380,16 +3380,16 @@
         <v>43750000</v>
       </c>
       <c r="C146" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D146" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E146" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F146" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -3400,16 +3400,16 @@
         <v>44000000</v>
       </c>
       <c r="C147" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D147" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E147" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F147" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -3420,16 +3420,16 @@
         <v>44250000</v>
       </c>
       <c r="C148" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D148" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E148" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F148" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -3443,13 +3443,13 @@
         <v>20</v>
       </c>
       <c r="D149" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E149" s="1">
         <v>20</v>
       </c>
       <c r="F149" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -3460,16 +3460,16 @@
         <v>44750000</v>
       </c>
       <c r="C150" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D150" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E150" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F150" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -3480,16 +3480,16 @@
         <v>45000000</v>
       </c>
       <c r="C151" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D151" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E151" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F151" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -3500,16 +3500,16 @@
         <v>45250000</v>
       </c>
       <c r="C152" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D152" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E152" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F152" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -3520,16 +3520,16 @@
         <v>45500000</v>
       </c>
       <c r="C153" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D153" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E153" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F153" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -3543,13 +3543,13 @@
         <v>20</v>
       </c>
       <c r="D154" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E154" s="1">
         <v>20</v>
       </c>
       <c r="F154" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -3560,16 +3560,16 @@
         <v>46000000</v>
       </c>
       <c r="C155" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D155" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E155" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F155" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -3580,16 +3580,16 @@
         <v>46250000</v>
       </c>
       <c r="C156" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D156" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E156" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F156" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -3600,16 +3600,16 @@
         <v>46500000</v>
       </c>
       <c r="C157" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D157" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E157" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F157" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -3620,16 +3620,16 @@
         <v>46750000</v>
       </c>
       <c r="C158" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D158" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E158" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F158" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -3643,13 +3643,13 @@
         <v>20</v>
       </c>
       <c r="D159" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E159" s="1">
         <v>20</v>
       </c>
       <c r="F159" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -3660,16 +3660,16 @@
         <v>47250000</v>
       </c>
       <c r="C160" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D160" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E160" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F160" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -3680,16 +3680,16 @@
         <v>47500000</v>
       </c>
       <c r="C161" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D161" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E161" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F161" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -3700,16 +3700,16 @@
         <v>47750000</v>
       </c>
       <c r="C162" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D162" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E162" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F162" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -3720,16 +3720,16 @@
         <v>48000000</v>
       </c>
       <c r="C163" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D163" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E163" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F163" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -3743,13 +3743,13 @@
         <v>20</v>
       </c>
       <c r="D164" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E164" s="1">
         <v>20</v>
       </c>
       <c r="F164" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -3760,16 +3760,16 @@
         <v>48500000</v>
       </c>
       <c r="C165" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D165" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E165" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F165" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -3780,16 +3780,16 @@
         <v>48750000</v>
       </c>
       <c r="C166" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D166" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E166" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F166" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -3800,16 +3800,16 @@
         <v>49000000</v>
       </c>
       <c r="C167" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D167" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E167" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F167" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -3820,16 +3820,16 @@
         <v>49250000</v>
       </c>
       <c r="C168" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D168" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E168" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F168" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -3843,13 +3843,13 @@
         <v>20</v>
       </c>
       <c r="D169" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E169" s="1">
         <v>20</v>
       </c>
       <c r="F169" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -3860,16 +3860,16 @@
         <v>49750000</v>
       </c>
       <c r="C170" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D170" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E170" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F170" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -3880,16 +3880,16 @@
         <v>50000000</v>
       </c>
       <c r="C171" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D171" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E171" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F171" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -3900,16 +3900,16 @@
         <v>50250000</v>
       </c>
       <c r="C172" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D172" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E172" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F172" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -3920,16 +3920,16 @@
         <v>50500000</v>
       </c>
       <c r="C173" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D173" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E173" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F173" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -3943,13 +3943,13 @@
         <v>20</v>
       </c>
       <c r="D174" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E174" s="1">
         <v>20</v>
       </c>
       <c r="F174" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -3960,16 +3960,16 @@
         <v>51000000</v>
       </c>
       <c r="C175" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D175" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E175" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F175" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -3980,16 +3980,16 @@
         <v>51250000</v>
       </c>
       <c r="C176" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D176" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E176" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F176" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4000,16 +4000,16 @@
         <v>51500000</v>
       </c>
       <c r="C177" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D177" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E177" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F177" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -4020,16 +4020,16 @@
         <v>51750000</v>
       </c>
       <c r="C178" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D178" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E178" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F178" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4037,19 +4037,19 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>52000000</v>
+        <v>51500000</v>
       </c>
       <c r="C179" s="1">
         <v>20</v>
       </c>
       <c r="D179" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E179" s="1">
         <v>20</v>
       </c>
       <c r="F179" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -4060,16 +4060,16 @@
         <v>52250000</v>
       </c>
       <c r="C180" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D180" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E180" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F180" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4080,16 +4080,16 @@
         <v>52500000</v>
       </c>
       <c r="C181" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D181" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E181" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F181" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4100,16 +4100,16 @@
         <v>52750000</v>
       </c>
       <c r="C182" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D182" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E182" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F182" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4120,16 +4120,16 @@
         <v>53000000</v>
       </c>
       <c r="C183" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D183" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E183" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F183" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4143,13 +4143,13 @@
         <v>20</v>
       </c>
       <c r="D184" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E184" s="1">
         <v>20</v>
       </c>
       <c r="F184" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4160,16 +4160,16 @@
         <v>53500000</v>
       </c>
       <c r="C185" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D185" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E185" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F185" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4180,16 +4180,16 @@
         <v>53750000</v>
       </c>
       <c r="C186" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D186" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E186" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F186" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -4200,16 +4200,16 @@
         <v>54000000</v>
       </c>
       <c r="C187" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D187" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E187" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F187" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4220,16 +4220,16 @@
         <v>54250000</v>
       </c>
       <c r="C188" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D188" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E188" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F188" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -4243,13 +4243,13 @@
         <v>20</v>
       </c>
       <c r="D189" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E189" s="1">
         <v>20</v>
       </c>
       <c r="F189" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -4260,16 +4260,16 @@
         <v>54750000</v>
       </c>
       <c r="C190" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D190" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E190" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F190" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4280,16 +4280,16 @@
         <v>55000000</v>
       </c>
       <c r="C191" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D191" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E191" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F191" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4300,16 +4300,16 @@
         <v>55250000</v>
       </c>
       <c r="C192" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D192" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E192" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F192" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4320,16 +4320,16 @@
         <v>55500000</v>
       </c>
       <c r="C193" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D193" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E193" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F193" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -4343,13 +4343,13 @@
         <v>20</v>
       </c>
       <c r="D194" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E194" s="1">
         <v>20</v>
       </c>
       <c r="F194" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -4360,16 +4360,16 @@
         <v>56000000</v>
       </c>
       <c r="C195" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D195" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E195" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F195" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -4380,16 +4380,16 @@
         <v>56250000</v>
       </c>
       <c r="C196" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D196" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E196" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F196" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -4400,16 +4400,16 @@
         <v>56500000</v>
       </c>
       <c r="C197" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D197" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E197" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F197" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -4420,16 +4420,16 @@
         <v>56750000</v>
       </c>
       <c r="C198" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D198" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E198" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F198" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -4443,13 +4443,13 @@
         <v>20</v>
       </c>
       <c r="D199" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E199" s="1">
         <v>20</v>
       </c>
       <c r="F199" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -4460,16 +4460,16 @@
         <v>57250000</v>
       </c>
       <c r="C200" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D200" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E200" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F200" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -4480,16 +4480,16 @@
         <v>57500000</v>
       </c>
       <c r="C201" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D201" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E201" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F201" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -4500,16 +4500,16 @@
         <v>57750000</v>
       </c>
       <c r="C202" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D202" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E202" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F202" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -4520,16 +4520,16 @@
         <v>58000000</v>
       </c>
       <c r="C203" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D203" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E203" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F203" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -4543,13 +4543,13 @@
         <v>20</v>
       </c>
       <c r="D204" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E204" s="1">
         <v>20</v>
       </c>
       <c r="F204" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -4560,16 +4560,16 @@
         <v>58500000</v>
       </c>
       <c r="C205" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D205" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E205" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F205" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -4580,16 +4580,16 @@
         <v>58750000</v>
       </c>
       <c r="C206" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D206" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E206" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F206" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -4600,16 +4600,16 @@
         <v>59000000</v>
       </c>
       <c r="C207" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D207" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E207" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F207" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -4620,16 +4620,16 @@
         <v>59250000</v>
       </c>
       <c r="C208" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D208" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E208" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F208" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -4643,13 +4643,13 @@
         <v>20</v>
       </c>
       <c r="D209" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E209" s="1">
         <v>20</v>
       </c>
       <c r="F209" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -4660,16 +4660,16 @@
         <v>59750000</v>
       </c>
       <c r="C210" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D210" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E210" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F210" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -4680,16 +4680,16 @@
         <v>60000000</v>
       </c>
       <c r="C211" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D211" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E211" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F211" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -4700,16 +4700,16 @@
         <v>60250000</v>
       </c>
       <c r="C212" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D212" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E212" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F212" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -4720,16 +4720,16 @@
         <v>60500000</v>
       </c>
       <c r="C213" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D213" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E213" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F213" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -4743,13 +4743,13 @@
         <v>20</v>
       </c>
       <c r="D214" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E214" s="1">
         <v>20</v>
       </c>
       <c r="F214" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -4760,16 +4760,16 @@
         <v>61000000</v>
       </c>
       <c r="C215" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D215" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E215" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F215" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -4780,16 +4780,16 @@
         <v>61250000</v>
       </c>
       <c r="C216" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D216" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E216" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F216" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -4800,16 +4800,16 @@
         <v>61500000</v>
       </c>
       <c r="C217" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D217" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E217" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F217" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -4820,16 +4820,16 @@
         <v>61750000</v>
       </c>
       <c r="C218" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D218" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E218" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F218" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -4837,19 +4837,19 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>62000000</v>
+        <v>61500000</v>
       </c>
       <c r="C219" s="1">
         <v>20</v>
       </c>
       <c r="D219" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E219" s="1">
         <v>20</v>
       </c>
       <c r="F219" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -4860,16 +4860,16 @@
         <v>62250000</v>
       </c>
       <c r="C220" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D220" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E220" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F220" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -4880,16 +4880,16 @@
         <v>62500000</v>
       </c>
       <c r="C221" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D221" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E221" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F221" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -4900,16 +4900,16 @@
         <v>62750000</v>
       </c>
       <c r="C222" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D222" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E222" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F222" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -4920,16 +4920,16 @@
         <v>63000000</v>
       </c>
       <c r="C223" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D223" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E223" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F223" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -4943,13 +4943,13 @@
         <v>20</v>
       </c>
       <c r="D224" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E224" s="1">
         <v>20</v>
       </c>
       <c r="F224" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -4960,16 +4960,16 @@
         <v>63500000</v>
       </c>
       <c r="C225" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D225" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E225" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F225" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -4980,16 +4980,16 @@
         <v>63750000</v>
       </c>
       <c r="C226" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D226" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E226" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F226" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -5000,16 +5000,16 @@
         <v>64000000</v>
       </c>
       <c r="C227" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D227" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E227" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F227" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -5020,16 +5020,16 @@
         <v>64250000</v>
       </c>
       <c r="C228" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D228" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E228" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F228" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -5043,13 +5043,13 @@
         <v>20</v>
       </c>
       <c r="D229" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E229" s="1">
         <v>20</v>
       </c>
       <c r="F229" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -5060,16 +5060,16 @@
         <v>64750000</v>
       </c>
       <c r="C230" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D230" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E230" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F230" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -5080,16 +5080,16 @@
         <v>65000000</v>
       </c>
       <c r="C231" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D231" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E231" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F231" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -5100,16 +5100,16 @@
         <v>65250000</v>
       </c>
       <c r="C232" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D232" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E232" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F232" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -5120,16 +5120,16 @@
         <v>65500000</v>
       </c>
       <c r="C233" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D233" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E233" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F233" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -5143,13 +5143,13 @@
         <v>20</v>
       </c>
       <c r="D234" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E234" s="1">
         <v>20</v>
       </c>
       <c r="F234" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -5160,16 +5160,16 @@
         <v>66000000</v>
       </c>
       <c r="C235" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D235" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E235" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F235" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -5180,16 +5180,16 @@
         <v>66250000</v>
       </c>
       <c r="C236" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D236" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E236" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F236" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -5200,16 +5200,16 @@
         <v>66500000</v>
       </c>
       <c r="C237" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D237" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E237" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F237" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -5220,16 +5220,16 @@
         <v>66750000</v>
       </c>
       <c r="C238" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D238" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E238" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F238" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -5243,13 +5243,13 @@
         <v>20</v>
       </c>
       <c r="D239" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E239" s="1">
         <v>20</v>
       </c>
       <c r="F239" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -5260,16 +5260,16 @@
         <v>67250000</v>
       </c>
       <c r="C240" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D240" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E240" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F240" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -5280,16 +5280,16 @@
         <v>67500000</v>
       </c>
       <c r="C241" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D241" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E241" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F241" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -5300,16 +5300,16 @@
         <v>67750000</v>
       </c>
       <c r="C242" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D242" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E242" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F242" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -5320,16 +5320,16 @@
         <v>68000000</v>
       </c>
       <c r="C243" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D243" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E243" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F243" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -5343,13 +5343,13 @@
         <v>20</v>
       </c>
       <c r="D244" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E244" s="1">
         <v>20</v>
       </c>
       <c r="F244" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -5360,16 +5360,16 @@
         <v>68500000</v>
       </c>
       <c r="C245" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D245" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E245" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F245" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -5380,16 +5380,16 @@
         <v>68750000</v>
       </c>
       <c r="C246" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D246" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E246" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F246" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -5400,16 +5400,16 @@
         <v>69000000</v>
       </c>
       <c r="C247" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D247" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E247" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F247" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -5420,16 +5420,16 @@
         <v>69250000</v>
       </c>
       <c r="C248" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D248" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E248" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F248" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -5443,13 +5443,13 @@
         <v>20</v>
       </c>
       <c r="D249" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E249" s="1">
         <v>20</v>
       </c>
       <c r="F249" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -5460,16 +5460,16 @@
         <v>69750000</v>
       </c>
       <c r="C250" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D250" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E250" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F250" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -5480,16 +5480,16 @@
         <v>70000000</v>
       </c>
       <c r="C251" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D251" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E251" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F251" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -5500,16 +5500,16 @@
         <v>70250000</v>
       </c>
       <c r="C252" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D252" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E252" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F252" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -5520,16 +5520,16 @@
         <v>70500000</v>
       </c>
       <c r="C253" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D253" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E253" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F253" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -5543,13 +5543,13 @@
         <v>20</v>
       </c>
       <c r="D254" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E254" s="1">
         <v>20</v>
       </c>
       <c r="F254" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -5560,16 +5560,16 @@
         <v>71000000</v>
       </c>
       <c r="C255" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D255" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E255" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F255" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -5580,16 +5580,16 @@
         <v>71250000</v>
       </c>
       <c r="C256" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D256" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E256" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F256" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -5600,16 +5600,16 @@
         <v>71500000</v>
       </c>
       <c r="C257" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D257" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E257" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F257" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -5620,16 +5620,16 @@
         <v>71750000</v>
       </c>
       <c r="C258" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D258" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E258" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F258" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -5637,19 +5637,19 @@
         <v>257</v>
       </c>
       <c r="B259" s="1">
-        <v>72000000</v>
+        <v>71500000</v>
       </c>
       <c r="C259" s="1">
         <v>20</v>
       </c>
       <c r="D259" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E259" s="1">
         <v>20</v>
       </c>
       <c r="F259" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -5660,16 +5660,16 @@
         <v>72250000</v>
       </c>
       <c r="C260" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D260" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E260" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F260" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -5680,16 +5680,16 @@
         <v>72500000</v>
       </c>
       <c r="C261" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D261" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E261" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F261" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -5700,16 +5700,16 @@
         <v>72750000</v>
       </c>
       <c r="C262" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D262" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E262" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F262" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -5720,16 +5720,16 @@
         <v>73000000</v>
       </c>
       <c r="C263" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D263" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E263" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F263" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -5743,13 +5743,13 @@
         <v>20</v>
       </c>
       <c r="D264" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E264" s="1">
         <v>20</v>
       </c>
       <c r="F264" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -5760,16 +5760,16 @@
         <v>73500000</v>
       </c>
       <c r="C265" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D265" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E265" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F265" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -5780,16 +5780,16 @@
         <v>73750000</v>
       </c>
       <c r="C266" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D266" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E266" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F266" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -5800,16 +5800,16 @@
         <v>74000000</v>
       </c>
       <c r="C267" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D267" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E267" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F267" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -5820,16 +5820,16 @@
         <v>74250000</v>
       </c>
       <c r="C268" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D268" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E268" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F268" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -5843,13 +5843,13 @@
         <v>20</v>
       </c>
       <c r="D269" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E269" s="1">
         <v>20</v>
       </c>
       <c r="F269" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -5860,16 +5860,16 @@
         <v>74750000</v>
       </c>
       <c r="C270" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D270" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E270" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F270" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -5880,16 +5880,16 @@
         <v>75000000</v>
       </c>
       <c r="C271" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D271" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E271" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F271" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -5900,16 +5900,16 @@
         <v>75250000</v>
       </c>
       <c r="C272" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D272" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E272" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F272" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -5920,16 +5920,16 @@
         <v>75500000</v>
       </c>
       <c r="C273" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D273" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E273" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F273" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -5943,13 +5943,13 @@
         <v>20</v>
       </c>
       <c r="D274" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E274" s="1">
         <v>20</v>
       </c>
       <c r="F274" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -5960,16 +5960,16 @@
         <v>76000000</v>
       </c>
       <c r="C275" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D275" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E275" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F275" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -5980,16 +5980,16 @@
         <v>76250000</v>
       </c>
       <c r="C276" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D276" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E276" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F276" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -6000,16 +6000,16 @@
         <v>76500000</v>
       </c>
       <c r="C277" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D277" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E277" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F277" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -6020,16 +6020,16 @@
         <v>76750000</v>
       </c>
       <c r="C278" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D278" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E278" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F278" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -6043,13 +6043,13 @@
         <v>20</v>
       </c>
       <c r="D279" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E279" s="1">
         <v>20</v>
       </c>
       <c r="F279" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -6060,16 +6060,16 @@
         <v>77250000</v>
       </c>
       <c r="C280" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D280" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E280" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F280" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -6080,16 +6080,16 @@
         <v>77500000</v>
       </c>
       <c r="C281" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D281" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E281" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F281" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -6100,16 +6100,16 @@
         <v>77750000</v>
       </c>
       <c r="C282" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D282" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E282" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F282" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -6120,16 +6120,16 @@
         <v>78000000</v>
       </c>
       <c r="C283" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D283" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E283" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F283" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -6143,13 +6143,13 @@
         <v>20</v>
       </c>
       <c r="D284" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E284" s="1">
         <v>20</v>
       </c>
       <c r="F284" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -6160,16 +6160,16 @@
         <v>78500000</v>
       </c>
       <c r="C285" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D285" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E285" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F285" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -6180,16 +6180,16 @@
         <v>78750000</v>
       </c>
       <c r="C286" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D286" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E286" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F286" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -6200,16 +6200,16 @@
         <v>79000000</v>
       </c>
       <c r="C287" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D287" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E287" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F287" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -6220,16 +6220,16 @@
         <v>79250000</v>
       </c>
       <c r="C288" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D288" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
       <c r="E288" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F288" s="1">
-        <v>2000000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -6243,13 +6243,13 @@
         <v>20</v>
       </c>
       <c r="D289" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E289" s="1">
         <v>20</v>
       </c>
       <c r="F289" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -6260,16 +6260,16 @@
         <v>79750000</v>
       </c>
       <c r="C290" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D290" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="E290" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F290" s="1">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -6280,16 +6280,1616 @@
         <v>80000000</v>
       </c>
       <c r="C291" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D291" s="2">
-        <v>1500000</v>
+        <v>5</v>
       </c>
       <c r="E291" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F291" s="2">
-        <v>1500000</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292" s="1">
+        <v>80250000</v>
+      </c>
+      <c r="C292" s="1">
+        <v>5</v>
+      </c>
+      <c r="D292" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E292" s="1">
+        <v>5</v>
+      </c>
+      <c r="F292" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293" s="1">
+        <v>80500000</v>
+      </c>
+      <c r="C293" s="1">
+        <v>30</v>
+      </c>
+      <c r="D293" s="1">
+        <v>250</v>
+      </c>
+      <c r="E293" s="1">
+        <v>30</v>
+      </c>
+      <c r="F293" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294" s="1">
+        <v>80750000</v>
+      </c>
+      <c r="C294" s="1">
+        <v>20</v>
+      </c>
+      <c r="D294" s="1">
+        <v>150</v>
+      </c>
+      <c r="E294" s="1">
+        <v>20</v>
+      </c>
+      <c r="F294" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="2">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2">
+        <v>81000000</v>
+      </c>
+      <c r="C295" s="1">
+        <v>5</v>
+      </c>
+      <c r="D295" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E295" s="1">
+        <v>5</v>
+      </c>
+      <c r="F295" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296" s="1">
+        <v>81250000</v>
+      </c>
+      <c r="C296" s="2">
+        <v>14</v>
+      </c>
+      <c r="D296" s="2">
+        <v>5</v>
+      </c>
+      <c r="E296" s="2">
+        <v>14</v>
+      </c>
+      <c r="F296" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>295</v>
+      </c>
+      <c r="B297" s="1">
+        <v>81500000</v>
+      </c>
+      <c r="C297" s="1">
+        <v>5</v>
+      </c>
+      <c r="D297" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E297" s="1">
+        <v>5</v>
+      </c>
+      <c r="F297" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>296</v>
+      </c>
+      <c r="B298" s="1">
+        <v>81750000</v>
+      </c>
+      <c r="C298" s="1">
+        <v>30</v>
+      </c>
+      <c r="D298" s="1">
+        <v>250</v>
+      </c>
+      <c r="E298" s="1">
+        <v>30</v>
+      </c>
+      <c r="F298" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299" s="1">
+        <v>81500000</v>
+      </c>
+      <c r="C299" s="1">
+        <v>20</v>
+      </c>
+      <c r="D299" s="1">
+        <v>150</v>
+      </c>
+      <c r="E299" s="1">
+        <v>20</v>
+      </c>
+      <c r="F299" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300" s="1">
+        <v>82250000</v>
+      </c>
+      <c r="C300" s="1">
+        <v>5</v>
+      </c>
+      <c r="D300" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E300" s="1">
+        <v>5</v>
+      </c>
+      <c r="F300" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
+        <v>299</v>
+      </c>
+      <c r="B301" s="1">
+        <v>82500000</v>
+      </c>
+      <c r="C301" s="2">
+        <v>14</v>
+      </c>
+      <c r="D301" s="2">
+        <v>5</v>
+      </c>
+      <c r="E301" s="2">
+        <v>14</v>
+      </c>
+      <c r="F301" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2">
+        <v>82750000</v>
+      </c>
+      <c r="C302" s="1">
+        <v>5</v>
+      </c>
+      <c r="D302" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E302" s="1">
+        <v>5</v>
+      </c>
+      <c r="F302" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303" s="1">
+        <v>83000000</v>
+      </c>
+      <c r="C303" s="1">
+        <v>30</v>
+      </c>
+      <c r="D303" s="1">
+        <v>250</v>
+      </c>
+      <c r="E303" s="1">
+        <v>30</v>
+      </c>
+      <c r="F303" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304" s="1">
+        <v>83250000</v>
+      </c>
+      <c r="C304" s="1">
+        <v>20</v>
+      </c>
+      <c r="D304" s="1">
+        <v>150</v>
+      </c>
+      <c r="E304" s="1">
+        <v>20</v>
+      </c>
+      <c r="F304" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305" s="1">
+        <v>83500000</v>
+      </c>
+      <c r="C305" s="1">
+        <v>5</v>
+      </c>
+      <c r="D305" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E305" s="1">
+        <v>5</v>
+      </c>
+      <c r="F305" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
+        <v>304</v>
+      </c>
+      <c r="B306" s="1">
+        <v>83750000</v>
+      </c>
+      <c r="C306" s="2">
+        <v>14</v>
+      </c>
+      <c r="D306" s="2">
+        <v>5</v>
+      </c>
+      <c r="E306" s="2">
+        <v>14</v>
+      </c>
+      <c r="F306" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>305</v>
+      </c>
+      <c r="B307" s="1">
+        <v>84000000</v>
+      </c>
+      <c r="C307" s="1">
+        <v>5</v>
+      </c>
+      <c r="D307" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E307" s="1">
+        <v>5</v>
+      </c>
+      <c r="F307" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>306</v>
+      </c>
+      <c r="B308" s="1">
+        <v>84250000</v>
+      </c>
+      <c r="C308" s="1">
+        <v>30</v>
+      </c>
+      <c r="D308" s="1">
+        <v>250</v>
+      </c>
+      <c r="E308" s="1">
+        <v>30</v>
+      </c>
+      <c r="F308" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2">
+        <v>84500000</v>
+      </c>
+      <c r="C309" s="1">
+        <v>20</v>
+      </c>
+      <c r="D309" s="1">
+        <v>150</v>
+      </c>
+      <c r="E309" s="1">
+        <v>20</v>
+      </c>
+      <c r="F309" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>308</v>
+      </c>
+      <c r="B310" s="1">
+        <v>84750000</v>
+      </c>
+      <c r="C310" s="1">
+        <v>5</v>
+      </c>
+      <c r="D310" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E310" s="1">
+        <v>5</v>
+      </c>
+      <c r="F310" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>309</v>
+      </c>
+      <c r="B311" s="1">
+        <v>85000000</v>
+      </c>
+      <c r="C311" s="2">
+        <v>14</v>
+      </c>
+      <c r="D311" s="2">
+        <v>5</v>
+      </c>
+      <c r="E311" s="2">
+        <v>14</v>
+      </c>
+      <c r="F311" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" s="2">
+        <v>310</v>
+      </c>
+      <c r="B312" s="1">
+        <v>85250000</v>
+      </c>
+      <c r="C312" s="1">
+        <v>5</v>
+      </c>
+      <c r="D312" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E312" s="1">
+        <v>5</v>
+      </c>
+      <c r="F312" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>311</v>
+      </c>
+      <c r="B313" s="1">
+        <v>85500000</v>
+      </c>
+      <c r="C313" s="1">
+        <v>30</v>
+      </c>
+      <c r="D313" s="1">
+        <v>250</v>
+      </c>
+      <c r="E313" s="1">
+        <v>30</v>
+      </c>
+      <c r="F313" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>312</v>
+      </c>
+      <c r="B314" s="1">
+        <v>85750000</v>
+      </c>
+      <c r="C314" s="1">
+        <v>20</v>
+      </c>
+      <c r="D314" s="1">
+        <v>150</v>
+      </c>
+      <c r="E314" s="1">
+        <v>20</v>
+      </c>
+      <c r="F314" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315" s="1">
+        <v>86000000</v>
+      </c>
+      <c r="C315" s="1">
+        <v>5</v>
+      </c>
+      <c r="D315" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E315" s="1">
+        <v>5</v>
+      </c>
+      <c r="F315" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2">
+        <v>86250000</v>
+      </c>
+      <c r="C316" s="2">
+        <v>14</v>
+      </c>
+      <c r="D316" s="2">
+        <v>5</v>
+      </c>
+      <c r="E316" s="2">
+        <v>14</v>
+      </c>
+      <c r="F316" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>315</v>
+      </c>
+      <c r="B317" s="1">
+        <v>86500000</v>
+      </c>
+      <c r="C317" s="1">
+        <v>5</v>
+      </c>
+      <c r="D317" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E317" s="1">
+        <v>5</v>
+      </c>
+      <c r="F317" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>316</v>
+      </c>
+      <c r="B318" s="1">
+        <v>86750000</v>
+      </c>
+      <c r="C318" s="1">
+        <v>30</v>
+      </c>
+      <c r="D318" s="1">
+        <v>250</v>
+      </c>
+      <c r="E318" s="1">
+        <v>30</v>
+      </c>
+      <c r="F318" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319" s="1">
+        <v>87000000</v>
+      </c>
+      <c r="C319" s="1">
+        <v>20</v>
+      </c>
+      <c r="D319" s="1">
+        <v>150</v>
+      </c>
+      <c r="E319" s="1">
+        <v>20</v>
+      </c>
+      <c r="F319" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>318</v>
+      </c>
+      <c r="B320" s="1">
+        <v>87250000</v>
+      </c>
+      <c r="C320" s="1">
+        <v>5</v>
+      </c>
+      <c r="D320" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E320" s="1">
+        <v>5</v>
+      </c>
+      <c r="F320" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321" s="1">
+        <v>87500000</v>
+      </c>
+      <c r="C321" s="2">
+        <v>14</v>
+      </c>
+      <c r="D321" s="2">
+        <v>5</v>
+      </c>
+      <c r="E321" s="2">
+        <v>14</v>
+      </c>
+      <c r="F321" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322" s="1">
+        <v>87750000</v>
+      </c>
+      <c r="C322" s="1">
+        <v>5</v>
+      </c>
+      <c r="D322" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E322" s="1">
+        <v>5</v>
+      </c>
+      <c r="F322" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>321</v>
+      </c>
+      <c r="B323" s="2">
+        <v>88000000</v>
+      </c>
+      <c r="C323" s="1">
+        <v>30</v>
+      </c>
+      <c r="D323" s="1">
+        <v>250</v>
+      </c>
+      <c r="E323" s="1">
+        <v>30</v>
+      </c>
+      <c r="F323" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324" s="1">
+        <v>88250000</v>
+      </c>
+      <c r="C324" s="1">
+        <v>20</v>
+      </c>
+      <c r="D324" s="1">
+        <v>150</v>
+      </c>
+      <c r="E324" s="1">
+        <v>20</v>
+      </c>
+      <c r="F324" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325" s="1">
+        <v>88500000</v>
+      </c>
+      <c r="C325" s="1">
+        <v>5</v>
+      </c>
+      <c r="D325" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E325" s="1">
+        <v>5</v>
+      </c>
+      <c r="F325" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326" s="1">
+        <v>88750000</v>
+      </c>
+      <c r="C326" s="2">
+        <v>14</v>
+      </c>
+      <c r="D326" s="2">
+        <v>5</v>
+      </c>
+      <c r="E326" s="2">
+        <v>14</v>
+      </c>
+      <c r="F326" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327" s="1">
+        <v>89000000</v>
+      </c>
+      <c r="C327" s="1">
+        <v>5</v>
+      </c>
+      <c r="D327" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E327" s="1">
+        <v>5</v>
+      </c>
+      <c r="F327" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>326</v>
+      </c>
+      <c r="B328" s="1">
+        <v>89250000</v>
+      </c>
+      <c r="C328" s="1">
+        <v>30</v>
+      </c>
+      <c r="D328" s="1">
+        <v>250</v>
+      </c>
+      <c r="E328" s="1">
+        <v>30</v>
+      </c>
+      <c r="F328" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329" s="1">
+        <v>89500000</v>
+      </c>
+      <c r="C329" s="1">
+        <v>20</v>
+      </c>
+      <c r="D329" s="1">
+        <v>150</v>
+      </c>
+      <c r="E329" s="1">
+        <v>20</v>
+      </c>
+      <c r="F329" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330" s="2">
+        <v>89750000</v>
+      </c>
+      <c r="C330" s="1">
+        <v>5</v>
+      </c>
+      <c r="D330" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E330" s="1">
+        <v>5</v>
+      </c>
+      <c r="F330" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>329</v>
+      </c>
+      <c r="B331" s="1">
+        <v>90000000</v>
+      </c>
+      <c r="C331" s="2">
+        <v>14</v>
+      </c>
+      <c r="D331" s="2">
+        <v>5</v>
+      </c>
+      <c r="E331" s="2">
+        <v>14</v>
+      </c>
+      <c r="F331" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332" s="1">
+        <v>90250000</v>
+      </c>
+      <c r="C332" s="1">
+        <v>5</v>
+      </c>
+      <c r="D332" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E332" s="1">
+        <v>5</v>
+      </c>
+      <c r="F332" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333" s="1">
+        <v>90500000</v>
+      </c>
+      <c r="C333" s="1">
+        <v>30</v>
+      </c>
+      <c r="D333" s="1">
+        <v>250</v>
+      </c>
+      <c r="E333" s="1">
+        <v>30</v>
+      </c>
+      <c r="F333" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>332</v>
+      </c>
+      <c r="B334" s="1">
+        <v>90750000</v>
+      </c>
+      <c r="C334" s="1">
+        <v>20</v>
+      </c>
+      <c r="D334" s="1">
+        <v>150</v>
+      </c>
+      <c r="E334" s="1">
+        <v>20</v>
+      </c>
+      <c r="F334" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335" s="1">
+        <v>91000000</v>
+      </c>
+      <c r="C335" s="1">
+        <v>5</v>
+      </c>
+      <c r="D335" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E335" s="1">
+        <v>5</v>
+      </c>
+      <c r="F335" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336" s="1">
+        <v>91250000</v>
+      </c>
+      <c r="C336" s="2">
+        <v>14</v>
+      </c>
+      <c r="D336" s="2">
+        <v>5</v>
+      </c>
+      <c r="E336" s="2">
+        <v>14</v>
+      </c>
+      <c r="F336" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337" s="2">
+        <v>91500000</v>
+      </c>
+      <c r="C337" s="1">
+        <v>5</v>
+      </c>
+      <c r="D337" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E337" s="1">
+        <v>5</v>
+      </c>
+      <c r="F337" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338" s="1">
+        <v>91750000</v>
+      </c>
+      <c r="C338" s="1">
+        <v>30</v>
+      </c>
+      <c r="D338" s="1">
+        <v>250</v>
+      </c>
+      <c r="E338" s="1">
+        <v>30</v>
+      </c>
+      <c r="F338" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>337</v>
+      </c>
+      <c r="B339" s="1">
+        <v>91500000</v>
+      </c>
+      <c r="C339" s="1">
+        <v>20</v>
+      </c>
+      <c r="D339" s="1">
+        <v>150</v>
+      </c>
+      <c r="E339" s="1">
+        <v>20</v>
+      </c>
+      <c r="F339" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340" s="1">
+        <v>92250000</v>
+      </c>
+      <c r="C340" s="1">
+        <v>5</v>
+      </c>
+      <c r="D340" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E340" s="1">
+        <v>5</v>
+      </c>
+      <c r="F340" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341" s="1">
+        <v>92500000</v>
+      </c>
+      <c r="C341" s="2">
+        <v>14</v>
+      </c>
+      <c r="D341" s="2">
+        <v>5</v>
+      </c>
+      <c r="E341" s="2">
+        <v>14</v>
+      </c>
+      <c r="F341" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>340</v>
+      </c>
+      <c r="B342" s="1">
+        <v>92750000</v>
+      </c>
+      <c r="C342" s="1">
+        <v>5</v>
+      </c>
+      <c r="D342" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E342" s="1">
+        <v>5</v>
+      </c>
+      <c r="F342" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343" s="1">
+        <v>93000000</v>
+      </c>
+      <c r="C343" s="1">
+        <v>30</v>
+      </c>
+      <c r="D343" s="1">
+        <v>250</v>
+      </c>
+      <c r="E343" s="1">
+        <v>30</v>
+      </c>
+      <c r="F343" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344" s="2">
+        <v>93250000</v>
+      </c>
+      <c r="C344" s="1">
+        <v>20</v>
+      </c>
+      <c r="D344" s="1">
+        <v>150</v>
+      </c>
+      <c r="E344" s="1">
+        <v>20</v>
+      </c>
+      <c r="F344" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" s="2">
+        <v>343</v>
+      </c>
+      <c r="B345" s="1">
+        <v>93500000</v>
+      </c>
+      <c r="C345" s="1">
+        <v>5</v>
+      </c>
+      <c r="D345" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E345" s="1">
+        <v>5</v>
+      </c>
+      <c r="F345" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346" s="1">
+        <v>93750000</v>
+      </c>
+      <c r="C346" s="2">
+        <v>14</v>
+      </c>
+      <c r="D346" s="2">
+        <v>5</v>
+      </c>
+      <c r="E346" s="2">
+        <v>14</v>
+      </c>
+      <c r="F346" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347" s="1">
+        <v>94000000</v>
+      </c>
+      <c r="C347" s="1">
+        <v>5</v>
+      </c>
+      <c r="D347" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E347" s="1">
+        <v>5</v>
+      </c>
+      <c r="F347" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348" s="1">
+        <v>94250000</v>
+      </c>
+      <c r="C348" s="1">
+        <v>30</v>
+      </c>
+      <c r="D348" s="1">
+        <v>250</v>
+      </c>
+      <c r="E348" s="1">
+        <v>30</v>
+      </c>
+      <c r="F348" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349" s="1">
+        <v>94500000</v>
+      </c>
+      <c r="C349" s="1">
+        <v>20</v>
+      </c>
+      <c r="D349" s="1">
+        <v>150</v>
+      </c>
+      <c r="E349" s="1">
+        <v>20</v>
+      </c>
+      <c r="F349" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="2">
+        <v>348</v>
+      </c>
+      <c r="B350" s="1">
+        <v>94750000</v>
+      </c>
+      <c r="C350" s="1">
+        <v>5</v>
+      </c>
+      <c r="D350" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E350" s="1">
+        <v>5</v>
+      </c>
+      <c r="F350" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351" s="2">
+        <v>95000000</v>
+      </c>
+      <c r="C351" s="2">
+        <v>14</v>
+      </c>
+      <c r="D351" s="2">
+        <v>5</v>
+      </c>
+      <c r="E351" s="2">
+        <v>14</v>
+      </c>
+      <c r="F351" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352" s="1">
+        <v>95250000</v>
+      </c>
+      <c r="C352" s="1">
+        <v>5</v>
+      </c>
+      <c r="D352" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E352" s="1">
+        <v>5</v>
+      </c>
+      <c r="F352" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>351</v>
+      </c>
+      <c r="B353" s="1">
+        <v>95500000</v>
+      </c>
+      <c r="C353" s="1">
+        <v>30</v>
+      </c>
+      <c r="D353" s="1">
+        <v>250</v>
+      </c>
+      <c r="E353" s="1">
+        <v>30</v>
+      </c>
+      <c r="F353" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354" s="1">
+        <v>95750000</v>
+      </c>
+      <c r="C354" s="1">
+        <v>20</v>
+      </c>
+      <c r="D354" s="1">
+        <v>150</v>
+      </c>
+      <c r="E354" s="1">
+        <v>20</v>
+      </c>
+      <c r="F354" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355" s="1">
+        <v>96000000</v>
+      </c>
+      <c r="C355" s="1">
+        <v>5</v>
+      </c>
+      <c r="D355" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E355" s="1">
+        <v>5</v>
+      </c>
+      <c r="F355" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>354</v>
+      </c>
+      <c r="B356" s="1">
+        <v>96250000</v>
+      </c>
+      <c r="C356" s="2">
+        <v>14</v>
+      </c>
+      <c r="D356" s="2">
+        <v>5</v>
+      </c>
+      <c r="E356" s="2">
+        <v>14</v>
+      </c>
+      <c r="F356" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357" s="1">
+        <v>96500000</v>
+      </c>
+      <c r="C357" s="1">
+        <v>5</v>
+      </c>
+      <c r="D357" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E357" s="1">
+        <v>5</v>
+      </c>
+      <c r="F357" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358" s="2">
+        <v>96750000</v>
+      </c>
+      <c r="C358" s="1">
+        <v>30</v>
+      </c>
+      <c r="D358" s="1">
+        <v>250</v>
+      </c>
+      <c r="E358" s="1">
+        <v>30</v>
+      </c>
+      <c r="F358" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359" s="1">
+        <v>97000000</v>
+      </c>
+      <c r="C359" s="1">
+        <v>20</v>
+      </c>
+      <c r="D359" s="1">
+        <v>150</v>
+      </c>
+      <c r="E359" s="1">
+        <v>20</v>
+      </c>
+      <c r="F359" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360" s="1">
+        <v>97250000</v>
+      </c>
+      <c r="C360" s="1">
+        <v>5</v>
+      </c>
+      <c r="D360" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E360" s="1">
+        <v>5</v>
+      </c>
+      <c r="F360" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>359</v>
+      </c>
+      <c r="B361" s="1">
+        <v>97500000</v>
+      </c>
+      <c r="C361" s="2">
+        <v>14</v>
+      </c>
+      <c r="D361" s="2">
+        <v>5</v>
+      </c>
+      <c r="E361" s="2">
+        <v>14</v>
+      </c>
+      <c r="F361" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362" s="1">
+        <v>97750000</v>
+      </c>
+      <c r="C362" s="1">
+        <v>5</v>
+      </c>
+      <c r="D362" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E362" s="1">
+        <v>5</v>
+      </c>
+      <c r="F362" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363" s="1">
+        <v>98000000</v>
+      </c>
+      <c r="C363" s="1">
+        <v>30</v>
+      </c>
+      <c r="D363" s="1">
+        <v>250</v>
+      </c>
+      <c r="E363" s="1">
+        <v>30</v>
+      </c>
+      <c r="F363" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" s="2">
+        <v>362</v>
+      </c>
+      <c r="B364" s="1">
+        <v>98250000</v>
+      </c>
+      <c r="C364" s="1">
+        <v>20</v>
+      </c>
+      <c r="D364" s="1">
+        <v>150</v>
+      </c>
+      <c r="E364" s="1">
+        <v>20</v>
+      </c>
+      <c r="F364" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365" s="2">
+        <v>98500000</v>
+      </c>
+      <c r="C365" s="1">
+        <v>5</v>
+      </c>
+      <c r="D365" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E365" s="1">
+        <v>5</v>
+      </c>
+      <c r="F365" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366" s="1">
+        <v>98750000</v>
+      </c>
+      <c r="C366" s="2">
+        <v>14</v>
+      </c>
+      <c r="D366" s="2">
+        <v>5</v>
+      </c>
+      <c r="E366" s="2">
+        <v>14</v>
+      </c>
+      <c r="F366" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" s="2">
+        <v>365</v>
+      </c>
+      <c r="B367" s="1">
+        <v>99000000</v>
+      </c>
+      <c r="C367" s="1">
+        <v>5</v>
+      </c>
+      <c r="D367" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E367" s="1">
+        <v>5</v>
+      </c>
+      <c r="F367" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368" s="1">
+        <v>99250000</v>
+      </c>
+      <c r="C368" s="1">
+        <v>30</v>
+      </c>
+      <c r="D368" s="1">
+        <v>250</v>
+      </c>
+      <c r="E368" s="1">
+        <v>30</v>
+      </c>
+      <c r="F368" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369" s="1">
+        <v>99500000</v>
+      </c>
+      <c r="C369" s="1">
+        <v>20</v>
+      </c>
+      <c r="D369" s="1">
+        <v>150</v>
+      </c>
+      <c r="E369" s="1">
+        <v>20</v>
+      </c>
+      <c r="F369" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370" s="1">
+        <v>99750000</v>
+      </c>
+      <c r="C370" s="1">
+        <v>5</v>
+      </c>
+      <c r="D370" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E370" s="1">
+        <v>5</v>
+      </c>
+      <c r="F370" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>369</v>
+      </c>
+      <c r="B371" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="C371" s="2">
+        <v>14</v>
+      </c>
+      <c r="D371" s="2">
+        <v>5</v>
+      </c>
+      <c r="E371" s="2">
+        <v>14</v>
+      </c>
+      <c r="F371" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D26DBD2-5347-421D-B300-EEF9117593D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE76C6C-6BAA-46BD-909D-8437E19ABF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -459,7 +459,7 @@
   <dimension ref="A1:F371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>2000000</v>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE76C6C-6BAA-46BD-909D-8437E19ABF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8B7938-253E-4856-A9CA-6DB5C5298815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F371"/>
+  <dimension ref="A1:F400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H390" sqref="H390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1000000</v>
+        <v>750000</v>
       </c>
       <c r="C3" s="1">
         <v>30</v>
@@ -537,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -557,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2000000</v>
+        <v>1250000</v>
       </c>
       <c r="C5" s="1">
         <v>5</v>
@@ -576,8 +576,8 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>2500000</v>
+      <c r="B6" s="1">
+        <v>1500000</v>
       </c>
       <c r="C6" s="2">
         <v>14</v>
@@ -597,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>3000000</v>
+        <v>1750000</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>3500000</v>
+        <v>2000000</v>
       </c>
       <c r="C8" s="1">
         <v>30</v>
@@ -637,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>4000000</v>
+        <v>2250000</v>
       </c>
       <c r="C9" s="1">
         <v>20</v>
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>4500000</v>
+        <v>2500000</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -676,8 +676,8 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>5000000</v>
+      <c r="B11" s="1">
+        <v>2750000</v>
       </c>
       <c r="C11" s="2">
         <v>14</v>
@@ -697,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>5500000</v>
+        <v>3000000</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
@@ -717,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>6000000</v>
+        <v>3250000</v>
       </c>
       <c r="C13" s="1">
         <v>30</v>
@@ -737,7 +737,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>6500000</v>
+        <v>3500000</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
@@ -757,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>7000000</v>
+        <v>3750000</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -776,8 +776,8 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>7500000</v>
+      <c r="B16" s="1">
+        <v>4000000</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -797,7 +797,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>8000000</v>
+        <v>4250000</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -817,7 +817,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>8500000</v>
+        <v>4500000</v>
       </c>
       <c r="C18" s="1">
         <v>30</v>
@@ -837,7 +837,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>9000000</v>
+        <v>4750000</v>
       </c>
       <c r="C19" s="1">
         <v>20</v>
@@ -857,7 +857,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>9500000</v>
+        <v>5000000</v>
       </c>
       <c r="C20" s="1">
         <v>5</v>
@@ -876,8 +876,8 @@
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
-        <v>10000000</v>
+      <c r="B21" s="1">
+        <v>5250000</v>
       </c>
       <c r="C21" s="2">
         <v>14</v>
@@ -897,7 +897,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>10500000</v>
+        <v>5500000</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
@@ -917,7 +917,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>11000000</v>
+        <v>5750000</v>
       </c>
       <c r="C23" s="1">
         <v>30</v>
@@ -937,7 +937,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>11500000</v>
+        <v>6000000</v>
       </c>
       <c r="C24" s="1">
         <v>20</v>
@@ -957,7 +957,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>11500000</v>
+        <v>6250000</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
@@ -976,8 +976,8 @@
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
-        <v>12500000</v>
+      <c r="B26" s="1">
+        <v>6500000</v>
       </c>
       <c r="C26" s="2">
         <v>14</v>
@@ -997,7 +997,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>13000000</v>
+        <v>6750000</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
@@ -1017,7 +1017,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>13500000</v>
+        <v>7000000</v>
       </c>
       <c r="C28" s="1">
         <v>30</v>
@@ -1037,7 +1037,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>14000000</v>
+        <v>7250000</v>
       </c>
       <c r="C29" s="1">
         <v>20</v>
@@ -1057,7 +1057,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>14500000</v>
+        <v>7500000</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
@@ -1076,8 +1076,8 @@
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
-        <v>15000000</v>
+      <c r="B31" s="1">
+        <v>7750000</v>
       </c>
       <c r="C31" s="2">
         <v>14</v>
@@ -1097,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>15250000</v>
+        <v>8000000</v>
       </c>
       <c r="C32" s="1">
         <v>5</v>
@@ -1117,7 +1117,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>15500000</v>
+        <v>8250000</v>
       </c>
       <c r="C33" s="1">
         <v>30</v>
@@ -1137,7 +1137,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>15750000</v>
+        <v>8500000</v>
       </c>
       <c r="C34" s="1">
         <v>20</v>
@@ -1157,7 +1157,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>16000000</v>
+        <v>8750000</v>
       </c>
       <c r="C35" s="1">
         <v>5</v>
@@ -1176,8 +1176,8 @@
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
-        <v>16250000</v>
+      <c r="B36" s="1">
+        <v>9000000</v>
       </c>
       <c r="C36" s="2">
         <v>14</v>
@@ -1197,7 +1197,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>16500000</v>
+        <v>9250000</v>
       </c>
       <c r="C37" s="1">
         <v>5</v>
@@ -1217,7 +1217,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>16750000</v>
+        <v>9500000</v>
       </c>
       <c r="C38" s="1">
         <v>30</v>
@@ -1237,7 +1237,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>17000000</v>
+        <v>9750000</v>
       </c>
       <c r="C39" s="1">
         <v>20</v>
@@ -1257,7 +1257,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>17250000</v>
+        <v>10000000</v>
       </c>
       <c r="C40" s="1">
         <v>5</v>
@@ -1276,8 +1276,8 @@
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
-        <v>17500000</v>
+      <c r="B41" s="1">
+        <v>10250000</v>
       </c>
       <c r="C41" s="2">
         <v>14</v>
@@ -1297,7 +1297,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>17750000</v>
+        <v>10500000</v>
       </c>
       <c r="C42" s="1">
         <v>5</v>
@@ -1317,7 +1317,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>18000000</v>
+        <v>10750000</v>
       </c>
       <c r="C43" s="1">
         <v>30</v>
@@ -1337,7 +1337,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>18250000</v>
+        <v>11000000</v>
       </c>
       <c r="C44" s="1">
         <v>20</v>
@@ -1357,7 +1357,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>18500000</v>
+        <v>11250000</v>
       </c>
       <c r="C45" s="1">
         <v>5</v>
@@ -1376,8 +1376,8 @@
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
-        <v>18750000</v>
+      <c r="B46" s="1">
+        <v>11500000</v>
       </c>
       <c r="C46" s="2">
         <v>14</v>
@@ -1397,7 +1397,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>19000000</v>
+        <v>11750000</v>
       </c>
       <c r="C47" s="1">
         <v>5</v>
@@ -1417,7 +1417,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>19250000</v>
+        <v>12000000</v>
       </c>
       <c r="C48" s="1">
         <v>30</v>
@@ -1437,7 +1437,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>19500000</v>
+        <v>12250000</v>
       </c>
       <c r="C49" s="1">
         <v>20</v>
@@ -1457,7 +1457,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>19750000</v>
+        <v>12500000</v>
       </c>
       <c r="C50" s="1">
         <v>5</v>
@@ -1476,8 +1476,8 @@
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
-        <v>15000000</v>
+      <c r="B51" s="1">
+        <v>12750000</v>
       </c>
       <c r="C51" s="2">
         <v>14</v>
@@ -1497,7 +1497,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>20250000</v>
+        <v>13000000</v>
       </c>
       <c r="C52" s="1">
         <v>5</v>
@@ -1517,7 +1517,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>20500000</v>
+        <v>13250000</v>
       </c>
       <c r="C53" s="1">
         <v>30</v>
@@ -1537,7 +1537,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>20750000</v>
+        <v>13500000</v>
       </c>
       <c r="C54" s="1">
         <v>20</v>
@@ -1557,7 +1557,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>21000000</v>
+        <v>13750000</v>
       </c>
       <c r="C55" s="1">
         <v>5</v>
@@ -1576,8 +1576,8 @@
       <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
-        <v>21250000</v>
+      <c r="B56" s="1">
+        <v>14000000</v>
       </c>
       <c r="C56" s="2">
         <v>14</v>
@@ -1597,7 +1597,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>21500000</v>
+        <v>14250000</v>
       </c>
       <c r="C57" s="1">
         <v>5</v>
@@ -1617,7 +1617,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>21750000</v>
+        <v>14500000</v>
       </c>
       <c r="C58" s="1">
         <v>30</v>
@@ -1637,7 +1637,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>21500000</v>
+        <v>14750000</v>
       </c>
       <c r="C59" s="1">
         <v>20</v>
@@ -1657,7 +1657,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>22250000</v>
+        <v>15000000</v>
       </c>
       <c r="C60" s="1">
         <v>5</v>
@@ -1676,8 +1676,8 @@
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
-        <v>22500000</v>
+      <c r="B61" s="1">
+        <v>15250000</v>
       </c>
       <c r="C61" s="2">
         <v>14</v>
@@ -1697,7 +1697,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>22750000</v>
+        <v>15500000</v>
       </c>
       <c r="C62" s="1">
         <v>5</v>
@@ -1717,7 +1717,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>23000000</v>
+        <v>15750000</v>
       </c>
       <c r="C63" s="1">
         <v>30</v>
@@ -1737,7 +1737,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>23250000</v>
+        <v>16000000</v>
       </c>
       <c r="C64" s="1">
         <v>20</v>
@@ -1757,7 +1757,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>23500000</v>
+        <v>16250000</v>
       </c>
       <c r="C65" s="1">
         <v>5</v>
@@ -1776,8 +1776,8 @@
       <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
-        <v>23750000</v>
+      <c r="B66" s="1">
+        <v>16500000</v>
       </c>
       <c r="C66" s="2">
         <v>14</v>
@@ -1797,7 +1797,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>24000000</v>
+        <v>16750000</v>
       </c>
       <c r="C67" s="1">
         <v>5</v>
@@ -1817,7 +1817,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>24250000</v>
+        <v>17000000</v>
       </c>
       <c r="C68" s="1">
         <v>30</v>
@@ -1837,7 +1837,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>24500000</v>
+        <v>17250000</v>
       </c>
       <c r="C69" s="1">
         <v>20</v>
@@ -1857,7 +1857,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>24750000</v>
+        <v>17500000</v>
       </c>
       <c r="C70" s="1">
         <v>5</v>
@@ -1876,8 +1876,8 @@
       <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
-        <v>25000000</v>
+      <c r="B71" s="1">
+        <v>17750000</v>
       </c>
       <c r="C71" s="2">
         <v>14</v>
@@ -1897,7 +1897,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>25250000</v>
+        <v>18000000</v>
       </c>
       <c r="C72" s="1">
         <v>5</v>
@@ -1917,7 +1917,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>25500000</v>
+        <v>18250000</v>
       </c>
       <c r="C73" s="1">
         <v>30</v>
@@ -1937,7 +1937,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>25750000</v>
+        <v>18500000</v>
       </c>
       <c r="C74" s="1">
         <v>20</v>
@@ -1957,7 +1957,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>26000000</v>
+        <v>18750000</v>
       </c>
       <c r="C75" s="1">
         <v>5</v>
@@ -1976,8 +1976,8 @@
       <c r="A76" s="2">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
-        <v>26250000</v>
+      <c r="B76" s="1">
+        <v>19000000</v>
       </c>
       <c r="C76" s="2">
         <v>14</v>
@@ -1997,7 +1997,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>26500000</v>
+        <v>19250000</v>
       </c>
       <c r="C77" s="1">
         <v>5</v>
@@ -2017,7 +2017,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>26750000</v>
+        <v>19500000</v>
       </c>
       <c r="C78" s="1">
         <v>30</v>
@@ -2037,7 +2037,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>27000000</v>
+        <v>19750000</v>
       </c>
       <c r="C79" s="1">
         <v>20</v>
@@ -2057,7 +2057,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>27250000</v>
+        <v>20000000</v>
       </c>
       <c r="C80" s="1">
         <v>5</v>
@@ -2076,8 +2076,8 @@
       <c r="A81" s="2">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
-        <v>27500000</v>
+      <c r="B81" s="1">
+        <v>20250000</v>
       </c>
       <c r="C81" s="2">
         <v>14</v>
@@ -2097,7 +2097,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>27750000</v>
+        <v>20500000</v>
       </c>
       <c r="C82" s="1">
         <v>5</v>
@@ -2117,7 +2117,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>28000000</v>
+        <v>20750000</v>
       </c>
       <c r="C83" s="1">
         <v>30</v>
@@ -2137,7 +2137,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>28250000</v>
+        <v>21000000</v>
       </c>
       <c r="C84" s="1">
         <v>20</v>
@@ -2157,7 +2157,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>28500000</v>
+        <v>21250000</v>
       </c>
       <c r="C85" s="1">
         <v>5</v>
@@ -2176,8 +2176,8 @@
       <c r="A86" s="2">
         <v>84</v>
       </c>
-      <c r="B86" s="2">
-        <v>28750000</v>
+      <c r="B86" s="1">
+        <v>21500000</v>
       </c>
       <c r="C86" s="2">
         <v>14</v>
@@ -2197,7 +2197,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>29000000</v>
+        <v>21750000</v>
       </c>
       <c r="C87" s="1">
         <v>5</v>
@@ -2217,7 +2217,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>29250000</v>
+        <v>22000000</v>
       </c>
       <c r="C88" s="1">
         <v>30</v>
@@ -2237,7 +2237,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>29500000</v>
+        <v>22250000</v>
       </c>
       <c r="C89" s="1">
         <v>20</v>
@@ -2257,7 +2257,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>29750000</v>
+        <v>22500000</v>
       </c>
       <c r="C90" s="1">
         <v>5</v>
@@ -2276,8 +2276,8 @@
       <c r="A91" s="2">
         <v>89</v>
       </c>
-      <c r="B91" s="2">
-        <v>30000000</v>
+      <c r="B91" s="1">
+        <v>22750000</v>
       </c>
       <c r="C91" s="2">
         <v>14</v>
@@ -2297,7 +2297,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>30250000</v>
+        <v>23000000</v>
       </c>
       <c r="C92" s="1">
         <v>5</v>
@@ -2317,7 +2317,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>30500000</v>
+        <v>23250000</v>
       </c>
       <c r="C93" s="1">
         <v>30</v>
@@ -2337,7 +2337,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>30750000</v>
+        <v>23500000</v>
       </c>
       <c r="C94" s="1">
         <v>20</v>
@@ -2356,8 +2356,8 @@
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
-        <v>31000000</v>
+      <c r="B95" s="1">
+        <v>23750000</v>
       </c>
       <c r="C95" s="1">
         <v>5</v>
@@ -2377,7 +2377,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>31250000</v>
+        <v>24000000</v>
       </c>
       <c r="C96" s="2">
         <v>14</v>
@@ -2397,7 +2397,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>31500000</v>
+        <v>24250000</v>
       </c>
       <c r="C97" s="1">
         <v>5</v>
@@ -2417,7 +2417,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>31750000</v>
+        <v>24500000</v>
       </c>
       <c r="C98" s="1">
         <v>30</v>
@@ -2436,8 +2436,8 @@
       <c r="A99" s="2">
         <v>97</v>
       </c>
-      <c r="B99" s="2">
-        <v>31500000</v>
+      <c r="B99" s="1">
+        <v>24750000</v>
       </c>
       <c r="C99" s="1">
         <v>20</v>
@@ -2457,7 +2457,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>32250000</v>
+        <v>25000000</v>
       </c>
       <c r="C100" s="1">
         <v>5</v>
@@ -2477,7 +2477,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>32500000</v>
+        <v>25250000</v>
       </c>
       <c r="C101" s="2">
         <v>14</v>
@@ -2497,7 +2497,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>32750000</v>
+        <v>25500000</v>
       </c>
       <c r="C102" s="1">
         <v>5</v>
@@ -2516,8 +2516,8 @@
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="2">
-        <v>33000000</v>
+      <c r="B103" s="1">
+        <v>25750000</v>
       </c>
       <c r="C103" s="1">
         <v>30</v>
@@ -2537,7 +2537,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="1">
-        <v>33250000</v>
+        <v>26000000</v>
       </c>
       <c r="C104" s="1">
         <v>20</v>
@@ -2557,7 +2557,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>33500000</v>
+        <v>26250000</v>
       </c>
       <c r="C105" s="1">
         <v>5</v>
@@ -2577,7 +2577,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1">
-        <v>33750000</v>
+        <v>26500000</v>
       </c>
       <c r="C106" s="2">
         <v>14</v>
@@ -2596,8 +2596,8 @@
       <c r="A107" s="2">
         <v>105</v>
       </c>
-      <c r="B107" s="2">
-        <v>34000000</v>
+      <c r="B107" s="1">
+        <v>26750000</v>
       </c>
       <c r="C107" s="1">
         <v>5</v>
@@ -2617,7 +2617,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1">
-        <v>34250000</v>
+        <v>27000000</v>
       </c>
       <c r="C108" s="1">
         <v>30</v>
@@ -2637,7 +2637,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1">
-        <v>34500000</v>
+        <v>27250000</v>
       </c>
       <c r="C109" s="1">
         <v>20</v>
@@ -2657,7 +2657,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="1">
-        <v>34750000</v>
+        <v>27500000</v>
       </c>
       <c r="C110" s="1">
         <v>5</v>
@@ -2676,8 +2676,8 @@
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="2">
-        <v>35000000</v>
+      <c r="B111" s="1">
+        <v>27750000</v>
       </c>
       <c r="C111" s="2">
         <v>14</v>
@@ -2697,7 +2697,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="1">
-        <v>35250000</v>
+        <v>28000000</v>
       </c>
       <c r="C112" s="1">
         <v>5</v>
@@ -2717,7 +2717,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="1">
-        <v>35500000</v>
+        <v>28250000</v>
       </c>
       <c r="C113" s="1">
         <v>30</v>
@@ -2737,7 +2737,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="1">
-        <v>35750000</v>
+        <v>28500000</v>
       </c>
       <c r="C114" s="1">
         <v>20</v>
@@ -2756,8 +2756,8 @@
       <c r="A115" s="2">
         <v>113</v>
       </c>
-      <c r="B115" s="2">
-        <v>36000000</v>
+      <c r="B115" s="1">
+        <v>28750000</v>
       </c>
       <c r="C115" s="1">
         <v>5</v>
@@ -2777,7 +2777,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="1">
-        <v>36250000</v>
+        <v>29000000</v>
       </c>
       <c r="C116" s="2">
         <v>14</v>
@@ -2797,7 +2797,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="1">
-        <v>36500000</v>
+        <v>29250000</v>
       </c>
       <c r="C117" s="1">
         <v>5</v>
@@ -2817,7 +2817,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="1">
-        <v>36750000</v>
+        <v>29500000</v>
       </c>
       <c r="C118" s="1">
         <v>30</v>
@@ -2836,8 +2836,8 @@
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="2">
-        <v>37000000</v>
+      <c r="B119" s="1">
+        <v>29750000</v>
       </c>
       <c r="C119" s="1">
         <v>20</v>
@@ -2857,7 +2857,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="1">
-        <v>37250000</v>
+        <v>30000000</v>
       </c>
       <c r="C120" s="1">
         <v>5</v>
@@ -2877,7 +2877,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="1">
-        <v>37500000</v>
+        <v>30250000</v>
       </c>
       <c r="C121" s="2">
         <v>14</v>
@@ -2897,7 +2897,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="1">
-        <v>37750000</v>
+        <v>30500000</v>
       </c>
       <c r="C122" s="1">
         <v>5</v>
@@ -2917,7 +2917,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="1">
-        <v>38000000</v>
+        <v>30750000</v>
       </c>
       <c r="C123" s="1">
         <v>30</v>
@@ -2937,7 +2937,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="1">
-        <v>38250000</v>
+        <v>31000000</v>
       </c>
       <c r="C124" s="1">
         <v>20</v>
@@ -2956,8 +2956,8 @@
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" s="2">
-        <v>38500000</v>
+      <c r="B125" s="1">
+        <v>31250000</v>
       </c>
       <c r="C125" s="1">
         <v>5</v>
@@ -2977,7 +2977,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="1">
-        <v>38750000</v>
+        <v>31500000</v>
       </c>
       <c r="C126" s="2">
         <v>14</v>
@@ -2997,7 +2997,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="1">
-        <v>39000000</v>
+        <v>31750000</v>
       </c>
       <c r="C127" s="1">
         <v>5</v>
@@ -3017,7 +3017,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="1">
-        <v>39250000</v>
+        <v>32000000</v>
       </c>
       <c r="C128" s="1">
         <v>30</v>
@@ -3036,8 +3036,8 @@
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" s="2">
-        <v>39500000</v>
+      <c r="B129" s="1">
+        <v>32250000</v>
       </c>
       <c r="C129" s="1">
         <v>20</v>
@@ -3057,7 +3057,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="1">
-        <v>39750000</v>
+        <v>32500000</v>
       </c>
       <c r="C130" s="1">
         <v>5</v>
@@ -3077,7 +3077,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="1">
-        <v>40000000</v>
+        <v>32750000</v>
       </c>
       <c r="C131" s="2">
         <v>14</v>
@@ -3097,7 +3097,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="1">
-        <v>40250000</v>
+        <v>33000000</v>
       </c>
       <c r="C132" s="1">
         <v>5</v>
@@ -3117,7 +3117,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1">
-        <v>40500000</v>
+        <v>33250000</v>
       </c>
       <c r="C133" s="1">
         <v>30</v>
@@ -3136,8 +3136,8 @@
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" s="2">
-        <v>40750000</v>
+      <c r="B134" s="1">
+        <v>33500000</v>
       </c>
       <c r="C134" s="1">
         <v>20</v>
@@ -3157,7 +3157,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="1">
-        <v>41000000</v>
+        <v>33750000</v>
       </c>
       <c r="C135" s="1">
         <v>5</v>
@@ -3177,7 +3177,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="1">
-        <v>41250000</v>
+        <v>34000000</v>
       </c>
       <c r="C136" s="2">
         <v>14</v>
@@ -3197,7 +3197,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="1">
-        <v>41500000</v>
+        <v>34250000</v>
       </c>
       <c r="C137" s="1">
         <v>5</v>
@@ -3216,8 +3216,8 @@
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" s="2">
-        <v>41750000</v>
+      <c r="B138" s="1">
+        <v>34500000</v>
       </c>
       <c r="C138" s="1">
         <v>30</v>
@@ -3237,7 +3237,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="1">
-        <v>41500000</v>
+        <v>34750000</v>
       </c>
       <c r="C139" s="1">
         <v>20</v>
@@ -3257,7 +3257,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="1">
-        <v>42250000</v>
+        <v>35000000</v>
       </c>
       <c r="C140" s="1">
         <v>5</v>
@@ -3277,7 +3277,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="1">
-        <v>42500000</v>
+        <v>35250000</v>
       </c>
       <c r="C141" s="2">
         <v>14</v>
@@ -3297,7 +3297,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="1">
-        <v>42750000</v>
+        <v>35500000</v>
       </c>
       <c r="C142" s="1">
         <v>5</v>
@@ -3316,8 +3316,8 @@
       <c r="A143" s="2">
         <v>141</v>
       </c>
-      <c r="B143" s="2">
-        <v>43000000</v>
+      <c r="B143" s="1">
+        <v>35750000</v>
       </c>
       <c r="C143" s="1">
         <v>30</v>
@@ -3337,7 +3337,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="1">
-        <v>43250000</v>
+        <v>36000000</v>
       </c>
       <c r="C144" s="1">
         <v>20</v>
@@ -3357,7 +3357,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="1">
-        <v>43500000</v>
+        <v>36250000</v>
       </c>
       <c r="C145" s="1">
         <v>5</v>
@@ -3377,7 +3377,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="1">
-        <v>43750000</v>
+        <v>36500000</v>
       </c>
       <c r="C146" s="2">
         <v>14</v>
@@ -3396,8 +3396,8 @@
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" s="2">
-        <v>44000000</v>
+      <c r="B147" s="1">
+        <v>36750000</v>
       </c>
       <c r="C147" s="1">
         <v>5</v>
@@ -3417,7 +3417,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="1">
-        <v>44250000</v>
+        <v>37000000</v>
       </c>
       <c r="C148" s="1">
         <v>30</v>
@@ -3437,7 +3437,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="1">
-        <v>44500000</v>
+        <v>37250000</v>
       </c>
       <c r="C149" s="1">
         <v>20</v>
@@ -3457,7 +3457,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="1">
-        <v>44750000</v>
+        <v>37500000</v>
       </c>
       <c r="C150" s="1">
         <v>5</v>
@@ -3477,7 +3477,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="1">
-        <v>45000000</v>
+        <v>37750000</v>
       </c>
       <c r="C151" s="2">
         <v>14</v>
@@ -3496,8 +3496,8 @@
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" s="2">
-        <v>45250000</v>
+      <c r="B152" s="1">
+        <v>38000000</v>
       </c>
       <c r="C152" s="1">
         <v>5</v>
@@ -3517,7 +3517,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="1">
-        <v>45500000</v>
+        <v>38250000</v>
       </c>
       <c r="C153" s="1">
         <v>30</v>
@@ -3537,7 +3537,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="1">
-        <v>45750000</v>
+        <v>38500000</v>
       </c>
       <c r="C154" s="1">
         <v>20</v>
@@ -3557,7 +3557,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1">
-        <v>46000000</v>
+        <v>38750000</v>
       </c>
       <c r="C155" s="1">
         <v>5</v>
@@ -3576,8 +3576,8 @@
       <c r="A156" s="2">
         <v>154</v>
       </c>
-      <c r="B156" s="2">
-        <v>46250000</v>
+      <c r="B156" s="1">
+        <v>39000000</v>
       </c>
       <c r="C156" s="2">
         <v>14</v>
@@ -3597,7 +3597,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="1">
-        <v>46500000</v>
+        <v>39250000</v>
       </c>
       <c r="C157" s="1">
         <v>5</v>
@@ -3617,7 +3617,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="1">
-        <v>46750000</v>
+        <v>39500000</v>
       </c>
       <c r="C158" s="1">
         <v>30</v>
@@ -3637,7 +3637,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="1">
-        <v>47000000</v>
+        <v>39750000</v>
       </c>
       <c r="C159" s="1">
         <v>20</v>
@@ -3657,7 +3657,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="1">
-        <v>47250000</v>
+        <v>40000000</v>
       </c>
       <c r="C160" s="1">
         <v>5</v>
@@ -3676,8 +3676,8 @@
       <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" s="2">
-        <v>47500000</v>
+      <c r="B161" s="1">
+        <v>40250000</v>
       </c>
       <c r="C161" s="2">
         <v>14</v>
@@ -3697,7 +3697,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="1">
-        <v>47750000</v>
+        <v>40500000</v>
       </c>
       <c r="C162" s="1">
         <v>5</v>
@@ -3717,7 +3717,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="1">
-        <v>48000000</v>
+        <v>40750000</v>
       </c>
       <c r="C163" s="1">
         <v>30</v>
@@ -3737,7 +3737,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="1">
-        <v>48250000</v>
+        <v>41000000</v>
       </c>
       <c r="C164" s="1">
         <v>20</v>
@@ -3756,8 +3756,8 @@
       <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" s="2">
-        <v>48500000</v>
+      <c r="B165" s="1">
+        <v>41250000</v>
       </c>
       <c r="C165" s="1">
         <v>5</v>
@@ -3777,7 +3777,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="1">
-        <v>48750000</v>
+        <v>41500000</v>
       </c>
       <c r="C166" s="2">
         <v>14</v>
@@ -3797,7 +3797,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="1">
-        <v>49000000</v>
+        <v>41750000</v>
       </c>
       <c r="C167" s="1">
         <v>5</v>
@@ -3817,7 +3817,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="1">
-        <v>49250000</v>
+        <v>42000000</v>
       </c>
       <c r="C168" s="1">
         <v>30</v>
@@ -3837,7 +3837,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="1">
-        <v>49500000</v>
+        <v>42250000</v>
       </c>
       <c r="C169" s="1">
         <v>20</v>
@@ -3856,8 +3856,8 @@
       <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" s="2">
-        <v>49750000</v>
+      <c r="B170" s="1">
+        <v>42500000</v>
       </c>
       <c r="C170" s="1">
         <v>5</v>
@@ -3877,7 +3877,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="1">
-        <v>50000000</v>
+        <v>42750000</v>
       </c>
       <c r="C171" s="2">
         <v>14</v>
@@ -3897,7 +3897,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="1">
-        <v>50250000</v>
+        <v>43000000</v>
       </c>
       <c r="C172" s="1">
         <v>5</v>
@@ -3917,7 +3917,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="1">
-        <v>50500000</v>
+        <v>43250000</v>
       </c>
       <c r="C173" s="1">
         <v>30</v>
@@ -3936,8 +3936,8 @@
       <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" s="2">
-        <v>50750000</v>
+      <c r="B174" s="1">
+        <v>43500000</v>
       </c>
       <c r="C174" s="1">
         <v>20</v>
@@ -3957,7 +3957,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="1">
-        <v>51000000</v>
+        <v>43750000</v>
       </c>
       <c r="C175" s="1">
         <v>5</v>
@@ -3977,7 +3977,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="1">
-        <v>51250000</v>
+        <v>44000000</v>
       </c>
       <c r="C176" s="2">
         <v>14</v>
@@ -3997,7 +3997,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="1">
-        <v>51500000</v>
+        <v>44250000</v>
       </c>
       <c r="C177" s="1">
         <v>5</v>
@@ -4017,7 +4017,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="1">
-        <v>51750000</v>
+        <v>44500000</v>
       </c>
       <c r="C178" s="1">
         <v>30</v>
@@ -4036,8 +4036,8 @@
       <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" s="2">
-        <v>51500000</v>
+      <c r="B179" s="1">
+        <v>44750000</v>
       </c>
       <c r="C179" s="1">
         <v>20</v>
@@ -4057,7 +4057,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="1">
-        <v>52250000</v>
+        <v>45000000</v>
       </c>
       <c r="C180" s="1">
         <v>5</v>
@@ -4077,7 +4077,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="1">
-        <v>52500000</v>
+        <v>45250000</v>
       </c>
       <c r="C181" s="2">
         <v>14</v>
@@ -4097,7 +4097,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="1">
-        <v>52750000</v>
+        <v>45500000</v>
       </c>
       <c r="C182" s="1">
         <v>5</v>
@@ -4116,8 +4116,8 @@
       <c r="A183" s="2">
         <v>181</v>
       </c>
-      <c r="B183" s="2">
-        <v>53000000</v>
+      <c r="B183" s="1">
+        <v>45750000</v>
       </c>
       <c r="C183" s="1">
         <v>30</v>
@@ -4137,7 +4137,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="1">
-        <v>53250000</v>
+        <v>46000000</v>
       </c>
       <c r="C184" s="1">
         <v>20</v>
@@ -4157,7 +4157,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="1">
-        <v>53500000</v>
+        <v>46250000</v>
       </c>
       <c r="C185" s="1">
         <v>5</v>
@@ -4177,7 +4177,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="1">
-        <v>53750000</v>
+        <v>46500000</v>
       </c>
       <c r="C186" s="2">
         <v>14</v>
@@ -4197,7 +4197,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="1">
-        <v>54000000</v>
+        <v>46750000</v>
       </c>
       <c r="C187" s="1">
         <v>5</v>
@@ -4216,8 +4216,8 @@
       <c r="A188" s="2">
         <v>186</v>
       </c>
-      <c r="B188" s="2">
-        <v>54250000</v>
+      <c r="B188" s="1">
+        <v>47000000</v>
       </c>
       <c r="C188" s="1">
         <v>30</v>
@@ -4237,7 +4237,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="1">
-        <v>54500000</v>
+        <v>47250000</v>
       </c>
       <c r="C189" s="1">
         <v>20</v>
@@ -4257,7 +4257,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="1">
-        <v>54750000</v>
+        <v>47500000</v>
       </c>
       <c r="C190" s="1">
         <v>5</v>
@@ -4277,7 +4277,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="1">
-        <v>55000000</v>
+        <v>47750000</v>
       </c>
       <c r="C191" s="2">
         <v>14</v>
@@ -4296,8 +4296,8 @@
       <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" s="2">
-        <v>55250000</v>
+      <c r="B192" s="1">
+        <v>48000000</v>
       </c>
       <c r="C192" s="1">
         <v>5</v>
@@ -4317,7 +4317,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="1">
-        <v>55500000</v>
+        <v>48250000</v>
       </c>
       <c r="C193" s="1">
         <v>30</v>
@@ -4337,7 +4337,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="1">
-        <v>55750000</v>
+        <v>48500000</v>
       </c>
       <c r="C194" s="1">
         <v>20</v>
@@ -4357,7 +4357,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="1">
-        <v>56000000</v>
+        <v>48750000</v>
       </c>
       <c r="C195" s="1">
         <v>5</v>
@@ -4377,7 +4377,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="1">
-        <v>56250000</v>
+        <v>49000000</v>
       </c>
       <c r="C196" s="2">
         <v>14</v>
@@ -4396,8 +4396,8 @@
       <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" s="2">
-        <v>56500000</v>
+      <c r="B197" s="1">
+        <v>49250000</v>
       </c>
       <c r="C197" s="1">
         <v>5</v>
@@ -4417,7 +4417,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="1">
-        <v>56750000</v>
+        <v>49500000</v>
       </c>
       <c r="C198" s="1">
         <v>30</v>
@@ -4437,7 +4437,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="1">
-        <v>57000000</v>
+        <v>49750000</v>
       </c>
       <c r="C199" s="1">
         <v>20</v>
@@ -4457,7 +4457,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="1">
-        <v>57250000</v>
+        <v>50000000</v>
       </c>
       <c r="C200" s="1">
         <v>5</v>
@@ -4476,8 +4476,8 @@
       <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" s="2">
-        <v>57500000</v>
+      <c r="B201" s="1">
+        <v>50250000</v>
       </c>
       <c r="C201" s="2">
         <v>14</v>
@@ -4497,7 +4497,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="1">
-        <v>57750000</v>
+        <v>50500000</v>
       </c>
       <c r="C202" s="1">
         <v>5</v>
@@ -4517,7 +4517,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="1">
-        <v>58000000</v>
+        <v>50750000</v>
       </c>
       <c r="C203" s="1">
         <v>30</v>
@@ -4537,7 +4537,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="1">
-        <v>58250000</v>
+        <v>51000000</v>
       </c>
       <c r="C204" s="1">
         <v>20</v>
@@ -4557,7 +4557,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="1">
-        <v>58500000</v>
+        <v>51250000</v>
       </c>
       <c r="C205" s="1">
         <v>5</v>
@@ -4576,8 +4576,8 @@
       <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" s="2">
-        <v>58750000</v>
+      <c r="B206" s="1">
+        <v>51500000</v>
       </c>
       <c r="C206" s="2">
         <v>14</v>
@@ -4597,7 +4597,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="1">
-        <v>59000000</v>
+        <v>51750000</v>
       </c>
       <c r="C207" s="1">
         <v>5</v>
@@ -4617,7 +4617,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="1">
-        <v>59250000</v>
+        <v>52000000</v>
       </c>
       <c r="C208" s="1">
         <v>30</v>
@@ -4637,7 +4637,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="1">
-        <v>59500000</v>
+        <v>52250000</v>
       </c>
       <c r="C209" s="1">
         <v>20</v>
@@ -4656,8 +4656,8 @@
       <c r="A210" s="2">
         <v>208</v>
       </c>
-      <c r="B210" s="2">
-        <v>59750000</v>
+      <c r="B210" s="1">
+        <v>52500000</v>
       </c>
       <c r="C210" s="1">
         <v>5</v>
@@ -4677,7 +4677,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="1">
-        <v>60000000</v>
+        <v>52750000</v>
       </c>
       <c r="C211" s="2">
         <v>14</v>
@@ -4697,7 +4697,7 @@
         <v>210</v>
       </c>
       <c r="B212" s="1">
-        <v>60250000</v>
+        <v>53000000</v>
       </c>
       <c r="C212" s="1">
         <v>5</v>
@@ -4717,7 +4717,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="1">
-        <v>60500000</v>
+        <v>53250000</v>
       </c>
       <c r="C213" s="1">
         <v>30</v>
@@ -4736,8 +4736,8 @@
       <c r="A214" s="2">
         <v>212</v>
       </c>
-      <c r="B214" s="2">
-        <v>60750000</v>
+      <c r="B214" s="1">
+        <v>53500000</v>
       </c>
       <c r="C214" s="1">
         <v>20</v>
@@ -4757,7 +4757,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="1">
-        <v>61000000</v>
+        <v>53750000</v>
       </c>
       <c r="C215" s="1">
         <v>5</v>
@@ -4777,7 +4777,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="1">
-        <v>61250000</v>
+        <v>54000000</v>
       </c>
       <c r="C216" s="2">
         <v>14</v>
@@ -4797,7 +4797,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="1">
-        <v>61500000</v>
+        <v>54250000</v>
       </c>
       <c r="C217" s="1">
         <v>5</v>
@@ -4817,7 +4817,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="1">
-        <v>61750000</v>
+        <v>54500000</v>
       </c>
       <c r="C218" s="1">
         <v>30</v>
@@ -4836,8 +4836,8 @@
       <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" s="2">
-        <v>61500000</v>
+      <c r="B219" s="1">
+        <v>54750000</v>
       </c>
       <c r="C219" s="1">
         <v>20</v>
@@ -4857,7 +4857,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="1">
-        <v>62250000</v>
+        <v>55000000</v>
       </c>
       <c r="C220" s="1">
         <v>5</v>
@@ -4877,7 +4877,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="1">
-        <v>62500000</v>
+        <v>55250000</v>
       </c>
       <c r="C221" s="2">
         <v>14</v>
@@ -4897,7 +4897,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="1">
-        <v>62750000</v>
+        <v>55500000</v>
       </c>
       <c r="C222" s="1">
         <v>5</v>
@@ -4916,8 +4916,8 @@
       <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" s="2">
-        <v>63000000</v>
+      <c r="B223" s="1">
+        <v>55750000</v>
       </c>
       <c r="C223" s="1">
         <v>30</v>
@@ -4937,7 +4937,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="1">
-        <v>63250000</v>
+        <v>56000000</v>
       </c>
       <c r="C224" s="1">
         <v>20</v>
@@ -4957,7 +4957,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="1">
-        <v>63500000</v>
+        <v>56250000</v>
       </c>
       <c r="C225" s="1">
         <v>5</v>
@@ -4977,7 +4977,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="1">
-        <v>63750000</v>
+        <v>56500000</v>
       </c>
       <c r="C226" s="2">
         <v>14</v>
@@ -4996,8 +4996,8 @@
       <c r="A227" s="2">
         <v>225</v>
       </c>
-      <c r="B227" s="2">
-        <v>64000000</v>
+      <c r="B227" s="1">
+        <v>56750000</v>
       </c>
       <c r="C227" s="1">
         <v>5</v>
@@ -5017,7 +5017,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="1">
-        <v>64250000</v>
+        <v>57000000</v>
       </c>
       <c r="C228" s="1">
         <v>30</v>
@@ -5037,7 +5037,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="1">
-        <v>64500000</v>
+        <v>57250000</v>
       </c>
       <c r="C229" s="1">
         <v>20</v>
@@ -5057,7 +5057,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="1">
-        <v>64750000</v>
+        <v>57500000</v>
       </c>
       <c r="C230" s="1">
         <v>5</v>
@@ -5077,7 +5077,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="1">
-        <v>65000000</v>
+        <v>57750000</v>
       </c>
       <c r="C231" s="2">
         <v>14</v>
@@ -5096,8 +5096,8 @@
       <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" s="2">
-        <v>65250000</v>
+      <c r="B232" s="1">
+        <v>58000000</v>
       </c>
       <c r="C232" s="1">
         <v>5</v>
@@ -5117,7 +5117,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="1">
-        <v>65500000</v>
+        <v>58250000</v>
       </c>
       <c r="C233" s="1">
         <v>30</v>
@@ -5137,7 +5137,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="1">
-        <v>65750000</v>
+        <v>58500000</v>
       </c>
       <c r="C234" s="1">
         <v>20</v>
@@ -5157,7 +5157,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="1">
-        <v>66000000</v>
+        <v>58750000</v>
       </c>
       <c r="C235" s="1">
         <v>5</v>
@@ -5176,8 +5176,8 @@
       <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" s="2">
-        <v>66250000</v>
+      <c r="B236" s="1">
+        <v>59000000</v>
       </c>
       <c r="C236" s="2">
         <v>14</v>
@@ -5197,7 +5197,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="1">
-        <v>66500000</v>
+        <v>59250000</v>
       </c>
       <c r="C237" s="1">
         <v>5</v>
@@ -5217,7 +5217,7 @@
         <v>236</v>
       </c>
       <c r="B238" s="1">
-        <v>66750000</v>
+        <v>59500000</v>
       </c>
       <c r="C238" s="1">
         <v>30</v>
@@ -5237,7 +5237,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="1">
-        <v>67000000</v>
+        <v>59750000</v>
       </c>
       <c r="C239" s="1">
         <v>20</v>
@@ -5256,8 +5256,8 @@
       <c r="A240" s="2">
         <v>238</v>
       </c>
-      <c r="B240" s="2">
-        <v>67250000</v>
+      <c r="B240" s="1">
+        <v>60000000</v>
       </c>
       <c r="C240" s="1">
         <v>5</v>
@@ -5277,7 +5277,7 @@
         <v>239</v>
       </c>
       <c r="B241" s="1">
-        <v>67500000</v>
+        <v>60250000</v>
       </c>
       <c r="C241" s="2">
         <v>14</v>
@@ -5297,7 +5297,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="1">
-        <v>67750000</v>
+        <v>60500000</v>
       </c>
       <c r="C242" s="1">
         <v>5</v>
@@ -5317,7 +5317,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="1">
-        <v>68000000</v>
+        <v>60750000</v>
       </c>
       <c r="C243" s="1">
         <v>30</v>
@@ -5337,7 +5337,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="1">
-        <v>68250000</v>
+        <v>61000000</v>
       </c>
       <c r="C244" s="1">
         <v>20</v>
@@ -5356,8 +5356,8 @@
       <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" s="2">
-        <v>68500000</v>
+      <c r="B245" s="1">
+        <v>61250000</v>
       </c>
       <c r="C245" s="1">
         <v>5</v>
@@ -5377,7 +5377,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="1">
-        <v>68750000</v>
+        <v>61500000</v>
       </c>
       <c r="C246" s="2">
         <v>14</v>
@@ -5397,7 +5397,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="1">
-        <v>69000000</v>
+        <v>61750000</v>
       </c>
       <c r="C247" s="1">
         <v>5</v>
@@ -5417,7 +5417,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="1">
-        <v>69250000</v>
+        <v>62000000</v>
       </c>
       <c r="C248" s="1">
         <v>30</v>
@@ -5436,8 +5436,8 @@
       <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" s="2">
-        <v>69500000</v>
+      <c r="B249" s="1">
+        <v>62250000</v>
       </c>
       <c r="C249" s="1">
         <v>20</v>
@@ -5457,7 +5457,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="1">
-        <v>69750000</v>
+        <v>62500000</v>
       </c>
       <c r="C250" s="1">
         <v>5</v>
@@ -5477,7 +5477,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="1">
-        <v>70000000</v>
+        <v>62750000</v>
       </c>
       <c r="C251" s="2">
         <v>14</v>
@@ -5497,7 +5497,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="1">
-        <v>70250000</v>
+        <v>63000000</v>
       </c>
       <c r="C252" s="1">
         <v>5</v>
@@ -5516,8 +5516,8 @@
       <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" s="2">
-        <v>70500000</v>
+      <c r="B253" s="1">
+        <v>63250000</v>
       </c>
       <c r="C253" s="1">
         <v>30</v>
@@ -5537,7 +5537,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="1">
-        <v>70750000</v>
+        <v>63500000</v>
       </c>
       <c r="C254" s="1">
         <v>20</v>
@@ -5557,7 +5557,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="1">
-        <v>71000000</v>
+        <v>63750000</v>
       </c>
       <c r="C255" s="1">
         <v>5</v>
@@ -5577,7 +5577,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="1">
-        <v>71250000</v>
+        <v>64000000</v>
       </c>
       <c r="C256" s="2">
         <v>14</v>
@@ -5597,7 +5597,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="1">
-        <v>71500000</v>
+        <v>64250000</v>
       </c>
       <c r="C257" s="1">
         <v>5</v>
@@ -5616,8 +5616,8 @@
       <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" s="2">
-        <v>71750000</v>
+      <c r="B258" s="1">
+        <v>64500000</v>
       </c>
       <c r="C258" s="1">
         <v>30</v>
@@ -5637,7 +5637,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="1">
-        <v>71500000</v>
+        <v>64750000</v>
       </c>
       <c r="C259" s="1">
         <v>20</v>
@@ -5657,7 +5657,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="1">
-        <v>72250000</v>
+        <v>65000000</v>
       </c>
       <c r="C260" s="1">
         <v>5</v>
@@ -5677,7 +5677,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="1">
-        <v>72500000</v>
+        <v>65250000</v>
       </c>
       <c r="C261" s="2">
         <v>14</v>
@@ -5696,8 +5696,8 @@
       <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" s="2">
-        <v>72750000</v>
+      <c r="B262" s="1">
+        <v>65500000</v>
       </c>
       <c r="C262" s="1">
         <v>5</v>
@@ -5717,7 +5717,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="1">
-        <v>73000000</v>
+        <v>65750000</v>
       </c>
       <c r="C263" s="1">
         <v>30</v>
@@ -5737,7 +5737,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="1">
-        <v>73250000</v>
+        <v>66000000</v>
       </c>
       <c r="C264" s="1">
         <v>20</v>
@@ -5757,7 +5757,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="1">
-        <v>73500000</v>
+        <v>66250000</v>
       </c>
       <c r="C265" s="1">
         <v>5</v>
@@ -5776,8 +5776,8 @@
       <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" s="2">
-        <v>73750000</v>
+      <c r="B266" s="1">
+        <v>66500000</v>
       </c>
       <c r="C266" s="2">
         <v>14</v>
@@ -5797,7 +5797,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="1">
-        <v>74000000</v>
+        <v>66750000</v>
       </c>
       <c r="C267" s="1">
         <v>5</v>
@@ -5817,7 +5817,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="1">
-        <v>74250000</v>
+        <v>67000000</v>
       </c>
       <c r="C268" s="1">
         <v>30</v>
@@ -5837,7 +5837,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="1">
-        <v>74500000</v>
+        <v>67250000</v>
       </c>
       <c r="C269" s="1">
         <v>20</v>
@@ -5857,7 +5857,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="1">
-        <v>74750000</v>
+        <v>67500000</v>
       </c>
       <c r="C270" s="1">
         <v>5</v>
@@ -5876,8 +5876,8 @@
       <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" s="2">
-        <v>75000000</v>
+      <c r="B271" s="1">
+        <v>67750000</v>
       </c>
       <c r="C271" s="2">
         <v>14</v>
@@ -5897,7 +5897,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="1">
-        <v>75250000</v>
+        <v>68000000</v>
       </c>
       <c r="C272" s="1">
         <v>5</v>
@@ -5917,7 +5917,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="1">
-        <v>75500000</v>
+        <v>68250000</v>
       </c>
       <c r="C273" s="1">
         <v>30</v>
@@ -5937,7 +5937,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="1">
-        <v>75750000</v>
+        <v>68500000</v>
       </c>
       <c r="C274" s="1">
         <v>20</v>
@@ -5956,8 +5956,8 @@
       <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" s="2">
-        <v>76000000</v>
+      <c r="B275" s="1">
+        <v>68750000</v>
       </c>
       <c r="C275" s="1">
         <v>5</v>
@@ -5977,7 +5977,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="1">
-        <v>76250000</v>
+        <v>69000000</v>
       </c>
       <c r="C276" s="2">
         <v>14</v>
@@ -5997,7 +5997,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="1">
-        <v>76500000</v>
+        <v>69250000</v>
       </c>
       <c r="C277" s="1">
         <v>5</v>
@@ -6017,7 +6017,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="1">
-        <v>76750000</v>
+        <v>69500000</v>
       </c>
       <c r="C278" s="1">
         <v>30</v>
@@ -6036,8 +6036,8 @@
       <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" s="2">
-        <v>77000000</v>
+      <c r="B279" s="1">
+        <v>69750000</v>
       </c>
       <c r="C279" s="1">
         <v>20</v>
@@ -6057,7 +6057,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="1">
-        <v>77250000</v>
+        <v>70000000</v>
       </c>
       <c r="C280" s="1">
         <v>5</v>
@@ -6077,7 +6077,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="1">
-        <v>77500000</v>
+        <v>70250000</v>
       </c>
       <c r="C281" s="2">
         <v>14</v>
@@ -6097,7 +6097,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="1">
-        <v>77750000</v>
+        <v>70500000</v>
       </c>
       <c r="C282" s="1">
         <v>5</v>
@@ -6117,7 +6117,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="1">
-        <v>78000000</v>
+        <v>70750000</v>
       </c>
       <c r="C283" s="1">
         <v>30</v>
@@ -6136,8 +6136,8 @@
       <c r="A284" s="2">
         <v>282</v>
       </c>
-      <c r="B284" s="2">
-        <v>78250000</v>
+      <c r="B284" s="1">
+        <v>71000000</v>
       </c>
       <c r="C284" s="1">
         <v>20</v>
@@ -6157,7 +6157,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="1">
-        <v>78500000</v>
+        <v>71250000</v>
       </c>
       <c r="C285" s="1">
         <v>5</v>
@@ -6177,7 +6177,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="1">
-        <v>78750000</v>
+        <v>71500000</v>
       </c>
       <c r="C286" s="2">
         <v>14</v>
@@ -6197,7 +6197,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="1">
-        <v>79000000</v>
+        <v>71750000</v>
       </c>
       <c r="C287" s="1">
         <v>5</v>
@@ -6216,8 +6216,8 @@
       <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" s="2">
-        <v>79250000</v>
+      <c r="B288" s="1">
+        <v>72000000</v>
       </c>
       <c r="C288" s="1">
         <v>30</v>
@@ -6237,7 +6237,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="1">
-        <v>79500000</v>
+        <v>72250000</v>
       </c>
       <c r="C289" s="1">
         <v>20</v>
@@ -6257,7 +6257,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="1">
-        <v>79750000</v>
+        <v>72500000</v>
       </c>
       <c r="C290" s="1">
         <v>5</v>
@@ -6277,7 +6277,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="1">
-        <v>80000000</v>
+        <v>72750000</v>
       </c>
       <c r="C291" s="2">
         <v>14</v>
@@ -6297,7 +6297,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="1">
-        <v>80250000</v>
+        <v>73000000</v>
       </c>
       <c r="C292" s="1">
         <v>5</v>
@@ -6317,7 +6317,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="1">
-        <v>80500000</v>
+        <v>73250000</v>
       </c>
       <c r="C293" s="1">
         <v>30</v>
@@ -6337,7 +6337,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="1">
-        <v>80750000</v>
+        <v>73500000</v>
       </c>
       <c r="C294" s="1">
         <v>20</v>
@@ -6356,8 +6356,8 @@
       <c r="A295" s="2">
         <v>293</v>
       </c>
-      <c r="B295" s="2">
-        <v>81000000</v>
+      <c r="B295" s="1">
+        <v>73750000</v>
       </c>
       <c r="C295" s="1">
         <v>5</v>
@@ -6377,7 +6377,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="1">
-        <v>81250000</v>
+        <v>74000000</v>
       </c>
       <c r="C296" s="2">
         <v>14</v>
@@ -6397,7 +6397,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="1">
-        <v>81500000</v>
+        <v>74250000</v>
       </c>
       <c r="C297" s="1">
         <v>5</v>
@@ -6417,7 +6417,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="1">
-        <v>81750000</v>
+        <v>74500000</v>
       </c>
       <c r="C298" s="1">
         <v>30</v>
@@ -6437,7 +6437,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="1">
-        <v>81500000</v>
+        <v>74750000</v>
       </c>
       <c r="C299" s="1">
         <v>20</v>
@@ -6457,7 +6457,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="1">
-        <v>82250000</v>
+        <v>75000000</v>
       </c>
       <c r="C300" s="1">
         <v>5</v>
@@ -6477,7 +6477,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="1">
-        <v>82500000</v>
+        <v>75250000</v>
       </c>
       <c r="C301" s="2">
         <v>14</v>
@@ -6496,8 +6496,8 @@
       <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" s="2">
-        <v>82750000</v>
+      <c r="B302" s="1">
+        <v>75500000</v>
       </c>
       <c r="C302" s="1">
         <v>5</v>
@@ -6517,7 +6517,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="1">
-        <v>83000000</v>
+        <v>75750000</v>
       </c>
       <c r="C303" s="1">
         <v>30</v>
@@ -6537,7 +6537,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="1">
-        <v>83250000</v>
+        <v>76000000</v>
       </c>
       <c r="C304" s="1">
         <v>20</v>
@@ -6557,7 +6557,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="1">
-        <v>83500000</v>
+        <v>76250000</v>
       </c>
       <c r="C305" s="1">
         <v>5</v>
@@ -6577,7 +6577,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="1">
-        <v>83750000</v>
+        <v>76500000</v>
       </c>
       <c r="C306" s="2">
         <v>14</v>
@@ -6597,7 +6597,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="1">
-        <v>84000000</v>
+        <v>76750000</v>
       </c>
       <c r="C307" s="1">
         <v>5</v>
@@ -6617,7 +6617,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="1">
-        <v>84250000</v>
+        <v>77000000</v>
       </c>
       <c r="C308" s="1">
         <v>30</v>
@@ -6636,8 +6636,8 @@
       <c r="A309" s="2">
         <v>307</v>
       </c>
-      <c r="B309" s="2">
-        <v>84500000</v>
+      <c r="B309" s="1">
+        <v>77250000</v>
       </c>
       <c r="C309" s="1">
         <v>20</v>
@@ -6657,7 +6657,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="1">
-        <v>84750000</v>
+        <v>77500000</v>
       </c>
       <c r="C310" s="1">
         <v>5</v>
@@ -6677,7 +6677,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="1">
-        <v>85000000</v>
+        <v>77750000</v>
       </c>
       <c r="C311" s="2">
         <v>14</v>
@@ -6697,7 +6697,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="1">
-        <v>85250000</v>
+        <v>78000000</v>
       </c>
       <c r="C312" s="1">
         <v>5</v>
@@ -6717,7 +6717,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="1">
-        <v>85500000</v>
+        <v>78250000</v>
       </c>
       <c r="C313" s="1">
         <v>30</v>
@@ -6737,7 +6737,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="1">
-        <v>85750000</v>
+        <v>78500000</v>
       </c>
       <c r="C314" s="1">
         <v>20</v>
@@ -6757,7 +6757,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="1">
-        <v>86000000</v>
+        <v>78750000</v>
       </c>
       <c r="C315" s="1">
         <v>5</v>
@@ -6776,8 +6776,8 @@
       <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" s="2">
-        <v>86250000</v>
+      <c r="B316" s="1">
+        <v>79000000</v>
       </c>
       <c r="C316" s="2">
         <v>14</v>
@@ -6797,7 +6797,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="1">
-        <v>86500000</v>
+        <v>79250000</v>
       </c>
       <c r="C317" s="1">
         <v>5</v>
@@ -6817,7 +6817,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="1">
-        <v>86750000</v>
+        <v>79500000</v>
       </c>
       <c r="C318" s="1">
         <v>30</v>
@@ -6837,7 +6837,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="1">
-        <v>87000000</v>
+        <v>79750000</v>
       </c>
       <c r="C319" s="1">
         <v>20</v>
@@ -6857,7 +6857,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="1">
-        <v>87250000</v>
+        <v>80000000</v>
       </c>
       <c r="C320" s="1">
         <v>5</v>
@@ -6877,7 +6877,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="1">
-        <v>87500000</v>
+        <v>80250000</v>
       </c>
       <c r="C321" s="2">
         <v>14</v>
@@ -6897,7 +6897,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="1">
-        <v>87750000</v>
+        <v>80500000</v>
       </c>
       <c r="C322" s="1">
         <v>5</v>
@@ -6916,8 +6916,8 @@
       <c r="A323" s="2">
         <v>321</v>
       </c>
-      <c r="B323" s="2">
-        <v>88000000</v>
+      <c r="B323" s="1">
+        <v>80750000</v>
       </c>
       <c r="C323" s="1">
         <v>30</v>
@@ -6937,7 +6937,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="1">
-        <v>88250000</v>
+        <v>81000000</v>
       </c>
       <c r="C324" s="1">
         <v>20</v>
@@ -6957,7 +6957,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="1">
-        <v>88500000</v>
+        <v>81250000</v>
       </c>
       <c r="C325" s="1">
         <v>5</v>
@@ -6977,7 +6977,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="1">
-        <v>88750000</v>
+        <v>81500000</v>
       </c>
       <c r="C326" s="2">
         <v>14</v>
@@ -6997,7 +6997,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="1">
-        <v>89000000</v>
+        <v>81750000</v>
       </c>
       <c r="C327" s="1">
         <v>5</v>
@@ -7017,7 +7017,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="1">
-        <v>89250000</v>
+        <v>82000000</v>
       </c>
       <c r="C328" s="1">
         <v>30</v>
@@ -7037,7 +7037,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="1">
-        <v>89500000</v>
+        <v>82250000</v>
       </c>
       <c r="C329" s="1">
         <v>20</v>
@@ -7056,8 +7056,8 @@
       <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" s="2">
-        <v>89750000</v>
+      <c r="B330" s="1">
+        <v>82500000</v>
       </c>
       <c r="C330" s="1">
         <v>5</v>
@@ -7077,7 +7077,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="1">
-        <v>90000000</v>
+        <v>82750000</v>
       </c>
       <c r="C331" s="2">
         <v>14</v>
@@ -7097,7 +7097,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="1">
-        <v>90250000</v>
+        <v>83000000</v>
       </c>
       <c r="C332" s="1">
         <v>5</v>
@@ -7117,7 +7117,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="1">
-        <v>90500000</v>
+        <v>83250000</v>
       </c>
       <c r="C333" s="1">
         <v>30</v>
@@ -7137,7 +7137,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="1">
-        <v>90750000</v>
+        <v>83500000</v>
       </c>
       <c r="C334" s="1">
         <v>20</v>
@@ -7157,7 +7157,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="1">
-        <v>91000000</v>
+        <v>83750000</v>
       </c>
       <c r="C335" s="1">
         <v>5</v>
@@ -7177,7 +7177,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="1">
-        <v>91250000</v>
+        <v>84000000</v>
       </c>
       <c r="C336" s="2">
         <v>14</v>
@@ -7196,8 +7196,8 @@
       <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" s="2">
-        <v>91500000</v>
+      <c r="B337" s="1">
+        <v>84250000</v>
       </c>
       <c r="C337" s="1">
         <v>5</v>
@@ -7217,7 +7217,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="1">
-        <v>91750000</v>
+        <v>84500000</v>
       </c>
       <c r="C338" s="1">
         <v>30</v>
@@ -7237,7 +7237,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="1">
-        <v>91500000</v>
+        <v>84750000</v>
       </c>
       <c r="C339" s="1">
         <v>20</v>
@@ -7257,7 +7257,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="1">
-        <v>92250000</v>
+        <v>85000000</v>
       </c>
       <c r="C340" s="1">
         <v>5</v>
@@ -7277,7 +7277,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="1">
-        <v>92500000</v>
+        <v>85250000</v>
       </c>
       <c r="C341" s="2">
         <v>14</v>
@@ -7297,7 +7297,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="1">
-        <v>92750000</v>
+        <v>85500000</v>
       </c>
       <c r="C342" s="1">
         <v>5</v>
@@ -7317,7 +7317,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="1">
-        <v>93000000</v>
+        <v>85750000</v>
       </c>
       <c r="C343" s="1">
         <v>30</v>
@@ -7336,8 +7336,8 @@
       <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" s="2">
-        <v>93250000</v>
+      <c r="B344" s="1">
+        <v>86000000</v>
       </c>
       <c r="C344" s="1">
         <v>20</v>
@@ -7357,7 +7357,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="1">
-        <v>93500000</v>
+        <v>86250000</v>
       </c>
       <c r="C345" s="1">
         <v>5</v>
@@ -7377,7 +7377,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="1">
-        <v>93750000</v>
+        <v>86500000</v>
       </c>
       <c r="C346" s="2">
         <v>14</v>
@@ -7397,7 +7397,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="1">
-        <v>94000000</v>
+        <v>86750000</v>
       </c>
       <c r="C347" s="1">
         <v>5</v>
@@ -7417,7 +7417,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="1">
-        <v>94250000</v>
+        <v>87000000</v>
       </c>
       <c r="C348" s="1">
         <v>30</v>
@@ -7437,7 +7437,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="1">
-        <v>94500000</v>
+        <v>87250000</v>
       </c>
       <c r="C349" s="1">
         <v>20</v>
@@ -7457,7 +7457,7 @@
         <v>348</v>
       </c>
       <c r="B350" s="1">
-        <v>94750000</v>
+        <v>87500000</v>
       </c>
       <c r="C350" s="1">
         <v>5</v>
@@ -7476,8 +7476,8 @@
       <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" s="2">
-        <v>95000000</v>
+      <c r="B351" s="1">
+        <v>87750000</v>
       </c>
       <c r="C351" s="2">
         <v>14</v>
@@ -7497,7 +7497,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="1">
-        <v>95250000</v>
+        <v>88000000</v>
       </c>
       <c r="C352" s="1">
         <v>5</v>
@@ -7517,7 +7517,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="1">
-        <v>95500000</v>
+        <v>88250000</v>
       </c>
       <c r="C353" s="1">
         <v>30</v>
@@ -7537,7 +7537,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="1">
-        <v>95750000</v>
+        <v>88500000</v>
       </c>
       <c r="C354" s="1">
         <v>20</v>
@@ -7557,7 +7557,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="1">
-        <v>96000000</v>
+        <v>88750000</v>
       </c>
       <c r="C355" s="1">
         <v>5</v>
@@ -7577,7 +7577,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="1">
-        <v>96250000</v>
+        <v>89000000</v>
       </c>
       <c r="C356" s="2">
         <v>14</v>
@@ -7597,7 +7597,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="1">
-        <v>96500000</v>
+        <v>89250000</v>
       </c>
       <c r="C357" s="1">
         <v>5</v>
@@ -7616,8 +7616,8 @@
       <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" s="2">
-        <v>96750000</v>
+      <c r="B358" s="1">
+        <v>89500000</v>
       </c>
       <c r="C358" s="1">
         <v>30</v>
@@ -7637,7 +7637,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="1">
-        <v>97000000</v>
+        <v>89750000</v>
       </c>
       <c r="C359" s="1">
         <v>20</v>
@@ -7657,7 +7657,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="1">
-        <v>97250000</v>
+        <v>90000000</v>
       </c>
       <c r="C360" s="1">
         <v>5</v>
@@ -7677,7 +7677,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="1">
-        <v>97500000</v>
+        <v>90250000</v>
       </c>
       <c r="C361" s="2">
         <v>14</v>
@@ -7697,7 +7697,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="1">
-        <v>97750000</v>
+        <v>90500000</v>
       </c>
       <c r="C362" s="1">
         <v>5</v>
@@ -7717,7 +7717,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="1">
-        <v>98000000</v>
+        <v>90750000</v>
       </c>
       <c r="C363" s="1">
         <v>30</v>
@@ -7737,7 +7737,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="1">
-        <v>98250000</v>
+        <v>91000000</v>
       </c>
       <c r="C364" s="1">
         <v>20</v>
@@ -7756,8 +7756,8 @@
       <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" s="2">
-        <v>98500000</v>
+      <c r="B365" s="1">
+        <v>91250000</v>
       </c>
       <c r="C365" s="1">
         <v>5</v>
@@ -7777,7 +7777,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="1">
-        <v>98750000</v>
+        <v>91500000</v>
       </c>
       <c r="C366" s="2">
         <v>14</v>
@@ -7797,7 +7797,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="1">
-        <v>99000000</v>
+        <v>91750000</v>
       </c>
       <c r="C367" s="1">
         <v>5</v>
@@ -7817,7 +7817,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="1">
-        <v>99250000</v>
+        <v>92000000</v>
       </c>
       <c r="C368" s="1">
         <v>30</v>
@@ -7837,7 +7837,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="1">
-        <v>99500000</v>
+        <v>92250000</v>
       </c>
       <c r="C369" s="1">
         <v>20</v>
@@ -7857,7 +7857,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="1">
-        <v>99750000</v>
+        <v>92500000</v>
       </c>
       <c r="C370" s="1">
         <v>5</v>
@@ -7877,19 +7877,599 @@
         <v>369</v>
       </c>
       <c r="B371" s="1">
+        <v>92750000</v>
+      </c>
+      <c r="C371" s="2">
+        <v>14</v>
+      </c>
+      <c r="D371" s="2">
+        <v>5</v>
+      </c>
+      <c r="E371" s="2">
+        <v>14</v>
+      </c>
+      <c r="F371" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>370</v>
+      </c>
+      <c r="B372" s="1">
+        <v>93000000</v>
+      </c>
+      <c r="C372" s="1">
+        <v>5</v>
+      </c>
+      <c r="D372" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E372" s="1">
+        <v>5</v>
+      </c>
+      <c r="F372" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>371</v>
+      </c>
+      <c r="B373" s="1">
+        <v>93250000</v>
+      </c>
+      <c r="C373" s="1">
+        <v>30</v>
+      </c>
+      <c r="D373" s="1">
+        <v>250</v>
+      </c>
+      <c r="E373" s="1">
+        <v>30</v>
+      </c>
+      <c r="F373" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" s="2">
+        <v>372</v>
+      </c>
+      <c r="B374" s="1">
+        <v>93500000</v>
+      </c>
+      <c r="C374" s="1">
+        <v>20</v>
+      </c>
+      <c r="D374" s="1">
+        <v>150</v>
+      </c>
+      <c r="E374" s="1">
+        <v>20</v>
+      </c>
+      <c r="F374" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>373</v>
+      </c>
+      <c r="B375" s="1">
+        <v>93750000</v>
+      </c>
+      <c r="C375" s="1">
+        <v>5</v>
+      </c>
+      <c r="D375" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E375" s="1">
+        <v>5</v>
+      </c>
+      <c r="F375" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>374</v>
+      </c>
+      <c r="B376" s="1">
+        <v>94000000</v>
+      </c>
+      <c r="C376" s="2">
+        <v>14</v>
+      </c>
+      <c r="D376" s="2">
+        <v>5</v>
+      </c>
+      <c r="E376" s="2">
+        <v>14</v>
+      </c>
+      <c r="F376" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>375</v>
+      </c>
+      <c r="B377" s="1">
+        <v>94250000</v>
+      </c>
+      <c r="C377" s="1">
+        <v>5</v>
+      </c>
+      <c r="D377" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E377" s="1">
+        <v>5</v>
+      </c>
+      <c r="F377" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>376</v>
+      </c>
+      <c r="B378" s="1">
+        <v>94500000</v>
+      </c>
+      <c r="C378" s="1">
+        <v>30</v>
+      </c>
+      <c r="D378" s="1">
+        <v>250</v>
+      </c>
+      <c r="E378" s="1">
+        <v>30</v>
+      </c>
+      <c r="F378" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>377</v>
+      </c>
+      <c r="B379" s="1">
+        <v>94750000</v>
+      </c>
+      <c r="C379" s="1">
+        <v>20</v>
+      </c>
+      <c r="D379" s="1">
+        <v>150</v>
+      </c>
+      <c r="E379" s="1">
+        <v>20</v>
+      </c>
+      <c r="F379" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>378</v>
+      </c>
+      <c r="B380" s="1">
+        <v>95000000</v>
+      </c>
+      <c r="C380" s="1">
+        <v>5</v>
+      </c>
+      <c r="D380" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E380" s="1">
+        <v>5</v>
+      </c>
+      <c r="F380" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" s="2">
+        <v>379</v>
+      </c>
+      <c r="B381" s="1">
+        <v>95250000</v>
+      </c>
+      <c r="C381" s="2">
+        <v>14</v>
+      </c>
+      <c r="D381" s="2">
+        <v>5</v>
+      </c>
+      <c r="E381" s="2">
+        <v>14</v>
+      </c>
+      <c r="F381" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>380</v>
+      </c>
+      <c r="B382" s="1">
+        <v>95500000</v>
+      </c>
+      <c r="C382" s="1">
+        <v>5</v>
+      </c>
+      <c r="D382" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E382" s="1">
+        <v>5</v>
+      </c>
+      <c r="F382" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>381</v>
+      </c>
+      <c r="B383" s="1">
+        <v>95750000</v>
+      </c>
+      <c r="C383" s="1">
+        <v>30</v>
+      </c>
+      <c r="D383" s="1">
+        <v>250</v>
+      </c>
+      <c r="E383" s="1">
+        <v>30</v>
+      </c>
+      <c r="F383" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>382</v>
+      </c>
+      <c r="B384" s="1">
+        <v>96000000</v>
+      </c>
+      <c r="C384" s="1">
+        <v>20</v>
+      </c>
+      <c r="D384" s="1">
+        <v>150</v>
+      </c>
+      <c r="E384" s="1">
+        <v>20</v>
+      </c>
+      <c r="F384" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>383</v>
+      </c>
+      <c r="B385" s="1">
+        <v>96250000</v>
+      </c>
+      <c r="C385" s="1">
+        <v>5</v>
+      </c>
+      <c r="D385" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E385" s="1">
+        <v>5</v>
+      </c>
+      <c r="F385" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>384</v>
+      </c>
+      <c r="B386" s="1">
+        <v>96500000</v>
+      </c>
+      <c r="C386" s="2">
+        <v>14</v>
+      </c>
+      <c r="D386" s="2">
+        <v>5</v>
+      </c>
+      <c r="E386" s="2">
+        <v>14</v>
+      </c>
+      <c r="F386" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>385</v>
+      </c>
+      <c r="B387" s="1">
+        <v>96750000</v>
+      </c>
+      <c r="C387" s="1">
+        <v>5</v>
+      </c>
+      <c r="D387" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E387" s="1">
+        <v>5</v>
+      </c>
+      <c r="F387" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" s="2">
+        <v>386</v>
+      </c>
+      <c r="B388" s="1">
+        <v>97000000</v>
+      </c>
+      <c r="C388" s="1">
+        <v>30</v>
+      </c>
+      <c r="D388" s="1">
+        <v>250</v>
+      </c>
+      <c r="E388" s="1">
+        <v>30</v>
+      </c>
+      <c r="F388" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>387</v>
+      </c>
+      <c r="B389" s="1">
+        <v>97250000</v>
+      </c>
+      <c r="C389" s="1">
+        <v>20</v>
+      </c>
+      <c r="D389" s="1">
+        <v>150</v>
+      </c>
+      <c r="E389" s="1">
+        <v>20</v>
+      </c>
+      <c r="F389" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" s="1">
+        <v>388</v>
+      </c>
+      <c r="B390" s="1">
+        <v>97500000</v>
+      </c>
+      <c r="C390" s="1">
+        <v>5</v>
+      </c>
+      <c r="D390" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E390" s="1">
+        <v>5</v>
+      </c>
+      <c r="F390" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A391" s="1">
+        <v>389</v>
+      </c>
+      <c r="B391" s="1">
+        <v>97750000</v>
+      </c>
+      <c r="C391" s="2">
+        <v>14</v>
+      </c>
+      <c r="D391" s="2">
+        <v>5</v>
+      </c>
+      <c r="E391" s="2">
+        <v>14</v>
+      </c>
+      <c r="F391" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" s="1">
+        <v>390</v>
+      </c>
+      <c r="B392" s="1">
+        <v>98000000</v>
+      </c>
+      <c r="C392" s="1">
+        <v>5</v>
+      </c>
+      <c r="D392" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E392" s="1">
+        <v>5</v>
+      </c>
+      <c r="F392" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>391</v>
+      </c>
+      <c r="B393" s="1">
+        <v>98250000</v>
+      </c>
+      <c r="C393" s="1">
+        <v>30</v>
+      </c>
+      <c r="D393" s="1">
+        <v>250</v>
+      </c>
+      <c r="E393" s="1">
+        <v>30</v>
+      </c>
+      <c r="F393" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>392</v>
+      </c>
+      <c r="B394" s="1">
+        <v>98500000</v>
+      </c>
+      <c r="C394" s="1">
+        <v>20</v>
+      </c>
+      <c r="D394" s="1">
+        <v>150</v>
+      </c>
+      <c r="E394" s="1">
+        <v>20</v>
+      </c>
+      <c r="F394" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" s="2">
+        <v>393</v>
+      </c>
+      <c r="B395" s="1">
+        <v>98750000</v>
+      </c>
+      <c r="C395" s="1">
+        <v>5</v>
+      </c>
+      <c r="D395" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E395" s="1">
+        <v>5</v>
+      </c>
+      <c r="F395" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>394</v>
+      </c>
+      <c r="B396" s="1">
+        <v>99000000</v>
+      </c>
+      <c r="C396" s="2">
+        <v>14</v>
+      </c>
+      <c r="D396" s="2">
+        <v>5</v>
+      </c>
+      <c r="E396" s="2">
+        <v>14</v>
+      </c>
+      <c r="F396" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>395</v>
+      </c>
+      <c r="B397" s="1">
+        <v>99250000</v>
+      </c>
+      <c r="C397" s="1">
+        <v>5</v>
+      </c>
+      <c r="D397" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E397" s="1">
+        <v>5</v>
+      </c>
+      <c r="F397" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>396</v>
+      </c>
+      <c r="B398" s="1">
+        <v>99500000</v>
+      </c>
+      <c r="C398" s="1">
+        <v>30</v>
+      </c>
+      <c r="D398" s="1">
+        <v>250</v>
+      </c>
+      <c r="E398" s="1">
+        <v>30</v>
+      </c>
+      <c r="F398" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>397</v>
+      </c>
+      <c r="B399" s="1">
+        <v>99750000</v>
+      </c>
+      <c r="C399" s="1">
+        <v>20</v>
+      </c>
+      <c r="D399" s="1">
+        <v>150</v>
+      </c>
+      <c r="E399" s="1">
+        <v>20</v>
+      </c>
+      <c r="F399" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>398</v>
+      </c>
+      <c r="B400" s="1">
         <v>100000000</v>
       </c>
-      <c r="C371" s="2">
-        <v>14</v>
-      </c>
-      <c r="D371" s="2">
-        <v>5</v>
-      </c>
-      <c r="E371" s="2">
-        <v>14</v>
-      </c>
-      <c r="F371" s="2">
-        <v>5</v>
+      <c r="C400" s="1">
+        <v>5</v>
+      </c>
+      <c r="D400" s="1">
+        <v>1500000</v>
+      </c>
+      <c r="E400" s="1">
+        <v>5</v>
+      </c>
+      <c r="F400" s="1">
+        <v>1500000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8B7938-253E-4856-A9CA-6DB5C5298815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960C7370-E926-4D42-B314-45F0D6D11976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPass" sheetId="1" r:id="rId1"/>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:F400"/>
+  <dimension ref="A1:F480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A349" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H390" sqref="H390"/>
+    <sheetView tabSelected="1" topLeftCell="A466" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N479" sqref="N479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,13 +503,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -560,16 +560,16 @@
         <v>1250000</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -603,10 +603,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E7" s="2">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -660,16 +660,16 @@
         <v>2500000</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -703,13 +703,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E12" s="1">
         <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -760,16 +760,16 @@
         <v>3750000</v>
       </c>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E15" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -803,13 +803,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
       </c>
       <c r="F17" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -860,16 +860,16 @@
         <v>5000000</v>
       </c>
       <c r="C20" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E20" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -903,13 +903,13 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E22" s="1">
         <v>5</v>
       </c>
       <c r="F22" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -960,16 +960,16 @@
         <v>6250000</v>
       </c>
       <c r="C25" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E25" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F25" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1003,13 +1003,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
       </c>
       <c r="F27" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1060,16 +1060,16 @@
         <v>7500000</v>
       </c>
       <c r="C30" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D30" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E30" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F30" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1103,13 +1103,13 @@
         <v>5</v>
       </c>
       <c r="D32" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E32" s="1">
         <v>5</v>
       </c>
       <c r="F32" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1160,16 +1160,16 @@
         <v>8750000</v>
       </c>
       <c r="C35" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E35" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F35" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1203,13 +1203,13 @@
         <v>5</v>
       </c>
       <c r="D37" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E37" s="1">
         <v>5</v>
       </c>
       <c r="F37" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1260,16 +1260,16 @@
         <v>10000000</v>
       </c>
       <c r="C40" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E40" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F40" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1303,13 +1303,13 @@
         <v>5</v>
       </c>
       <c r="D42" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E42" s="1">
         <v>5</v>
       </c>
       <c r="F42" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1360,16 +1360,16 @@
         <v>11250000</v>
       </c>
       <c r="C45" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D45" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E45" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F45" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1403,13 +1403,13 @@
         <v>5</v>
       </c>
       <c r="D47" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E47" s="1">
         <v>5</v>
       </c>
       <c r="F47" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1460,16 +1460,16 @@
         <v>12500000</v>
       </c>
       <c r="C50" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D50" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E50" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F50" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1503,13 +1503,13 @@
         <v>5</v>
       </c>
       <c r="D52" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E52" s="1">
         <v>5</v>
       </c>
       <c r="F52" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1560,16 +1560,16 @@
         <v>13750000</v>
       </c>
       <c r="C55" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D55" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E55" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F55" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1603,13 +1603,13 @@
         <v>5</v>
       </c>
       <c r="D57" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E57" s="1">
         <v>5</v>
       </c>
       <c r="F57" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1660,16 +1660,16 @@
         <v>15000000</v>
       </c>
       <c r="C60" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D60" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E60" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F60" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1703,13 +1703,13 @@
         <v>5</v>
       </c>
       <c r="D62" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E62" s="1">
         <v>5</v>
       </c>
       <c r="F62" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1760,16 +1760,16 @@
         <v>16250000</v>
       </c>
       <c r="C65" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D65" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E65" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F65" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1803,13 +1803,13 @@
         <v>5</v>
       </c>
       <c r="D67" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E67" s="1">
         <v>5</v>
       </c>
       <c r="F67" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1860,16 +1860,16 @@
         <v>17500000</v>
       </c>
       <c r="C70" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D70" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E70" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F70" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1903,13 +1903,13 @@
         <v>5</v>
       </c>
       <c r="D72" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E72" s="1">
         <v>5</v>
       </c>
       <c r="F72" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1960,16 +1960,16 @@
         <v>18750000</v>
       </c>
       <c r="C75" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D75" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E75" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F75" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2003,13 +2003,13 @@
         <v>5</v>
       </c>
       <c r="D77" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E77" s="1">
         <v>5</v>
       </c>
       <c r="F77" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2060,16 +2060,16 @@
         <v>20000000</v>
       </c>
       <c r="C80" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D80" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E80" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F80" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2103,13 +2103,13 @@
         <v>5</v>
       </c>
       <c r="D82" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E82" s="1">
         <v>5</v>
       </c>
       <c r="F82" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2160,16 +2160,16 @@
         <v>21250000</v>
       </c>
       <c r="C85" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D85" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E85" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F85" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2203,13 +2203,13 @@
         <v>5</v>
       </c>
       <c r="D87" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E87" s="1">
         <v>5</v>
       </c>
       <c r="F87" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2260,16 +2260,16 @@
         <v>22500000</v>
       </c>
       <c r="C90" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D90" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E90" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F90" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2303,13 +2303,13 @@
         <v>5</v>
       </c>
       <c r="D92" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E92" s="1">
         <v>5</v>
       </c>
       <c r="F92" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2360,16 +2360,16 @@
         <v>23750000</v>
       </c>
       <c r="C95" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D95" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E95" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F95" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -2403,13 +2403,13 @@
         <v>5</v>
       </c>
       <c r="D97" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E97" s="1">
         <v>5</v>
       </c>
       <c r="F97" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2460,16 +2460,16 @@
         <v>25000000</v>
       </c>
       <c r="C100" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D100" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E100" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F100" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2503,13 +2503,13 @@
         <v>5</v>
       </c>
       <c r="D102" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E102" s="1">
         <v>5</v>
       </c>
       <c r="F102" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -2560,16 +2560,16 @@
         <v>26250000</v>
       </c>
       <c r="C105" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D105" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E105" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F105" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -2603,13 +2603,13 @@
         <v>5</v>
       </c>
       <c r="D107" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E107" s="1">
         <v>5</v>
       </c>
       <c r="F107" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -2660,16 +2660,16 @@
         <v>27500000</v>
       </c>
       <c r="C110" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D110" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E110" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F110" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -2703,13 +2703,13 @@
         <v>5</v>
       </c>
       <c r="D112" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E112" s="1">
         <v>5</v>
       </c>
       <c r="F112" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -2760,16 +2760,16 @@
         <v>28750000</v>
       </c>
       <c r="C115" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D115" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E115" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F115" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -2803,13 +2803,13 @@
         <v>5</v>
       </c>
       <c r="D117" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E117" s="1">
         <v>5</v>
       </c>
       <c r="F117" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -2860,16 +2860,16 @@
         <v>30000000</v>
       </c>
       <c r="C120" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D120" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E120" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F120" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -2903,13 +2903,13 @@
         <v>5</v>
       </c>
       <c r="D122" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E122" s="1">
         <v>5</v>
       </c>
       <c r="F122" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -2960,16 +2960,16 @@
         <v>31250000</v>
       </c>
       <c r="C125" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D125" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E125" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F125" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3003,13 +3003,13 @@
         <v>5</v>
       </c>
       <c r="D127" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E127" s="1">
         <v>5</v>
       </c>
       <c r="F127" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3060,16 +3060,16 @@
         <v>32500000</v>
       </c>
       <c r="C130" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D130" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E130" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F130" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3103,13 +3103,13 @@
         <v>5</v>
       </c>
       <c r="D132" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E132" s="1">
         <v>5</v>
       </c>
       <c r="F132" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3160,16 +3160,16 @@
         <v>33750000</v>
       </c>
       <c r="C135" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D135" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E135" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F135" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3203,13 +3203,13 @@
         <v>5</v>
       </c>
       <c r="D137" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E137" s="1">
         <v>5</v>
       </c>
       <c r="F137" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3260,16 +3260,16 @@
         <v>35000000</v>
       </c>
       <c r="C140" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D140" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E140" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F140" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -3303,13 +3303,13 @@
         <v>5</v>
       </c>
       <c r="D142" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E142" s="1">
         <v>5</v>
       </c>
       <c r="F142" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -3360,16 +3360,16 @@
         <v>36250000</v>
       </c>
       <c r="C145" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D145" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E145" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F145" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -3403,13 +3403,13 @@
         <v>5</v>
       </c>
       <c r="D147" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E147" s="1">
         <v>5</v>
       </c>
       <c r="F147" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -3460,16 +3460,16 @@
         <v>37500000</v>
       </c>
       <c r="C150" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D150" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E150" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F150" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -3503,13 +3503,13 @@
         <v>5</v>
       </c>
       <c r="D152" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E152" s="1">
         <v>5</v>
       </c>
       <c r="F152" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -3560,16 +3560,16 @@
         <v>38750000</v>
       </c>
       <c r="C155" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D155" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E155" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F155" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -3603,13 +3603,13 @@
         <v>5</v>
       </c>
       <c r="D157" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E157" s="1">
         <v>5</v>
       </c>
       <c r="F157" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -3660,16 +3660,16 @@
         <v>40000000</v>
       </c>
       <c r="C160" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D160" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E160" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F160" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -3703,13 +3703,13 @@
         <v>5</v>
       </c>
       <c r="D162" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E162" s="1">
         <v>5</v>
       </c>
       <c r="F162" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -3760,16 +3760,16 @@
         <v>41250000</v>
       </c>
       <c r="C165" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D165" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E165" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F165" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -3803,13 +3803,13 @@
         <v>5</v>
       </c>
       <c r="D167" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E167" s="1">
         <v>5</v>
       </c>
       <c r="F167" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -3860,16 +3860,16 @@
         <v>42500000</v>
       </c>
       <c r="C170" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D170" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E170" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F170" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -3903,13 +3903,13 @@
         <v>5</v>
       </c>
       <c r="D172" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E172" s="1">
         <v>5</v>
       </c>
       <c r="F172" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -3960,16 +3960,16 @@
         <v>43750000</v>
       </c>
       <c r="C175" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D175" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E175" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F175" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -4003,13 +4003,13 @@
         <v>5</v>
       </c>
       <c r="D177" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E177" s="1">
         <v>5</v>
       </c>
       <c r="F177" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -4060,16 +4060,16 @@
         <v>45000000</v>
       </c>
       <c r="C180" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D180" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E180" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F180" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4103,13 +4103,13 @@
         <v>5</v>
       </c>
       <c r="D182" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E182" s="1">
         <v>5</v>
       </c>
       <c r="F182" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4160,16 +4160,16 @@
         <v>46250000</v>
       </c>
       <c r="C185" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D185" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E185" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F185" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4203,13 +4203,13 @@
         <v>5</v>
       </c>
       <c r="D187" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E187" s="1">
         <v>5</v>
       </c>
       <c r="F187" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4260,16 +4260,16 @@
         <v>47500000</v>
       </c>
       <c r="C190" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D190" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E190" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F190" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4303,13 +4303,13 @@
         <v>5</v>
       </c>
       <c r="D192" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E192" s="1">
         <v>5</v>
       </c>
       <c r="F192" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4360,16 +4360,16 @@
         <v>48750000</v>
       </c>
       <c r="C195" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D195" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E195" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F195" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -4403,13 +4403,13 @@
         <v>5</v>
       </c>
       <c r="D197" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E197" s="1">
         <v>5</v>
       </c>
       <c r="F197" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -4460,16 +4460,16 @@
         <v>50000000</v>
       </c>
       <c r="C200" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D200" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E200" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F200" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -4503,13 +4503,13 @@
         <v>5</v>
       </c>
       <c r="D202" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E202" s="1">
         <v>5</v>
       </c>
       <c r="F202" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -4560,16 +4560,16 @@
         <v>51250000</v>
       </c>
       <c r="C205" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D205" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E205" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F205" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -4603,13 +4603,13 @@
         <v>5</v>
       </c>
       <c r="D207" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E207" s="1">
         <v>5</v>
       </c>
       <c r="F207" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -4660,16 +4660,16 @@
         <v>52500000</v>
       </c>
       <c r="C210" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D210" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E210" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F210" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -4703,13 +4703,13 @@
         <v>5</v>
       </c>
       <c r="D212" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E212" s="1">
         <v>5</v>
       </c>
       <c r="F212" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -4760,16 +4760,16 @@
         <v>53750000</v>
       </c>
       <c r="C215" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D215" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E215" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F215" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -4803,13 +4803,13 @@
         <v>5</v>
       </c>
       <c r="D217" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E217" s="1">
         <v>5</v>
       </c>
       <c r="F217" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -4860,16 +4860,16 @@
         <v>55000000</v>
       </c>
       <c r="C220" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D220" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E220" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F220" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -4903,13 +4903,13 @@
         <v>5</v>
       </c>
       <c r="D222" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E222" s="1">
         <v>5</v>
       </c>
       <c r="F222" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -4960,16 +4960,16 @@
         <v>56250000</v>
       </c>
       <c r="C225" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D225" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E225" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F225" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -5003,13 +5003,13 @@
         <v>5</v>
       </c>
       <c r="D227" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E227" s="1">
         <v>5</v>
       </c>
       <c r="F227" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -5060,16 +5060,16 @@
         <v>57500000</v>
       </c>
       <c r="C230" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D230" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E230" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F230" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -5103,13 +5103,13 @@
         <v>5</v>
       </c>
       <c r="D232" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E232" s="1">
         <v>5</v>
       </c>
       <c r="F232" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -5160,16 +5160,16 @@
         <v>58750000</v>
       </c>
       <c r="C235" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D235" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E235" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F235" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -5203,13 +5203,13 @@
         <v>5</v>
       </c>
       <c r="D237" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E237" s="1">
         <v>5</v>
       </c>
       <c r="F237" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -5260,16 +5260,16 @@
         <v>60000000</v>
       </c>
       <c r="C240" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D240" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E240" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F240" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -5303,13 +5303,13 @@
         <v>5</v>
       </c>
       <c r="D242" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E242" s="1">
         <v>5</v>
       </c>
       <c r="F242" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -5360,16 +5360,16 @@
         <v>61250000</v>
       </c>
       <c r="C245" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D245" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E245" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F245" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -5403,13 +5403,13 @@
         <v>5</v>
       </c>
       <c r="D247" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E247" s="1">
         <v>5</v>
       </c>
       <c r="F247" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -5460,16 +5460,16 @@
         <v>62500000</v>
       </c>
       <c r="C250" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D250" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E250" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F250" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -5503,13 +5503,13 @@
         <v>5</v>
       </c>
       <c r="D252" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E252" s="1">
         <v>5</v>
       </c>
       <c r="F252" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -5560,16 +5560,16 @@
         <v>63750000</v>
       </c>
       <c r="C255" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D255" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E255" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F255" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -5603,13 +5603,13 @@
         <v>5</v>
       </c>
       <c r="D257" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E257" s="1">
         <v>5</v>
       </c>
       <c r="F257" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -5660,16 +5660,16 @@
         <v>65000000</v>
       </c>
       <c r="C260" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D260" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E260" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F260" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -5703,13 +5703,13 @@
         <v>5</v>
       </c>
       <c r="D262" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E262" s="1">
         <v>5</v>
       </c>
       <c r="F262" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -5760,16 +5760,16 @@
         <v>66250000</v>
       </c>
       <c r="C265" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D265" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E265" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F265" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -5803,13 +5803,13 @@
         <v>5</v>
       </c>
       <c r="D267" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E267" s="1">
         <v>5</v>
       </c>
       <c r="F267" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -5860,16 +5860,16 @@
         <v>67500000</v>
       </c>
       <c r="C270" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D270" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E270" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F270" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -5903,13 +5903,13 @@
         <v>5</v>
       </c>
       <c r="D272" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E272" s="1">
         <v>5</v>
       </c>
       <c r="F272" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -5960,16 +5960,16 @@
         <v>68750000</v>
       </c>
       <c r="C275" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D275" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E275" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F275" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -6003,13 +6003,13 @@
         <v>5</v>
       </c>
       <c r="D277" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E277" s="1">
         <v>5</v>
       </c>
       <c r="F277" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -6060,16 +6060,16 @@
         <v>70000000</v>
       </c>
       <c r="C280" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D280" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E280" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F280" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -6103,13 +6103,13 @@
         <v>5</v>
       </c>
       <c r="D282" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E282" s="1">
         <v>5</v>
       </c>
       <c r="F282" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -6160,16 +6160,16 @@
         <v>71250000</v>
       </c>
       <c r="C285" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D285" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E285" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F285" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -6203,13 +6203,13 @@
         <v>5</v>
       </c>
       <c r="D287" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E287" s="1">
         <v>5</v>
       </c>
       <c r="F287" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -6260,16 +6260,16 @@
         <v>72500000</v>
       </c>
       <c r="C290" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D290" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E290" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F290" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -6303,13 +6303,13 @@
         <v>5</v>
       </c>
       <c r="D292" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E292" s="1">
         <v>5</v>
       </c>
       <c r="F292" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -6360,16 +6360,16 @@
         <v>73750000</v>
       </c>
       <c r="C295" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D295" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E295" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F295" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -6403,13 +6403,13 @@
         <v>5</v>
       </c>
       <c r="D297" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E297" s="1">
         <v>5</v>
       </c>
       <c r="F297" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -6460,16 +6460,16 @@
         <v>75000000</v>
       </c>
       <c r="C300" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D300" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E300" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F300" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -6503,13 +6503,13 @@
         <v>5</v>
       </c>
       <c r="D302" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E302" s="1">
         <v>5</v>
       </c>
       <c r="F302" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -6560,16 +6560,16 @@
         <v>76250000</v>
       </c>
       <c r="C305" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D305" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E305" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F305" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -6603,13 +6603,13 @@
         <v>5</v>
       </c>
       <c r="D307" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E307" s="1">
         <v>5</v>
       </c>
       <c r="F307" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -6660,16 +6660,16 @@
         <v>77500000</v>
       </c>
       <c r="C310" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D310" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E310" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F310" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -6703,13 +6703,13 @@
         <v>5</v>
       </c>
       <c r="D312" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E312" s="1">
         <v>5</v>
       </c>
       <c r="F312" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -6760,16 +6760,16 @@
         <v>78750000</v>
       </c>
       <c r="C315" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D315" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E315" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F315" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -6803,13 +6803,13 @@
         <v>5</v>
       </c>
       <c r="D317" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E317" s="1">
         <v>5</v>
       </c>
       <c r="F317" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -6860,16 +6860,16 @@
         <v>80000000</v>
       </c>
       <c r="C320" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D320" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E320" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F320" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -6903,13 +6903,13 @@
         <v>5</v>
       </c>
       <c r="D322" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E322" s="1">
         <v>5</v>
       </c>
       <c r="F322" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -6960,16 +6960,16 @@
         <v>81250000</v>
       </c>
       <c r="C325" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D325" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E325" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F325" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -7003,13 +7003,13 @@
         <v>5</v>
       </c>
       <c r="D327" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E327" s="1">
         <v>5</v>
       </c>
       <c r="F327" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -7060,16 +7060,16 @@
         <v>82500000</v>
       </c>
       <c r="C330" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D330" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E330" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F330" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -7103,13 +7103,13 @@
         <v>5</v>
       </c>
       <c r="D332" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E332" s="1">
         <v>5</v>
       </c>
       <c r="F332" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -7160,16 +7160,16 @@
         <v>83750000</v>
       </c>
       <c r="C335" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D335" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E335" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F335" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -7203,13 +7203,13 @@
         <v>5</v>
       </c>
       <c r="D337" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E337" s="1">
         <v>5</v>
       </c>
       <c r="F337" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -7260,16 +7260,16 @@
         <v>85000000</v>
       </c>
       <c r="C340" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D340" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E340" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F340" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -7303,13 +7303,13 @@
         <v>5</v>
       </c>
       <c r="D342" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E342" s="1">
         <v>5</v>
       </c>
       <c r="F342" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -7360,16 +7360,16 @@
         <v>86250000</v>
       </c>
       <c r="C345" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D345" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E345" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F345" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -7403,13 +7403,13 @@
         <v>5</v>
       </c>
       <c r="D347" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E347" s="1">
         <v>5</v>
       </c>
       <c r="F347" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -7460,16 +7460,16 @@
         <v>87500000</v>
       </c>
       <c r="C350" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D350" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E350" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F350" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -7503,13 +7503,13 @@
         <v>5</v>
       </c>
       <c r="D352" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E352" s="1">
         <v>5</v>
       </c>
       <c r="F352" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -7560,16 +7560,16 @@
         <v>88750000</v>
       </c>
       <c r="C355" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D355" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E355" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F355" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -7603,13 +7603,13 @@
         <v>5</v>
       </c>
       <c r="D357" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E357" s="1">
         <v>5</v>
       </c>
       <c r="F357" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -7660,16 +7660,16 @@
         <v>90000000</v>
       </c>
       <c r="C360" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D360" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E360" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F360" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -7703,13 +7703,13 @@
         <v>5</v>
       </c>
       <c r="D362" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E362" s="1">
         <v>5</v>
       </c>
       <c r="F362" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -7760,16 +7760,16 @@
         <v>91250000</v>
       </c>
       <c r="C365" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D365" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E365" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F365" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -7803,13 +7803,13 @@
         <v>5</v>
       </c>
       <c r="D367" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E367" s="1">
         <v>5</v>
       </c>
       <c r="F367" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -7860,16 +7860,16 @@
         <v>92500000</v>
       </c>
       <c r="C370" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D370" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E370" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F370" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -7903,13 +7903,13 @@
         <v>5</v>
       </c>
       <c r="D372" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E372" s="1">
         <v>5</v>
       </c>
       <c r="F372" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -7960,16 +7960,16 @@
         <v>93750000</v>
       </c>
       <c r="C375" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D375" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E375" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F375" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -8003,13 +8003,13 @@
         <v>5</v>
       </c>
       <c r="D377" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E377" s="1">
         <v>5</v>
       </c>
       <c r="F377" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -8060,16 +8060,16 @@
         <v>95000000</v>
       </c>
       <c r="C380" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D380" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E380" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F380" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -8103,13 +8103,13 @@
         <v>5</v>
       </c>
       <c r="D382" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E382" s="1">
         <v>5</v>
       </c>
       <c r="F382" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -8160,16 +8160,16 @@
         <v>96250000</v>
       </c>
       <c r="C385" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D385" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E385" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F385" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -8203,13 +8203,13 @@
         <v>5</v>
       </c>
       <c r="D387" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E387" s="1">
         <v>5</v>
       </c>
       <c r="F387" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -8260,16 +8260,16 @@
         <v>97500000</v>
       </c>
       <c r="C390" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D390" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E390" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F390" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -8303,13 +8303,13 @@
         <v>5</v>
       </c>
       <c r="D392" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E392" s="1">
         <v>5</v>
       </c>
       <c r="F392" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -8360,16 +8360,16 @@
         <v>98750000</v>
       </c>
       <c r="C395" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D395" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E395" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F395" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -8403,13 +8403,13 @@
         <v>5</v>
       </c>
       <c r="D397" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
       <c r="E397" s="1">
         <v>5</v>
       </c>
       <c r="F397" s="1">
-        <v>1500000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -8460,16 +8460,1616 @@
         <v>100000000</v>
       </c>
       <c r="C400" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D400" s="1">
-        <v>1500000</v>
+        <v>150</v>
       </c>
       <c r="E400" s="1">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F400" s="1">
-        <v>1500000</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401" s="1">
+        <v>100250000</v>
+      </c>
+      <c r="C401" s="2">
+        <v>14</v>
+      </c>
+      <c r="D401" s="2">
+        <v>5</v>
+      </c>
+      <c r="E401" s="2">
+        <v>14</v>
+      </c>
+      <c r="F401" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402" s="1">
+        <v>100500000</v>
+      </c>
+      <c r="C402" s="1">
+        <v>5</v>
+      </c>
+      <c r="D402" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E402" s="1">
+        <v>5</v>
+      </c>
+      <c r="F402" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A403" s="2">
+        <v>401</v>
+      </c>
+      <c r="B403" s="1">
+        <v>100750000</v>
+      </c>
+      <c r="C403" s="1">
+        <v>30</v>
+      </c>
+      <c r="D403" s="1">
+        <v>250</v>
+      </c>
+      <c r="E403" s="1">
+        <v>30</v>
+      </c>
+      <c r="F403" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404" s="1">
+        <v>101000000</v>
+      </c>
+      <c r="C404" s="1">
+        <v>20</v>
+      </c>
+      <c r="D404" s="1">
+        <v>150</v>
+      </c>
+      <c r="E404" s="1">
+        <v>20</v>
+      </c>
+      <c r="F404" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405" s="1">
+        <v>101250000</v>
+      </c>
+      <c r="C405" s="1">
+        <v>46</v>
+      </c>
+      <c r="D405" s="1">
+        <v>150</v>
+      </c>
+      <c r="E405" s="1">
+        <v>46</v>
+      </c>
+      <c r="F405" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406" s="1">
+        <v>101500000</v>
+      </c>
+      <c r="C406" s="2">
+        <v>14</v>
+      </c>
+      <c r="D406" s="2">
+        <v>5</v>
+      </c>
+      <c r="E406" s="2">
+        <v>14</v>
+      </c>
+      <c r="F406" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407" s="1">
+        <v>101750000</v>
+      </c>
+      <c r="C407" s="1">
+        <v>5</v>
+      </c>
+      <c r="D407" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E407" s="1">
+        <v>5</v>
+      </c>
+      <c r="F407" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408" s="1">
+        <v>102000000</v>
+      </c>
+      <c r="C408" s="1">
+        <v>30</v>
+      </c>
+      <c r="D408" s="1">
+        <v>250</v>
+      </c>
+      <c r="E408" s="1">
+        <v>30</v>
+      </c>
+      <c r="F408" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409" s="1">
+        <v>102250000</v>
+      </c>
+      <c r="C409" s="1">
+        <v>20</v>
+      </c>
+      <c r="D409" s="1">
+        <v>150</v>
+      </c>
+      <c r="E409" s="1">
+        <v>20</v>
+      </c>
+      <c r="F409" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410" s="1">
+        <v>102500000</v>
+      </c>
+      <c r="C410" s="1">
+        <v>46</v>
+      </c>
+      <c r="D410" s="1">
+        <v>150</v>
+      </c>
+      <c r="E410" s="1">
+        <v>46</v>
+      </c>
+      <c r="F410" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411" s="2">
+        <v>409</v>
+      </c>
+      <c r="B411" s="1">
+        <v>102750000</v>
+      </c>
+      <c r="C411" s="2">
+        <v>14</v>
+      </c>
+      <c r="D411" s="2">
+        <v>5</v>
+      </c>
+      <c r="E411" s="2">
+        <v>14</v>
+      </c>
+      <c r="F411" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412" s="1">
+        <v>103000000</v>
+      </c>
+      <c r="C412" s="1">
+        <v>5</v>
+      </c>
+      <c r="D412" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E412" s="1">
+        <v>5</v>
+      </c>
+      <c r="F412" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413" s="1">
+        <v>103250000</v>
+      </c>
+      <c r="C413" s="1">
+        <v>30</v>
+      </c>
+      <c r="D413" s="1">
+        <v>250</v>
+      </c>
+      <c r="E413" s="1">
+        <v>30</v>
+      </c>
+      <c r="F413" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414" s="1">
+        <v>103500000</v>
+      </c>
+      <c r="C414" s="1">
+        <v>20</v>
+      </c>
+      <c r="D414" s="1">
+        <v>150</v>
+      </c>
+      <c r="E414" s="1">
+        <v>20</v>
+      </c>
+      <c r="F414" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415" s="1">
+        <v>103750000</v>
+      </c>
+      <c r="C415" s="1">
+        <v>46</v>
+      </c>
+      <c r="D415" s="1">
+        <v>150</v>
+      </c>
+      <c r="E415" s="1">
+        <v>46</v>
+      </c>
+      <c r="F415" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416" s="1">
+        <v>104000000</v>
+      </c>
+      <c r="C416" s="2">
+        <v>14</v>
+      </c>
+      <c r="D416" s="2">
+        <v>5</v>
+      </c>
+      <c r="E416" s="2">
+        <v>14</v>
+      </c>
+      <c r="F416" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417" s="1">
+        <v>104250000</v>
+      </c>
+      <c r="C417" s="1">
+        <v>5</v>
+      </c>
+      <c r="D417" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E417" s="1">
+        <v>5</v>
+      </c>
+      <c r="F417" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418" s="1">
+        <v>104500000</v>
+      </c>
+      <c r="C418" s="1">
+        <v>30</v>
+      </c>
+      <c r="D418" s="1">
+        <v>250</v>
+      </c>
+      <c r="E418" s="1">
+        <v>30</v>
+      </c>
+      <c r="F418" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A419" s="2">
+        <v>417</v>
+      </c>
+      <c r="B419" s="1">
+        <v>104750000</v>
+      </c>
+      <c r="C419" s="1">
+        <v>20</v>
+      </c>
+      <c r="D419" s="1">
+        <v>150</v>
+      </c>
+      <c r="E419" s="1">
+        <v>20</v>
+      </c>
+      <c r="F419" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>418</v>
+      </c>
+      <c r="B420" s="1">
+        <v>105000000</v>
+      </c>
+      <c r="C420" s="1">
+        <v>46</v>
+      </c>
+      <c r="D420" s="1">
+        <v>150</v>
+      </c>
+      <c r="E420" s="1">
+        <v>46</v>
+      </c>
+      <c r="F420" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>419</v>
+      </c>
+      <c r="B421" s="1">
+        <v>105250000</v>
+      </c>
+      <c r="C421" s="2">
+        <v>14</v>
+      </c>
+      <c r="D421" s="2">
+        <v>5</v>
+      </c>
+      <c r="E421" s="2">
+        <v>14</v>
+      </c>
+      <c r="F421" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>420</v>
+      </c>
+      <c r="B422" s="1">
+        <v>105500000</v>
+      </c>
+      <c r="C422" s="1">
+        <v>5</v>
+      </c>
+      <c r="D422" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E422" s="1">
+        <v>5</v>
+      </c>
+      <c r="F422" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>421</v>
+      </c>
+      <c r="B423" s="1">
+        <v>105750000</v>
+      </c>
+      <c r="C423" s="1">
+        <v>30</v>
+      </c>
+      <c r="D423" s="1">
+        <v>250</v>
+      </c>
+      <c r="E423" s="1">
+        <v>30</v>
+      </c>
+      <c r="F423" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>422</v>
+      </c>
+      <c r="B424" s="1">
+        <v>106000000</v>
+      </c>
+      <c r="C424" s="1">
+        <v>20</v>
+      </c>
+      <c r="D424" s="1">
+        <v>150</v>
+      </c>
+      <c r="E424" s="1">
+        <v>20</v>
+      </c>
+      <c r="F424" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>423</v>
+      </c>
+      <c r="B425" s="1">
+        <v>106250000</v>
+      </c>
+      <c r="C425" s="1">
+        <v>46</v>
+      </c>
+      <c r="D425" s="1">
+        <v>150</v>
+      </c>
+      <c r="E425" s="1">
+        <v>46</v>
+      </c>
+      <c r="F425" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>424</v>
+      </c>
+      <c r="B426" s="1">
+        <v>106500000</v>
+      </c>
+      <c r="C426" s="2">
+        <v>14</v>
+      </c>
+      <c r="D426" s="2">
+        <v>5</v>
+      </c>
+      <c r="E426" s="2">
+        <v>14</v>
+      </c>
+      <c r="F426" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A427" s="2">
+        <v>425</v>
+      </c>
+      <c r="B427" s="1">
+        <v>106750000</v>
+      </c>
+      <c r="C427" s="1">
+        <v>5</v>
+      </c>
+      <c r="D427" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E427" s="1">
+        <v>5</v>
+      </c>
+      <c r="F427" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>426</v>
+      </c>
+      <c r="B428" s="1">
+        <v>107000000</v>
+      </c>
+      <c r="C428" s="1">
+        <v>30</v>
+      </c>
+      <c r="D428" s="1">
+        <v>250</v>
+      </c>
+      <c r="E428" s="1">
+        <v>30</v>
+      </c>
+      <c r="F428" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>427</v>
+      </c>
+      <c r="B429" s="1">
+        <v>107250000</v>
+      </c>
+      <c r="C429" s="1">
+        <v>20</v>
+      </c>
+      <c r="D429" s="1">
+        <v>150</v>
+      </c>
+      <c r="E429" s="1">
+        <v>20</v>
+      </c>
+      <c r="F429" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>428</v>
+      </c>
+      <c r="B430" s="1">
+        <v>107500000</v>
+      </c>
+      <c r="C430" s="1">
+        <v>46</v>
+      </c>
+      <c r="D430" s="1">
+        <v>150</v>
+      </c>
+      <c r="E430" s="1">
+        <v>46</v>
+      </c>
+      <c r="F430" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>429</v>
+      </c>
+      <c r="B431" s="1">
+        <v>107750000</v>
+      </c>
+      <c r="C431" s="2">
+        <v>14</v>
+      </c>
+      <c r="D431" s="2">
+        <v>5</v>
+      </c>
+      <c r="E431" s="2">
+        <v>14</v>
+      </c>
+      <c r="F431" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>430</v>
+      </c>
+      <c r="B432" s="1">
+        <v>108000000</v>
+      </c>
+      <c r="C432" s="1">
+        <v>5</v>
+      </c>
+      <c r="D432" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E432" s="1">
+        <v>5</v>
+      </c>
+      <c r="F432" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>431</v>
+      </c>
+      <c r="B433" s="1">
+        <v>108250000</v>
+      </c>
+      <c r="C433" s="1">
+        <v>30</v>
+      </c>
+      <c r="D433" s="1">
+        <v>250</v>
+      </c>
+      <c r="E433" s="1">
+        <v>30</v>
+      </c>
+      <c r="F433" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>432</v>
+      </c>
+      <c r="B434" s="1">
+        <v>108500000</v>
+      </c>
+      <c r="C434" s="1">
+        <v>20</v>
+      </c>
+      <c r="D434" s="1">
+        <v>150</v>
+      </c>
+      <c r="E434" s="1">
+        <v>20</v>
+      </c>
+      <c r="F434" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A435" s="2">
+        <v>433</v>
+      </c>
+      <c r="B435" s="1">
+        <v>108750000</v>
+      </c>
+      <c r="C435" s="1">
+        <v>46</v>
+      </c>
+      <c r="D435" s="1">
+        <v>150</v>
+      </c>
+      <c r="E435" s="1">
+        <v>46</v>
+      </c>
+      <c r="F435" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>434</v>
+      </c>
+      <c r="B436" s="1">
+        <v>109000000</v>
+      </c>
+      <c r="C436" s="2">
+        <v>14</v>
+      </c>
+      <c r="D436" s="2">
+        <v>5</v>
+      </c>
+      <c r="E436" s="2">
+        <v>14</v>
+      </c>
+      <c r="F436" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>435</v>
+      </c>
+      <c r="B437" s="1">
+        <v>109250000</v>
+      </c>
+      <c r="C437" s="1">
+        <v>5</v>
+      </c>
+      <c r="D437" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E437" s="1">
+        <v>5</v>
+      </c>
+      <c r="F437" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>436</v>
+      </c>
+      <c r="B438" s="1">
+        <v>109500000</v>
+      </c>
+      <c r="C438" s="1">
+        <v>30</v>
+      </c>
+      <c r="D438" s="1">
+        <v>250</v>
+      </c>
+      <c r="E438" s="1">
+        <v>30</v>
+      </c>
+      <c r="F438" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>437</v>
+      </c>
+      <c r="B439" s="1">
+        <v>109750000</v>
+      </c>
+      <c r="C439" s="1">
+        <v>20</v>
+      </c>
+      <c r="D439" s="1">
+        <v>150</v>
+      </c>
+      <c r="E439" s="1">
+        <v>20</v>
+      </c>
+      <c r="F439" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>438</v>
+      </c>
+      <c r="B440" s="1">
+        <v>110000000</v>
+      </c>
+      <c r="C440" s="1">
+        <v>46</v>
+      </c>
+      <c r="D440" s="1">
+        <v>150</v>
+      </c>
+      <c r="E440" s="1">
+        <v>46</v>
+      </c>
+      <c r="F440" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>439</v>
+      </c>
+      <c r="B441" s="1">
+        <v>110250000</v>
+      </c>
+      <c r="C441" s="2">
+        <v>14</v>
+      </c>
+      <c r="D441" s="2">
+        <v>5</v>
+      </c>
+      <c r="E441" s="2">
+        <v>14</v>
+      </c>
+      <c r="F441" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>440</v>
+      </c>
+      <c r="B442" s="1">
+        <v>110500000</v>
+      </c>
+      <c r="C442" s="1">
+        <v>5</v>
+      </c>
+      <c r="D442" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E442" s="1">
+        <v>5</v>
+      </c>
+      <c r="F442" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A443" s="2">
+        <v>441</v>
+      </c>
+      <c r="B443" s="1">
+        <v>110750000</v>
+      </c>
+      <c r="C443" s="1">
+        <v>30</v>
+      </c>
+      <c r="D443" s="1">
+        <v>250</v>
+      </c>
+      <c r="E443" s="1">
+        <v>30</v>
+      </c>
+      <c r="F443" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>442</v>
+      </c>
+      <c r="B444" s="1">
+        <v>111000000</v>
+      </c>
+      <c r="C444" s="1">
+        <v>20</v>
+      </c>
+      <c r="D444" s="1">
+        <v>150</v>
+      </c>
+      <c r="E444" s="1">
+        <v>20</v>
+      </c>
+      <c r="F444" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>443</v>
+      </c>
+      <c r="B445" s="1">
+        <v>111250000</v>
+      </c>
+      <c r="C445" s="1">
+        <v>46</v>
+      </c>
+      <c r="D445" s="1">
+        <v>150</v>
+      </c>
+      <c r="E445" s="1">
+        <v>46</v>
+      </c>
+      <c r="F445" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>444</v>
+      </c>
+      <c r="B446" s="1">
+        <v>111500000</v>
+      </c>
+      <c r="C446" s="2">
+        <v>14</v>
+      </c>
+      <c r="D446" s="2">
+        <v>5</v>
+      </c>
+      <c r="E446" s="2">
+        <v>14</v>
+      </c>
+      <c r="F446" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>445</v>
+      </c>
+      <c r="B447" s="1">
+        <v>111750000</v>
+      </c>
+      <c r="C447" s="1">
+        <v>5</v>
+      </c>
+      <c r="D447" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E447" s="1">
+        <v>5</v>
+      </c>
+      <c r="F447" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>446</v>
+      </c>
+      <c r="B448" s="1">
+        <v>112000000</v>
+      </c>
+      <c r="C448" s="1">
+        <v>30</v>
+      </c>
+      <c r="D448" s="1">
+        <v>250</v>
+      </c>
+      <c r="E448" s="1">
+        <v>30</v>
+      </c>
+      <c r="F448" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>447</v>
+      </c>
+      <c r="B449" s="1">
+        <v>112250000</v>
+      </c>
+      <c r="C449" s="1">
+        <v>20</v>
+      </c>
+      <c r="D449" s="1">
+        <v>150</v>
+      </c>
+      <c r="E449" s="1">
+        <v>20</v>
+      </c>
+      <c r="F449" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>448</v>
+      </c>
+      <c r="B450" s="1">
+        <v>112500000</v>
+      </c>
+      <c r="C450" s="1">
+        <v>46</v>
+      </c>
+      <c r="D450" s="1">
+        <v>150</v>
+      </c>
+      <c r="E450" s="1">
+        <v>46</v>
+      </c>
+      <c r="F450" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A451" s="2">
+        <v>449</v>
+      </c>
+      <c r="B451" s="1">
+        <v>112750000</v>
+      </c>
+      <c r="C451" s="2">
+        <v>14</v>
+      </c>
+      <c r="D451" s="2">
+        <v>5</v>
+      </c>
+      <c r="E451" s="2">
+        <v>14</v>
+      </c>
+      <c r="F451" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>450</v>
+      </c>
+      <c r="B452" s="1">
+        <v>113000000</v>
+      </c>
+      <c r="C452" s="1">
+        <v>5</v>
+      </c>
+      <c r="D452" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E452" s="1">
+        <v>5</v>
+      </c>
+      <c r="F452" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>451</v>
+      </c>
+      <c r="B453" s="1">
+        <v>113250000</v>
+      </c>
+      <c r="C453" s="1">
+        <v>30</v>
+      </c>
+      <c r="D453" s="1">
+        <v>250</v>
+      </c>
+      <c r="E453" s="1">
+        <v>30</v>
+      </c>
+      <c r="F453" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>452</v>
+      </c>
+      <c r="B454" s="1">
+        <v>113500000</v>
+      </c>
+      <c r="C454" s="1">
+        <v>20</v>
+      </c>
+      <c r="D454" s="1">
+        <v>150</v>
+      </c>
+      <c r="E454" s="1">
+        <v>20</v>
+      </c>
+      <c r="F454" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>453</v>
+      </c>
+      <c r="B455" s="1">
+        <v>113750000</v>
+      </c>
+      <c r="C455" s="1">
+        <v>46</v>
+      </c>
+      <c r="D455" s="1">
+        <v>150</v>
+      </c>
+      <c r="E455" s="1">
+        <v>46</v>
+      </c>
+      <c r="F455" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>454</v>
+      </c>
+      <c r="B456" s="1">
+        <v>114000000</v>
+      </c>
+      <c r="C456" s="2">
+        <v>14</v>
+      </c>
+      <c r="D456" s="2">
+        <v>5</v>
+      </c>
+      <c r="E456" s="2">
+        <v>14</v>
+      </c>
+      <c r="F456" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>455</v>
+      </c>
+      <c r="B457" s="1">
+        <v>114250000</v>
+      </c>
+      <c r="C457" s="1">
+        <v>5</v>
+      </c>
+      <c r="D457" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E457" s="1">
+        <v>5</v>
+      </c>
+      <c r="F457" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>456</v>
+      </c>
+      <c r="B458" s="1">
+        <v>114500000</v>
+      </c>
+      <c r="C458" s="1">
+        <v>30</v>
+      </c>
+      <c r="D458" s="1">
+        <v>250</v>
+      </c>
+      <c r="E458" s="1">
+        <v>30</v>
+      </c>
+      <c r="F458" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A459" s="2">
+        <v>457</v>
+      </c>
+      <c r="B459" s="1">
+        <v>114750000</v>
+      </c>
+      <c r="C459" s="1">
+        <v>20</v>
+      </c>
+      <c r="D459" s="1">
+        <v>150</v>
+      </c>
+      <c r="E459" s="1">
+        <v>20</v>
+      </c>
+      <c r="F459" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>458</v>
+      </c>
+      <c r="B460" s="1">
+        <v>115000000</v>
+      </c>
+      <c r="C460" s="1">
+        <v>46</v>
+      </c>
+      <c r="D460" s="1">
+        <v>150</v>
+      </c>
+      <c r="E460" s="1">
+        <v>46</v>
+      </c>
+      <c r="F460" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>459</v>
+      </c>
+      <c r="B461" s="1">
+        <v>115250000</v>
+      </c>
+      <c r="C461" s="2">
+        <v>14</v>
+      </c>
+      <c r="D461" s="2">
+        <v>5</v>
+      </c>
+      <c r="E461" s="2">
+        <v>14</v>
+      </c>
+      <c r="F461" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>460</v>
+      </c>
+      <c r="B462" s="1">
+        <v>115500000</v>
+      </c>
+      <c r="C462" s="1">
+        <v>5</v>
+      </c>
+      <c r="D462" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E462" s="1">
+        <v>5</v>
+      </c>
+      <c r="F462" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>461</v>
+      </c>
+      <c r="B463" s="1">
+        <v>115750000</v>
+      </c>
+      <c r="C463" s="1">
+        <v>30</v>
+      </c>
+      <c r="D463" s="1">
+        <v>250</v>
+      </c>
+      <c r="E463" s="1">
+        <v>30</v>
+      </c>
+      <c r="F463" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>462</v>
+      </c>
+      <c r="B464" s="1">
+        <v>116000000</v>
+      </c>
+      <c r="C464" s="1">
+        <v>20</v>
+      </c>
+      <c r="D464" s="1">
+        <v>150</v>
+      </c>
+      <c r="E464" s="1">
+        <v>20</v>
+      </c>
+      <c r="F464" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>463</v>
+      </c>
+      <c r="B465" s="1">
+        <v>116250000</v>
+      </c>
+      <c r="C465" s="1">
+        <v>46</v>
+      </c>
+      <c r="D465" s="1">
+        <v>150</v>
+      </c>
+      <c r="E465" s="1">
+        <v>46</v>
+      </c>
+      <c r="F465" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>464</v>
+      </c>
+      <c r="B466" s="1">
+        <v>116500000</v>
+      </c>
+      <c r="C466" s="2">
+        <v>14</v>
+      </c>
+      <c r="D466" s="2">
+        <v>5</v>
+      </c>
+      <c r="E466" s="2">
+        <v>14</v>
+      </c>
+      <c r="F466" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A467" s="2">
+        <v>465</v>
+      </c>
+      <c r="B467" s="1">
+        <v>116750000</v>
+      </c>
+      <c r="C467" s="1">
+        <v>5</v>
+      </c>
+      <c r="D467" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E467" s="1">
+        <v>5</v>
+      </c>
+      <c r="F467" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>466</v>
+      </c>
+      <c r="B468" s="1">
+        <v>117000000</v>
+      </c>
+      <c r="C468" s="1">
+        <v>30</v>
+      </c>
+      <c r="D468" s="1">
+        <v>250</v>
+      </c>
+      <c r="E468" s="1">
+        <v>30</v>
+      </c>
+      <c r="F468" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>467</v>
+      </c>
+      <c r="B469" s="1">
+        <v>117250000</v>
+      </c>
+      <c r="C469" s="1">
+        <v>20</v>
+      </c>
+      <c r="D469" s="1">
+        <v>150</v>
+      </c>
+      <c r="E469" s="1">
+        <v>20</v>
+      </c>
+      <c r="F469" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>468</v>
+      </c>
+      <c r="B470" s="1">
+        <v>117500000</v>
+      </c>
+      <c r="C470" s="1">
+        <v>46</v>
+      </c>
+      <c r="D470" s="1">
+        <v>150</v>
+      </c>
+      <c r="E470" s="1">
+        <v>46</v>
+      </c>
+      <c r="F470" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>469</v>
+      </c>
+      <c r="B471" s="1">
+        <v>117750000</v>
+      </c>
+      <c r="C471" s="2">
+        <v>14</v>
+      </c>
+      <c r="D471" s="2">
+        <v>5</v>
+      </c>
+      <c r="E471" s="2">
+        <v>14</v>
+      </c>
+      <c r="F471" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>470</v>
+      </c>
+      <c r="B472" s="1">
+        <v>118000000</v>
+      </c>
+      <c r="C472" s="1">
+        <v>5</v>
+      </c>
+      <c r="D472" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E472" s="1">
+        <v>5</v>
+      </c>
+      <c r="F472" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>471</v>
+      </c>
+      <c r="B473" s="1">
+        <v>118250000</v>
+      </c>
+      <c r="C473" s="1">
+        <v>30</v>
+      </c>
+      <c r="D473" s="1">
+        <v>250</v>
+      </c>
+      <c r="E473" s="1">
+        <v>30</v>
+      </c>
+      <c r="F473" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>472</v>
+      </c>
+      <c r="B474" s="1">
+        <v>118500000</v>
+      </c>
+      <c r="C474" s="1">
+        <v>20</v>
+      </c>
+      <c r="D474" s="1">
+        <v>150</v>
+      </c>
+      <c r="E474" s="1">
+        <v>20</v>
+      </c>
+      <c r="F474" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A475" s="2">
+        <v>473</v>
+      </c>
+      <c r="B475" s="1">
+        <v>118750000</v>
+      </c>
+      <c r="C475" s="1">
+        <v>46</v>
+      </c>
+      <c r="D475" s="1">
+        <v>150</v>
+      </c>
+      <c r="E475" s="1">
+        <v>46</v>
+      </c>
+      <c r="F475" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>474</v>
+      </c>
+      <c r="B476" s="1">
+        <v>119000000</v>
+      </c>
+      <c r="C476" s="2">
+        <v>14</v>
+      </c>
+      <c r="D476" s="2">
+        <v>5</v>
+      </c>
+      <c r="E476" s="2">
+        <v>14</v>
+      </c>
+      <c r="F476" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>475</v>
+      </c>
+      <c r="B477" s="1">
+        <v>119250000</v>
+      </c>
+      <c r="C477" s="1">
+        <v>5</v>
+      </c>
+      <c r="D477" s="1">
+        <v>3000000</v>
+      </c>
+      <c r="E477" s="1">
+        <v>5</v>
+      </c>
+      <c r="F477" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>476</v>
+      </c>
+      <c r="B478" s="1">
+        <v>119500000</v>
+      </c>
+      <c r="C478" s="1">
+        <v>30</v>
+      </c>
+      <c r="D478" s="1">
+        <v>250</v>
+      </c>
+      <c r="E478" s="1">
+        <v>30</v>
+      </c>
+      <c r="F478" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>477</v>
+      </c>
+      <c r="B479" s="1">
+        <v>119750000</v>
+      </c>
+      <c r="C479" s="1">
+        <v>20</v>
+      </c>
+      <c r="D479" s="1">
+        <v>150</v>
+      </c>
+      <c r="E479" s="1">
+        <v>20</v>
+      </c>
+      <c r="F479" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>478</v>
+      </c>
+      <c r="B480" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="C480" s="1">
+        <v>46</v>
+      </c>
+      <c r="D480" s="1">
+        <v>150</v>
+      </c>
+      <c r="E480" s="1">
+        <v>46</v>
+      </c>
+      <c r="F480" s="1">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960C7370-E926-4D42-B314-45F0D6D11976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441B2A3D-2BC4-4E43-905F-25E778095D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPass" sheetId="1" r:id="rId1"/>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:F480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N479" sqref="N479"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -600,13 +600,13 @@
         <v>1750000</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>1233</v>
       </c>
       <c r="D7" s="1">
-        <v>3000000</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B09B1C0-0476-41F0-9C2E-2FF277334EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00CB92-CBAF-4C18-B3F7-857B8A04440B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPass" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MonthlyPass!$C$1:$C$520</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -459,20 +462,20 @@
   <dimension ref="A1:F520"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" customWidth="1"/>
-    <col min="2" max="2" width="24.69921875" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -512,7 +515,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -532,7 +535,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -552,7 +555,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -572,7 +575,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -592,7 +595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -603,16 +606,16 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2">
         <v>73</v>
       </c>
       <c r="F7" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -632,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -652,7 +655,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -672,7 +675,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -692,7 +695,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -712,7 +715,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -732,7 +735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -743,7 +746,7 @@
         <v>73</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2">
         <v>73</v>
@@ -752,7 +755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -772,7 +775,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -792,7 +795,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -812,7 +815,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -832,7 +835,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -852,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -863,7 +866,7 @@
         <v>73</v>
       </c>
       <c r="D20" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2">
         <v>73</v>
@@ -872,7 +875,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -892,7 +895,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -912,7 +915,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -932,7 +935,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -952,7 +955,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -972,7 +975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -983,7 +986,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E26" s="2">
         <v>73</v>
@@ -992,7 +995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>73</v>
       </c>
       <c r="D32" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E32" s="2">
         <v>73</v>
@@ -1112,7 +1115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1223,16 +1226,16 @@
         <v>73</v>
       </c>
       <c r="D38" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2">
         <v>73</v>
       </c>
       <c r="F38" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1343,16 +1346,16 @@
         <v>73</v>
       </c>
       <c r="D44" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E44" s="2">
         <v>73</v>
       </c>
       <c r="F44" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1432,7 +1435,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1463,16 +1466,16 @@
         <v>73</v>
       </c>
       <c r="D50" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E50" s="2">
         <v>73</v>
       </c>
       <c r="F50" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -1583,16 +1586,16 @@
         <v>73</v>
       </c>
       <c r="D56" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E56" s="2">
         <v>73</v>
       </c>
       <c r="F56" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1612,7 +1615,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1703,16 +1706,16 @@
         <v>73</v>
       </c>
       <c r="D62" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E62" s="2">
         <v>73</v>
       </c>
       <c r="F62" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1752,7 +1755,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1772,7 +1775,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1823,16 +1826,16 @@
         <v>73</v>
       </c>
       <c r="D68" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E68" s="2">
         <v>73</v>
       </c>
       <c r="F68" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -1892,7 +1895,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1912,7 +1915,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1932,7 +1935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1943,16 +1946,16 @@
         <v>73</v>
       </c>
       <c r="D74" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E74" s="2">
         <v>73</v>
       </c>
       <c r="F74" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -1992,7 +1995,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2063,16 +2066,16 @@
         <v>73</v>
       </c>
       <c r="D80" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E80" s="2">
         <v>73</v>
       </c>
       <c r="F80" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -2092,7 +2095,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2152,7 +2155,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -2183,16 +2186,16 @@
         <v>73</v>
       </c>
       <c r="D86" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E86" s="2">
         <v>73</v>
       </c>
       <c r="F86" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -2292,7 +2295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2303,16 +2306,16 @@
         <v>73</v>
       </c>
       <c r="D92" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E92" s="2">
         <v>73</v>
       </c>
       <c r="F92" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2332,7 +2335,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2392,7 +2395,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2423,16 +2426,16 @@
         <v>73</v>
       </c>
       <c r="D98" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E98" s="2">
         <v>73</v>
       </c>
       <c r="F98" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2532,7 +2535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2543,16 +2546,16 @@
         <v>73</v>
       </c>
       <c r="D104" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E104" s="2">
         <v>73</v>
       </c>
       <c r="F104" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2572,7 +2575,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2592,7 +2595,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2652,7 +2655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -2663,16 +2666,16 @@
         <v>73</v>
       </c>
       <c r="D110" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E110" s="2">
         <v>73</v>
       </c>
       <c r="F110" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2692,7 +2695,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2783,16 +2786,16 @@
         <v>73</v>
       </c>
       <c r="D116" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E116" s="2">
         <v>73</v>
       </c>
       <c r="F116" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -2832,7 +2835,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2872,7 +2875,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2903,16 +2906,16 @@
         <v>73</v>
       </c>
       <c r="D122" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E122" s="2">
         <v>73</v>
       </c>
       <c r="F122" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2932,7 +2935,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -2952,7 +2955,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2992,7 +2995,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3023,16 +3026,16 @@
         <v>73</v>
       </c>
       <c r="D128" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E128" s="2">
         <v>73</v>
       </c>
       <c r="F128" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3092,7 +3095,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -3112,7 +3115,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3132,7 +3135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3143,16 +3146,16 @@
         <v>73</v>
       </c>
       <c r="D134" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E134" s="2">
         <v>73</v>
       </c>
       <c r="F134" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3192,7 +3195,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3232,7 +3235,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -3263,16 +3266,16 @@
         <v>73</v>
       </c>
       <c r="D140" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E140" s="2">
         <v>73</v>
       </c>
       <c r="F140" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3292,7 +3295,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3312,7 +3315,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -3332,7 +3335,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3352,7 +3355,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3372,7 +3375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3383,16 +3386,16 @@
         <v>73</v>
       </c>
       <c r="D146" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E146" s="2">
         <v>73</v>
       </c>
       <c r="F146" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -3432,7 +3435,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3452,7 +3455,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -3492,7 +3495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3503,16 +3506,16 @@
         <v>73</v>
       </c>
       <c r="D152" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E152" s="2">
         <v>73</v>
       </c>
       <c r="F152" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3532,7 +3535,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3552,7 +3555,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -3592,7 +3595,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3623,16 +3626,16 @@
         <v>73</v>
       </c>
       <c r="D158" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E158" s="2">
         <v>73</v>
       </c>
       <c r="F158" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>157</v>
       </c>
@@ -3652,7 +3655,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3692,7 +3695,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -3743,16 +3746,16 @@
         <v>73</v>
       </c>
       <c r="D164" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E164" s="2">
         <v>73</v>
       </c>
       <c r="F164" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3772,7 +3775,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -3812,7 +3815,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3832,7 +3835,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3863,16 +3866,16 @@
         <v>73</v>
       </c>
       <c r="D170" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E170" s="2">
         <v>73</v>
       </c>
       <c r="F170" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3892,7 +3895,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>170</v>
       </c>
@@ -3912,7 +3915,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>173</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3983,16 +3986,16 @@
         <v>73</v>
       </c>
       <c r="D176" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E176" s="2">
         <v>73</v>
       </c>
       <c r="F176" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4012,7 +4015,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4032,7 +4035,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>178</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4092,7 +4095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4103,16 +4106,16 @@
         <v>73</v>
       </c>
       <c r="D182" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E182" s="2">
         <v>73</v>
       </c>
       <c r="F182" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>181</v>
       </c>
@@ -4132,7 +4135,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4192,7 +4195,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4212,7 +4215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>186</v>
       </c>
@@ -4223,16 +4226,16 @@
         <v>73</v>
       </c>
       <c r="D188" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E188" s="2">
         <v>73</v>
       </c>
       <c r="F188" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4252,7 +4255,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>189</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4312,7 +4315,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4332,7 +4335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4343,16 +4346,16 @@
         <v>73</v>
       </c>
       <c r="D194" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E194" s="2">
         <v>73</v>
       </c>
       <c r="F194" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4372,7 +4375,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>194</v>
       </c>
@@ -4392,7 +4395,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>197</v>
       </c>
@@ -4452,7 +4455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4463,16 +4466,16 @@
         <v>73</v>
       </c>
       <c r="D200" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E200" s="2">
         <v>73</v>
       </c>
       <c r="F200" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4492,7 +4495,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4512,7 +4515,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>202</v>
       </c>
@@ -4552,7 +4555,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4572,7 +4575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4583,16 +4586,16 @@
         <v>73</v>
       </c>
       <c r="D206" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E206" s="2">
         <v>73</v>
       </c>
       <c r="F206" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>205</v>
       </c>
@@ -4612,7 +4615,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -4632,7 +4635,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>208</v>
       </c>
@@ -4672,7 +4675,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4703,16 +4706,16 @@
         <v>73</v>
       </c>
       <c r="D212" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E212" s="2">
         <v>73</v>
       </c>
       <c r="F212" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4732,7 +4735,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>212</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4772,7 +4775,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>215</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4823,16 +4826,16 @@
         <v>73</v>
       </c>
       <c r="D218" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E218" s="2">
         <v>73</v>
       </c>
       <c r="F218" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4852,7 +4855,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>218</v>
       </c>
@@ -4872,7 +4875,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4912,7 +4915,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4932,7 +4935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>222</v>
       </c>
@@ -4943,16 +4946,16 @@
         <v>73</v>
       </c>
       <c r="D224" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E224" s="2">
         <v>73</v>
       </c>
       <c r="F224" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4972,7 +4975,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4992,7 +4995,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>225</v>
       </c>
@@ -5012,7 +5015,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5032,7 +5035,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>228</v>
       </c>
@@ -5063,16 +5066,16 @@
         <v>73</v>
       </c>
       <c r="D230" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E230" s="2">
         <v>73</v>
       </c>
       <c r="F230" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5092,7 +5095,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5132,7 +5135,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>232</v>
       </c>
@@ -5152,7 +5155,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5172,7 +5175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5183,16 +5186,16 @@
         <v>73</v>
       </c>
       <c r="D236" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E236" s="2">
         <v>73</v>
       </c>
       <c r="F236" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>235</v>
       </c>
@@ -5212,7 +5215,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5232,7 +5235,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5252,7 +5255,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>238</v>
       </c>
@@ -5272,7 +5275,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5303,16 +5306,16 @@
         <v>73</v>
       </c>
       <c r="D242" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E242" s="2">
         <v>73</v>
       </c>
       <c r="F242" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>242</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -5372,7 +5375,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -5392,7 +5395,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>245</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -5423,16 +5426,16 @@
         <v>73</v>
       </c>
       <c r="D248" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E248" s="2">
         <v>73</v>
       </c>
       <c r="F248" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>248</v>
       </c>
@@ -5472,7 +5475,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -5492,7 +5495,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -5512,7 +5515,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -5532,7 +5535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>252</v>
       </c>
@@ -5543,16 +5546,16 @@
         <v>73</v>
       </c>
       <c r="D254" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E254" s="2">
         <v>73</v>
       </c>
       <c r="F254" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>255</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -5632,7 +5635,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -5652,7 +5655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>258</v>
       </c>
@@ -5663,16 +5666,16 @@
         <v>73</v>
       </c>
       <c r="D260" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E260" s="2">
         <v>73</v>
       </c>
       <c r="F260" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -5712,7 +5715,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -5732,7 +5735,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>262</v>
       </c>
@@ -5752,7 +5755,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -5772,7 +5775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -5783,16 +5786,16 @@
         <v>73</v>
       </c>
       <c r="D266" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E266" s="2">
         <v>73</v>
       </c>
       <c r="F266" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>265</v>
       </c>
@@ -5812,7 +5815,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -5832,7 +5835,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -5852,7 +5855,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>268</v>
       </c>
@@ -5872,7 +5875,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -5892,7 +5895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -5903,16 +5906,16 @@
         <v>73</v>
       </c>
       <c r="D272" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E272" s="2">
         <v>73</v>
       </c>
       <c r="F272" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -5932,7 +5935,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>272</v>
       </c>
@@ -5952,7 +5955,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -5972,7 +5975,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -5992,7 +5995,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>275</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -6023,16 +6026,16 @@
         <v>73</v>
       </c>
       <c r="D278" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E278" s="2">
         <v>73</v>
       </c>
       <c r="F278" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -6052,7 +6055,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>278</v>
       </c>
@@ -6072,7 +6075,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6092,7 +6095,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>282</v>
       </c>
@@ -6143,16 +6146,16 @@
         <v>73</v>
       </c>
       <c r="D284" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E284" s="2">
         <v>73</v>
       </c>
       <c r="F284" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6172,7 +6175,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6192,7 +6195,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>285</v>
       </c>
@@ -6212,7 +6215,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -6232,7 +6235,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -6252,7 +6255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>288</v>
       </c>
@@ -6263,16 +6266,16 @@
         <v>73</v>
       </c>
       <c r="D290" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E290" s="2">
         <v>73</v>
       </c>
       <c r="F290" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -6292,7 +6295,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -6312,7 +6315,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -6352,7 +6355,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>293</v>
       </c>
@@ -6372,7 +6375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -6383,16 +6386,16 @@
         <v>73</v>
       </c>
       <c r="D296" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E296" s="2">
         <v>73</v>
       </c>
       <c r="F296" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -6412,7 +6415,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>296</v>
       </c>
@@ -6432,7 +6435,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -6472,7 +6475,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>299</v>
       </c>
@@ -6492,7 +6495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -6503,16 +6506,16 @@
         <v>73</v>
       </c>
       <c r="D302" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E302" s="2">
         <v>73</v>
       </c>
       <c r="F302" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -6532,7 +6535,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -6552,7 +6555,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -6572,7 +6575,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>304</v>
       </c>
@@ -6592,7 +6595,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -6612,7 +6615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -6623,16 +6626,16 @@
         <v>73</v>
       </c>
       <c r="D308" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E308" s="2">
         <v>73</v>
       </c>
       <c r="F308" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>307</v>
       </c>
@@ -6652,7 +6655,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -6672,7 +6675,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -6692,7 +6695,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>310</v>
       </c>
@@ -6712,7 +6715,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -6732,7 +6735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -6743,16 +6746,16 @@
         <v>73</v>
       </c>
       <c r="D314" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E314" s="2">
         <v>73</v>
       </c>
       <c r="F314" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -6772,7 +6775,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -6792,7 +6795,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>315</v>
       </c>
@@ -6812,7 +6815,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -6832,7 +6835,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -6852,7 +6855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>318</v>
       </c>
@@ -6863,16 +6866,16 @@
         <v>73</v>
       </c>
       <c r="D320" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E320" s="2">
         <v>73</v>
       </c>
       <c r="F320" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -6892,7 +6895,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -6912,7 +6915,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>321</v>
       </c>
@@ -6932,7 +6935,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -6952,7 +6955,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -6972,7 +6975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -6983,16 +6986,16 @@
         <v>73</v>
       </c>
       <c r="D326" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E326" s="2">
         <v>73</v>
       </c>
       <c r="F326" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7012,7 +7015,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>326</v>
       </c>
@@ -7032,7 +7035,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7052,7 +7055,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7072,7 +7075,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>329</v>
       </c>
@@ -7092,7 +7095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -7103,16 +7106,16 @@
         <v>73</v>
       </c>
       <c r="D332" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E332" s="2">
         <v>73</v>
       </c>
       <c r="F332" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -7132,7 +7135,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>332</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -7172,7 +7175,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -7212,7 +7215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -7223,16 +7226,16 @@
         <v>73</v>
       </c>
       <c r="D338" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E338" s="2">
         <v>73</v>
       </c>
       <c r="F338" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>337</v>
       </c>
@@ -7252,7 +7255,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -7272,7 +7275,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -7292,7 +7295,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>340</v>
       </c>
@@ -7312,7 +7315,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -7332,7 +7335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -7343,16 +7346,16 @@
         <v>73</v>
       </c>
       <c r="D344" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E344" s="2">
         <v>73</v>
       </c>
       <c r="F344" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>343</v>
       </c>
@@ -7372,7 +7375,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -7392,7 +7395,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -7412,7 +7415,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -7432,7 +7435,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -7452,7 +7455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>348</v>
       </c>
@@ -7463,16 +7466,16 @@
         <v>73</v>
       </c>
       <c r="D350" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E350" s="2">
         <v>73</v>
       </c>
       <c r="F350" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -7492,7 +7495,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -7512,7 +7515,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>351</v>
       </c>
@@ -7532,7 +7535,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -7552,7 +7555,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -7572,7 +7575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>354</v>
       </c>
@@ -7583,16 +7586,16 @@
         <v>73</v>
       </c>
       <c r="D356" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E356" s="2">
         <v>73</v>
       </c>
       <c r="F356" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -7612,7 +7615,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -7632,7 +7635,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -7652,7 +7655,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -7672,7 +7675,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>359</v>
       </c>
@@ -7692,7 +7695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -7703,16 +7706,16 @@
         <v>73</v>
       </c>
       <c r="D362" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E362" s="2">
         <v>73</v>
       </c>
       <c r="F362" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -7732,7 +7735,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>362</v>
       </c>
@@ -7752,7 +7755,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -7772,7 +7775,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -7792,7 +7795,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>365</v>
       </c>
@@ -7812,7 +7815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -7823,16 +7826,16 @@
         <v>73</v>
       </c>
       <c r="D368" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E368" s="2">
         <v>73</v>
       </c>
       <c r="F368" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -7852,7 +7855,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -7892,7 +7895,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -7912,7 +7915,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -7932,7 +7935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>372</v>
       </c>
@@ -7943,16 +7946,16 @@
         <v>73</v>
       </c>
       <c r="D374" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E374" s="2">
         <v>73</v>
       </c>
       <c r="F374" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -7972,7 +7975,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -7992,7 +7995,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -8012,7 +8015,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -8032,7 +8035,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -8052,7 +8055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -8063,16 +8066,16 @@
         <v>73</v>
       </c>
       <c r="D380" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E380" s="2">
         <v>73</v>
       </c>
       <c r="F380" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>379</v>
       </c>
@@ -8092,7 +8095,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -8112,7 +8115,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -8132,7 +8135,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -8152,7 +8155,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -8172,7 +8175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -8183,16 +8186,16 @@
         <v>73</v>
       </c>
       <c r="D386" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E386" s="2">
         <v>73</v>
       </c>
       <c r="F386" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -8212,7 +8215,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>386</v>
       </c>
@@ -8232,7 +8235,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -8252,7 +8255,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -8272,7 +8275,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -8292,7 +8295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -8303,16 +8306,16 @@
         <v>73</v>
       </c>
       <c r="D392" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E392" s="2">
         <v>73</v>
       </c>
       <c r="F392" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -8332,7 +8335,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -8352,7 +8355,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>393</v>
       </c>
@@ -8372,7 +8375,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -8392,7 +8395,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -8412,7 +8415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -8423,16 +8426,16 @@
         <v>73</v>
       </c>
       <c r="D398" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E398" s="2">
         <v>73</v>
       </c>
       <c r="F398" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -8452,7 +8455,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -8472,7 +8475,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -8492,7 +8495,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -8512,7 +8515,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>401</v>
       </c>
@@ -8532,7 +8535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -8543,16 +8546,16 @@
         <v>73</v>
       </c>
       <c r="D404" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E404" s="2">
         <v>73</v>
       </c>
       <c r="F404" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -8572,7 +8575,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -8592,7 +8595,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -8612,7 +8615,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -8632,7 +8635,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -8652,7 +8655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -8663,16 +8666,16 @@
         <v>73</v>
       </c>
       <c r="D410" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E410" s="2">
         <v>73</v>
       </c>
       <c r="F410" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>409</v>
       </c>
@@ -8692,7 +8695,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -8712,7 +8715,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -8732,7 +8735,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -8752,7 +8755,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -8772,7 +8775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -8783,16 +8786,16 @@
         <v>73</v>
       </c>
       <c r="D416" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E416" s="2">
         <v>73</v>
       </c>
       <c r="F416" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -8812,7 +8815,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -8832,7 +8835,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>417</v>
       </c>
@@ -8852,7 +8855,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -8872,7 +8875,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -8892,7 +8895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -8903,16 +8906,16 @@
         <v>73</v>
       </c>
       <c r="D422" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E422" s="2">
         <v>73</v>
       </c>
       <c r="F422" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -8932,7 +8935,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -8952,7 +8955,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -8972,7 +8975,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -8992,7 +8995,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>425</v>
       </c>
@@ -9012,7 +9015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -9023,16 +9026,16 @@
         <v>73</v>
       </c>
       <c r="D428" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E428" s="2">
         <v>73</v>
       </c>
       <c r="F428" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -9052,7 +9055,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -9072,7 +9075,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -9092,7 +9095,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -9112,7 +9115,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -9132,7 +9135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -9143,16 +9146,16 @@
         <v>73</v>
       </c>
       <c r="D434" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E434" s="2">
         <v>73</v>
       </c>
       <c r="F434" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>433</v>
       </c>
@@ -9172,7 +9175,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -9192,7 +9195,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -9212,7 +9215,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -9232,7 +9235,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -9252,7 +9255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -9263,16 +9266,16 @@
         <v>73</v>
       </c>
       <c r="D440" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E440" s="2">
         <v>73</v>
       </c>
       <c r="F440" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -9292,7 +9295,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -9312,7 +9315,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>441</v>
       </c>
@@ -9332,7 +9335,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -9352,7 +9355,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -9372,7 +9375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -9383,16 +9386,16 @@
         <v>73</v>
       </c>
       <c r="D446" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E446" s="2">
         <v>73</v>
       </c>
       <c r="F446" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -9412,7 +9415,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -9432,7 +9435,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -9452,7 +9455,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -9472,7 +9475,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>449</v>
       </c>
@@ -9492,7 +9495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -9503,16 +9506,16 @@
         <v>73</v>
       </c>
       <c r="D452" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E452" s="2">
         <v>73</v>
       </c>
       <c r="F452" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -9532,7 +9535,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -9552,7 +9555,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -9572,7 +9575,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -9592,7 +9595,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -9612,7 +9615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -9623,16 +9626,16 @@
         <v>73</v>
       </c>
       <c r="D458" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E458" s="2">
         <v>73</v>
       </c>
       <c r="F458" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>457</v>
       </c>
@@ -9652,7 +9655,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -9672,7 +9675,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -9692,7 +9695,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -9712,7 +9715,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -9743,16 +9746,16 @@
         <v>73</v>
       </c>
       <c r="D464" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E464" s="2">
         <v>73</v>
       </c>
       <c r="F464" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -9772,7 +9775,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -9792,7 +9795,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>465</v>
       </c>
@@ -9812,7 +9815,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -9832,7 +9835,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -9852,7 +9855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -9863,16 +9866,16 @@
         <v>73</v>
       </c>
       <c r="D470" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E470" s="2">
         <v>73</v>
       </c>
       <c r="F470" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -9892,7 +9895,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -9912,7 +9915,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -9932,7 +9935,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -9952,7 +9955,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>473</v>
       </c>
@@ -9972,7 +9975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -9983,16 +9986,16 @@
         <v>73</v>
       </c>
       <c r="D476" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E476" s="2">
         <v>73</v>
       </c>
       <c r="F476" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -10032,7 +10035,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -10052,7 +10055,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -10072,7 +10075,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>479</v>
       </c>
@@ -10092,7 +10095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -10103,16 +10106,16 @@
         <v>73</v>
       </c>
       <c r="D482" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E482" s="2">
         <v>73</v>
       </c>
       <c r="F482" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -10132,7 +10135,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -10152,7 +10155,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -10172,7 +10175,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -10192,7 +10195,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="2">
         <v>485</v>
       </c>
@@ -10212,7 +10215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -10223,16 +10226,16 @@
         <v>73</v>
       </c>
       <c r="D488" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E488" s="2">
         <v>73</v>
       </c>
       <c r="F488" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -10252,7 +10255,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -10272,7 +10275,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -10292,7 +10295,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -10312,7 +10315,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="2">
         <v>491</v>
       </c>
@@ -10332,7 +10335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -10343,16 +10346,16 @@
         <v>73</v>
       </c>
       <c r="D494" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E494" s="2">
         <v>73</v>
       </c>
       <c r="F494" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -10372,7 +10375,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -10392,7 +10395,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -10412,7 +10415,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -10432,7 +10435,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="2">
         <v>497</v>
       </c>
@@ -10452,7 +10455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -10463,16 +10466,16 @@
         <v>73</v>
       </c>
       <c r="D500" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E500" s="2">
         <v>73</v>
       </c>
       <c r="F500" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -10492,7 +10495,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -10512,7 +10515,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -10532,7 +10535,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -10552,7 +10555,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="2">
         <v>503</v>
       </c>
@@ -10572,7 +10575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -10583,16 +10586,16 @@
         <v>73</v>
       </c>
       <c r="D506" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E506" s="2">
         <v>73</v>
       </c>
       <c r="F506" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -10612,7 +10615,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -10632,7 +10635,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -10652,7 +10655,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -10672,7 +10675,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="2">
         <v>509</v>
       </c>
@@ -10692,7 +10695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -10703,16 +10706,16 @@
         <v>73</v>
       </c>
       <c r="D512" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E512" s="2">
         <v>73</v>
       </c>
       <c r="F512" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -10732,7 +10735,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -10752,7 +10755,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -10772,7 +10775,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -10792,7 +10795,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="2">
         <v>515</v>
       </c>
@@ -10812,7 +10815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -10823,16 +10826,16 @@
         <v>73</v>
       </c>
       <c r="D518" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E518" s="2">
         <v>73</v>
       </c>
       <c r="F518" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -10852,7 +10855,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -10873,6 +10876,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C520" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E00CB92-CBAF-4C18-B3F7-857B8A04440B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53783EB-6D60-47CA-9AEB-F97C51AFFDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPass" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F520"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -506,13 +506,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -526,13 +526,13 @@
         <v>30</v>
       </c>
       <c r="D3" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
       </c>
       <c r="F3" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -546,13 +546,13 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -566,13 +566,13 @@
         <v>46</v>
       </c>
       <c r="D5" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E5" s="1">
         <v>46</v>
       </c>
       <c r="F5" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -586,13 +586,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2">
         <v>14</v>
       </c>
       <c r="F6" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -606,13 +606,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>73</v>
       </c>
       <c r="F7" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -623,13 +623,13 @@
         <v>2000000</v>
       </c>
       <c r="C8" s="1">
-        <v>1246</v>
+        <v>1255</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>1247</v>
+        <v>1256</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -646,13 +646,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -666,13 +666,13 @@
         <v>30</v>
       </c>
       <c r="D10" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E10" s="1">
         <v>30</v>
       </c>
       <c r="F10" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -686,13 +686,13 @@
         <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E11" s="1">
         <v>20</v>
       </c>
       <c r="F11" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -706,13 +706,13 @@
         <v>46</v>
       </c>
       <c r="D12" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E12" s="1">
         <v>46</v>
       </c>
       <c r="F12" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -726,13 +726,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -746,7 +746,7 @@
         <v>73</v>
       </c>
       <c r="D14" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2">
         <v>73</v>
@@ -766,13 +766,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="F15" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -786,13 +786,13 @@
         <v>30</v>
       </c>
       <c r="D16" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E16" s="1">
         <v>30</v>
       </c>
       <c r="F16" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -806,13 +806,13 @@
         <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
       </c>
       <c r="F17" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -826,13 +826,13 @@
         <v>46</v>
       </c>
       <c r="D18" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E18" s="1">
         <v>46</v>
       </c>
       <c r="F18" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -846,13 +846,13 @@
         <v>14</v>
       </c>
       <c r="D19" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -866,7 +866,7 @@
         <v>73</v>
       </c>
       <c r="D20" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2">
         <v>73</v>
@@ -886,13 +886,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
       </c>
       <c r="F21" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -906,13 +906,13 @@
         <v>30</v>
       </c>
       <c r="D22" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E22" s="1">
         <v>30</v>
       </c>
       <c r="F22" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -926,13 +926,13 @@
         <v>20</v>
       </c>
       <c r="D23" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E23" s="1">
         <v>20</v>
       </c>
       <c r="F23" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -946,13 +946,13 @@
         <v>46</v>
       </c>
       <c r="D24" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E24" s="1">
         <v>46</v>
       </c>
       <c r="F24" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -966,13 +966,13 @@
         <v>14</v>
       </c>
       <c r="D25" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -986,7 +986,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E26" s="2">
         <v>73</v>
@@ -1006,13 +1006,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
       </c>
       <c r="F27" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1026,13 +1026,13 @@
         <v>30</v>
       </c>
       <c r="D28" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E28" s="1">
         <v>30</v>
       </c>
       <c r="F28" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1046,13 +1046,13 @@
         <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
       </c>
       <c r="F29" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1066,13 +1066,13 @@
         <v>46</v>
       </c>
       <c r="D30" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E30" s="1">
         <v>46</v>
       </c>
       <c r="F30" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1086,13 +1086,13 @@
         <v>14</v>
       </c>
       <c r="D31" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2">
         <v>14</v>
       </c>
       <c r="F31" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1106,7 +1106,7 @@
         <v>73</v>
       </c>
       <c r="D32" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E32" s="2">
         <v>73</v>
@@ -1126,13 +1126,13 @@
         <v>5</v>
       </c>
       <c r="D33" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E33" s="1">
         <v>5</v>
       </c>
       <c r="F33" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1146,13 +1146,13 @@
         <v>30</v>
       </c>
       <c r="D34" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E34" s="1">
         <v>30</v>
       </c>
       <c r="F34" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1166,13 +1166,13 @@
         <v>20</v>
       </c>
       <c r="D35" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E35" s="1">
         <v>20</v>
       </c>
       <c r="F35" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1186,13 +1186,13 @@
         <v>46</v>
       </c>
       <c r="D36" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E36" s="1">
         <v>46</v>
       </c>
       <c r="F36" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1206,13 +1206,13 @@
         <v>14</v>
       </c>
       <c r="D37" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E37" s="2">
         <v>14</v>
       </c>
       <c r="F37" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1226,13 +1226,13 @@
         <v>73</v>
       </c>
       <c r="D38" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E38" s="2">
         <v>73</v>
       </c>
       <c r="F38" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1246,13 +1246,13 @@
         <v>5</v>
       </c>
       <c r="D39" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
       </c>
       <c r="F39" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1266,13 +1266,13 @@
         <v>30</v>
       </c>
       <c r="D40" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E40" s="1">
         <v>30</v>
       </c>
       <c r="F40" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1286,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="D41" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E41" s="1">
         <v>20</v>
       </c>
       <c r="F41" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1306,13 +1306,13 @@
         <v>46</v>
       </c>
       <c r="D42" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E42" s="1">
         <v>46</v>
       </c>
       <c r="F42" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1326,13 +1326,13 @@
         <v>14</v>
       </c>
       <c r="D43" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E43" s="2">
         <v>14</v>
       </c>
       <c r="F43" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1346,13 +1346,13 @@
         <v>73</v>
       </c>
       <c r="D44" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2">
         <v>73</v>
       </c>
       <c r="F44" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1366,13 +1366,13 @@
         <v>5</v>
       </c>
       <c r="D45" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
       </c>
       <c r="F45" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1386,13 +1386,13 @@
         <v>30</v>
       </c>
       <c r="D46" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E46" s="1">
         <v>30</v>
       </c>
       <c r="F46" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1406,13 +1406,13 @@
         <v>20</v>
       </c>
       <c r="D47" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E47" s="1">
         <v>20</v>
       </c>
       <c r="F47" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1426,13 +1426,13 @@
         <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E48" s="1">
         <v>46</v>
       </c>
       <c r="F48" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1446,13 +1446,13 @@
         <v>14</v>
       </c>
       <c r="D49" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E49" s="2">
         <v>14</v>
       </c>
       <c r="F49" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1466,13 +1466,13 @@
         <v>73</v>
       </c>
       <c r="D50" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2">
         <v>73</v>
       </c>
       <c r="F50" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1486,13 +1486,13 @@
         <v>5</v>
       </c>
       <c r="D51" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E51" s="1">
         <v>5</v>
       </c>
       <c r="F51" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1506,13 +1506,13 @@
         <v>30</v>
       </c>
       <c r="D52" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E52" s="1">
         <v>30</v>
       </c>
       <c r="F52" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1526,13 +1526,13 @@
         <v>20</v>
       </c>
       <c r="D53" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E53" s="1">
         <v>20</v>
       </c>
       <c r="F53" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1546,13 +1546,13 @@
         <v>46</v>
       </c>
       <c r="D54" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E54" s="1">
         <v>46</v>
       </c>
       <c r="F54" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1566,13 +1566,13 @@
         <v>14</v>
       </c>
       <c r="D55" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E55" s="2">
         <v>14</v>
       </c>
       <c r="F55" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1586,13 +1586,13 @@
         <v>73</v>
       </c>
       <c r="D56" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2">
         <v>73</v>
       </c>
       <c r="F56" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1606,13 +1606,13 @@
         <v>5</v>
       </c>
       <c r="D57" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E57" s="1">
         <v>5</v>
       </c>
       <c r="F57" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1626,13 +1626,13 @@
         <v>30</v>
       </c>
       <c r="D58" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E58" s="1">
         <v>30</v>
       </c>
       <c r="F58" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1646,13 +1646,13 @@
         <v>20</v>
       </c>
       <c r="D59" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E59" s="1">
         <v>20</v>
       </c>
       <c r="F59" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1666,13 +1666,13 @@
         <v>46</v>
       </c>
       <c r="D60" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E60" s="1">
         <v>46</v>
       </c>
       <c r="F60" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1686,13 +1686,13 @@
         <v>14</v>
       </c>
       <c r="D61" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E61" s="2">
         <v>14</v>
       </c>
       <c r="F61" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1706,13 +1706,13 @@
         <v>73</v>
       </c>
       <c r="D62" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2">
         <v>73</v>
       </c>
       <c r="F62" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1726,13 +1726,13 @@
         <v>5</v>
       </c>
       <c r="D63" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E63" s="1">
         <v>5</v>
       </c>
       <c r="F63" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1746,13 +1746,13 @@
         <v>30</v>
       </c>
       <c r="D64" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E64" s="1">
         <v>30</v>
       </c>
       <c r="F64" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1766,13 +1766,13 @@
         <v>20</v>
       </c>
       <c r="D65" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E65" s="1">
         <v>20</v>
       </c>
       <c r="F65" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1786,13 +1786,13 @@
         <v>46</v>
       </c>
       <c r="D66" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E66" s="1">
         <v>46</v>
       </c>
       <c r="F66" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1806,13 +1806,13 @@
         <v>14</v>
       </c>
       <c r="D67" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E67" s="2">
         <v>14</v>
       </c>
       <c r="F67" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1826,13 +1826,13 @@
         <v>73</v>
       </c>
       <c r="D68" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2">
         <v>73</v>
       </c>
       <c r="F68" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1846,13 +1846,13 @@
         <v>5</v>
       </c>
       <c r="D69" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E69" s="1">
         <v>5</v>
       </c>
       <c r="F69" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1866,13 +1866,13 @@
         <v>30</v>
       </c>
       <c r="D70" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E70" s="1">
         <v>30</v>
       </c>
       <c r="F70" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1886,13 +1886,13 @@
         <v>20</v>
       </c>
       <c r="D71" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E71" s="1">
         <v>20</v>
       </c>
       <c r="F71" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1906,13 +1906,13 @@
         <v>46</v>
       </c>
       <c r="D72" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E72" s="1">
         <v>46</v>
       </c>
       <c r="F72" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1926,13 +1926,13 @@
         <v>14</v>
       </c>
       <c r="D73" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E73" s="2">
         <v>14</v>
       </c>
       <c r="F73" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1946,13 +1946,13 @@
         <v>73</v>
       </c>
       <c r="D74" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2">
         <v>73</v>
       </c>
       <c r="F74" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1966,13 +1966,13 @@
         <v>5</v>
       </c>
       <c r="D75" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E75" s="1">
         <v>5</v>
       </c>
       <c r="F75" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -1986,13 +1986,13 @@
         <v>30</v>
       </c>
       <c r="D76" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E76" s="1">
         <v>30</v>
       </c>
       <c r="F76" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2006,13 +2006,13 @@
         <v>20</v>
       </c>
       <c r="D77" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E77" s="1">
         <v>20</v>
       </c>
       <c r="F77" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2026,13 +2026,13 @@
         <v>46</v>
       </c>
       <c r="D78" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E78" s="1">
         <v>46</v>
       </c>
       <c r="F78" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2046,13 +2046,13 @@
         <v>14</v>
       </c>
       <c r="D79" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E79" s="2">
         <v>14</v>
       </c>
       <c r="F79" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2066,13 +2066,13 @@
         <v>73</v>
       </c>
       <c r="D80" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2">
         <v>73</v>
       </c>
       <c r="F80" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2086,13 +2086,13 @@
         <v>5</v>
       </c>
       <c r="D81" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E81" s="1">
         <v>5</v>
       </c>
       <c r="F81" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2106,13 +2106,13 @@
         <v>30</v>
       </c>
       <c r="D82" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E82" s="1">
         <v>30</v>
       </c>
       <c r="F82" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2126,13 +2126,13 @@
         <v>20</v>
       </c>
       <c r="D83" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E83" s="1">
         <v>20</v>
       </c>
       <c r="F83" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2146,13 +2146,13 @@
         <v>46</v>
       </c>
       <c r="D84" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E84" s="1">
         <v>46</v>
       </c>
       <c r="F84" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2166,13 +2166,13 @@
         <v>14</v>
       </c>
       <c r="D85" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E85" s="2">
         <v>14</v>
       </c>
       <c r="F85" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2186,13 +2186,13 @@
         <v>73</v>
       </c>
       <c r="D86" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2">
         <v>73</v>
       </c>
       <c r="F86" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2206,13 +2206,13 @@
         <v>5</v>
       </c>
       <c r="D87" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E87" s="1">
         <v>5</v>
       </c>
       <c r="F87" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2226,13 +2226,13 @@
         <v>30</v>
       </c>
       <c r="D88" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E88" s="1">
         <v>30</v>
       </c>
       <c r="F88" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2246,13 +2246,13 @@
         <v>20</v>
       </c>
       <c r="D89" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E89" s="1">
         <v>20</v>
       </c>
       <c r="F89" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2266,13 +2266,13 @@
         <v>46</v>
       </c>
       <c r="D90" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E90" s="1">
         <v>46</v>
       </c>
       <c r="F90" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2286,13 +2286,13 @@
         <v>14</v>
       </c>
       <c r="D91" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E91" s="2">
         <v>14</v>
       </c>
       <c r="F91" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2306,13 +2306,13 @@
         <v>73</v>
       </c>
       <c r="D92" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2">
         <v>73</v>
       </c>
       <c r="F92" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2326,13 +2326,13 @@
         <v>5</v>
       </c>
       <c r="D93" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E93" s="1">
         <v>5</v>
       </c>
       <c r="F93" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -2346,13 +2346,13 @@
         <v>30</v>
       </c>
       <c r="D94" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E94" s="1">
         <v>30</v>
       </c>
       <c r="F94" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -2366,13 +2366,13 @@
         <v>20</v>
       </c>
       <c r="D95" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E95" s="1">
         <v>20</v>
       </c>
       <c r="F95" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -2386,13 +2386,13 @@
         <v>46</v>
       </c>
       <c r="D96" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E96" s="1">
         <v>46</v>
       </c>
       <c r="F96" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -2406,13 +2406,13 @@
         <v>14</v>
       </c>
       <c r="D97" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E97" s="2">
         <v>14</v>
       </c>
       <c r="F97" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2426,13 +2426,13 @@
         <v>73</v>
       </c>
       <c r="D98" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2">
         <v>73</v>
       </c>
       <c r="F98" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -2446,13 +2446,13 @@
         <v>5</v>
       </c>
       <c r="D99" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E99" s="1">
         <v>5</v>
       </c>
       <c r="F99" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -2466,13 +2466,13 @@
         <v>30</v>
       </c>
       <c r="D100" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E100" s="1">
         <v>30</v>
       </c>
       <c r="F100" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2486,13 +2486,13 @@
         <v>20</v>
       </c>
       <c r="D101" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E101" s="1">
         <v>20</v>
       </c>
       <c r="F101" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2506,13 +2506,13 @@
         <v>46</v>
       </c>
       <c r="D102" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E102" s="1">
         <v>46</v>
       </c>
       <c r="F102" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -2526,13 +2526,13 @@
         <v>14</v>
       </c>
       <c r="D103" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E103" s="2">
         <v>14</v>
       </c>
       <c r="F103" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -2546,13 +2546,13 @@
         <v>73</v>
       </c>
       <c r="D104" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2">
         <v>73</v>
       </c>
       <c r="F104" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -2566,13 +2566,13 @@
         <v>5</v>
       </c>
       <c r="D105" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E105" s="1">
         <v>5</v>
       </c>
       <c r="F105" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -2586,13 +2586,13 @@
         <v>30</v>
       </c>
       <c r="D106" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E106" s="1">
         <v>30</v>
       </c>
       <c r="F106" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -2606,13 +2606,13 @@
         <v>20</v>
       </c>
       <c r="D107" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E107" s="1">
         <v>20</v>
       </c>
       <c r="F107" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -2626,13 +2626,13 @@
         <v>46</v>
       </c>
       <c r="D108" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E108" s="1">
         <v>46</v>
       </c>
       <c r="F108" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -2646,13 +2646,13 @@
         <v>14</v>
       </c>
       <c r="D109" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E109" s="2">
         <v>14</v>
       </c>
       <c r="F109" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -2666,13 +2666,13 @@
         <v>73</v>
       </c>
       <c r="D110" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E110" s="2">
         <v>73</v>
       </c>
       <c r="F110" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -2686,13 +2686,13 @@
         <v>5</v>
       </c>
       <c r="D111" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E111" s="1">
         <v>5</v>
       </c>
       <c r="F111" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -2706,13 +2706,13 @@
         <v>30</v>
       </c>
       <c r="D112" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E112" s="1">
         <v>30</v>
       </c>
       <c r="F112" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -2726,13 +2726,13 @@
         <v>20</v>
       </c>
       <c r="D113" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E113" s="1">
         <v>20</v>
       </c>
       <c r="F113" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -2746,13 +2746,13 @@
         <v>46</v>
       </c>
       <c r="D114" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E114" s="1">
         <v>46</v>
       </c>
       <c r="F114" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -2766,13 +2766,13 @@
         <v>14</v>
       </c>
       <c r="D115" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E115" s="2">
         <v>14</v>
       </c>
       <c r="F115" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -2786,13 +2786,13 @@
         <v>73</v>
       </c>
       <c r="D116" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E116" s="2">
         <v>73</v>
       </c>
       <c r="F116" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -2806,13 +2806,13 @@
         <v>5</v>
       </c>
       <c r="D117" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E117" s="1">
         <v>5</v>
       </c>
       <c r="F117" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -2826,13 +2826,13 @@
         <v>30</v>
       </c>
       <c r="D118" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E118" s="1">
         <v>30</v>
       </c>
       <c r="F118" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -2846,13 +2846,13 @@
         <v>20</v>
       </c>
       <c r="D119" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E119" s="1">
         <v>20</v>
       </c>
       <c r="F119" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -2866,13 +2866,13 @@
         <v>46</v>
       </c>
       <c r="D120" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E120" s="1">
         <v>46</v>
       </c>
       <c r="F120" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -2886,13 +2886,13 @@
         <v>14</v>
       </c>
       <c r="D121" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E121" s="2">
         <v>14</v>
       </c>
       <c r="F121" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -2906,13 +2906,13 @@
         <v>73</v>
       </c>
       <c r="D122" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E122" s="2">
         <v>73</v>
       </c>
       <c r="F122" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -2926,13 +2926,13 @@
         <v>5</v>
       </c>
       <c r="D123" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E123" s="1">
         <v>5</v>
       </c>
       <c r="F123" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -2946,13 +2946,13 @@
         <v>30</v>
       </c>
       <c r="D124" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E124" s="1">
         <v>30</v>
       </c>
       <c r="F124" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -2966,13 +2966,13 @@
         <v>20</v>
       </c>
       <c r="D125" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E125" s="1">
         <v>20</v>
       </c>
       <c r="F125" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -2986,13 +2986,13 @@
         <v>46</v>
       </c>
       <c r="D126" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E126" s="1">
         <v>46</v>
       </c>
       <c r="F126" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3006,13 +3006,13 @@
         <v>14</v>
       </c>
       <c r="D127" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E127" s="2">
         <v>14</v>
       </c>
       <c r="F127" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3026,13 +3026,13 @@
         <v>73</v>
       </c>
       <c r="D128" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E128" s="2">
         <v>73</v>
       </c>
       <c r="F128" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3046,13 +3046,13 @@
         <v>5</v>
       </c>
       <c r="D129" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E129" s="1">
         <v>5</v>
       </c>
       <c r="F129" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3066,13 +3066,13 @@
         <v>30</v>
       </c>
       <c r="D130" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E130" s="1">
         <v>30</v>
       </c>
       <c r="F130" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3086,13 +3086,13 @@
         <v>20</v>
       </c>
       <c r="D131" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E131" s="1">
         <v>20</v>
       </c>
       <c r="F131" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3106,13 +3106,13 @@
         <v>46</v>
       </c>
       <c r="D132" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E132" s="1">
         <v>46</v>
       </c>
       <c r="F132" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3126,13 +3126,13 @@
         <v>14</v>
       </c>
       <c r="D133" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E133" s="2">
         <v>14</v>
       </c>
       <c r="F133" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3146,13 +3146,13 @@
         <v>73</v>
       </c>
       <c r="D134" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E134" s="2">
         <v>73</v>
       </c>
       <c r="F134" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3166,13 +3166,13 @@
         <v>5</v>
       </c>
       <c r="D135" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E135" s="1">
         <v>5</v>
       </c>
       <c r="F135" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3186,13 +3186,13 @@
         <v>30</v>
       </c>
       <c r="D136" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E136" s="1">
         <v>30</v>
       </c>
       <c r="F136" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3206,13 +3206,13 @@
         <v>20</v>
       </c>
       <c r="D137" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E137" s="1">
         <v>20</v>
       </c>
       <c r="F137" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3226,13 +3226,13 @@
         <v>46</v>
       </c>
       <c r="D138" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E138" s="1">
         <v>46</v>
       </c>
       <c r="F138" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -3246,13 +3246,13 @@
         <v>14</v>
       </c>
       <c r="D139" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E139" s="2">
         <v>14</v>
       </c>
       <c r="F139" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3266,13 +3266,13 @@
         <v>73</v>
       </c>
       <c r="D140" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E140" s="2">
         <v>73</v>
       </c>
       <c r="F140" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -3286,13 +3286,13 @@
         <v>5</v>
       </c>
       <c r="D141" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E141" s="1">
         <v>5</v>
       </c>
       <c r="F141" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -3306,13 +3306,13 @@
         <v>30</v>
       </c>
       <c r="D142" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E142" s="1">
         <v>30</v>
       </c>
       <c r="F142" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -3326,13 +3326,13 @@
         <v>20</v>
       </c>
       <c r="D143" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E143" s="1">
         <v>20</v>
       </c>
       <c r="F143" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -3346,13 +3346,13 @@
         <v>46</v>
       </c>
       <c r="D144" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E144" s="1">
         <v>46</v>
       </c>
       <c r="F144" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -3366,13 +3366,13 @@
         <v>14</v>
       </c>
       <c r="D145" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E145" s="2">
         <v>14</v>
       </c>
       <c r="F145" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -3386,13 +3386,13 @@
         <v>73</v>
       </c>
       <c r="D146" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E146" s="2">
         <v>73</v>
       </c>
       <c r="F146" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -3406,13 +3406,13 @@
         <v>5</v>
       </c>
       <c r="D147" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E147" s="1">
         <v>5</v>
       </c>
       <c r="F147" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -3426,13 +3426,13 @@
         <v>30</v>
       </c>
       <c r="D148" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E148" s="1">
         <v>30</v>
       </c>
       <c r="F148" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -3446,13 +3446,13 @@
         <v>20</v>
       </c>
       <c r="D149" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E149" s="1">
         <v>20</v>
       </c>
       <c r="F149" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -3466,13 +3466,13 @@
         <v>46</v>
       </c>
       <c r="D150" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E150" s="1">
         <v>46</v>
       </c>
       <c r="F150" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -3486,13 +3486,13 @@
         <v>14</v>
       </c>
       <c r="D151" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E151" s="2">
         <v>14</v>
       </c>
       <c r="F151" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -3506,13 +3506,13 @@
         <v>73</v>
       </c>
       <c r="D152" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E152" s="2">
         <v>73</v>
       </c>
       <c r="F152" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -3526,13 +3526,13 @@
         <v>5</v>
       </c>
       <c r="D153" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E153" s="1">
         <v>5</v>
       </c>
       <c r="F153" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -3546,13 +3546,13 @@
         <v>30</v>
       </c>
       <c r="D154" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E154" s="1">
         <v>30</v>
       </c>
       <c r="F154" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -3566,13 +3566,13 @@
         <v>20</v>
       </c>
       <c r="D155" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E155" s="1">
         <v>20</v>
       </c>
       <c r="F155" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -3586,13 +3586,13 @@
         <v>46</v>
       </c>
       <c r="D156" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E156" s="1">
         <v>46</v>
       </c>
       <c r="F156" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -3606,13 +3606,13 @@
         <v>14</v>
       </c>
       <c r="D157" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E157" s="2">
         <v>14</v>
       </c>
       <c r="F157" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -3626,13 +3626,13 @@
         <v>73</v>
       </c>
       <c r="D158" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E158" s="2">
         <v>73</v>
       </c>
       <c r="F158" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -3646,13 +3646,13 @@
         <v>5</v>
       </c>
       <c r="D159" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E159" s="1">
         <v>5</v>
       </c>
       <c r="F159" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -3666,13 +3666,13 @@
         <v>30</v>
       </c>
       <c r="D160" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E160" s="1">
         <v>30</v>
       </c>
       <c r="F160" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -3686,13 +3686,13 @@
         <v>20</v>
       </c>
       <c r="D161" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E161" s="1">
         <v>20</v>
       </c>
       <c r="F161" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -3706,13 +3706,13 @@
         <v>46</v>
       </c>
       <c r="D162" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E162" s="1">
         <v>46</v>
       </c>
       <c r="F162" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -3726,13 +3726,13 @@
         <v>14</v>
       </c>
       <c r="D163" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E163" s="2">
         <v>14</v>
       </c>
       <c r="F163" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -3746,13 +3746,13 @@
         <v>73</v>
       </c>
       <c r="D164" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E164" s="2">
         <v>73</v>
       </c>
       <c r="F164" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -3766,13 +3766,13 @@
         <v>5</v>
       </c>
       <c r="D165" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E165" s="1">
         <v>5</v>
       </c>
       <c r="F165" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -3786,13 +3786,13 @@
         <v>30</v>
       </c>
       <c r="D166" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E166" s="1">
         <v>30</v>
       </c>
       <c r="F166" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -3806,13 +3806,13 @@
         <v>20</v>
       </c>
       <c r="D167" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E167" s="1">
         <v>20</v>
       </c>
       <c r="F167" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -3826,13 +3826,13 @@
         <v>46</v>
       </c>
       <c r="D168" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E168" s="1">
         <v>46</v>
       </c>
       <c r="F168" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -3846,13 +3846,13 @@
         <v>14</v>
       </c>
       <c r="D169" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E169" s="2">
         <v>14</v>
       </c>
       <c r="F169" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -3866,13 +3866,13 @@
         <v>73</v>
       </c>
       <c r="D170" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E170" s="2">
         <v>73</v>
       </c>
       <c r="F170" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -3886,13 +3886,13 @@
         <v>5</v>
       </c>
       <c r="D171" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E171" s="1">
         <v>5</v>
       </c>
       <c r="F171" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -3906,13 +3906,13 @@
         <v>30</v>
       </c>
       <c r="D172" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E172" s="1">
         <v>30</v>
       </c>
       <c r="F172" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -3926,13 +3926,13 @@
         <v>20</v>
       </c>
       <c r="D173" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E173" s="1">
         <v>20</v>
       </c>
       <c r="F173" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -3946,13 +3946,13 @@
         <v>46</v>
       </c>
       <c r="D174" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E174" s="1">
         <v>46</v>
       </c>
       <c r="F174" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -3966,13 +3966,13 @@
         <v>14</v>
       </c>
       <c r="D175" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E175" s="2">
         <v>14</v>
       </c>
       <c r="F175" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -3986,13 +3986,13 @@
         <v>73</v>
       </c>
       <c r="D176" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E176" s="2">
         <v>73</v>
       </c>
       <c r="F176" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4006,13 +4006,13 @@
         <v>5</v>
       </c>
       <c r="D177" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E177" s="1">
         <v>5</v>
       </c>
       <c r="F177" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -4026,13 +4026,13 @@
         <v>30</v>
       </c>
       <c r="D178" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E178" s="1">
         <v>30</v>
       </c>
       <c r="F178" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4046,13 +4046,13 @@
         <v>20</v>
       </c>
       <c r="D179" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E179" s="1">
         <v>20</v>
       </c>
       <c r="F179" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -4066,13 +4066,13 @@
         <v>46</v>
       </c>
       <c r="D180" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E180" s="1">
         <v>46</v>
       </c>
       <c r="F180" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4086,13 +4086,13 @@
         <v>14</v>
       </c>
       <c r="D181" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E181" s="2">
         <v>14</v>
       </c>
       <c r="F181" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4106,13 +4106,13 @@
         <v>73</v>
       </c>
       <c r="D182" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E182" s="2">
         <v>73</v>
       </c>
       <c r="F182" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4126,13 +4126,13 @@
         <v>5</v>
       </c>
       <c r="D183" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E183" s="1">
         <v>5</v>
       </c>
       <c r="F183" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4146,13 +4146,13 @@
         <v>30</v>
       </c>
       <c r="D184" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E184" s="1">
         <v>30</v>
       </c>
       <c r="F184" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4166,13 +4166,13 @@
         <v>20</v>
       </c>
       <c r="D185" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E185" s="1">
         <v>20</v>
       </c>
       <c r="F185" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4186,13 +4186,13 @@
         <v>46</v>
       </c>
       <c r="D186" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E186" s="1">
         <v>46</v>
       </c>
       <c r="F186" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -4206,13 +4206,13 @@
         <v>14</v>
       </c>
       <c r="D187" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E187" s="2">
         <v>14</v>
       </c>
       <c r="F187" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4226,13 +4226,13 @@
         <v>73</v>
       </c>
       <c r="D188" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E188" s="2">
         <v>73</v>
       </c>
       <c r="F188" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -4246,13 +4246,13 @@
         <v>5</v>
       </c>
       <c r="D189" s="1">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="E189" s="1">
         <v>5</v>
       </c>
       <c r="F189" s="1">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -4266,13 +4266,13 @@
         <v>30</v>
       </c>
       <c r="D190" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E190" s="1">
         <v>30</v>
       </c>
       <c r="F190" s="1">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4286,13 +4286,13 @@
         <v>20</v>
       </c>
       <c r="D191" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E191" s="1">
         <v>20</v>
       </c>
       <c r="F191" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4306,13 +4306,13 @@
         <v>46</v>
       </c>
       <c r="D192" s="1">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="E192" s="1">
         <v>46</v>
       </c>
       <c r="F192" s="1">
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4326,13 +4326,13 @@
         <v>14</v>
       </c>
       <c r="D193" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E193" s="2">
         <v>14</v>
       </c>
       <c r="F193" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -4346,13 +4346,13 @@
         <v>73</v>
       </c>
       <c r="D194" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E194" s="2">
         <v>73</v>
       </c>
       <c r="F194" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -4366,13 +4366,13 @@
         <v>5</v>
       </c>
       <c r="D195" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E195" s="1">
         <v>5</v>
       </c>
       <c r="F195" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -4386,13 +4386,13 @@
         <v>30</v>
       </c>
       <c r="D196" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E196" s="1">
         <v>30</v>
       </c>
       <c r="F196" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -4406,13 +4406,13 @@
         <v>20</v>
       </c>
       <c r="D197" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E197" s="1">
         <v>20</v>
       </c>
       <c r="F197" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -4426,13 +4426,13 @@
         <v>46</v>
       </c>
       <c r="D198" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E198" s="1">
         <v>46</v>
       </c>
       <c r="F198" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -4446,13 +4446,13 @@
         <v>14</v>
       </c>
       <c r="D199" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E199" s="2">
         <v>14</v>
       </c>
       <c r="F199" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -4466,13 +4466,13 @@
         <v>73</v>
       </c>
       <c r="D200" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E200" s="2">
         <v>73</v>
       </c>
       <c r="F200" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -4486,13 +4486,13 @@
         <v>5</v>
       </c>
       <c r="D201" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E201" s="1">
         <v>5</v>
       </c>
       <c r="F201" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -4506,13 +4506,13 @@
         <v>30</v>
       </c>
       <c r="D202" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E202" s="1">
         <v>30</v>
       </c>
       <c r="F202" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -4526,13 +4526,13 @@
         <v>20</v>
       </c>
       <c r="D203" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E203" s="1">
         <v>20</v>
       </c>
       <c r="F203" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -4546,13 +4546,13 @@
         <v>46</v>
       </c>
       <c r="D204" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E204" s="1">
         <v>46</v>
       </c>
       <c r="F204" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -4566,13 +4566,13 @@
         <v>14</v>
       </c>
       <c r="D205" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E205" s="2">
         <v>14</v>
       </c>
       <c r="F205" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -4586,13 +4586,13 @@
         <v>73</v>
       </c>
       <c r="D206" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E206" s="2">
         <v>73</v>
       </c>
       <c r="F206" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -4606,13 +4606,13 @@
         <v>5</v>
       </c>
       <c r="D207" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E207" s="1">
         <v>5</v>
       </c>
       <c r="F207" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -4626,13 +4626,13 @@
         <v>30</v>
       </c>
       <c r="D208" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E208" s="1">
         <v>30</v>
       </c>
       <c r="F208" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -4646,13 +4646,13 @@
         <v>20</v>
       </c>
       <c r="D209" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E209" s="1">
         <v>20</v>
       </c>
       <c r="F209" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -4666,13 +4666,13 @@
         <v>46</v>
       </c>
       <c r="D210" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E210" s="1">
         <v>46</v>
       </c>
       <c r="F210" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -4686,13 +4686,13 @@
         <v>14</v>
       </c>
       <c r="D211" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E211" s="2">
         <v>14</v>
       </c>
       <c r="F211" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -4706,13 +4706,13 @@
         <v>73</v>
       </c>
       <c r="D212" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E212" s="2">
         <v>73</v>
       </c>
       <c r="F212" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -4726,13 +4726,13 @@
         <v>5</v>
       </c>
       <c r="D213" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E213" s="1">
         <v>5</v>
       </c>
       <c r="F213" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -4746,13 +4746,13 @@
         <v>30</v>
       </c>
       <c r="D214" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E214" s="1">
         <v>30</v>
       </c>
       <c r="F214" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -4766,13 +4766,13 @@
         <v>20</v>
       </c>
       <c r="D215" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E215" s="1">
         <v>20</v>
       </c>
       <c r="F215" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -4786,13 +4786,13 @@
         <v>46</v>
       </c>
       <c r="D216" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E216" s="1">
         <v>46</v>
       </c>
       <c r="F216" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -4806,13 +4806,13 @@
         <v>14</v>
       </c>
       <c r="D217" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E217" s="2">
         <v>14</v>
       </c>
       <c r="F217" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -4826,13 +4826,13 @@
         <v>73</v>
       </c>
       <c r="D218" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E218" s="2">
         <v>73</v>
       </c>
       <c r="F218" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -4846,13 +4846,13 @@
         <v>5</v>
       </c>
       <c r="D219" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E219" s="1">
         <v>5</v>
       </c>
       <c r="F219" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -4866,13 +4866,13 @@
         <v>30</v>
       </c>
       <c r="D220" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E220" s="1">
         <v>30</v>
       </c>
       <c r="F220" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -4886,13 +4886,13 @@
         <v>20</v>
       </c>
       <c r="D221" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E221" s="1">
         <v>20</v>
       </c>
       <c r="F221" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -4906,13 +4906,13 @@
         <v>46</v>
       </c>
       <c r="D222" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E222" s="1">
         <v>46</v>
       </c>
       <c r="F222" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -4926,13 +4926,13 @@
         <v>14</v>
       </c>
       <c r="D223" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E223" s="2">
         <v>14</v>
       </c>
       <c r="F223" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -4946,13 +4946,13 @@
         <v>73</v>
       </c>
       <c r="D224" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E224" s="2">
         <v>73</v>
       </c>
       <c r="F224" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -4966,13 +4966,13 @@
         <v>5</v>
       </c>
       <c r="D225" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E225" s="1">
         <v>5</v>
       </c>
       <c r="F225" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -4986,13 +4986,13 @@
         <v>30</v>
       </c>
       <c r="D226" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E226" s="1">
         <v>30</v>
       </c>
       <c r="F226" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -5006,13 +5006,13 @@
         <v>20</v>
       </c>
       <c r="D227" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E227" s="1">
         <v>20</v>
       </c>
       <c r="F227" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -5026,13 +5026,13 @@
         <v>46</v>
       </c>
       <c r="D228" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E228" s="1">
         <v>46</v>
       </c>
       <c r="F228" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -5046,13 +5046,13 @@
         <v>14</v>
       </c>
       <c r="D229" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E229" s="2">
         <v>14</v>
       </c>
       <c r="F229" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -5066,13 +5066,13 @@
         <v>73</v>
       </c>
       <c r="D230" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E230" s="2">
         <v>73</v>
       </c>
       <c r="F230" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -5086,13 +5086,13 @@
         <v>5</v>
       </c>
       <c r="D231" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E231" s="1">
         <v>5</v>
       </c>
       <c r="F231" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -5106,13 +5106,13 @@
         <v>30</v>
       </c>
       <c r="D232" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E232" s="1">
         <v>30</v>
       </c>
       <c r="F232" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -5126,13 +5126,13 @@
         <v>20</v>
       </c>
       <c r="D233" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E233" s="1">
         <v>20</v>
       </c>
       <c r="F233" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -5146,13 +5146,13 @@
         <v>46</v>
       </c>
       <c r="D234" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E234" s="1">
         <v>46</v>
       </c>
       <c r="F234" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -5166,13 +5166,13 @@
         <v>14</v>
       </c>
       <c r="D235" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E235" s="2">
         <v>14</v>
       </c>
       <c r="F235" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -5186,13 +5186,13 @@
         <v>73</v>
       </c>
       <c r="D236" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E236" s="2">
         <v>73</v>
       </c>
       <c r="F236" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -5206,13 +5206,13 @@
         <v>5</v>
       </c>
       <c r="D237" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E237" s="1">
         <v>5</v>
       </c>
       <c r="F237" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -5226,13 +5226,13 @@
         <v>30</v>
       </c>
       <c r="D238" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E238" s="1">
         <v>30</v>
       </c>
       <c r="F238" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -5246,13 +5246,13 @@
         <v>20</v>
       </c>
       <c r="D239" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E239" s="1">
         <v>20</v>
       </c>
       <c r="F239" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -5266,13 +5266,13 @@
         <v>46</v>
       </c>
       <c r="D240" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E240" s="1">
         <v>46</v>
       </c>
       <c r="F240" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -5286,13 +5286,13 @@
         <v>14</v>
       </c>
       <c r="D241" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E241" s="2">
         <v>14</v>
       </c>
       <c r="F241" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -5306,13 +5306,13 @@
         <v>73</v>
       </c>
       <c r="D242" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E242" s="2">
         <v>73</v>
       </c>
       <c r="F242" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -5326,13 +5326,13 @@
         <v>5</v>
       </c>
       <c r="D243" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E243" s="1">
         <v>5</v>
       </c>
       <c r="F243" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -5346,13 +5346,13 @@
         <v>30</v>
       </c>
       <c r="D244" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E244" s="1">
         <v>30</v>
       </c>
       <c r="F244" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -5366,13 +5366,13 @@
         <v>20</v>
       </c>
       <c r="D245" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E245" s="1">
         <v>20</v>
       </c>
       <c r="F245" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -5386,13 +5386,13 @@
         <v>46</v>
       </c>
       <c r="D246" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E246" s="1">
         <v>46</v>
       </c>
       <c r="F246" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -5406,13 +5406,13 @@
         <v>14</v>
       </c>
       <c r="D247" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E247" s="2">
         <v>14</v>
       </c>
       <c r="F247" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -5426,13 +5426,13 @@
         <v>73</v>
       </c>
       <c r="D248" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E248" s="2">
         <v>73</v>
       </c>
       <c r="F248" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -5446,13 +5446,13 @@
         <v>5</v>
       </c>
       <c r="D249" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E249" s="1">
         <v>5</v>
       </c>
       <c r="F249" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -5466,13 +5466,13 @@
         <v>30</v>
       </c>
       <c r="D250" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E250" s="1">
         <v>30</v>
       </c>
       <c r="F250" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -5486,13 +5486,13 @@
         <v>20</v>
       </c>
       <c r="D251" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E251" s="1">
         <v>20</v>
       </c>
       <c r="F251" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -5506,13 +5506,13 @@
         <v>46</v>
       </c>
       <c r="D252" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E252" s="1">
         <v>46</v>
       </c>
       <c r="F252" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -5526,13 +5526,13 @@
         <v>14</v>
       </c>
       <c r="D253" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E253" s="2">
         <v>14</v>
       </c>
       <c r="F253" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -5546,13 +5546,13 @@
         <v>73</v>
       </c>
       <c r="D254" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E254" s="2">
         <v>73</v>
       </c>
       <c r="F254" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -5566,13 +5566,13 @@
         <v>5</v>
       </c>
       <c r="D255" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E255" s="1">
         <v>5</v>
       </c>
       <c r="F255" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -5586,13 +5586,13 @@
         <v>30</v>
       </c>
       <c r="D256" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E256" s="1">
         <v>30</v>
       </c>
       <c r="F256" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -5606,13 +5606,13 @@
         <v>20</v>
       </c>
       <c r="D257" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E257" s="1">
         <v>20</v>
       </c>
       <c r="F257" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -5626,13 +5626,13 @@
         <v>46</v>
       </c>
       <c r="D258" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E258" s="1">
         <v>46</v>
       </c>
       <c r="F258" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -5646,13 +5646,13 @@
         <v>14</v>
       </c>
       <c r="D259" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E259" s="2">
         <v>14</v>
       </c>
       <c r="F259" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -5666,13 +5666,13 @@
         <v>73</v>
       </c>
       <c r="D260" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E260" s="2">
         <v>73</v>
       </c>
       <c r="F260" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -5686,13 +5686,13 @@
         <v>5</v>
       </c>
       <c r="D261" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E261" s="1">
         <v>5</v>
       </c>
       <c r="F261" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -5706,13 +5706,13 @@
         <v>30</v>
       </c>
       <c r="D262" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E262" s="1">
         <v>30</v>
       </c>
       <c r="F262" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -5726,13 +5726,13 @@
         <v>20</v>
       </c>
       <c r="D263" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E263" s="1">
         <v>20</v>
       </c>
       <c r="F263" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -5746,13 +5746,13 @@
         <v>46</v>
       </c>
       <c r="D264" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E264" s="1">
         <v>46</v>
       </c>
       <c r="F264" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -5766,13 +5766,13 @@
         <v>14</v>
       </c>
       <c r="D265" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E265" s="2">
         <v>14</v>
       </c>
       <c r="F265" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -5786,13 +5786,13 @@
         <v>73</v>
       </c>
       <c r="D266" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E266" s="2">
         <v>73</v>
       </c>
       <c r="F266" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -5806,13 +5806,13 @@
         <v>5</v>
       </c>
       <c r="D267" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E267" s="1">
         <v>5</v>
       </c>
       <c r="F267" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -5826,13 +5826,13 @@
         <v>30</v>
       </c>
       <c r="D268" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E268" s="1">
         <v>30</v>
       </c>
       <c r="F268" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -5846,13 +5846,13 @@
         <v>20</v>
       </c>
       <c r="D269" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E269" s="1">
         <v>20</v>
       </c>
       <c r="F269" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -5866,13 +5866,13 @@
         <v>46</v>
       </c>
       <c r="D270" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E270" s="1">
         <v>46</v>
       </c>
       <c r="F270" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -5886,13 +5886,13 @@
         <v>14</v>
       </c>
       <c r="D271" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E271" s="2">
         <v>14</v>
       </c>
       <c r="F271" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -5906,13 +5906,13 @@
         <v>73</v>
       </c>
       <c r="D272" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E272" s="2">
         <v>73</v>
       </c>
       <c r="F272" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -5926,13 +5926,13 @@
         <v>5</v>
       </c>
       <c r="D273" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E273" s="1">
         <v>5</v>
       </c>
       <c r="F273" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -5946,13 +5946,13 @@
         <v>30</v>
       </c>
       <c r="D274" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E274" s="1">
         <v>30</v>
       </c>
       <c r="F274" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -5966,13 +5966,13 @@
         <v>20</v>
       </c>
       <c r="D275" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E275" s="1">
         <v>20</v>
       </c>
       <c r="F275" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -5986,13 +5986,13 @@
         <v>46</v>
       </c>
       <c r="D276" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E276" s="1">
         <v>46</v>
       </c>
       <c r="F276" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -6006,13 +6006,13 @@
         <v>14</v>
       </c>
       <c r="D277" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E277" s="2">
         <v>14</v>
       </c>
       <c r="F277" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -6026,13 +6026,13 @@
         <v>73</v>
       </c>
       <c r="D278" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E278" s="2">
         <v>73</v>
       </c>
       <c r="F278" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -6046,13 +6046,13 @@
         <v>5</v>
       </c>
       <c r="D279" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E279" s="1">
         <v>5</v>
       </c>
       <c r="F279" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -6066,13 +6066,13 @@
         <v>30</v>
       </c>
       <c r="D280" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E280" s="1">
         <v>30</v>
       </c>
       <c r="F280" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -6086,13 +6086,13 @@
         <v>20</v>
       </c>
       <c r="D281" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E281" s="1">
         <v>20</v>
       </c>
       <c r="F281" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -6106,13 +6106,13 @@
         <v>46</v>
       </c>
       <c r="D282" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E282" s="1">
         <v>46</v>
       </c>
       <c r="F282" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -6126,13 +6126,13 @@
         <v>14</v>
       </c>
       <c r="D283" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E283" s="2">
         <v>14</v>
       </c>
       <c r="F283" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -6146,13 +6146,13 @@
         <v>73</v>
       </c>
       <c r="D284" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E284" s="2">
         <v>73</v>
       </c>
       <c r="F284" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -6166,13 +6166,13 @@
         <v>5</v>
       </c>
       <c r="D285" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E285" s="1">
         <v>5</v>
       </c>
       <c r="F285" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -6186,13 +6186,13 @@
         <v>30</v>
       </c>
       <c r="D286" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E286" s="1">
         <v>30</v>
       </c>
       <c r="F286" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -6206,13 +6206,13 @@
         <v>20</v>
       </c>
       <c r="D287" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E287" s="1">
         <v>20</v>
       </c>
       <c r="F287" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -6226,13 +6226,13 @@
         <v>46</v>
       </c>
       <c r="D288" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E288" s="1">
         <v>46</v>
       </c>
       <c r="F288" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -6246,13 +6246,13 @@
         <v>14</v>
       </c>
       <c r="D289" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E289" s="2">
         <v>14</v>
       </c>
       <c r="F289" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -6266,13 +6266,13 @@
         <v>73</v>
       </c>
       <c r="D290" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E290" s="2">
         <v>73</v>
       </c>
       <c r="F290" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -6286,13 +6286,13 @@
         <v>5</v>
       </c>
       <c r="D291" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E291" s="1">
         <v>5</v>
       </c>
       <c r="F291" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -6306,13 +6306,13 @@
         <v>30</v>
       </c>
       <c r="D292" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E292" s="1">
         <v>30</v>
       </c>
       <c r="F292" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -6326,13 +6326,13 @@
         <v>20</v>
       </c>
       <c r="D293" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E293" s="1">
         <v>20</v>
       </c>
       <c r="F293" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -6346,13 +6346,13 @@
         <v>46</v>
       </c>
       <c r="D294" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E294" s="1">
         <v>46</v>
       </c>
       <c r="F294" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -6366,13 +6366,13 @@
         <v>14</v>
       </c>
       <c r="D295" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E295" s="2">
         <v>14</v>
       </c>
       <c r="F295" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -6386,13 +6386,13 @@
         <v>73</v>
       </c>
       <c r="D296" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E296" s="2">
         <v>73</v>
       </c>
       <c r="F296" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -6406,13 +6406,13 @@
         <v>5</v>
       </c>
       <c r="D297" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E297" s="1">
         <v>5</v>
       </c>
       <c r="F297" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -6426,13 +6426,13 @@
         <v>30</v>
       </c>
       <c r="D298" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E298" s="1">
         <v>30</v>
       </c>
       <c r="F298" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -6446,13 +6446,13 @@
         <v>20</v>
       </c>
       <c r="D299" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E299" s="1">
         <v>20</v>
       </c>
       <c r="F299" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -6466,13 +6466,13 @@
         <v>46</v>
       </c>
       <c r="D300" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E300" s="1">
         <v>46</v>
       </c>
       <c r="F300" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -6486,13 +6486,13 @@
         <v>14</v>
       </c>
       <c r="D301" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E301" s="2">
         <v>14</v>
       </c>
       <c r="F301" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -6506,13 +6506,13 @@
         <v>73</v>
       </c>
       <c r="D302" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E302" s="2">
         <v>73</v>
       </c>
       <c r="F302" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -6526,13 +6526,13 @@
         <v>5</v>
       </c>
       <c r="D303" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E303" s="1">
         <v>5</v>
       </c>
       <c r="F303" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -6546,13 +6546,13 @@
         <v>30</v>
       </c>
       <c r="D304" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E304" s="1">
         <v>30</v>
       </c>
       <c r="F304" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -6566,13 +6566,13 @@
         <v>20</v>
       </c>
       <c r="D305" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E305" s="1">
         <v>20</v>
       </c>
       <c r="F305" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -6586,13 +6586,13 @@
         <v>46</v>
       </c>
       <c r="D306" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E306" s="1">
         <v>46</v>
       </c>
       <c r="F306" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -6606,13 +6606,13 @@
         <v>14</v>
       </c>
       <c r="D307" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E307" s="2">
         <v>14</v>
       </c>
       <c r="F307" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -6626,13 +6626,13 @@
         <v>73</v>
       </c>
       <c r="D308" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E308" s="2">
         <v>73</v>
       </c>
       <c r="F308" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -6646,13 +6646,13 @@
         <v>5</v>
       </c>
       <c r="D309" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E309" s="1">
         <v>5</v>
       </c>
       <c r="F309" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -6666,13 +6666,13 @@
         <v>30</v>
       </c>
       <c r="D310" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E310" s="1">
         <v>30</v>
       </c>
       <c r="F310" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -6686,13 +6686,13 @@
         <v>20</v>
       </c>
       <c r="D311" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E311" s="1">
         <v>20</v>
       </c>
       <c r="F311" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -6706,13 +6706,13 @@
         <v>46</v>
       </c>
       <c r="D312" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E312" s="1">
         <v>46</v>
       </c>
       <c r="F312" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -6726,13 +6726,13 @@
         <v>14</v>
       </c>
       <c r="D313" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E313" s="2">
         <v>14</v>
       </c>
       <c r="F313" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -6746,13 +6746,13 @@
         <v>73</v>
       </c>
       <c r="D314" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E314" s="2">
         <v>73</v>
       </c>
       <c r="F314" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -6766,13 +6766,13 @@
         <v>5</v>
       </c>
       <c r="D315" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E315" s="1">
         <v>5</v>
       </c>
       <c r="F315" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -6786,13 +6786,13 @@
         <v>30</v>
       </c>
       <c r="D316" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E316" s="1">
         <v>30</v>
       </c>
       <c r="F316" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -6806,13 +6806,13 @@
         <v>20</v>
       </c>
       <c r="D317" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E317" s="1">
         <v>20</v>
       </c>
       <c r="F317" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -6826,13 +6826,13 @@
         <v>46</v>
       </c>
       <c r="D318" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E318" s="1">
         <v>46</v>
       </c>
       <c r="F318" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -6846,13 +6846,13 @@
         <v>14</v>
       </c>
       <c r="D319" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E319" s="2">
         <v>14</v>
       </c>
       <c r="F319" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -6866,13 +6866,13 @@
         <v>73</v>
       </c>
       <c r="D320" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E320" s="2">
         <v>73</v>
       </c>
       <c r="F320" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -6886,13 +6886,13 @@
         <v>5</v>
       </c>
       <c r="D321" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E321" s="1">
         <v>5</v>
       </c>
       <c r="F321" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -6906,13 +6906,13 @@
         <v>30</v>
       </c>
       <c r="D322" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E322" s="1">
         <v>30</v>
       </c>
       <c r="F322" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -6926,13 +6926,13 @@
         <v>20</v>
       </c>
       <c r="D323" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E323" s="1">
         <v>20</v>
       </c>
       <c r="F323" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -6946,13 +6946,13 @@
         <v>46</v>
       </c>
       <c r="D324" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E324" s="1">
         <v>46</v>
       </c>
       <c r="F324" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -6966,13 +6966,13 @@
         <v>14</v>
       </c>
       <c r="D325" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E325" s="2">
         <v>14</v>
       </c>
       <c r="F325" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -6986,13 +6986,13 @@
         <v>73</v>
       </c>
       <c r="D326" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E326" s="2">
         <v>73</v>
       </c>
       <c r="F326" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -7006,13 +7006,13 @@
         <v>5</v>
       </c>
       <c r="D327" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E327" s="1">
         <v>5</v>
       </c>
       <c r="F327" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -7026,13 +7026,13 @@
         <v>30</v>
       </c>
       <c r="D328" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E328" s="1">
         <v>30</v>
       </c>
       <c r="F328" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -7046,13 +7046,13 @@
         <v>20</v>
       </c>
       <c r="D329" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E329" s="1">
         <v>20</v>
       </c>
       <c r="F329" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -7066,13 +7066,13 @@
         <v>46</v>
       </c>
       <c r="D330" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E330" s="1">
         <v>46</v>
       </c>
       <c r="F330" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -7086,13 +7086,13 @@
         <v>14</v>
       </c>
       <c r="D331" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E331" s="2">
         <v>14</v>
       </c>
       <c r="F331" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -7106,13 +7106,13 @@
         <v>73</v>
       </c>
       <c r="D332" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E332" s="2">
         <v>73</v>
       </c>
       <c r="F332" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -7126,13 +7126,13 @@
         <v>5</v>
       </c>
       <c r="D333" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E333" s="1">
         <v>5</v>
       </c>
       <c r="F333" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -7146,13 +7146,13 @@
         <v>30</v>
       </c>
       <c r="D334" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E334" s="1">
         <v>30</v>
       </c>
       <c r="F334" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -7166,13 +7166,13 @@
         <v>20</v>
       </c>
       <c r="D335" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E335" s="1">
         <v>20</v>
       </c>
       <c r="F335" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -7186,13 +7186,13 @@
         <v>46</v>
       </c>
       <c r="D336" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E336" s="1">
         <v>46</v>
       </c>
       <c r="F336" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -7206,13 +7206,13 @@
         <v>14</v>
       </c>
       <c r="D337" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E337" s="2">
         <v>14</v>
       </c>
       <c r="F337" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -7226,13 +7226,13 @@
         <v>73</v>
       </c>
       <c r="D338" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E338" s="2">
         <v>73</v>
       </c>
       <c r="F338" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -7246,13 +7246,13 @@
         <v>5</v>
       </c>
       <c r="D339" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E339" s="1">
         <v>5</v>
       </c>
       <c r="F339" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -7266,13 +7266,13 @@
         <v>30</v>
       </c>
       <c r="D340" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E340" s="1">
         <v>30</v>
       </c>
       <c r="F340" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -7286,13 +7286,13 @@
         <v>20</v>
       </c>
       <c r="D341" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E341" s="1">
         <v>20</v>
       </c>
       <c r="F341" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -7306,13 +7306,13 @@
         <v>46</v>
       </c>
       <c r="D342" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E342" s="1">
         <v>46</v>
       </c>
       <c r="F342" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -7326,13 +7326,13 @@
         <v>14</v>
       </c>
       <c r="D343" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E343" s="2">
         <v>14</v>
       </c>
       <c r="F343" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -7346,13 +7346,13 @@
         <v>73</v>
       </c>
       <c r="D344" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E344" s="2">
         <v>73</v>
       </c>
       <c r="F344" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -7366,13 +7366,13 @@
         <v>5</v>
       </c>
       <c r="D345" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E345" s="1">
         <v>5</v>
       </c>
       <c r="F345" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -7386,13 +7386,13 @@
         <v>30</v>
       </c>
       <c r="D346" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E346" s="1">
         <v>30</v>
       </c>
       <c r="F346" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -7406,13 +7406,13 @@
         <v>20</v>
       </c>
       <c r="D347" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E347" s="1">
         <v>20</v>
       </c>
       <c r="F347" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -7426,13 +7426,13 @@
         <v>46</v>
       </c>
       <c r="D348" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E348" s="1">
         <v>46</v>
       </c>
       <c r="F348" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -7446,13 +7446,13 @@
         <v>14</v>
       </c>
       <c r="D349" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E349" s="2">
         <v>14</v>
       </c>
       <c r="F349" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -7466,13 +7466,13 @@
         <v>73</v>
       </c>
       <c r="D350" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E350" s="2">
         <v>73</v>
       </c>
       <c r="F350" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -7486,13 +7486,13 @@
         <v>5</v>
       </c>
       <c r="D351" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E351" s="1">
         <v>5</v>
       </c>
       <c r="F351" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -7506,13 +7506,13 @@
         <v>30</v>
       </c>
       <c r="D352" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E352" s="1">
         <v>30</v>
       </c>
       <c r="F352" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -7526,13 +7526,13 @@
         <v>20</v>
       </c>
       <c r="D353" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E353" s="1">
         <v>20</v>
       </c>
       <c r="F353" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -7546,13 +7546,13 @@
         <v>46</v>
       </c>
       <c r="D354" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E354" s="1">
         <v>46</v>
       </c>
       <c r="F354" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -7566,13 +7566,13 @@
         <v>14</v>
       </c>
       <c r="D355" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E355" s="2">
         <v>14</v>
       </c>
       <c r="F355" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -7586,13 +7586,13 @@
         <v>73</v>
       </c>
       <c r="D356" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E356" s="2">
         <v>73</v>
       </c>
       <c r="F356" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -7606,13 +7606,13 @@
         <v>5</v>
       </c>
       <c r="D357" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E357" s="1">
         <v>5</v>
       </c>
       <c r="F357" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -7626,13 +7626,13 @@
         <v>30</v>
       </c>
       <c r="D358" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E358" s="1">
         <v>30</v>
       </c>
       <c r="F358" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -7646,13 +7646,13 @@
         <v>20</v>
       </c>
       <c r="D359" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E359" s="1">
         <v>20</v>
       </c>
       <c r="F359" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -7666,13 +7666,13 @@
         <v>46</v>
       </c>
       <c r="D360" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E360" s="1">
         <v>46</v>
       </c>
       <c r="F360" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -7686,13 +7686,13 @@
         <v>14</v>
       </c>
       <c r="D361" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E361" s="2">
         <v>14</v>
       </c>
       <c r="F361" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -7706,13 +7706,13 @@
         <v>73</v>
       </c>
       <c r="D362" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E362" s="2">
         <v>73</v>
       </c>
       <c r="F362" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -7726,13 +7726,13 @@
         <v>5</v>
       </c>
       <c r="D363" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E363" s="1">
         <v>5</v>
       </c>
       <c r="F363" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -7746,13 +7746,13 @@
         <v>30</v>
       </c>
       <c r="D364" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E364" s="1">
         <v>30</v>
       </c>
       <c r="F364" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -7766,13 +7766,13 @@
         <v>20</v>
       </c>
       <c r="D365" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E365" s="1">
         <v>20</v>
       </c>
       <c r="F365" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -7786,13 +7786,13 @@
         <v>46</v>
       </c>
       <c r="D366" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E366" s="1">
         <v>46</v>
       </c>
       <c r="F366" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -7806,13 +7806,13 @@
         <v>14</v>
       </c>
       <c r="D367" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E367" s="2">
         <v>14</v>
       </c>
       <c r="F367" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -7826,13 +7826,13 @@
         <v>73</v>
       </c>
       <c r="D368" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E368" s="2">
         <v>73</v>
       </c>
       <c r="F368" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -7846,13 +7846,13 @@
         <v>5</v>
       </c>
       <c r="D369" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E369" s="1">
         <v>5</v>
       </c>
       <c r="F369" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -7866,13 +7866,13 @@
         <v>30</v>
       </c>
       <c r="D370" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E370" s="1">
         <v>30</v>
       </c>
       <c r="F370" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -7886,13 +7886,13 @@
         <v>20</v>
       </c>
       <c r="D371" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E371" s="1">
         <v>20</v>
       </c>
       <c r="F371" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -7906,13 +7906,13 @@
         <v>46</v>
       </c>
       <c r="D372" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E372" s="1">
         <v>46</v>
       </c>
       <c r="F372" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -7926,13 +7926,13 @@
         <v>14</v>
       </c>
       <c r="D373" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E373" s="2">
         <v>14</v>
       </c>
       <c r="F373" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -7946,13 +7946,13 @@
         <v>73</v>
       </c>
       <c r="D374" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E374" s="2">
         <v>73</v>
       </c>
       <c r="F374" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -7966,13 +7966,13 @@
         <v>5</v>
       </c>
       <c r="D375" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E375" s="1">
         <v>5</v>
       </c>
       <c r="F375" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -7986,13 +7986,13 @@
         <v>30</v>
       </c>
       <c r="D376" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E376" s="1">
         <v>30</v>
       </c>
       <c r="F376" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -8006,13 +8006,13 @@
         <v>20</v>
       </c>
       <c r="D377" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E377" s="1">
         <v>20</v>
       </c>
       <c r="F377" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -8026,13 +8026,13 @@
         <v>46</v>
       </c>
       <c r="D378" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E378" s="1">
         <v>46</v>
       </c>
       <c r="F378" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -8046,13 +8046,13 @@
         <v>14</v>
       </c>
       <c r="D379" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E379" s="2">
         <v>14</v>
       </c>
       <c r="F379" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -8066,13 +8066,13 @@
         <v>73</v>
       </c>
       <c r="D380" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E380" s="2">
         <v>73</v>
       </c>
       <c r="F380" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -8086,13 +8086,13 @@
         <v>5</v>
       </c>
       <c r="D381" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E381" s="1">
         <v>5</v>
       </c>
       <c r="F381" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -8106,13 +8106,13 @@
         <v>30</v>
       </c>
       <c r="D382" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E382" s="1">
         <v>30</v>
       </c>
       <c r="F382" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -8126,13 +8126,13 @@
         <v>20</v>
       </c>
       <c r="D383" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E383" s="1">
         <v>20</v>
       </c>
       <c r="F383" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -8146,13 +8146,13 @@
         <v>46</v>
       </c>
       <c r="D384" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E384" s="1">
         <v>46</v>
       </c>
       <c r="F384" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -8166,13 +8166,13 @@
         <v>14</v>
       </c>
       <c r="D385" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E385" s="2">
         <v>14</v>
       </c>
       <c r="F385" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -8186,13 +8186,13 @@
         <v>73</v>
       </c>
       <c r="D386" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E386" s="2">
         <v>73</v>
       </c>
       <c r="F386" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -8206,13 +8206,13 @@
         <v>5</v>
       </c>
       <c r="D387" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E387" s="1">
         <v>5</v>
       </c>
       <c r="F387" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -8226,13 +8226,13 @@
         <v>30</v>
       </c>
       <c r="D388" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E388" s="1">
         <v>30</v>
       </c>
       <c r="F388" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -8246,13 +8246,13 @@
         <v>20</v>
       </c>
       <c r="D389" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E389" s="1">
         <v>20</v>
       </c>
       <c r="F389" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -8266,13 +8266,13 @@
         <v>46</v>
       </c>
       <c r="D390" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E390" s="1">
         <v>46</v>
       </c>
       <c r="F390" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -8286,13 +8286,13 @@
         <v>14</v>
       </c>
       <c r="D391" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E391" s="2">
         <v>14</v>
       </c>
       <c r="F391" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -8306,13 +8306,13 @@
         <v>73</v>
       </c>
       <c r="D392" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E392" s="2">
         <v>73</v>
       </c>
       <c r="F392" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -8326,13 +8326,13 @@
         <v>5</v>
       </c>
       <c r="D393" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E393" s="1">
         <v>5</v>
       </c>
       <c r="F393" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -8346,13 +8346,13 @@
         <v>30</v>
       </c>
       <c r="D394" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E394" s="1">
         <v>30</v>
       </c>
       <c r="F394" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -8366,13 +8366,13 @@
         <v>20</v>
       </c>
       <c r="D395" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E395" s="1">
         <v>20</v>
       </c>
       <c r="F395" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -8386,13 +8386,13 @@
         <v>46</v>
       </c>
       <c r="D396" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E396" s="1">
         <v>46</v>
       </c>
       <c r="F396" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -8406,13 +8406,13 @@
         <v>14</v>
       </c>
       <c r="D397" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E397" s="2">
         <v>14</v>
       </c>
       <c r="F397" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -8426,13 +8426,13 @@
         <v>73</v>
       </c>
       <c r="D398" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E398" s="2">
         <v>73</v>
       </c>
       <c r="F398" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -8446,13 +8446,13 @@
         <v>5</v>
       </c>
       <c r="D399" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E399" s="1">
         <v>5</v>
       </c>
       <c r="F399" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -8466,13 +8466,13 @@
         <v>30</v>
       </c>
       <c r="D400" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E400" s="1">
         <v>30</v>
       </c>
       <c r="F400" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -8486,13 +8486,13 @@
         <v>20</v>
       </c>
       <c r="D401" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E401" s="1">
         <v>20</v>
       </c>
       <c r="F401" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -8506,13 +8506,13 @@
         <v>46</v>
       </c>
       <c r="D402" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E402" s="1">
         <v>46</v>
       </c>
       <c r="F402" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -8526,13 +8526,13 @@
         <v>14</v>
       </c>
       <c r="D403" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E403" s="2">
         <v>14</v>
       </c>
       <c r="F403" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -8546,13 +8546,13 @@
         <v>73</v>
       </c>
       <c r="D404" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E404" s="2">
         <v>73</v>
       </c>
       <c r="F404" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -8566,13 +8566,13 @@
         <v>5</v>
       </c>
       <c r="D405" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E405" s="1">
         <v>5</v>
       </c>
       <c r="F405" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -8586,13 +8586,13 @@
         <v>30</v>
       </c>
       <c r="D406" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E406" s="1">
         <v>30</v>
       </c>
       <c r="F406" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -8606,13 +8606,13 @@
         <v>20</v>
       </c>
       <c r="D407" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E407" s="1">
         <v>20</v>
       </c>
       <c r="F407" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -8626,13 +8626,13 @@
         <v>46</v>
       </c>
       <c r="D408" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E408" s="1">
         <v>46</v>
       </c>
       <c r="F408" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -8646,13 +8646,13 @@
         <v>14</v>
       </c>
       <c r="D409" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E409" s="2">
         <v>14</v>
       </c>
       <c r="F409" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -8666,13 +8666,13 @@
         <v>73</v>
       </c>
       <c r="D410" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E410" s="2">
         <v>73</v>
       </c>
       <c r="F410" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -8686,13 +8686,13 @@
         <v>5</v>
       </c>
       <c r="D411" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E411" s="1">
         <v>5</v>
       </c>
       <c r="F411" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -8706,13 +8706,13 @@
         <v>30</v>
       </c>
       <c r="D412" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E412" s="1">
         <v>30</v>
       </c>
       <c r="F412" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -8726,13 +8726,13 @@
         <v>20</v>
       </c>
       <c r="D413" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E413" s="1">
         <v>20</v>
       </c>
       <c r="F413" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -8746,13 +8746,13 @@
         <v>46</v>
       </c>
       <c r="D414" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E414" s="1">
         <v>46</v>
       </c>
       <c r="F414" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -8766,13 +8766,13 @@
         <v>14</v>
       </c>
       <c r="D415" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E415" s="2">
         <v>14</v>
       </c>
       <c r="F415" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -8786,13 +8786,13 @@
         <v>73</v>
       </c>
       <c r="D416" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E416" s="2">
         <v>73</v>
       </c>
       <c r="F416" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -8806,13 +8806,13 @@
         <v>5</v>
       </c>
       <c r="D417" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E417" s="1">
         <v>5</v>
       </c>
       <c r="F417" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -8826,13 +8826,13 @@
         <v>30</v>
       </c>
       <c r="D418" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E418" s="1">
         <v>30</v>
       </c>
       <c r="F418" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -8846,13 +8846,13 @@
         <v>20</v>
       </c>
       <c r="D419" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E419" s="1">
         <v>20</v>
       </c>
       <c r="F419" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -8866,13 +8866,13 @@
         <v>46</v>
       </c>
       <c r="D420" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E420" s="1">
         <v>46</v>
       </c>
       <c r="F420" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -8886,13 +8886,13 @@
         <v>14</v>
       </c>
       <c r="D421" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E421" s="2">
         <v>14</v>
       </c>
       <c r="F421" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -8906,13 +8906,13 @@
         <v>73</v>
       </c>
       <c r="D422" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E422" s="2">
         <v>73</v>
       </c>
       <c r="F422" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -8926,13 +8926,13 @@
         <v>5</v>
       </c>
       <c r="D423" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E423" s="1">
         <v>5</v>
       </c>
       <c r="F423" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -8946,13 +8946,13 @@
         <v>30</v>
       </c>
       <c r="D424" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E424" s="1">
         <v>30</v>
       </c>
       <c r="F424" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -8966,13 +8966,13 @@
         <v>20</v>
       </c>
       <c r="D425" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E425" s="1">
         <v>20</v>
       </c>
       <c r="F425" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -8986,13 +8986,13 @@
         <v>46</v>
       </c>
       <c r="D426" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E426" s="1">
         <v>46</v>
       </c>
       <c r="F426" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -9006,13 +9006,13 @@
         <v>14</v>
       </c>
       <c r="D427" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E427" s="2">
         <v>14</v>
       </c>
       <c r="F427" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -9026,13 +9026,13 @@
         <v>73</v>
       </c>
       <c r="D428" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E428" s="2">
         <v>73</v>
       </c>
       <c r="F428" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -9046,13 +9046,13 @@
         <v>5</v>
       </c>
       <c r="D429" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E429" s="1">
         <v>5</v>
       </c>
       <c r="F429" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -9066,13 +9066,13 @@
         <v>30</v>
       </c>
       <c r="D430" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E430" s="1">
         <v>30</v>
       </c>
       <c r="F430" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -9086,13 +9086,13 @@
         <v>20</v>
       </c>
       <c r="D431" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E431" s="1">
         <v>20</v>
       </c>
       <c r="F431" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -9106,13 +9106,13 @@
         <v>46</v>
       </c>
       <c r="D432" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E432" s="1">
         <v>46</v>
       </c>
       <c r="F432" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -9126,13 +9126,13 @@
         <v>14</v>
       </c>
       <c r="D433" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E433" s="2">
         <v>14</v>
       </c>
       <c r="F433" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -9146,13 +9146,13 @@
         <v>73</v>
       </c>
       <c r="D434" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E434" s="2">
         <v>73</v>
       </c>
       <c r="F434" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -9166,13 +9166,13 @@
         <v>5</v>
       </c>
       <c r="D435" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E435" s="1">
         <v>5</v>
       </c>
       <c r="F435" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -9186,13 +9186,13 @@
         <v>30</v>
       </c>
       <c r="D436" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E436" s="1">
         <v>30</v>
       </c>
       <c r="F436" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -9206,13 +9206,13 @@
         <v>20</v>
       </c>
       <c r="D437" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E437" s="1">
         <v>20</v>
       </c>
       <c r="F437" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -9226,13 +9226,13 @@
         <v>46</v>
       </c>
       <c r="D438" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E438" s="1">
         <v>46</v>
       </c>
       <c r="F438" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -9246,13 +9246,13 @@
         <v>14</v>
       </c>
       <c r="D439" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E439" s="2">
         <v>14</v>
       </c>
       <c r="F439" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -9266,13 +9266,13 @@
         <v>73</v>
       </c>
       <c r="D440" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E440" s="2">
         <v>73</v>
       </c>
       <c r="F440" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -9286,13 +9286,13 @@
         <v>5</v>
       </c>
       <c r="D441" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E441" s="1">
         <v>5</v>
       </c>
       <c r="F441" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -9306,13 +9306,13 @@
         <v>30</v>
       </c>
       <c r="D442" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E442" s="1">
         <v>30</v>
       </c>
       <c r="F442" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -9326,13 +9326,13 @@
         <v>20</v>
       </c>
       <c r="D443" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E443" s="1">
         <v>20</v>
       </c>
       <c r="F443" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -9346,13 +9346,13 @@
         <v>46</v>
       </c>
       <c r="D444" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E444" s="1">
         <v>46</v>
       </c>
       <c r="F444" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -9366,13 +9366,13 @@
         <v>14</v>
       </c>
       <c r="D445" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E445" s="2">
         <v>14</v>
       </c>
       <c r="F445" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -9386,13 +9386,13 @@
         <v>73</v>
       </c>
       <c r="D446" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E446" s="2">
         <v>73</v>
       </c>
       <c r="F446" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -9406,13 +9406,13 @@
         <v>5</v>
       </c>
       <c r="D447" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E447" s="1">
         <v>5</v>
       </c>
       <c r="F447" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -9426,13 +9426,13 @@
         <v>30</v>
       </c>
       <c r="D448" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E448" s="1">
         <v>30</v>
       </c>
       <c r="F448" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
@@ -9446,13 +9446,13 @@
         <v>20</v>
       </c>
       <c r="D449" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E449" s="1">
         <v>20</v>
       </c>
       <c r="F449" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -9466,13 +9466,13 @@
         <v>46</v>
       </c>
       <c r="D450" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E450" s="1">
         <v>46</v>
       </c>
       <c r="F450" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -9486,13 +9486,13 @@
         <v>14</v>
       </c>
       <c r="D451" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E451" s="2">
         <v>14</v>
       </c>
       <c r="F451" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -9506,13 +9506,13 @@
         <v>73</v>
       </c>
       <c r="D452" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E452" s="2">
         <v>73</v>
       </c>
       <c r="F452" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -9526,13 +9526,13 @@
         <v>5</v>
       </c>
       <c r="D453" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E453" s="1">
         <v>5</v>
       </c>
       <c r="F453" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
@@ -9546,13 +9546,13 @@
         <v>30</v>
       </c>
       <c r="D454" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E454" s="1">
         <v>30</v>
       </c>
       <c r="F454" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -9566,13 +9566,13 @@
         <v>20</v>
       </c>
       <c r="D455" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E455" s="1">
         <v>20</v>
       </c>
       <c r="F455" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -9586,13 +9586,13 @@
         <v>46</v>
       </c>
       <c r="D456" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E456" s="1">
         <v>46</v>
       </c>
       <c r="F456" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -9606,13 +9606,13 @@
         <v>14</v>
       </c>
       <c r="D457" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E457" s="2">
         <v>14</v>
       </c>
       <c r="F457" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -9626,13 +9626,13 @@
         <v>73</v>
       </c>
       <c r="D458" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E458" s="2">
         <v>73</v>
       </c>
       <c r="F458" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -9646,13 +9646,13 @@
         <v>5</v>
       </c>
       <c r="D459" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E459" s="1">
         <v>5</v>
       </c>
       <c r="F459" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -9666,13 +9666,13 @@
         <v>30</v>
       </c>
       <c r="D460" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E460" s="1">
         <v>30</v>
       </c>
       <c r="F460" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -9686,13 +9686,13 @@
         <v>20</v>
       </c>
       <c r="D461" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E461" s="1">
         <v>20</v>
       </c>
       <c r="F461" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -9706,13 +9706,13 @@
         <v>46</v>
       </c>
       <c r="D462" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E462" s="1">
         <v>46</v>
       </c>
       <c r="F462" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -9726,13 +9726,13 @@
         <v>14</v>
       </c>
       <c r="D463" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E463" s="2">
         <v>14</v>
       </c>
       <c r="F463" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -9746,13 +9746,13 @@
         <v>73</v>
       </c>
       <c r="D464" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E464" s="2">
         <v>73</v>
       </c>
       <c r="F464" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -9766,13 +9766,13 @@
         <v>5</v>
       </c>
       <c r="D465" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E465" s="1">
         <v>5</v>
       </c>
       <c r="F465" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -9786,13 +9786,13 @@
         <v>30</v>
       </c>
       <c r="D466" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E466" s="1">
         <v>30</v>
       </c>
       <c r="F466" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -9806,13 +9806,13 @@
         <v>20</v>
       </c>
       <c r="D467" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E467" s="1">
         <v>20</v>
       </c>
       <c r="F467" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -9826,13 +9826,13 @@
         <v>46</v>
       </c>
       <c r="D468" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E468" s="1">
         <v>46</v>
       </c>
       <c r="F468" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -9846,13 +9846,13 @@
         <v>14</v>
       </c>
       <c r="D469" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E469" s="2">
         <v>14</v>
       </c>
       <c r="F469" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -9866,13 +9866,13 @@
         <v>73</v>
       </c>
       <c r="D470" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E470" s="2">
         <v>73</v>
       </c>
       <c r="F470" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -9886,13 +9886,13 @@
         <v>5</v>
       </c>
       <c r="D471" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E471" s="1">
         <v>5</v>
       </c>
       <c r="F471" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -9906,13 +9906,13 @@
         <v>30</v>
       </c>
       <c r="D472" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E472" s="1">
         <v>30</v>
       </c>
       <c r="F472" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -9926,13 +9926,13 @@
         <v>20</v>
       </c>
       <c r="D473" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E473" s="1">
         <v>20</v>
       </c>
       <c r="F473" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -9946,13 +9946,13 @@
         <v>46</v>
       </c>
       <c r="D474" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E474" s="1">
         <v>46</v>
       </c>
       <c r="F474" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -9966,13 +9966,13 @@
         <v>14</v>
       </c>
       <c r="D475" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E475" s="2">
         <v>14</v>
       </c>
       <c r="F475" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -9986,13 +9986,13 @@
         <v>73</v>
       </c>
       <c r="D476" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E476" s="2">
         <v>73</v>
       </c>
       <c r="F476" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -10006,13 +10006,13 @@
         <v>5</v>
       </c>
       <c r="D477" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E477" s="1">
         <v>5</v>
       </c>
       <c r="F477" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -10026,13 +10026,13 @@
         <v>30</v>
       </c>
       <c r="D478" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E478" s="1">
         <v>30</v>
       </c>
       <c r="F478" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -10046,13 +10046,13 @@
         <v>20</v>
       </c>
       <c r="D479" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E479" s="1">
         <v>20</v>
       </c>
       <c r="F479" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
@@ -10066,13 +10066,13 @@
         <v>46</v>
       </c>
       <c r="D480" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E480" s="1">
         <v>46</v>
       </c>
       <c r="F480" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -10086,13 +10086,13 @@
         <v>14</v>
       </c>
       <c r="D481" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E481" s="2">
         <v>14</v>
       </c>
       <c r="F481" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -10106,13 +10106,13 @@
         <v>73</v>
       </c>
       <c r="D482" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E482" s="2">
         <v>73</v>
       </c>
       <c r="F482" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -10126,13 +10126,13 @@
         <v>5</v>
       </c>
       <c r="D483" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E483" s="1">
         <v>5</v>
       </c>
       <c r="F483" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -10146,13 +10146,13 @@
         <v>30</v>
       </c>
       <c r="D484" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E484" s="1">
         <v>30</v>
       </c>
       <c r="F484" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -10166,13 +10166,13 @@
         <v>20</v>
       </c>
       <c r="D485" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E485" s="1">
         <v>20</v>
       </c>
       <c r="F485" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -10186,13 +10186,13 @@
         <v>46</v>
       </c>
       <c r="D486" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E486" s="1">
         <v>46</v>
       </c>
       <c r="F486" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -10206,13 +10206,13 @@
         <v>14</v>
       </c>
       <c r="D487" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E487" s="2">
         <v>14</v>
       </c>
       <c r="F487" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -10226,13 +10226,13 @@
         <v>73</v>
       </c>
       <c r="D488" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E488" s="2">
         <v>73</v>
       </c>
       <c r="F488" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -10246,13 +10246,13 @@
         <v>5</v>
       </c>
       <c r="D489" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E489" s="1">
         <v>5</v>
       </c>
       <c r="F489" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -10266,13 +10266,13 @@
         <v>30</v>
       </c>
       <c r="D490" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E490" s="1">
         <v>30</v>
       </c>
       <c r="F490" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -10286,13 +10286,13 @@
         <v>20</v>
       </c>
       <c r="D491" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E491" s="1">
         <v>20</v>
       </c>
       <c r="F491" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -10306,13 +10306,13 @@
         <v>46</v>
       </c>
       <c r="D492" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E492" s="1">
         <v>46</v>
       </c>
       <c r="F492" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -10326,13 +10326,13 @@
         <v>14</v>
       </c>
       <c r="D493" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E493" s="2">
         <v>14</v>
       </c>
       <c r="F493" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -10346,13 +10346,13 @@
         <v>73</v>
       </c>
       <c r="D494" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E494" s="2">
         <v>73</v>
       </c>
       <c r="F494" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -10366,13 +10366,13 @@
         <v>5</v>
       </c>
       <c r="D495" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E495" s="1">
         <v>5</v>
       </c>
       <c r="F495" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -10386,13 +10386,13 @@
         <v>30</v>
       </c>
       <c r="D496" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E496" s="1">
         <v>30</v>
       </c>
       <c r="F496" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -10406,13 +10406,13 @@
         <v>20</v>
       </c>
       <c r="D497" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E497" s="1">
         <v>20</v>
       </c>
       <c r="F497" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -10426,13 +10426,13 @@
         <v>46</v>
       </c>
       <c r="D498" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E498" s="1">
         <v>46</v>
       </c>
       <c r="F498" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
@@ -10446,13 +10446,13 @@
         <v>14</v>
       </c>
       <c r="D499" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E499" s="2">
         <v>14</v>
       </c>
       <c r="F499" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
@@ -10466,13 +10466,13 @@
         <v>73</v>
       </c>
       <c r="D500" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E500" s="2">
         <v>73</v>
       </c>
       <c r="F500" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
@@ -10486,13 +10486,13 @@
         <v>5</v>
       </c>
       <c r="D501" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E501" s="1">
         <v>5</v>
       </c>
       <c r="F501" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -10506,13 +10506,13 @@
         <v>30</v>
       </c>
       <c r="D502" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E502" s="1">
         <v>30</v>
       </c>
       <c r="F502" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -10526,13 +10526,13 @@
         <v>20</v>
       </c>
       <c r="D503" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E503" s="1">
         <v>20</v>
       </c>
       <c r="F503" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -10546,13 +10546,13 @@
         <v>46</v>
       </c>
       <c r="D504" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E504" s="1">
         <v>46</v>
       </c>
       <c r="F504" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -10566,13 +10566,13 @@
         <v>14</v>
       </c>
       <c r="D505" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E505" s="2">
         <v>14</v>
       </c>
       <c r="F505" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
@@ -10586,13 +10586,13 @@
         <v>73</v>
       </c>
       <c r="D506" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E506" s="2">
         <v>73</v>
       </c>
       <c r="F506" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
@@ -10606,13 +10606,13 @@
         <v>5</v>
       </c>
       <c r="D507" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E507" s="1">
         <v>5</v>
       </c>
       <c r="F507" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -10626,13 +10626,13 @@
         <v>30</v>
       </c>
       <c r="D508" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E508" s="1">
         <v>30</v>
       </c>
       <c r="F508" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
@@ -10646,13 +10646,13 @@
         <v>20</v>
       </c>
       <c r="D509" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E509" s="1">
         <v>20</v>
       </c>
       <c r="F509" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
@@ -10666,13 +10666,13 @@
         <v>46</v>
       </c>
       <c r="D510" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E510" s="1">
         <v>46</v>
       </c>
       <c r="F510" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
@@ -10686,13 +10686,13 @@
         <v>14</v>
       </c>
       <c r="D511" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E511" s="2">
         <v>14</v>
       </c>
       <c r="F511" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
@@ -10706,13 +10706,13 @@
         <v>73</v>
       </c>
       <c r="D512" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E512" s="2">
         <v>73</v>
       </c>
       <c r="F512" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -10726,13 +10726,13 @@
         <v>5</v>
       </c>
       <c r="D513" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E513" s="1">
         <v>5</v>
       </c>
       <c r="F513" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
@@ -10746,13 +10746,13 @@
         <v>30</v>
       </c>
       <c r="D514" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E514" s="1">
         <v>30</v>
       </c>
       <c r="F514" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
@@ -10766,13 +10766,13 @@
         <v>20</v>
       </c>
       <c r="D515" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="E515" s="1">
         <v>20</v>
       </c>
       <c r="F515" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
@@ -10786,13 +10786,13 @@
         <v>46</v>
       </c>
       <c r="D516" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="E516" s="1">
         <v>46</v>
       </c>
       <c r="F516" s="1">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
@@ -10806,13 +10806,13 @@
         <v>14</v>
       </c>
       <c r="D517" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E517" s="2">
         <v>14</v>
       </c>
       <c r="F517" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -10826,13 +10826,13 @@
         <v>73</v>
       </c>
       <c r="D518" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E518" s="2">
         <v>73</v>
       </c>
       <c r="F518" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -10846,13 +10846,13 @@
         <v>5</v>
       </c>
       <c r="D519" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
       <c r="E519" s="1">
         <v>5</v>
       </c>
       <c r="F519" s="1">
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
@@ -10866,13 +10866,13 @@
         <v>30</v>
       </c>
       <c r="D520" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E520" s="1">
         <v>30</v>
       </c>
       <c r="F520" s="1">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53783EB-6D60-47CA-9AEB-F97C51AFFDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C30B791-584E-4097-B175-A0DCC1AD51FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPass" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F520"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -623,13 +623,13 @@
         <v>2000000</v>
       </c>
       <c r="C8" s="1">
-        <v>1255</v>
+        <v>8600</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>1256</v>
+        <v>1270</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>

--- a/Assets/06.Table/MonthlyPass.xlsx
+++ b/Assets/06.Table/MonthlyPass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project2\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\MonthUpdate\Month\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C30B791-584E-4097-B175-A0DCC1AD51FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25493AA6-1E63-47BA-9041-C19003A56229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyPass" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F520"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -506,13 +506,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -526,13 +526,13 @@
         <v>30</v>
       </c>
       <c r="D3" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
       </c>
       <c r="F3" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -546,13 +546,13 @@
         <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -566,13 +566,13 @@
         <v>46</v>
       </c>
       <c r="D5" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E5" s="1">
         <v>46</v>
       </c>
       <c r="F5" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -606,13 +606,13 @@
         <v>73</v>
       </c>
       <c r="D7" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E7" s="2">
         <v>73</v>
       </c>
       <c r="F7" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -646,13 +646,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E9" s="1">
         <v>5</v>
       </c>
       <c r="F9" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -666,13 +666,13 @@
         <v>30</v>
       </c>
       <c r="D10" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E10" s="1">
         <v>30</v>
       </c>
       <c r="F10" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -686,13 +686,13 @@
         <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E11" s="1">
         <v>20</v>
       </c>
       <c r="F11" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -706,13 +706,13 @@
         <v>46</v>
       </c>
       <c r="D12" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E12" s="1">
         <v>46</v>
       </c>
       <c r="F12" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -726,13 +726,13 @@
         <v>14</v>
       </c>
       <c r="D13" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2">
         <v>14</v>
       </c>
       <c r="F13" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -746,13 +746,13 @@
         <v>73</v>
       </c>
       <c r="D14" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E14" s="2">
         <v>73</v>
       </c>
       <c r="F14" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -766,13 +766,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E15" s="1">
         <v>5</v>
       </c>
       <c r="F15" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -786,13 +786,13 @@
         <v>30</v>
       </c>
       <c r="D16" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E16" s="1">
         <v>30</v>
       </c>
       <c r="F16" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -806,13 +806,13 @@
         <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
       </c>
       <c r="F17" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -826,13 +826,13 @@
         <v>46</v>
       </c>
       <c r="D18" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E18" s="1">
         <v>46</v>
       </c>
       <c r="F18" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -846,13 +846,13 @@
         <v>14</v>
       </c>
       <c r="D19" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2">
         <v>14</v>
       </c>
       <c r="F19" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -866,13 +866,13 @@
         <v>73</v>
       </c>
       <c r="D20" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="2">
         <v>73</v>
       </c>
       <c r="F20" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -886,13 +886,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
       </c>
       <c r="F21" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -906,13 +906,13 @@
         <v>30</v>
       </c>
       <c r="D22" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E22" s="1">
         <v>30</v>
       </c>
       <c r="F22" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -926,13 +926,13 @@
         <v>20</v>
       </c>
       <c r="D23" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E23" s="1">
         <v>20</v>
       </c>
       <c r="F23" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -946,13 +946,13 @@
         <v>46</v>
       </c>
       <c r="D24" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E24" s="1">
         <v>46</v>
       </c>
       <c r="F24" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -966,13 +966,13 @@
         <v>14</v>
       </c>
       <c r="D25" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E25" s="2">
         <v>14</v>
       </c>
       <c r="F25" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -986,13 +986,13 @@
         <v>73</v>
       </c>
       <c r="D26" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E26" s="2">
         <v>73</v>
       </c>
       <c r="F26" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1006,13 +1006,13 @@
         <v>5</v>
       </c>
       <c r="D27" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E27" s="1">
         <v>5</v>
       </c>
       <c r="F27" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1026,13 +1026,13 @@
         <v>30</v>
       </c>
       <c r="D28" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E28" s="1">
         <v>30</v>
       </c>
       <c r="F28" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1046,13 +1046,13 @@
         <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E29" s="1">
         <v>20</v>
       </c>
       <c r="F29" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1066,13 +1066,13 @@
         <v>46</v>
       </c>
       <c r="D30" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E30" s="1">
         <v>46</v>
       </c>
       <c r="F30" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1086,13 +1086,13 @@
         <v>14</v>
       </c>
       <c r="D31" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2">
         <v>14</v>
       </c>
       <c r="F31" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1106,13 +1106,13 @@
         <v>73</v>
       </c>
       <c r="D32" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E32" s="2">
         <v>73</v>
       </c>
       <c r="F32" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1126,13 +1126,13 @@
         <v>5</v>
       </c>
       <c r="D33" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E33" s="1">
         <v>5</v>
       </c>
       <c r="F33" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1146,13 +1146,13 @@
         <v>30</v>
       </c>
       <c r="D34" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E34" s="1">
         <v>30</v>
       </c>
       <c r="F34" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1166,13 +1166,13 @@
         <v>20</v>
       </c>
       <c r="D35" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E35" s="1">
         <v>20</v>
       </c>
       <c r="F35" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1186,13 +1186,13 @@
         <v>46</v>
       </c>
       <c r="D36" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E36" s="1">
         <v>46</v>
       </c>
       <c r="F36" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1206,13 +1206,13 @@
         <v>14</v>
       </c>
       <c r="D37" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2">
         <v>14</v>
       </c>
       <c r="F37" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1226,13 +1226,13 @@
         <v>73</v>
       </c>
       <c r="D38" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E38" s="2">
         <v>73</v>
       </c>
       <c r="F38" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1246,13 +1246,13 @@
         <v>5</v>
       </c>
       <c r="D39" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
       </c>
       <c r="F39" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1266,13 +1266,13 @@
         <v>30</v>
       </c>
       <c r="D40" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E40" s="1">
         <v>30</v>
       </c>
       <c r="F40" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1286,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="D41" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E41" s="1">
         <v>20</v>
       </c>
       <c r="F41" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1306,13 +1306,13 @@
         <v>46</v>
       </c>
       <c r="D42" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E42" s="1">
         <v>46</v>
       </c>
       <c r="F42" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1326,13 +1326,13 @@
         <v>14</v>
       </c>
       <c r="D43" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E43" s="2">
         <v>14</v>
       </c>
       <c r="F43" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1346,13 +1346,13 @@
         <v>73</v>
       </c>
       <c r="D44" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E44" s="2">
         <v>73</v>
       </c>
       <c r="F44" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1366,13 +1366,13 @@
         <v>5</v>
       </c>
       <c r="D45" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
       </c>
       <c r="F45" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1386,13 +1386,13 @@
         <v>30</v>
       </c>
       <c r="D46" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E46" s="1">
         <v>30</v>
       </c>
       <c r="F46" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1406,13 +1406,13 @@
         <v>20</v>
       </c>
       <c r="D47" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E47" s="1">
         <v>20</v>
       </c>
       <c r="F47" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1426,13 +1426,13 @@
         <v>46</v>
       </c>
       <c r="D48" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E48" s="1">
         <v>46</v>
       </c>
       <c r="F48" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1446,13 +1446,13 @@
         <v>14</v>
       </c>
       <c r="D49" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E49" s="2">
         <v>14</v>
       </c>
       <c r="F49" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1466,13 +1466,13 @@
         <v>73</v>
       </c>
       <c r="D50" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E50" s="2">
         <v>73</v>
       </c>
       <c r="F50" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1486,13 +1486,13 @@
         <v>5</v>
       </c>
       <c r="D51" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E51" s="1">
         <v>5</v>
       </c>
       <c r="F51" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1506,13 +1506,13 @@
         <v>30</v>
       </c>
       <c r="D52" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E52" s="1">
         <v>30</v>
       </c>
       <c r="F52" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1526,13 +1526,13 @@
         <v>20</v>
       </c>
       <c r="D53" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E53" s="1">
         <v>20</v>
       </c>
       <c r="F53" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1546,13 +1546,13 @@
         <v>46</v>
       </c>
       <c r="D54" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E54" s="1">
         <v>46</v>
       </c>
       <c r="F54" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1566,13 +1566,13 @@
         <v>14</v>
       </c>
       <c r="D55" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E55" s="2">
         <v>14</v>
       </c>
       <c r="F55" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1586,13 +1586,13 @@
         <v>73</v>
       </c>
       <c r="D56" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E56" s="2">
         <v>73</v>
       </c>
       <c r="F56" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1606,13 +1606,13 @@
         <v>5</v>
       </c>
       <c r="D57" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E57" s="1">
         <v>5</v>
       </c>
       <c r="F57" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1626,13 +1626,13 @@
         <v>30</v>
       </c>
       <c r="D58" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E58" s="1">
         <v>30</v>
       </c>
       <c r="F58" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1646,13 +1646,13 @@
         <v>20</v>
       </c>
       <c r="D59" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E59" s="1">
         <v>20</v>
       </c>
       <c r="F59" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1666,13 +1666,13 @@
         <v>46</v>
       </c>
       <c r="D60" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E60" s="1">
         <v>46</v>
       </c>
       <c r="F60" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1686,13 +1686,13 @@
         <v>14</v>
       </c>
       <c r="D61" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E61" s="2">
         <v>14</v>
       </c>
       <c r="F61" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1706,13 +1706,13 @@
         <v>73</v>
       </c>
       <c r="D62" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E62" s="2">
         <v>73</v>
       </c>
       <c r="F62" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1726,13 +1726,13 @@
         <v>5</v>
       </c>
       <c r="D63" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E63" s="1">
         <v>5</v>
       </c>
       <c r="F63" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1746,13 +1746,13 @@
         <v>30</v>
       </c>
       <c r="D64" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E64" s="1">
         <v>30</v>
       </c>
       <c r="F64" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1766,13 +1766,13 @@
         <v>20</v>
       </c>
       <c r="D65" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E65" s="1">
         <v>20</v>
       </c>
       <c r="F65" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1786,13 +1786,13 @@
         <v>46</v>
       </c>
       <c r="D66" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E66" s="1">
         <v>46</v>
       </c>
       <c r="F66" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1806,13 +1806,13 @@
         <v>14</v>
       </c>
       <c r="D67" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E67" s="2">
         <v>14</v>
       </c>
       <c r="F67" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1826,13 +1826,13 @@
         <v>73</v>
       </c>
       <c r="D68" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E68" s="2">
         <v>73</v>
       </c>
       <c r="F68" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1846,13 +1846,13 @@
         <v>5</v>
       </c>
       <c r="D69" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E69" s="1">
         <v>5</v>
       </c>
       <c r="F69" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1866,13 +1866,13 @@
         <v>30</v>
       </c>
       <c r="D70" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E70" s="1">
         <v>30</v>
       </c>
       <c r="F70" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1886,13 +1886,13 @@
         <v>20</v>
       </c>
       <c r="D71" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E71" s="1">
         <v>20</v>
       </c>
       <c r="F71" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1906,13 +1906,13 @@
         <v>46</v>
       </c>
       <c r="D72" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E72" s="1">
         <v>46</v>
       </c>
       <c r="F72" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1926,13 +1926,13 @@
         <v>14</v>
       </c>
       <c r="D73" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E73" s="2">
         <v>14</v>
       </c>
       <c r="F73" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1946,13 +1946,13 @@
         <v>73</v>
       </c>
       <c r="D74" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E74" s="2">
         <v>73</v>
       </c>
       <c r="F74" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1966,13 +1966,13 @@
         <v>5</v>
       </c>
       <c r="D75" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E75" s="1">
         <v>5</v>
       </c>
       <c r="F75" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -1986,13 +1986,13 @@
         <v>30</v>
       </c>
       <c r="D76" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E76" s="1">
         <v>30</v>
       </c>
       <c r="F76" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2006,13 +2006,13 @@
         <v>20</v>
       </c>
       <c r="D77" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E77" s="1">
         <v>20</v>
       </c>
       <c r="F77" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2026,13 +2026,13 @@
         <v>46</v>
       </c>
       <c r="D78" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E78" s="1">
         <v>46</v>
       </c>
       <c r="F78" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2046,13 +2046,13 @@
         <v>14</v>
       </c>
       <c r="D79" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E79" s="2">
         <v>14</v>
       </c>
       <c r="F79" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2066,13 +2066,13 @@
         <v>73</v>
       </c>
       <c r="D80" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E80" s="2">
         <v>73</v>
       </c>
       <c r="F80" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2086,13 +2086,13 @@
         <v>5</v>
       </c>
       <c r="D81" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E81" s="1">
         <v>5</v>
       </c>
       <c r="F81" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2106,13 +2106,13 @@
         <v>30</v>
       </c>
       <c r="D82" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E82" s="1">
         <v>30</v>
       </c>
       <c r="F82" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2126,13 +2126,13 @@
         <v>20</v>
       </c>
       <c r="D83" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E83" s="1">
         <v>20</v>
       </c>
       <c r="F83" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2146,13 +2146,13 @@
         <v>46</v>
       </c>
       <c r="D84" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E84" s="1">
         <v>46</v>
       </c>
       <c r="F84" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2166,13 +2166,13 @@
         <v>14</v>
       </c>
       <c r="D85" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E85" s="2">
         <v>14</v>
       </c>
       <c r="F85" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2186,13 +2186,13 @@
         <v>73</v>
       </c>
       <c r="D86" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E86" s="2">
         <v>73</v>
       </c>
       <c r="F86" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2206,13 +2206,13 @@
         <v>5</v>
       </c>
       <c r="D87" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E87" s="1">
         <v>5</v>
       </c>
       <c r="F87" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2226,13 +2226,13 @@
         <v>30</v>
       </c>
       <c r="D88" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E88" s="1">
         <v>30</v>
       </c>
       <c r="F88" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2246,13 +2246,13 @@
         <v>20</v>
       </c>
       <c r="D89" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E89" s="1">
         <v>20</v>
       </c>
       <c r="F89" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2266,13 +2266,13 @@
         <v>46</v>
       </c>
       <c r="D90" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E90" s="1">
         <v>46</v>
       </c>
       <c r="F90" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2286,13 +2286,13 @@
         <v>14</v>
       </c>
       <c r="D91" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E91" s="2">
         <v>14</v>
       </c>
       <c r="F91" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2306,13 +2306,13 @@
         <v>73</v>
       </c>
       <c r="D92" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E92" s="2">
         <v>73</v>
       </c>
       <c r="F92" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2326,13 +2326,13 @@
         <v>5</v>
       </c>
       <c r="D93" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E93" s="1">
         <v>5</v>
       </c>
       <c r="F93" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -2346,13 +2346,13 @@
         <v>30</v>
       </c>
       <c r="D94" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E94" s="1">
         <v>30</v>
       </c>
       <c r="F94" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -2366,13 +2366,13 @@
         <v>20</v>
       </c>
       <c r="D95" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E95" s="1">
         <v>20</v>
       </c>
       <c r="F95" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -2386,13 +2386,13 @@
         <v>46</v>
       </c>
       <c r="D96" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E96" s="1">
         <v>46</v>
       </c>
       <c r="F96" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -2406,13 +2406,13 @@
         <v>14</v>
       </c>
       <c r="D97" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E97" s="2">
         <v>14</v>
       </c>
       <c r="F97" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2426,13 +2426,13 @@
         <v>73</v>
       </c>
       <c r="D98" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E98" s="2">
         <v>73</v>
       </c>
       <c r="F98" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -2446,13 +2446,13 @@
         <v>5</v>
       </c>
       <c r="D99" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E99" s="1">
         <v>5</v>
       </c>
       <c r="F99" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -2466,13 +2466,13 @@
         <v>30</v>
       </c>
       <c r="D100" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E100" s="1">
         <v>30</v>
       </c>
       <c r="F100" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2486,13 +2486,13 @@
         <v>20</v>
       </c>
       <c r="D101" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E101" s="1">
         <v>20</v>
       </c>
       <c r="F101" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2506,13 +2506,13 @@
         <v>46</v>
       </c>
       <c r="D102" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E102" s="1">
         <v>46</v>
       </c>
       <c r="F102" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -2526,13 +2526,13 @@
         <v>14</v>
       </c>
       <c r="D103" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E103" s="2">
         <v>14</v>
       </c>
       <c r="F103" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -2546,13 +2546,13 @@
         <v>73</v>
       </c>
       <c r="D104" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E104" s="2">
         <v>73</v>
       </c>
       <c r="F104" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -2566,13 +2566,13 @@
         <v>5</v>
       </c>
       <c r="D105" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E105" s="1">
         <v>5</v>
       </c>
       <c r="F105" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -2586,13 +2586,13 @@
         <v>30</v>
       </c>
       <c r="D106" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E106" s="1">
         <v>30</v>
       </c>
       <c r="F106" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -2606,13 +2606,13 @@
         <v>20</v>
       </c>
       <c r="D107" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E107" s="1">
         <v>20</v>
       </c>
       <c r="F107" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -2626,13 +2626,13 @@
         <v>46</v>
       </c>
       <c r="D108" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E108" s="1">
         <v>46</v>
       </c>
       <c r="F108" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -2646,13 +2646,13 @@
         <v>14</v>
       </c>
       <c r="D109" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E109" s="2">
         <v>14</v>
       </c>
       <c r="F109" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -2666,13 +2666,13 @@
         <v>73</v>
       </c>
       <c r="D110" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E110" s="2">
         <v>73</v>
       </c>
       <c r="F110" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -2686,13 +2686,13 @@
         <v>5</v>
       </c>
       <c r="D111" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E111" s="1">
         <v>5</v>
       </c>
       <c r="F111" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -2706,13 +2706,13 @@
         <v>30</v>
       </c>
       <c r="D112" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E112" s="1">
         <v>30</v>
       </c>
       <c r="F112" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -2726,13 +2726,13 @@
         <v>20</v>
       </c>
       <c r="D113" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E113" s="1">
         <v>20</v>
       </c>
       <c r="F113" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -2746,13 +2746,13 @@
         <v>46</v>
       </c>
       <c r="D114" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E114" s="1">
         <v>46</v>
       </c>
       <c r="F114" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -2766,13 +2766,13 @@
         <v>14</v>
       </c>
       <c r="D115" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E115" s="2">
         <v>14</v>
       </c>
       <c r="F115" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -2786,13 +2786,13 @@
         <v>73</v>
       </c>
       <c r="D116" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E116" s="2">
         <v>73</v>
       </c>
       <c r="F116" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -2806,13 +2806,13 @@
         <v>5</v>
       </c>
       <c r="D117" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E117" s="1">
         <v>5</v>
       </c>
       <c r="F117" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -2826,13 +2826,13 @@
         <v>30</v>
       </c>
       <c r="D118" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E118" s="1">
         <v>30</v>
       </c>
       <c r="F118" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -2846,13 +2846,13 @@
         <v>20</v>
       </c>
       <c r="D119" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E119" s="1">
         <v>20</v>
       </c>
       <c r="F119" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -2866,13 +2866,13 @@
         <v>46</v>
       </c>
       <c r="D120" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E120" s="1">
         <v>46</v>
       </c>
       <c r="F120" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -2886,13 +2886,13 @@
         <v>14</v>
       </c>
       <c r="D121" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E121" s="2">
         <v>14</v>
       </c>
       <c r="F121" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -2906,13 +2906,13 @@
         <v>73</v>
       </c>
       <c r="D122" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E122" s="2">
         <v>73</v>
       </c>
       <c r="F122" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -2926,13 +2926,13 @@
         <v>5</v>
       </c>
       <c r="D123" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E123" s="1">
         <v>5</v>
       </c>
       <c r="F123" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -2946,13 +2946,13 @@
         <v>30</v>
       </c>
       <c r="D124" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E124" s="1">
         <v>30</v>
       </c>
       <c r="F124" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -2966,13 +2966,13 @@
         <v>20</v>
       </c>
       <c r="D125" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E125" s="1">
         <v>20</v>
       </c>
       <c r="F125" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -2986,13 +2986,13 @@
         <v>46</v>
       </c>
       <c r="D126" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E126" s="1">
         <v>46</v>
       </c>
       <c r="F126" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3006,13 +3006,13 @@
         <v>14</v>
       </c>
       <c r="D127" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E127" s="2">
         <v>14</v>
       </c>
       <c r="F127" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3026,13 +3026,13 @@
         <v>73</v>
       </c>
       <c r="D128" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E128" s="2">
         <v>73</v>
       </c>
       <c r="F128" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3046,13 +3046,13 @@
         <v>5</v>
       </c>
       <c r="D129" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E129" s="1">
         <v>5</v>
       </c>
       <c r="F129" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3066,13 +3066,13 @@
         <v>30</v>
       </c>
       <c r="D130" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E130" s="1">
         <v>30</v>
       </c>
       <c r="F130" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3086,13 +3086,13 @@
         <v>20</v>
       </c>
       <c r="D131" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E131" s="1">
         <v>20</v>
       </c>
       <c r="F131" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3106,13 +3106,13 @@
         <v>46</v>
       </c>
       <c r="D132" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E132" s="1">
         <v>46</v>
       </c>
       <c r="F132" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3126,13 +3126,13 @@
         <v>14</v>
       </c>
       <c r="D133" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E133" s="2">
         <v>14</v>
       </c>
       <c r="F133" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3146,13 +3146,13 @@
         <v>73</v>
       </c>
       <c r="D134" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E134" s="2">
         <v>73</v>
       </c>
       <c r="F134" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3166,13 +3166,13 @@
         <v>5</v>
       </c>
       <c r="D135" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E135" s="1">
         <v>5</v>
       </c>
       <c r="F135" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3186,13 +3186,13 @@
         <v>30</v>
       </c>
       <c r="D136" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E136" s="1">
         <v>30</v>
       </c>
       <c r="F136" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3206,13 +3206,13 @@
         <v>20</v>
       </c>
       <c r="D137" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E137" s="1">
         <v>20</v>
       </c>
       <c r="F137" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3226,13 +3226,13 @@
         <v>46</v>
       </c>
       <c r="D138" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E138" s="1">
         <v>46</v>
       </c>
       <c r="F138" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -3246,13 +3246,13 @@
         <v>14</v>
       </c>
       <c r="D139" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E139" s="2">
         <v>14</v>
       </c>
       <c r="F139" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3266,13 +3266,13 @@
         <v>73</v>
       </c>
       <c r="D140" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E140" s="2">
         <v>73</v>
       </c>
       <c r="F140" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -3286,13 +3286,13 @@
         <v>5</v>
       </c>
       <c r="D141" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E141" s="1">
         <v>5</v>
       </c>
       <c r="F141" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -3306,13 +3306,13 @@
         <v>30</v>
       </c>
       <c r="D142" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E142" s="1">
         <v>30</v>
       </c>
       <c r="F142" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -3326,13 +3326,13 @@
         <v>20</v>
       </c>
       <c r="D143" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E143" s="1">
         <v>20</v>
       </c>
       <c r="F143" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -3346,13 +3346,13 @@
         <v>46</v>
       </c>
       <c r="D144" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E144" s="1">
         <v>46</v>
       </c>
       <c r="F144" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -3366,13 +3366,13 @@
         <v>14</v>
       </c>
       <c r="D145" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E145" s="2">
         <v>14</v>
       </c>
       <c r="F145" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -3386,13 +3386,13 @@
         <v>73</v>
       </c>
       <c r="D146" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E146" s="2">
         <v>73</v>
       </c>
       <c r="F146" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -3406,13 +3406,13 @@
         <v>5</v>
       </c>
       <c r="D147" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E147" s="1">
         <v>5</v>
       </c>
       <c r="F147" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -3426,13 +3426,13 @@
         <v>30</v>
       </c>
       <c r="D148" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E148" s="1">
         <v>30</v>
       </c>
       <c r="F148" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -3446,13 +3446,13 @@
         <v>20</v>
       </c>
       <c r="D149" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E149" s="1">
         <v>20</v>
       </c>
       <c r="F149" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -3466,13 +3466,13 @@
         <v>46</v>
       </c>
       <c r="D150" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E150" s="1">
         <v>46</v>
       </c>
       <c r="F150" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -3486,13 +3486,13 @@
         <v>14</v>
       </c>
       <c r="D151" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E151" s="2">
         <v>14</v>
       </c>
       <c r="F151" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -3506,13 +3506,13 @@
         <v>73</v>
       </c>
       <c r="D152" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E152" s="2">
         <v>73</v>
       </c>
       <c r="F152" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -3526,13 +3526,13 @@
         <v>5</v>
       </c>
       <c r="D153" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E153" s="1">
         <v>5</v>
       </c>
       <c r="F153" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -3546,13 +3546,13 @@
         <v>30</v>
       </c>
       <c r="D154" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E154" s="1">
         <v>30</v>
       </c>
       <c r="F154" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -3566,13 +3566,13 @@
         <v>20</v>
       </c>
       <c r="D155" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E155" s="1">
         <v>20</v>
       </c>
       <c r="F155" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -3586,13 +3586,13 @@
         <v>46</v>
       </c>
       <c r="D156" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E156" s="1">
         <v>46</v>
       </c>
       <c r="F156" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -3606,13 +3606,13 @@
         <v>14</v>
       </c>
       <c r="D157" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E157" s="2">
         <v>14</v>
       </c>
       <c r="F157" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -3626,13 +3626,13 @@
         <v>73</v>
       </c>
       <c r="D158" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E158" s="2">
         <v>73</v>
       </c>
       <c r="F158" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -3646,13 +3646,13 @@
         <v>5</v>
       </c>
       <c r="D159" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E159" s="1">
         <v>5</v>
       </c>
       <c r="F159" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -3666,13 +3666,13 @@
         <v>30</v>
       </c>
       <c r="D160" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E160" s="1">
         <v>30</v>
       </c>
       <c r="F160" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -3686,13 +3686,13 @@
         <v>20</v>
       </c>
       <c r="D161" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E161" s="1">
         <v>20</v>
       </c>
       <c r="F161" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -3706,13 +3706,13 @@
         <v>46</v>
       </c>
       <c r="D162" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E162" s="1">
         <v>46</v>
       </c>
       <c r="F162" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -3726,13 +3726,13 @@
         <v>14</v>
       </c>
       <c r="D163" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E163" s="2">
         <v>14</v>
       </c>
       <c r="F163" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -3746,13 +3746,13 @@
         <v>73</v>
       </c>
       <c r="D164" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E164" s="2">
         <v>73</v>
       </c>
       <c r="F164" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -3766,13 +3766,13 @@
         <v>5</v>
       </c>
       <c r="D165" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E165" s="1">
         <v>5</v>
       </c>
       <c r="F165" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -3786,13 +3786,13 @@
         <v>30</v>
       </c>
       <c r="D166" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E166" s="1">
         <v>30</v>
       </c>
       <c r="F166" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -3806,13 +3806,13 @@
         <v>20</v>
       </c>
       <c r="D167" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E167" s="1">
         <v>20</v>
       </c>
       <c r="F167" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -3826,13 +3826,13 @@
         <v>46</v>
       </c>
       <c r="D168" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E168" s="1">
         <v>46</v>
       </c>
       <c r="F168" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -3846,13 +3846,13 @@
         <v>14</v>
       </c>
       <c r="D169" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E169" s="2">
         <v>14</v>
       </c>
       <c r="F169" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -3866,13 +3866,13 @@
         <v>73</v>
       </c>
       <c r="D170" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E170" s="2">
         <v>73</v>
       </c>
       <c r="F170" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -3886,13 +3886,13 @@
         <v>5</v>
       </c>
       <c r="D171" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E171" s="1">
         <v>5</v>
       </c>
       <c r="F171" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -3906,13 +3906,13 @@
         <v>30</v>
       </c>
       <c r="D172" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E172" s="1">
         <v>30</v>
       </c>
       <c r="F172" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -3926,13 +3926,13 @@
         <v>20</v>
       </c>
       <c r="D173" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E173" s="1">
         <v>20</v>
       </c>
       <c r="F173" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -3946,13 +3946,13 @@
         <v>46</v>
       </c>
       <c r="D174" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E174" s="1">
         <v>46</v>
       </c>
       <c r="F174" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -3966,13 +3966,13 @@
         <v>14</v>
       </c>
       <c r="D175" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E175" s="2">
         <v>14</v>
       </c>
       <c r="F175" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -3986,13 +3986,13 @@
         <v>73</v>
       </c>
       <c r="D176" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E176" s="2">
         <v>73</v>
       </c>
       <c r="F176" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4006,13 +4006,13 @@
         <v>5</v>
       </c>
       <c r="D177" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E177" s="1">
         <v>5</v>
       </c>
       <c r="F177" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -4026,13 +4026,13 @@
         <v>30</v>
       </c>
       <c r="D178" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E178" s="1">
         <v>30</v>
       </c>
       <c r="F178" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4046,13 +4046,13 @@
         <v>20</v>
       </c>
       <c r="D179" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E179" s="1">
         <v>20</v>
       </c>
       <c r="F179" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -4066,13 +4066,13 @@
         <v>46</v>
       </c>
       <c r="D180" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E180" s="1">
         <v>46</v>
       </c>
       <c r="F180" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4086,13 +4086,13 @@
         <v>14</v>
       </c>
       <c r="D181" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E181" s="2">
         <v>14</v>
       </c>
       <c r="F181" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4106,13 +4106,13 @@
         <v>73</v>
       </c>
       <c r="D182" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E182" s="2">
         <v>73</v>
       </c>
       <c r="F182" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4126,13 +4126,13 @@
         <v>5</v>
       </c>
       <c r="D183" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E183" s="1">
         <v>5</v>
       </c>
       <c r="F183" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4146,13 +4146,13 @@
         <v>30</v>
       </c>
       <c r="D184" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E184" s="1">
         <v>30</v>
       </c>
       <c r="F184" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4166,13 +4166,13 @@
         <v>20</v>
       </c>
       <c r="D185" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E185" s="1">
         <v>20</v>
       </c>
       <c r="F185" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4186,13 +4186,13 @@
         <v>46</v>
       </c>
       <c r="D186" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E186" s="1">
         <v>46</v>
       </c>
       <c r="F186" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -4206,13 +4206,13 @@
         <v>14</v>
       </c>
       <c r="D187" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E187" s="2">
         <v>14</v>
       </c>
       <c r="F187" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4226,13 +4226,13 @@
         <v>73</v>
       </c>
       <c r="D188" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E188" s="2">
         <v>73</v>
       </c>
       <c r="F188" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -4246,13 +4246,13 @@
         <v>5</v>
       </c>
       <c r="D189" s="1">
-        <v>5000000</v>
+        <v>8000000</v>
       </c>
       <c r="E189" s="1">
         <v>5</v>
       </c>
       <c r="F189" s="1">
-        <v>5000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -4266,13 +4266,13 @@
         <v>30</v>
       </c>
       <c r="D190" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E190" s="1">
         <v>30</v>
       </c>
       <c r="F190" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4286,13 +4286,13 @@
         <v>20</v>
       </c>
       <c r="D191" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E191" s="1">
         <v>20</v>
       </c>
       <c r="F191" s="1">
-        <v>500</v>
+        <v>800</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4306,13 +4306,13 @@
         <v>46</v>
       </c>
       <c r="D192" s="1">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="E192" s="1">
         <v>46</v>
       </c>
       <c r="F192" s="1">
-        <v>350</v>
+        <v>600</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4326,13 +4326,13 @@
         <v>14</v>
       </c>
       <c r="D193" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E193" s="2">
         <v>14</v>
       </c>
       <c r="F193" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -4346,13 +4346,13 @@
         <v>73</v>
       </c>
       <c r="D194" s="1">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="E194" s="2">
         <v>73</v>
       </c>
       <c r="F194" s="2">
-        <v>75</v>
+        <v>200</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -4366,13 +4366,13 @@
         <v>5</v>
       </c>
       <c r="D195" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E195" s="1">
         <v>5</v>
       </c>
       <c r="F195" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -4386,13 +4386,13 @@
         <v>30</v>
       </c>
       <c r="D196" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E196" s="1">
         <v>30</v>
       </c>
       <c r="F196" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -4406,13 +4406,13 @@
         <v>20</v>
       </c>
       <c r="D197" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E197" s="1">
         <v>20</v>
       </c>
       <c r="F197" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -4426,13 +4426,13 @@
         <v>46</v>
       </c>
       <c r="D198" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E198" s="1">
         <v>46</v>
       </c>
       <c r="F198" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -4446,13 +4446,13 @@
         <v>14</v>
       </c>
       <c r="D199" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E199" s="2">
         <v>14</v>
       </c>
       <c r="F199" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -4466,13 +4466,13 @@
         <v>73</v>
       </c>
       <c r="D200" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E200" s="2">
         <v>73</v>
       </c>
       <c r="F200" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -4486,13 +4486,13 @@
         <v>5</v>
       </c>
       <c r="D201" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E201" s="1">
         <v>5</v>
       </c>
       <c r="F201" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -4506,13 +4506,13 @@
         <v>30</v>
       </c>
       <c r="D202" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E202" s="1">
         <v>30</v>
       </c>
       <c r="F202" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -4526,13 +4526,13 @@
         <v>20</v>
       </c>
       <c r="D203" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E203" s="1">
         <v>20</v>
       </c>
       <c r="F203" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -4546,13 +4546,13 @@
         <v>46</v>
       </c>
       <c r="D204" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E204" s="1">
         <v>46</v>
       </c>
       <c r="F204" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -4566,13 +4566,13 @@
         <v>14</v>
       </c>
       <c r="D205" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E205" s="2">
         <v>14</v>
       </c>
       <c r="F205" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -4586,13 +4586,13 @@
         <v>73</v>
       </c>
       <c r="D206" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E206" s="2">
         <v>73</v>
       </c>
       <c r="F206" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -4606,13 +4606,13 @@
         <v>5</v>
       </c>
       <c r="D207" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E207" s="1">
         <v>5</v>
       </c>
       <c r="F207" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -4626,13 +4626,13 @@
         <v>30</v>
       </c>
       <c r="D208" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E208" s="1">
         <v>30</v>
       </c>
       <c r="F208" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -4646,13 +4646,13 @@
         <v>20</v>
       </c>
       <c r="D209" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E209" s="1">
         <v>20</v>
       </c>
       <c r="F209" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -4666,13 +4666,13 @@
         <v>46</v>
       </c>
       <c r="D210" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E210" s="1">
         <v>46</v>
       </c>
       <c r="F210" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -4686,13 +4686,13 @@
         <v>14</v>
       </c>
       <c r="D211" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E211" s="2">
         <v>14</v>
       </c>
       <c r="F211" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -4706,13 +4706,13 @@
         <v>73</v>
       </c>
       <c r="D212" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E212" s="2">
         <v>73</v>
       </c>
       <c r="F212" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -4726,13 +4726,13 @@
         <v>5</v>
       </c>
       <c r="D213" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E213" s="1">
         <v>5</v>
       </c>
       <c r="F213" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -4746,13 +4746,13 @@
         <v>30</v>
       </c>
       <c r="D214" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E214" s="1">
         <v>30</v>
       </c>
       <c r="F214" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -4766,13 +4766,13 @@
         <v>20</v>
       </c>
       <c r="D215" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E215" s="1">
         <v>20</v>
       </c>
       <c r="F215" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -4786,13 +4786,13 @@
         <v>46</v>
       </c>
       <c r="D216" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E216" s="1">
         <v>46</v>
       </c>
       <c r="F216" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -4806,13 +4806,13 @@
         <v>14</v>
       </c>
       <c r="D217" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E217" s="2">
         <v>14</v>
       </c>
       <c r="F217" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -4826,13 +4826,13 @@
         <v>73</v>
       </c>
       <c r="D218" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E218" s="2">
         <v>73</v>
       </c>
       <c r="F218" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -4846,13 +4846,13 @@
         <v>5</v>
       </c>
       <c r="D219" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E219" s="1">
         <v>5</v>
       </c>
       <c r="F219" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -4866,13 +4866,13 @@
         <v>30</v>
       </c>
       <c r="D220" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E220" s="1">
         <v>30</v>
       </c>
       <c r="F220" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -4886,13 +4886,13 @@
         <v>20</v>
       </c>
       <c r="D221" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E221" s="1">
         <v>20</v>
       </c>
       <c r="F221" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -4906,13 +4906,13 @@
         <v>46</v>
       </c>
       <c r="D222" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E222" s="1">
         <v>46</v>
       </c>
       <c r="F222" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -4926,13 +4926,13 @@
         <v>14</v>
       </c>
       <c r="D223" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E223" s="2">
         <v>14</v>
       </c>
       <c r="F223" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -4946,13 +4946,13 @@
         <v>73</v>
       </c>
       <c r="D224" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E224" s="2">
         <v>73</v>
       </c>
       <c r="F224" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -4966,13 +4966,13 @@
         <v>5</v>
       </c>
       <c r="D225" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E225" s="1">
         <v>5</v>
       </c>
       <c r="F225" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -4986,13 +4986,13 @@
         <v>30</v>
       </c>
       <c r="D226" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E226" s="1">
         <v>30</v>
       </c>
       <c r="F226" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -5006,13 +5006,13 @@
         <v>20</v>
       </c>
       <c r="D227" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E227" s="1">
         <v>20</v>
       </c>
       <c r="F227" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -5026,13 +5026,13 @@
         <v>46</v>
       </c>
       <c r="D228" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E228" s="1">
         <v>46</v>
       </c>
       <c r="F228" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -5046,13 +5046,13 @@
         <v>14</v>
       </c>
       <c r="D229" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E229" s="2">
         <v>14</v>
       </c>
       <c r="F229" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -5066,13 +5066,13 @@
         <v>73</v>
       </c>
       <c r="D230" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E230" s="2">
         <v>73</v>
       </c>
       <c r="F230" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -5086,13 +5086,13 @@
         <v>5</v>
       </c>
       <c r="D231" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E231" s="1">
         <v>5</v>
       </c>
       <c r="F231" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -5106,13 +5106,13 @@
         <v>30</v>
       </c>
       <c r="D232" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E232" s="1">
         <v>30</v>
       </c>
       <c r="F232" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -5126,13 +5126,13 @@
         <v>20</v>
       </c>
       <c r="D233" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E233" s="1">
         <v>20</v>
       </c>
       <c r="F233" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -5146,13 +5146,13 @@
         <v>46</v>
       </c>
       <c r="D234" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E234" s="1">
         <v>46</v>
       </c>
       <c r="F234" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -5166,13 +5166,13 @@
         <v>14</v>
       </c>
       <c r="D235" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E235" s="2">
         <v>14</v>
       </c>
       <c r="F235" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -5186,13 +5186,13 @@
         <v>73</v>
       </c>
       <c r="D236" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E236" s="2">
         <v>73</v>
       </c>
       <c r="F236" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -5206,13 +5206,13 @@
         <v>5</v>
       </c>
       <c r="D237" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E237" s="1">
         <v>5</v>
       </c>
       <c r="F237" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -5226,13 +5226,13 @@
         <v>30</v>
       </c>
       <c r="D238" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E238" s="1">
         <v>30</v>
       </c>
       <c r="F238" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -5246,13 +5246,13 @@
         <v>20</v>
       </c>
       <c r="D239" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E239" s="1">
         <v>20</v>
       </c>
       <c r="F239" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -5266,13 +5266,13 @@
         <v>46</v>
       </c>
       <c r="D240" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E240" s="1">
         <v>46</v>
       </c>
       <c r="F240" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -5286,13 +5286,13 @@
         <v>14</v>
       </c>
       <c r="D241" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E241" s="2">
         <v>14</v>
       </c>
       <c r="F241" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -5306,13 +5306,13 @@
         <v>73</v>
       </c>
       <c r="D242" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E242" s="2">
         <v>73</v>
       </c>
       <c r="F242" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -5326,13 +5326,13 @@
         <v>5</v>
       </c>
       <c r="D243" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E243" s="1">
         <v>5</v>
       </c>
       <c r="F243" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -5346,13 +5346,13 @@
         <v>30</v>
       </c>
       <c r="D244" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E244" s="1">
         <v>30</v>
       </c>
       <c r="F244" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -5366,13 +5366,13 @@
         <v>20</v>
       </c>
       <c r="D245" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E245" s="1">
         <v>20</v>
       </c>
       <c r="F245" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -5386,13 +5386,13 @@
         <v>46</v>
       </c>
       <c r="D246" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E246" s="1">
         <v>46</v>
       </c>
       <c r="F246" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -5406,13 +5406,13 @@
         <v>14</v>
       </c>
       <c r="D247" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E247" s="2">
         <v>14</v>
       </c>
       <c r="F247" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -5426,13 +5426,13 @@
         <v>73</v>
       </c>
       <c r="D248" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E248" s="2">
         <v>73</v>
       </c>
       <c r="F248" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -5446,13 +5446,13 @@
         <v>5</v>
       </c>
       <c r="D249" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E249" s="1">
         <v>5</v>
       </c>
       <c r="F249" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -5466,13 +5466,13 @@
         <v>30</v>
       </c>
       <c r="D250" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E250" s="1">
         <v>30</v>
       </c>
       <c r="F250" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -5486,13 +5486,13 @@
         <v>20</v>
       </c>
       <c r="D251" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E251" s="1">
         <v>20</v>
       </c>
       <c r="F251" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -5506,13 +5506,13 @@
         <v>46</v>
       </c>
       <c r="D252" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E252" s="1">
         <v>46</v>
       </c>
       <c r="F252" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -5526,13 +5526,13 @@
         <v>14</v>
       </c>
       <c r="D253" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E253" s="2">
         <v>14</v>
       </c>
       <c r="F253" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -5546,13 +5546,13 @@
         <v>73</v>
       </c>
       <c r="D254" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E254" s="2">
         <v>73</v>
       </c>
       <c r="F254" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -5566,13 +5566,13 @@
         <v>5</v>
       </c>
       <c r="D255" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E255" s="1">
         <v>5</v>
       </c>
       <c r="F255" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -5586,13 +5586,13 @@
         <v>30</v>
       </c>
       <c r="D256" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E256" s="1">
         <v>30</v>
       </c>
       <c r="F256" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -5606,13 +5606,13 @@
         <v>20</v>
       </c>
       <c r="D257" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E257" s="1">
         <v>20</v>
       </c>
       <c r="F257" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -5626,13 +5626,13 @@
         <v>46</v>
       </c>
       <c r="D258" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E258" s="1">
         <v>46</v>
       </c>
       <c r="F258" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -5646,13 +5646,13 @@
         <v>14</v>
       </c>
       <c r="D259" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E259" s="2">
         <v>14</v>
       </c>
       <c r="F259" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -5666,13 +5666,13 @@
         <v>73</v>
       </c>
       <c r="D260" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E260" s="2">
         <v>73</v>
       </c>
       <c r="F260" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -5686,13 +5686,13 @@
         <v>5</v>
       </c>
       <c r="D261" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E261" s="1">
         <v>5</v>
       </c>
       <c r="F261" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -5706,13 +5706,13 @@
         <v>30</v>
       </c>
       <c r="D262" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E262" s="1">
         <v>30</v>
       </c>
       <c r="F262" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -5726,13 +5726,13 @@
         <v>20</v>
       </c>
       <c r="D263" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E263" s="1">
         <v>20</v>
       </c>
       <c r="F263" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -5746,13 +5746,13 @@
         <v>46</v>
       </c>
       <c r="D264" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E264" s="1">
         <v>46</v>
       </c>
       <c r="F264" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -5766,13 +5766,13 @@
         <v>14</v>
       </c>
       <c r="D265" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E265" s="2">
         <v>14</v>
       </c>
       <c r="F265" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -5786,13 +5786,13 @@
         <v>73</v>
       </c>
       <c r="D266" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E266" s="2">
         <v>73</v>
       </c>
       <c r="F266" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -5806,13 +5806,13 @@
         <v>5</v>
       </c>
       <c r="D267" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E267" s="1">
         <v>5</v>
       </c>
       <c r="F267" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -5826,13 +5826,13 @@
         <v>30</v>
       </c>
       <c r="D268" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E268" s="1">
         <v>30</v>
       </c>
       <c r="F268" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -5846,13 +5846,13 @@
         <v>20</v>
       </c>
       <c r="D269" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E269" s="1">
         <v>20</v>
       </c>
       <c r="F269" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -5866,13 +5866,13 @@
         <v>46</v>
       </c>
       <c r="D270" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E270" s="1">
         <v>46</v>
       </c>
       <c r="F270" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -5886,13 +5886,13 @@
         <v>14</v>
       </c>
       <c r="D271" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E271" s="2">
         <v>14</v>
       </c>
       <c r="F271" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -5906,13 +5906,13 @@
         <v>73</v>
       </c>
       <c r="D272" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E272" s="2">
         <v>73</v>
       </c>
       <c r="F272" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -5926,13 +5926,13 @@
         <v>5</v>
       </c>
       <c r="D273" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E273" s="1">
         <v>5</v>
       </c>
       <c r="F273" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -5946,13 +5946,13 @@
         <v>30</v>
       </c>
       <c r="D274" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E274" s="1">
         <v>30</v>
       </c>
       <c r="F274" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -5966,13 +5966,13 @@
         <v>20</v>
       </c>
       <c r="D275" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E275" s="1">
         <v>20</v>
       </c>
       <c r="F275" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -5986,13 +5986,13 @@
         <v>46</v>
       </c>
       <c r="D276" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E276" s="1">
         <v>46</v>
       </c>
       <c r="F276" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -6006,13 +6006,13 @@
         <v>14</v>
       </c>
       <c r="D277" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E277" s="2">
         <v>14</v>
       </c>
       <c r="F277" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -6026,13 +6026,13 @@
         <v>73</v>
       </c>
       <c r="D278" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E278" s="2">
         <v>73</v>
       </c>
       <c r="F278" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -6046,13 +6046,13 @@
         <v>5</v>
       </c>
       <c r="D279" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E279" s="1">
         <v>5</v>
       </c>
       <c r="F279" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -6066,13 +6066,13 @@
         <v>30</v>
       </c>
       <c r="D280" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E280" s="1">
         <v>30</v>
       </c>
       <c r="F280" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -6086,13 +6086,13 @@
         <v>20</v>
       </c>
       <c r="D281" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E281" s="1">
         <v>20</v>
       </c>
       <c r="F281" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -6106,13 +6106,13 @@
         <v>46</v>
       </c>
       <c r="D282" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E282" s="1">
         <v>46</v>
       </c>
       <c r="F282" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -6126,13 +6126,13 @@
         <v>14</v>
       </c>
       <c r="D283" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E283" s="2">
         <v>14</v>
       </c>
       <c r="F283" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -6146,13 +6146,13 @@
         <v>73</v>
       </c>
       <c r="D284" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E284" s="2">
         <v>73</v>
       </c>
       <c r="F284" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -6166,13 +6166,13 @@
         <v>5</v>
       </c>
       <c r="D285" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E285" s="1">
         <v>5</v>
       </c>
       <c r="F285" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -6186,13 +6186,13 @@
         <v>30</v>
       </c>
       <c r="D286" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E286" s="1">
         <v>30</v>
       </c>
       <c r="F286" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -6206,13 +6206,13 @@
         <v>20</v>
       </c>
       <c r="D287" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E287" s="1">
         <v>20</v>
       </c>
       <c r="F287" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -6226,13 +6226,13 @@
         <v>46</v>
       </c>
       <c r="D288" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E288" s="1">
         <v>46</v>
       </c>
       <c r="F288" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -6246,13 +6246,13 @@
         <v>14</v>
       </c>
       <c r="D289" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E289" s="2">
         <v>14</v>
       </c>
       <c r="F289" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -6266,13 +6266,13 @@
         <v>73</v>
       </c>
       <c r="D290" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E290" s="2">
         <v>73</v>
       </c>
       <c r="F290" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -6286,13 +6286,13 @@
         <v>5</v>
       </c>
       <c r="D291" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E291" s="1">
         <v>5</v>
       </c>
       <c r="F291" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -6306,13 +6306,13 @@
         <v>30</v>
       </c>
       <c r="D292" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E292" s="1">
         <v>30</v>
       </c>
       <c r="F292" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -6326,13 +6326,13 @@
         <v>20</v>
       </c>
       <c r="D293" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E293" s="1">
         <v>20</v>
       </c>
       <c r="F293" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -6346,13 +6346,13 @@
         <v>46</v>
       </c>
       <c r="D294" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E294" s="1">
         <v>46</v>
       </c>
       <c r="F294" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -6366,13 +6366,13 @@
         <v>14</v>
       </c>
       <c r="D295" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E295" s="2">
         <v>14</v>
       </c>
       <c r="F295" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -6386,13 +6386,13 @@
         <v>73</v>
       </c>
       <c r="D296" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E296" s="2">
         <v>73</v>
       </c>
       <c r="F296" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -6406,13 +6406,13 @@
         <v>5</v>
       </c>
       <c r="D297" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E297" s="1">
         <v>5</v>
       </c>
       <c r="F297" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -6426,13 +6426,13 @@
         <v>30</v>
       </c>
       <c r="D298" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E298" s="1">
         <v>30</v>
       </c>
       <c r="F298" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -6446,13 +6446,13 @@
         <v>20</v>
       </c>
       <c r="D299" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E299" s="1">
         <v>20</v>
       </c>
       <c r="F299" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -6466,13 +6466,13 @@
         <v>46</v>
       </c>
       <c r="D300" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E300" s="1">
         <v>46</v>
       </c>
       <c r="F300" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -6486,13 +6486,13 @@
         <v>14</v>
       </c>
       <c r="D301" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E301" s="2">
         <v>14</v>
       </c>
       <c r="F301" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -6506,13 +6506,13 @@
         <v>73</v>
       </c>
       <c r="D302" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E302" s="2">
         <v>73</v>
       </c>
       <c r="F302" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -6526,13 +6526,13 @@
         <v>5</v>
       </c>
       <c r="D303" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E303" s="1">
         <v>5</v>
       </c>
       <c r="F303" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -6546,13 +6546,13 @@
         <v>30</v>
       </c>
       <c r="D304" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E304" s="1">
         <v>30</v>
       </c>
       <c r="F304" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -6566,13 +6566,13 @@
         <v>20</v>
       </c>
       <c r="D305" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E305" s="1">
         <v>20</v>
       </c>
       <c r="F305" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -6586,13 +6586,13 @@
         <v>46</v>
       </c>
       <c r="D306" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E306" s="1">
         <v>46</v>
       </c>
       <c r="F306" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -6606,13 +6606,13 @@
         <v>14</v>
       </c>
       <c r="D307" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E307" s="2">
         <v>14</v>
       </c>
       <c r="F307" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -6626,13 +6626,13 @@
         <v>73</v>
       </c>
       <c r="D308" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E308" s="2">
         <v>73</v>
       </c>
       <c r="F308" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -6646,13 +6646,13 @@
         <v>5</v>
       </c>
       <c r="D309" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E309" s="1">
         <v>5</v>
       </c>
       <c r="F309" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -6666,13 +6666,13 @@
         <v>30</v>
       </c>
       <c r="D310" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E310" s="1">
         <v>30</v>
       </c>
       <c r="F310" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -6686,13 +6686,13 @@
         <v>20</v>
       </c>
       <c r="D311" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E311" s="1">
         <v>20</v>
       </c>
       <c r="F311" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -6706,13 +6706,13 @@
         <v>46</v>
       </c>
       <c r="D312" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E312" s="1">
         <v>46</v>
       </c>
       <c r="F312" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -6726,13 +6726,13 @@
         <v>14</v>
       </c>
       <c r="D313" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E313" s="2">
         <v>14</v>
       </c>
       <c r="F313" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -6746,13 +6746,13 @@
         <v>73</v>
       </c>
       <c r="D314" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E314" s="2">
         <v>73</v>
       </c>
       <c r="F314" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -6766,13 +6766,13 @@
         <v>5</v>
       </c>
       <c r="D315" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E315" s="1">
         <v>5</v>
       </c>
       <c r="F315" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -6786,13 +6786,13 @@
         <v>30</v>
       </c>
       <c r="D316" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E316" s="1">
         <v>30</v>
       </c>
       <c r="F316" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -6806,13 +6806,13 @@
         <v>20</v>
       </c>
       <c r="D317" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E317" s="1">
         <v>20</v>
       </c>
       <c r="F317" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -6826,13 +6826,13 @@
         <v>46</v>
       </c>
       <c r="D318" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E318" s="1">
         <v>46</v>
       </c>
       <c r="F318" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -6846,13 +6846,13 @@
         <v>14</v>
       </c>
       <c r="D319" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E319" s="2">
         <v>14</v>
       </c>
       <c r="F319" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -6866,13 +6866,13 @@
         <v>73</v>
       </c>
       <c r="D320" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E320" s="2">
         <v>73</v>
       </c>
       <c r="F320" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -6886,13 +6886,13 @@
         <v>5</v>
       </c>
       <c r="D321" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E321" s="1">
         <v>5</v>
       </c>
       <c r="F321" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -6906,13 +6906,13 @@
         <v>30</v>
       </c>
       <c r="D322" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E322" s="1">
         <v>30</v>
       </c>
       <c r="F322" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -6926,13 +6926,13 @@
         <v>20</v>
       </c>
       <c r="D323" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E323" s="1">
         <v>20</v>
       </c>
       <c r="F323" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -6946,13 +6946,13 @@
         <v>46</v>
       </c>
       <c r="D324" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E324" s="1">
         <v>46</v>
       </c>
       <c r="F324" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -6966,13 +6966,13 @@
         <v>14</v>
       </c>
       <c r="D325" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E325" s="2">
         <v>14</v>
       </c>
       <c r="F325" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -6986,13 +6986,13 @@
         <v>73</v>
       </c>
       <c r="D326" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E326" s="2">
         <v>73</v>
       </c>
       <c r="F326" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -7006,13 +7006,13 @@
         <v>5</v>
       </c>
       <c r="D327" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E327" s="1">
         <v>5</v>
       </c>
       <c r="F327" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -7026,13 +7026,13 @@
         <v>30</v>
       </c>
       <c r="D328" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E328" s="1">
         <v>30</v>
       </c>
       <c r="F328" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -7046,13 +7046,13 @@
         <v>20</v>
       </c>
       <c r="D329" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E329" s="1">
         <v>20</v>
       </c>
       <c r="F329" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -7066,13 +7066,13 @@
         <v>46</v>
       </c>
       <c r="D330" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E330" s="1">
         <v>46</v>
       </c>
       <c r="F330" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -7086,13 +7086,13 @@
         <v>14</v>
       </c>
       <c r="D331" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E331" s="2">
         <v>14</v>
       </c>
       <c r="F331" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -7106,13 +7106,13 @@
         <v>73</v>
       </c>
       <c r="D332" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E332" s="2">
         <v>73</v>
       </c>
       <c r="F332" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -7126,13 +7126,13 @@
         <v>5</v>
       </c>
       <c r="D333" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E333" s="1">
         <v>5</v>
       </c>
       <c r="F333" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -7146,13 +7146,13 @@
         <v>30</v>
       </c>
       <c r="D334" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E334" s="1">
         <v>30</v>
       </c>
       <c r="F334" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -7166,13 +7166,13 @@
         <v>20</v>
       </c>
       <c r="D335" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E335" s="1">
         <v>20</v>
       </c>
       <c r="F335" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -7186,13 +7186,13 @@
         <v>46</v>
       </c>
       <c r="D336" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E336" s="1">
         <v>46</v>
       </c>
       <c r="F336" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -7206,13 +7206,13 @@
         <v>14</v>
       </c>
       <c r="D337" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E337" s="2">
         <v>14</v>
       </c>
       <c r="F337" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -7226,13 +7226,13 @@
         <v>73</v>
       </c>
       <c r="D338" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E338" s="2">
         <v>73</v>
       </c>
       <c r="F338" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -7246,13 +7246,13 @@
         <v>5</v>
       </c>
       <c r="D339" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E339" s="1">
         <v>5</v>
       </c>
       <c r="F339" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -7266,13 +7266,13 @@
         <v>30</v>
       </c>
       <c r="D340" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E340" s="1">
         <v>30</v>
       </c>
       <c r="F340" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -7286,13 +7286,13 @@
         <v>20</v>
       </c>
       <c r="D341" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E341" s="1">
         <v>20</v>
       </c>
       <c r="F341" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -7306,13 +7306,13 @@
         <v>46</v>
       </c>
       <c r="D342" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E342" s="1">
         <v>46</v>
       </c>
       <c r="F342" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -7326,13 +7326,13 @@
         <v>14</v>
       </c>
       <c r="D343" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E343" s="2">
         <v>14</v>
       </c>
       <c r="F343" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -7346,13 +7346,13 @@
         <v>73</v>
       </c>
       <c r="D344" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E344" s="2">
         <v>73</v>
       </c>
       <c r="F344" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -7366,13 +7366,13 @@
         <v>5</v>
       </c>
       <c r="D345" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E345" s="1">
         <v>5</v>
       </c>
       <c r="F345" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -7386,13 +7386,13 @@
         <v>30</v>
       </c>
       <c r="D346" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E346" s="1">
         <v>30</v>
       </c>
       <c r="F346" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -7406,13 +7406,13 @@
         <v>20</v>
       </c>
       <c r="D347" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E347" s="1">
         <v>20</v>
       </c>
       <c r="F347" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -7426,13 +7426,13 @@
         <v>46</v>
       </c>
       <c r="D348" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E348" s="1">
         <v>46</v>
       </c>
       <c r="F348" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -7446,13 +7446,13 @@
         <v>14</v>
       </c>
       <c r="D349" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E349" s="2">
         <v>14</v>
       </c>
       <c r="F349" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -7466,13 +7466,13 @@
         <v>73</v>
       </c>
       <c r="D350" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E350" s="2">
         <v>73</v>
       </c>
       <c r="F350" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -7486,13 +7486,13 @@
         <v>5</v>
       </c>
       <c r="D351" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E351" s="1">
         <v>5</v>
       </c>
       <c r="F351" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -7506,13 +7506,13 @@
         <v>30</v>
       </c>
       <c r="D352" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E352" s="1">
         <v>30</v>
       </c>
       <c r="F352" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -7526,13 +7526,13 @@
         <v>20</v>
       </c>
       <c r="D353" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E353" s="1">
         <v>20</v>
       </c>
       <c r="F353" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -7546,13 +7546,13 @@
         <v>46</v>
       </c>
       <c r="D354" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E354" s="1">
         <v>46</v>
       </c>
       <c r="F354" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -7566,13 +7566,13 @@
         <v>14</v>
       </c>
       <c r="D355" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E355" s="2">
         <v>14</v>
       </c>
       <c r="F355" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -7586,13 +7586,13 @@
         <v>73</v>
       </c>
       <c r="D356" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E356" s="2">
         <v>73</v>
       </c>
       <c r="F356" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -7606,13 +7606,13 @@
         <v>5</v>
       </c>
       <c r="D357" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E357" s="1">
         <v>5</v>
       </c>
       <c r="F357" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -7626,13 +7626,13 @@
         <v>30</v>
       </c>
       <c r="D358" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E358" s="1">
         <v>30</v>
       </c>
       <c r="F358" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -7646,13 +7646,13 @@
         <v>20</v>
       </c>
       <c r="D359" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E359" s="1">
         <v>20</v>
       </c>
       <c r="F359" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -7666,13 +7666,13 @@
         <v>46</v>
       </c>
       <c r="D360" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E360" s="1">
         <v>46</v>
       </c>
       <c r="F360" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -7686,13 +7686,13 @@
         <v>14</v>
       </c>
       <c r="D361" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E361" s="2">
         <v>14</v>
       </c>
       <c r="F361" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -7706,13 +7706,13 @@
         <v>73</v>
       </c>
       <c r="D362" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E362" s="2">
         <v>73</v>
       </c>
       <c r="F362" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -7726,13 +7726,13 @@
         <v>5</v>
       </c>
       <c r="D363" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E363" s="1">
         <v>5</v>
       </c>
       <c r="F363" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -7746,13 +7746,13 @@
         <v>30</v>
       </c>
       <c r="D364" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E364" s="1">
         <v>30</v>
       </c>
       <c r="F364" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -7766,13 +7766,13 @@
         <v>20</v>
       </c>
       <c r="D365" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E365" s="1">
         <v>20</v>
       </c>
       <c r="F365" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -7786,13 +7786,13 @@
         <v>46</v>
       </c>
       <c r="D366" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E366" s="1">
         <v>46</v>
       </c>
       <c r="F366" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -7806,13 +7806,13 @@
         <v>14</v>
       </c>
       <c r="D367" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E367" s="2">
         <v>14</v>
       </c>
       <c r="F367" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -7826,13 +7826,13 @@
         <v>73</v>
       </c>
       <c r="D368" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E368" s="2">
         <v>73</v>
       </c>
       <c r="F368" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -7846,13 +7846,13 @@
         <v>5</v>
       </c>
       <c r="D369" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E369" s="1">
         <v>5</v>
       </c>
       <c r="F369" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -7866,13 +7866,13 @@
         <v>30</v>
       </c>
       <c r="D370" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E370" s="1">
         <v>30</v>
       </c>
       <c r="F370" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -7886,13 +7886,13 @@
         <v>20</v>
       </c>
       <c r="D371" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E371" s="1">
         <v>20</v>
       </c>
       <c r="F371" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -7906,13 +7906,13 @@
         <v>46</v>
       </c>
       <c r="D372" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E372" s="1">
         <v>46</v>
       </c>
       <c r="F372" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -7926,13 +7926,13 @@
         <v>14</v>
       </c>
       <c r="D373" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E373" s="2">
         <v>14</v>
       </c>
       <c r="F373" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -7946,13 +7946,13 @@
         <v>73</v>
       </c>
       <c r="D374" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E374" s="2">
         <v>73</v>
       </c>
       <c r="F374" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -7966,13 +7966,13 @@
         <v>5</v>
       </c>
       <c r="D375" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E375" s="1">
         <v>5</v>
       </c>
       <c r="F375" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -7986,13 +7986,13 @@
         <v>30</v>
       </c>
       <c r="D376" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E376" s="1">
         <v>30</v>
       </c>
       <c r="F376" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -8006,13 +8006,13 @@
         <v>20</v>
       </c>
       <c r="D377" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E377" s="1">
         <v>20</v>
       </c>
       <c r="F377" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -8026,13 +8026,13 @@
         <v>46</v>
       </c>
       <c r="D378" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E378" s="1">
         <v>46</v>
       </c>
       <c r="F378" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -8046,13 +8046,13 @@
         <v>14</v>
       </c>
       <c r="D379" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E379" s="2">
         <v>14</v>
       </c>
       <c r="F379" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -8066,13 +8066,13 @@
         <v>73</v>
       </c>
       <c r="D380" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E380" s="2">
         <v>73</v>
       </c>
       <c r="F380" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -8086,13 +8086,13 @@
         <v>5</v>
       </c>
       <c r="D381" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E381" s="1">
         <v>5</v>
       </c>
       <c r="F381" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -8106,13 +8106,13 @@
         <v>30</v>
       </c>
       <c r="D382" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E382" s="1">
         <v>30</v>
       </c>
       <c r="F382" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -8126,13 +8126,13 @@
         <v>20</v>
       </c>
       <c r="D383" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E383" s="1">
         <v>20</v>
       </c>
       <c r="F383" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -8146,13 +8146,13 @@
         <v>46</v>
       </c>
       <c r="D384" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E384" s="1">
         <v>46</v>
       </c>
       <c r="F384" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -8166,13 +8166,13 @@
         <v>14</v>
       </c>
       <c r="D385" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E385" s="2">
         <v>14</v>
       </c>
       <c r="F385" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -8186,13 +8186,13 @@
         <v>73</v>
       </c>
       <c r="D386" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E386" s="2">
         <v>73</v>
       </c>
       <c r="F386" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -8206,13 +8206,13 @@
         <v>5</v>
       </c>
       <c r="D387" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E387" s="1">
         <v>5</v>
       </c>
       <c r="F387" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -8226,13 +8226,13 @@
         <v>30</v>
       </c>
       <c r="D388" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E388" s="1">
         <v>30</v>
       </c>
       <c r="F388" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -8246,13 +8246,13 @@
         <v>20</v>
       </c>
       <c r="D389" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E389" s="1">
         <v>20</v>
       </c>
       <c r="F389" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -8266,13 +8266,13 @@
         <v>46</v>
       </c>
       <c r="D390" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E390" s="1">
         <v>46</v>
       </c>
       <c r="F390" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -8286,13 +8286,13 @@
         <v>14</v>
       </c>
       <c r="D391" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E391" s="2">
         <v>14</v>
       </c>
       <c r="F391" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -8306,13 +8306,13 @@
         <v>73</v>
       </c>
       <c r="D392" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E392" s="2">
         <v>73</v>
       </c>
       <c r="F392" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -8326,13 +8326,13 @@
         <v>5</v>
       </c>
       <c r="D393" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E393" s="1">
         <v>5</v>
       </c>
       <c r="F393" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -8346,13 +8346,13 @@
         <v>30</v>
       </c>
       <c r="D394" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E394" s="1">
         <v>30</v>
       </c>
       <c r="F394" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -8366,13 +8366,13 @@
         <v>20</v>
       </c>
       <c r="D395" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E395" s="1">
         <v>20</v>
       </c>
       <c r="F395" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -8386,13 +8386,13 @@
         <v>46</v>
       </c>
       <c r="D396" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E396" s="1">
         <v>46</v>
       </c>
       <c r="F396" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -8406,13 +8406,13 @@
         <v>14</v>
       </c>
       <c r="D397" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E397" s="2">
         <v>14</v>
       </c>
       <c r="F397" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -8426,13 +8426,13 @@
         <v>73</v>
       </c>
       <c r="D398" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E398" s="2">
         <v>73</v>
       </c>
       <c r="F398" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -8446,13 +8446,13 @@
         <v>5</v>
       </c>
       <c r="D399" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E399" s="1">
         <v>5</v>
       </c>
       <c r="F399" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -8466,13 +8466,13 @@
         <v>30</v>
       </c>
       <c r="D400" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E400" s="1">
         <v>30</v>
       </c>
       <c r="F400" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -8486,13 +8486,13 @@
         <v>20</v>
       </c>
       <c r="D401" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E401" s="1">
         <v>20</v>
       </c>
       <c r="F401" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -8506,13 +8506,13 @@
         <v>46</v>
       </c>
       <c r="D402" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E402" s="1">
         <v>46</v>
       </c>
       <c r="F402" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -8526,13 +8526,13 @@
         <v>14</v>
       </c>
       <c r="D403" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E403" s="2">
         <v>14</v>
       </c>
       <c r="F403" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -8546,13 +8546,13 @@
         <v>73</v>
       </c>
       <c r="D404" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E404" s="2">
         <v>73</v>
       </c>
       <c r="F404" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -8566,13 +8566,13 @@
         <v>5</v>
       </c>
       <c r="D405" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E405" s="1">
         <v>5</v>
       </c>
       <c r="F405" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -8586,13 +8586,13 @@
         <v>30</v>
       </c>
       <c r="D406" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E406" s="1">
         <v>30</v>
       </c>
       <c r="F406" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -8606,13 +8606,13 @@
         <v>20</v>
       </c>
       <c r="D407" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E407" s="1">
         <v>20</v>
       </c>
       <c r="F407" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -8626,13 +8626,13 @@
         <v>46</v>
       </c>
       <c r="D408" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E408" s="1">
         <v>46</v>
       </c>
       <c r="F408" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -8646,13 +8646,13 @@
         <v>14</v>
       </c>
       <c r="D409" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E409" s="2">
         <v>14</v>
       </c>
       <c r="F409" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -8666,13 +8666,13 @@
         <v>73</v>
       </c>
       <c r="D410" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E410" s="2">
         <v>73</v>
       </c>
       <c r="F410" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -8686,13 +8686,13 @@
         <v>5</v>
       </c>
       <c r="D411" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E411" s="1">
         <v>5</v>
       </c>
       <c r="F411" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -8706,13 +8706,13 @@
         <v>30</v>
       </c>
       <c r="D412" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E412" s="1">
         <v>30</v>
       </c>
       <c r="F412" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -8726,13 +8726,13 @@
         <v>20</v>
       </c>
       <c r="D413" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E413" s="1">
         <v>20</v>
       </c>
       <c r="F413" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -8746,13 +8746,13 @@
         <v>46</v>
       </c>
       <c r="D414" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E414" s="1">
         <v>46</v>
       </c>
       <c r="F414" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -8766,13 +8766,13 @@
         <v>14</v>
       </c>
       <c r="D415" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E415" s="2">
         <v>14</v>
       </c>
       <c r="F415" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -8786,13 +8786,13 @@
         <v>73</v>
       </c>
       <c r="D416" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E416" s="2">
         <v>73</v>
       </c>
       <c r="F416" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -8806,13 +8806,13 @@
         <v>5</v>
       </c>
       <c r="D417" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E417" s="1">
         <v>5</v>
       </c>
       <c r="F417" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -8826,13 +8826,13 @@
         <v>30</v>
       </c>
       <c r="D418" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E418" s="1">
         <v>30</v>
       </c>
       <c r="F418" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -8846,13 +8846,13 @@
         <v>20</v>
       </c>
       <c r="D419" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E419" s="1">
         <v>20</v>
       </c>
       <c r="F419" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -8866,13 +8866,13 @@
         <v>46</v>
       </c>
       <c r="D420" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E420" s="1">
         <v>46</v>
       </c>
       <c r="F420" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -8886,13 +8886,13 @@
         <v>14</v>
       </c>
       <c r="D421" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E421" s="2">
         <v>14</v>
       </c>
       <c r="F421" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -8906,13 +8906,13 @@
         <v>73</v>
       </c>
       <c r="D422" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E422" s="2">
         <v>73</v>
       </c>
       <c r="F422" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -8926,13 +8926,13 @@
         <v>5</v>
       </c>
       <c r="D423" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E423" s="1">
         <v>5</v>
       </c>
       <c r="F423" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -8946,13 +8946,13 @@
         <v>30</v>
       </c>
       <c r="D424" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E424" s="1">
         <v>30</v>
       </c>
       <c r="F424" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -8966,13 +8966,13 @@
         <v>20</v>
       </c>
       <c r="D425" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E425" s="1">
         <v>20</v>
       </c>
       <c r="F425" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -8986,13 +8986,13 @@
         <v>46</v>
       </c>
       <c r="D426" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E426" s="1">
         <v>46</v>
       </c>
       <c r="F426" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -9006,13 +9006,13 @@
         <v>14</v>
       </c>
       <c r="D427" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E427" s="2">
         <v>14</v>
       </c>
       <c r="F427" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -9026,13 +9026,13 @@
         <v>73</v>
       </c>
       <c r="D428" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E428" s="2">
         <v>73</v>
       </c>
       <c r="F428" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -9046,13 +9046,13 @@
         <v>5</v>
       </c>
       <c r="D429" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E429" s="1">
         <v>5</v>
       </c>
       <c r="F429" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -9066,13 +9066,13 @@
         <v>30</v>
       </c>
       <c r="D430" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E430" s="1">
         <v>30</v>
       </c>
       <c r="F430" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -9086,13 +9086,13 @@
         <v>20</v>
       </c>
       <c r="D431" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E431" s="1">
         <v>20</v>
       </c>
       <c r="F431" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -9106,13 +9106,13 @@
         <v>46</v>
       </c>
       <c r="D432" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E432" s="1">
         <v>46</v>
       </c>
       <c r="F432" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -9126,13 +9126,13 @@
         <v>14</v>
       </c>
       <c r="D433" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E433" s="2">
         <v>14</v>
       </c>
       <c r="F433" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -9146,13 +9146,13 @@
         <v>73</v>
       </c>
       <c r="D434" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E434" s="2">
         <v>73</v>
       </c>
       <c r="F434" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -9166,13 +9166,13 @@
         <v>5</v>
       </c>
       <c r="D435" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E435" s="1">
         <v>5</v>
       </c>
       <c r="F435" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -9186,13 +9186,13 @@
         <v>30</v>
       </c>
       <c r="D436" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E436" s="1">
         <v>30</v>
       </c>
       <c r="F436" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -9206,13 +9206,13 @@
         <v>20</v>
       </c>
       <c r="D437" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E437" s="1">
         <v>20</v>
       </c>
       <c r="F437" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -9226,13 +9226,13 @@
         <v>46</v>
       </c>
       <c r="D438" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E438" s="1">
         <v>46</v>
       </c>
       <c r="F438" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -9246,13 +9246,13 @@
         <v>14</v>
       </c>
       <c r="D439" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E439" s="2">
         <v>14</v>
       </c>
       <c r="F439" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -9266,13 +9266,13 @@
         <v>73</v>
       </c>
       <c r="D440" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E440" s="2">
         <v>73</v>
       </c>
       <c r="F440" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -9286,13 +9286,13 @@
         <v>5</v>
       </c>
       <c r="D441" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E441" s="1">
         <v>5</v>
       </c>
       <c r="F441" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -9306,13 +9306,13 @@
         <v>30</v>
       </c>
       <c r="D442" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E442" s="1">
         <v>30</v>
       </c>
       <c r="F442" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -9326,13 +9326,13 @@
         <v>20</v>
       </c>
       <c r="D443" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E443" s="1">
         <v>20</v>
       </c>
       <c r="F443" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -9346,13 +9346,13 @@
         <v>46</v>
       </c>
       <c r="D444" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E444" s="1">
         <v>46</v>
       </c>
       <c r="F444" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -9366,13 +9366,13 @@
         <v>14</v>
       </c>
       <c r="D445" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E445" s="2">
         <v>14</v>
       </c>
       <c r="F445" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -9386,13 +9386,13 @@
         <v>73</v>
       </c>
       <c r="D446" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E446" s="2">
         <v>73</v>
       </c>
       <c r="F446" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -9406,13 +9406,13 @@
         <v>5</v>
       </c>
       <c r="D447" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E447" s="1">
         <v>5</v>
       </c>
       <c r="F447" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -9426,13 +9426,13 @@
         <v>30</v>
       </c>
       <c r="D448" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E448" s="1">
         <v>30</v>
       </c>
       <c r="F448" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
@@ -9446,13 +9446,13 @@
         <v>20</v>
       </c>
       <c r="D449" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E449" s="1">
         <v>20</v>
       </c>
       <c r="F449" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -9466,13 +9466,13 @@
         <v>46</v>
       </c>
       <c r="D450" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E450" s="1">
         <v>46</v>
       </c>
       <c r="F450" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -9486,13 +9486,13 @@
         <v>14</v>
       </c>
       <c r="D451" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E451" s="2">
         <v>14</v>
       </c>
       <c r="F451" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
@@ -9506,13 +9506,13 @@
         <v>73</v>
       </c>
       <c r="D452" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E452" s="2">
         <v>73</v>
       </c>
       <c r="F452" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
@@ -9526,13 +9526,13 @@
         <v>5</v>
       </c>
       <c r="D453" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E453" s="1">
         <v>5</v>
       </c>
       <c r="F453" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
@@ -9546,13 +9546,13 @@
         <v>30</v>
       </c>
       <c r="D454" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E454" s="1">
         <v>30</v>
       </c>
       <c r="F454" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -9566,13 +9566,13 @@
         <v>20</v>
       </c>
       <c r="D455" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E455" s="1">
         <v>20</v>
       </c>
       <c r="F455" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -9586,13 +9586,13 @@
         <v>46</v>
       </c>
       <c r="D456" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E456" s="1">
         <v>46</v>
       </c>
       <c r="F456" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
@@ -9606,13 +9606,13 @@
         <v>14</v>
       </c>
       <c r="D457" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E457" s="2">
         <v>14</v>
       </c>
       <c r="F457" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
@@ -9626,13 +9626,13 @@
         <v>73</v>
       </c>
       <c r="D458" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E458" s="2">
         <v>73</v>
       </c>
       <c r="F458" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -9646,13 +9646,13 @@
         <v>5</v>
       </c>
       <c r="D459" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E459" s="1">
         <v>5</v>
       </c>
       <c r="F459" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -9666,13 +9666,13 @@
         <v>30</v>
       </c>
       <c r="D460" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E460" s="1">
         <v>30</v>
       </c>
       <c r="F460" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
@@ -9686,13 +9686,13 @@
         <v>20</v>
       </c>
       <c r="D461" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E461" s="1">
         <v>20</v>
       </c>
       <c r="F461" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -9706,13 +9706,13 @@
         <v>46</v>
       </c>
       <c r="D462" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E462" s="1">
         <v>46</v>
       </c>
       <c r="F462" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
@@ -9726,13 +9726,13 @@
         <v>14</v>
       </c>
       <c r="D463" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E463" s="2">
         <v>14</v>
       </c>
       <c r="F463" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -9746,13 +9746,13 @@
         <v>73</v>
       </c>
       <c r="D464" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E464" s="2">
         <v>73</v>
       </c>
       <c r="F464" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -9766,13 +9766,13 @@
         <v>5</v>
       </c>
       <c r="D465" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E465" s="1">
         <v>5</v>
       </c>
       <c r="F465" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
@@ -9786,13 +9786,13 @@
         <v>30</v>
       </c>
       <c r="D466" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E466" s="1">
         <v>30</v>
       </c>
       <c r="F466" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -9806,13 +9806,13 @@
         <v>20</v>
       </c>
       <c r="D467" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E467" s="1">
         <v>20</v>
       </c>
       <c r="F467" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -9826,13 +9826,13 @@
         <v>46</v>
       </c>
       <c r="D468" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E468" s="1">
         <v>46</v>
       </c>
       <c r="F468" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
@@ -9846,13 +9846,13 @@
         <v>14</v>
       </c>
       <c r="D469" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E469" s="2">
         <v>14</v>
       </c>
       <c r="F469" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -9866,13 +9866,13 @@
         <v>73</v>
       </c>
       <c r="D470" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E470" s="2">
         <v>73</v>
       </c>
       <c r="F470" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
@@ -9886,13 +9886,13 @@
         <v>5</v>
       </c>
       <c r="D471" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E471" s="1">
         <v>5</v>
       </c>
       <c r="F471" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -9906,13 +9906,13 @@
         <v>30</v>
       </c>
       <c r="D472" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E472" s="1">
         <v>30</v>
       </c>
       <c r="F472" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -9926,13 +9926,13 @@
         <v>20</v>
       </c>
       <c r="D473" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E473" s="1">
         <v>20</v>
       </c>
       <c r="F473" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
@@ -9946,13 +9946,13 @@
         <v>46</v>
       </c>
       <c r="D474" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E474" s="1">
         <v>46</v>
       </c>
       <c r="F474" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
@@ -9966,13 +9966,13 @@
         <v>14</v>
       </c>
       <c r="D475" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E475" s="2">
         <v>14</v>
       </c>
       <c r="F475" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -9986,13 +9986,13 @@
         <v>73</v>
       </c>
       <c r="D476" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E476" s="2">
         <v>73</v>
       </c>
       <c r="F476" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
@@ -10006,13 +10006,13 @@
         <v>5</v>
       </c>
       <c r="D477" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E477" s="1">
         <v>5</v>
       </c>
       <c r="F477" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -10026,13 +10026,13 @@
         <v>30</v>
       </c>
       <c r="D478" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E478" s="1">
         <v>30</v>
       </c>
       <c r="F478" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -10046,13 +10046,13 @@
         <v>20</v>
       </c>
       <c r="D479" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E479" s="1">
         <v>20</v>
       </c>
       <c r="F479" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
@@ -10066,13 +10066,13 @@
         <v>46</v>
       </c>
       <c r="D480" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E480" s="1">
         <v>46</v>
       </c>
       <c r="F480" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -10086,13 +10086,13 @@
         <v>14</v>
       </c>
       <c r="D481" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E481" s="2">
         <v>14</v>
       </c>
       <c r="F481" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
@@ -10106,13 +10106,13 @@
         <v>73</v>
       </c>
       <c r="D482" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E482" s="2">
         <v>73</v>
       </c>
       <c r="F482" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -10126,13 +10126,13 @@
         <v>5</v>
       </c>
       <c r="D483" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E483" s="1">
         <v>5</v>
       </c>
       <c r="F483" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
@@ -10146,13 +10146,13 @@
         <v>30</v>
       </c>
       <c r="D484" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E484" s="1">
         <v>30</v>
       </c>
       <c r="F484" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -10166,13 +10166,13 @@
         <v>20</v>
       </c>
       <c r="D485" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E485" s="1">
         <v>20</v>
       </c>
       <c r="F485" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
@@ -10186,13 +10186,13 @@
         <v>46</v>
       </c>
       <c r="D486" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E486" s="1">
         <v>46</v>
       </c>
       <c r="F486" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -10206,13 +10206,13 @@
         <v>14</v>
       </c>
       <c r="D487" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E487" s="2">
         <v>14</v>
       </c>
       <c r="F487" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -10226,13 +10226,13 @@
         <v>73</v>
       </c>
       <c r="D488" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E488" s="2">
         <v>73</v>
       </c>
       <c r="F488" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -10246,13 +10246,13 @@
         <v>5</v>
       </c>
       <c r="D489" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E489" s="1">
         <v>5</v>
       </c>
       <c r="F489" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
@@ -10266,13 +10266,13 @@
         <v>30</v>
       </c>
       <c r="D490" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E490" s="1">
         <v>30</v>
       </c>
       <c r="F490" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
@@ -10286,13 +10286,13 @@
         <v>20</v>
       </c>
       <c r="D491" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E491" s="1">
         <v>20</v>
       </c>
       <c r="F491" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -10306,13 +10306,13 @@
         <v>46</v>
       </c>
       <c r="D492" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E492" s="1">
         <v>46</v>
       </c>
       <c r="F492" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -10326,13 +10326,13 @@
         <v>14</v>
       </c>
       <c r="D493" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E493" s="2">
         <v>14</v>
       </c>
       <c r="F493" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
@@ -10346,13 +10346,13 @@
         <v>73</v>
       </c>
       <c r="D494" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E494" s="2">
         <v>73</v>
       </c>
       <c r="F494" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
@@ -10366,13 +10366,13 @@
         <v>5</v>
       </c>
       <c r="D495" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E495" s="1">
         <v>5</v>
       </c>
       <c r="F495" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
@@ -10386,13 +10386,13 @@
         <v>30</v>
       </c>
       <c r="D496" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E496" s="1">
         <v>30</v>
       </c>
       <c r="F496" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -10406,13 +10406,13 @@
         <v>20</v>
       </c>
       <c r="D497" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E497" s="1">
         <v>20</v>
       </c>
       <c r="F497" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -10426,13 +10426,13 @@
         <v>46</v>
       </c>
       <c r="D498" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E498" s="1">
         <v>46</v>
       </c>
       <c r="F498" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
@@ -10446,13 +10446,13 @@
         <v>14</v>
       </c>
       <c r="D499" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E499" s="2">
         <v>14</v>
       </c>
       <c r="F499" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
@@ -10466,13 +10466,13 @@
         <v>73</v>
       </c>
       <c r="D500" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E500" s="2">
         <v>73</v>
       </c>
       <c r="F500" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
@@ -10486,13 +10486,13 @@
         <v>5</v>
       </c>
       <c r="D501" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E501" s="1">
         <v>5</v>
       </c>
       <c r="F501" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
@@ -10506,13 +10506,13 @@
         <v>30</v>
       </c>
       <c r="D502" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E502" s="1">
         <v>30</v>
       </c>
       <c r="F502" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -10526,13 +10526,13 @@
         <v>20</v>
       </c>
       <c r="D503" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E503" s="1">
         <v>20</v>
       </c>
       <c r="F503" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
@@ -10546,13 +10546,13 @@
         <v>46</v>
       </c>
       <c r="D504" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E504" s="1">
         <v>46</v>
       </c>
       <c r="F504" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
@@ -10566,13 +10566,13 @@
         <v>14</v>
       </c>
       <c r="D505" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E505" s="2">
         <v>14</v>
       </c>
       <c r="F505" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
@@ -10586,13 +10586,13 @@
         <v>73</v>
       </c>
       <c r="D506" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E506" s="2">
         <v>73</v>
       </c>
       <c r="F506" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
@@ -10606,13 +10606,13 @@
         <v>5</v>
       </c>
       <c r="D507" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E507" s="1">
         <v>5</v>
       </c>
       <c r="F507" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -10626,13 +10626,13 @@
         <v>30</v>
       </c>
       <c r="D508" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E508" s="1">
         <v>30</v>
       </c>
       <c r="F508" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
@@ -10646,13 +10646,13 @@
         <v>20</v>
       </c>
       <c r="D509" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E509" s="1">
         <v>20</v>
       </c>
       <c r="F509" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
@@ -10666,13 +10666,13 @@
         <v>46</v>
       </c>
       <c r="D510" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E510" s="1">
         <v>46</v>
       </c>
       <c r="F510" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
@@ -10686,13 +10686,13 @@
         <v>14</v>
       </c>
       <c r="D511" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E511" s="2">
         <v>14</v>
       </c>
       <c r="F511" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
@@ -10706,13 +10706,13 @@
         <v>73</v>
       </c>
       <c r="D512" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E512" s="2">
         <v>73</v>
       </c>
       <c r="F512" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
@@ -10726,13 +10726,13 @@
         <v>5</v>
       </c>
       <c r="D513" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E513" s="1">
         <v>5</v>
       </c>
       <c r="F513" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
@@ -10746,13 +10746,13 @@
         <v>30</v>
       </c>
       <c r="D514" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E514" s="1">
         <v>30</v>
       </c>
       <c r="F514" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
@@ -10766,13 +10766,13 @@
         <v>20</v>
       </c>
       <c r="D515" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E515" s="1">
         <v>20</v>
       </c>
       <c r="F515" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
@@ -10786,13 +10786,13 @@
         <v>46</v>
       </c>
       <c r="D516" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E516" s="1">
         <v>46</v>
       </c>
       <c r="F516" s="1">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
@@ -10806,13 +10806,13 @@
         <v>14</v>
       </c>
       <c r="D517" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E517" s="2">
         <v>14</v>
       </c>
       <c r="F517" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
@@ -10826,13 +10826,13 @@
         <v>73</v>
       </c>
       <c r="D518" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E518" s="2">
         <v>73</v>
       </c>
       <c r="F518" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -10846,13 +10846,13 @@
         <v>5</v>
       </c>
       <c r="D519" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
       <c r="E519" s="1">
         <v>5</v>
       </c>
       <c r="F519" s="1">
-        <v>6000000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
@@ -10866,13 +10866,13 @@
         <v>30</v>
       </c>
       <c r="D520" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E520" s="1">
         <v>30</v>
       </c>
       <c r="F520" s="1">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
